--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -253,13 +253,40 @@
   </si>
   <si>
     <t>Increase the Flexpoint drop rate of defeated enemies.</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Obstacle</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Healing %</t>
+  </si>
+  <si>
+    <t>Stop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +300,13 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -323,15 +357,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -372,40 +397,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <b/>
@@ -437,6 +475,389 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -545,43 +966,99 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema5">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Delay" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema6">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Delay" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="1" Name="Abilities_Map" RootElement="Abilities" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="2" Name="Abilities_Map1" RootElement="Abilities" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="3" Name="Abilities_Map2" RootElement="Abilities" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="4" Name="Abilities_Map3" RootElement="Abilities" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="5" Name="Abilities_Map4" RootElement="Abilities" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="6" Name="Abilities_Map5" RootElement="Abilities" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:I32" tableType="xml" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="A2:I32"/>
-  <tableColumns count="9">
-    <tableColumn id="1" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="4" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:J32" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="12">
+  <autoFilter ref="A2:J32"/>
+  <tableColumns count="10">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="11">
+      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Availability" name="Availability">
-      <xmlColumnPr mapId="4" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
+    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="10">
+      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Range" name="Range">
-      <xmlColumnPr mapId="4" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
+    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="9">
+      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Cooldown" name="Cooldown">
-      <xmlColumnPr mapId="4" xpath="/Abilities/Ability/Cooldown" xmlDataType="integer"/>
+    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="8">
+      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Uses" name="Uses">
-      <xmlColumnPr mapId="4" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
+    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="7">
+      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Cooldown" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Activate" name="Activate">
-      <xmlColumnPr mapId="4" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
+    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="6">
+      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Value" name="Value">
-      <xmlColumnPr mapId="4" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
+    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="5">
+      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Delay" name="Delay">
-      <xmlColumnPr mapId="4" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
+    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="4">
+      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Description" name="Description">
-      <xmlColumnPr mapId="4" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
+    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="3">
+      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="Description" name="Description" dataDxfId="2">
+      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -873,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -884,909 +1361,1006 @@
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="106.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="8" customWidth="1"/>
+    <col min="10" max="10" width="108.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="F1" t="s">
+    <row r="1" spans="1:10">
+      <c r="G1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
+        <v>80</v>
+      </c>
+      <c r="E3" s="14">
         <v>200</v>
       </c>
-      <c r="E3" s="16">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="16">
+      <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="5">
         <v>140</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="15"/>
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="5">
         <v>2</v>
       </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="3">
         <v>30</v>
       </c>
-      <c r="D5">
+      <c r="E5" s="14">
         <v>150</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="3">
         <v>400</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="14">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>6</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="14">
         <v>150</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <v>24</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3">
         <v>500</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="14">
         <v>72</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>24</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>8</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>24</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
+        <v>80</v>
+      </c>
+      <c r="E10" s="15">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>6</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="3">
         <v>50</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="14">
         <v>60</v>
       </c>
-      <c r="E11">
+      <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <v>24</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="5">
         <v>100</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="15">
         <v>70</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="5">
         <v>2</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
         <v>24</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3">
         <v>100</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="14">
         <v>80</v>
       </c>
-      <c r="E13">
+      <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>24</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="5">
         <v>300</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="15">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="5">
         <v>1</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
         <v>4</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="5">
         <v>200</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="15">
         <v>80</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="5">
         <v>2</v>
       </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
         <v>24</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3">
         <v>500</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="14">
         <v>120</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <v>8</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="5">
         <v>300</v>
       </c>
-      <c r="D17" s="8">
+      <c r="E17" s="15">
         <v>90</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="5">
         <v>2</v>
       </c>
-      <c r="F17" s="8">
+      <c r="G17" s="5">
         <v>2</v>
       </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
         <v>24</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="C18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="3">
         <v>60</v>
       </c>
-      <c r="D19" s="15">
+      <c r="E19" s="14">
         <v>8</v>
       </c>
-      <c r="E19" s="15">
+      <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="15">
+      <c r="G19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="15">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>4</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="J19" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
+    <row r="20" spans="1:10">
+      <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="5">
         <v>70</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="15">
         <v>720</v>
       </c>
-      <c r="E20" s="15">
+      <c r="F20" s="5">
         <v>3</v>
       </c>
-      <c r="F20" s="15">
+      <c r="G20" s="5">
         <v>3</v>
       </c>
-      <c r="G20" s="15">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
         <v>4</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3">
         <v>50</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="14">
         <v>720</v>
       </c>
-      <c r="E21" s="15">
+      <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>72</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
+        <v>80</v>
+      </c>
+      <c r="E22" s="15">
         <v>100</v>
       </c>
-      <c r="E22" s="15">
+      <c r="F22" s="5">
         <v>5</v>
       </c>
-      <c r="F22" s="15">
+      <c r="G22" s="5">
         <v>2</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
         <v>12</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="C23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="C24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
+    <row r="25" spans="1:10">
+      <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
         <v>720</v>
       </c>
-      <c r="E25" s="15">
+      <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="15">
+      <c r="G25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="15">
+      <c r="H25" s="3">
         <v>20</v>
       </c>
-      <c r="H25" s="15">
+      <c r="I25" s="3">
         <v>12</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="C26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
         <v>5</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="C27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>5</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
+    <row r="28" spans="1:10">
+      <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="C28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
         <v>15</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="C29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>30</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="C30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <v>60</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="3">
         <v>400</v>
       </c>
-      <c r="D31">
+      <c r="E31" s="14">
         <v>48</v>
       </c>
-      <c r="E31" s="15">
+      <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="15">
+      <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="G31" s="15">
-        <v>0</v>
-      </c>
-      <c r="H31" s="15">
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
         <v>12</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="7">
         <v>400</v>
       </c>
-      <c r="D32" s="15">
+      <c r="E32" s="16">
         <v>48</v>
       </c>
-      <c r="E32" s="15">
+      <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="F32" s="15">
+      <c r="G32" s="7">
         <v>2</v>
       </c>
-      <c r="G32" s="15">
-        <v>0</v>
-      </c>
-      <c r="H32" s="15">
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
         <v>12</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="J32" s="17" t="s">
         <v>57</v>
       </c>
     </row>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -414,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -439,67 +439,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -854,10 +799,66 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thick">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1027,37 +1028,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:J32" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:J32" tableType="xml" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
   <autoFilter ref="A2:J32"/>
   <tableColumns count="10">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="11">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="9">
       <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="10">
+    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="8">
       <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="9">
+    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="7">
       <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="8">
+    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="6">
       <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="7">
+    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="5">
       <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Cooldown" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="6">
+    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="4">
       <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="5">
+    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="3">
       <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="4">
+    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="2">
       <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="3">
+    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="1">
       <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Description" name="Description" dataDxfId="2">
+    <tableColumn id="10" uniqueName="Description" name="Description" dataDxfId="0">
       <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -1352,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1891,7 +1892,7 @@
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D18" s="5">

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Perk-kulate</t>
   </si>
   <si>
-    <t>Violation of Personal Space</t>
-  </si>
-  <si>
     <t>Awkward Stare</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Damages nearby enemies</t>
   </si>
   <si>
-    <t>Charge in a group of enemies, slowing and damaging them</t>
-  </si>
-  <si>
     <t>Stuns himself and nearby enemies</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t>Teleport</t>
   </si>
   <si>
-    <t>BS</t>
-  </si>
-  <si>
     <t>Obstacle</t>
   </si>
   <si>
@@ -280,13 +271,64 @@
   </si>
   <si>
     <t>Stop</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>Claw Attack</t>
+  </si>
+  <si>
+    <t>Hulk Rage</t>
+  </si>
+  <si>
+    <t>Stare Down</t>
+  </si>
+  <si>
+    <t>Enrage</t>
+  </si>
+  <si>
+    <t>Nate M.</t>
+  </si>
+  <si>
+    <t>Bonus hp regen and atk dmg</t>
+  </si>
+  <si>
+    <t>Damages and stuns target enemy</t>
+  </si>
+  <si>
+    <t>The next 3 attacks gain 10 bonus damage each</t>
+  </si>
+  <si>
+    <t>Basic Attack: Swipe at a target with claws.</t>
+  </si>
+  <si>
+    <t>Shinai Attack</t>
+  </si>
+  <si>
+    <t>Basic Attack: Strike down on a target.</t>
+  </si>
+  <si>
+    <t>Magic Wand Attack</t>
+  </si>
+  <si>
+    <t>Cia M.</t>
+  </si>
+  <si>
+    <t>Basic Attack: Shoot beams of magic to targets.</t>
+  </si>
+  <si>
+    <t>V.P.S.</t>
+  </si>
+  <si>
+    <t>[Violation of Personal Space] Charge in a group of enemies, slowing and damaging them</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +348,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -336,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -410,11 +458,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -426,25 +485,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -461,6 +522,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -634,7 +696,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -796,6 +893,13 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -1018,48 +1122,106 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema7">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Delay" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Damage" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema8">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Delay" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="1" Name="Abilities_Map" RootElement="Abilities" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="2" Name="Abilities_Map1" RootElement="Abilities" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="3" Name="Abilities_Map2" RootElement="Abilities" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="4" Name="Abilities_Map3" RootElement="Abilities" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="5" Name="Abilities_Map4" RootElement="Abilities" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="6" Name="Abilities_Map5" RootElement="Abilities" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="7" Name="Abilities_Map6" RootElement="Abilities" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="8" Name="Abilities_Map7" RootElement="Abilities" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:J32" tableType="xml" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11">
-  <autoFilter ref="A2:J32"/>
-  <tableColumns count="10">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="9">
-      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:K38" tableType="xml" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A2:K38"/>
+  <tableColumns count="11">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="10">
+      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="8">
-      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
+    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="9">
+      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="7">
-      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="8">
+      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="6">
-      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
+    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="7">
+      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="5">
-      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Cooldown" xmlDataType="string"/>
+    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="6">
+      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Cooldown" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="4">
-      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
+    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="5">
+      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="3">
-      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
+    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="4">
+      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="2">
-      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
+    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="3">
+      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="1">
-      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
+    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="2">
+      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Description" name="Description" dataDxfId="0">
-      <xmlColumnPr mapId="6" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
+    <tableColumn id="10" uniqueName="Damage" name="Damage" dataDxfId="1">
+      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Damage" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="Description" name="Description" dataDxfId="0">
+      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1351,31 +1513,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="108.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="104.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="G1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1383,12 +1546,12 @@
         <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -1403,221 +1566,244 @@
       <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>49</v>
+      <c r="J2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D3" s="3">
         <v>80</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="15">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>12</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3">
+        <v>80</v>
+      </c>
+      <c r="E4" s="15">
         <v>200</v>
       </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
         <v>24</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J4" s="13">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="5">
+        <v>140</v>
+      </c>
+      <c r="E5" s="16">
+        <v>200</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>24</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="3">
+        <v>30</v>
+      </c>
+      <c r="E6" s="15">
+        <v>150</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>12</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="5">
-        <v>140</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="15">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3">
+        <v>120</v>
+      </c>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>2</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>24</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="3">
-        <v>30</v>
-      </c>
-      <c r="E5" s="14">
-        <v>150</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>12</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="3">
-        <v>400</v>
-      </c>
-      <c r="E6" s="14">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>6</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="3">
-        <v>500</v>
-      </c>
-      <c r="E7" s="14">
-        <v>150</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>24</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="3">
-        <v>500</v>
-      </c>
-      <c r="E8" s="14">
-        <v>72</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>24</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -1625,127 +1811,139 @@
       <c r="I9" s="3">
         <v>24</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>80</v>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D10" s="5">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E10" s="15">
+        <v>120</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>24</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="C11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="3">
+        <v>400</v>
+      </c>
+      <c r="E11" s="15">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <v>6</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="3">
-        <v>50</v>
-      </c>
-      <c r="E11" s="14">
-        <v>60</v>
-      </c>
-      <c r="F11" s="3">
-        <v>3</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="15">
+        <v>150</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>24</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="5">
-        <v>100</v>
-      </c>
-      <c r="E12" s="15">
-        <v>70</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="3">
+        <v>500</v>
+      </c>
+      <c r="E13" s="15">
+        <v>72</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
         <v>2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>24</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
-      <c r="E13" s="14">
-        <v>80</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -1753,223 +1951,244 @@
       <c r="I13" s="3">
         <v>24</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>24</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="5">
+        <v>400</v>
+      </c>
+      <c r="E15" s="16">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>6</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="5">
+        <v>80</v>
+      </c>
+      <c r="E16" s="16">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>6</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50</v>
+      </c>
+      <c r="E17" s="15">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>24</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="5">
+        <v>100</v>
+      </c>
+      <c r="E18" s="16">
+        <v>70</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>24</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="3">
+        <v>100</v>
+      </c>
+      <c r="E19" s="15">
+        <v>80</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>24</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="5">
         <v>300</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E20" s="16">
         <v>12</v>
       </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>4</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="5">
-        <v>200</v>
-      </c>
-      <c r="E15" s="15">
-        <v>80</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>24</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="3">
-        <v>500</v>
-      </c>
-      <c r="E16" s="14">
-        <v>120</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5</v>
-      </c>
-      <c r="G16" s="3">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>8</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="5">
-        <v>300</v>
-      </c>
-      <c r="E17" s="15">
-        <v>90</v>
-      </c>
-      <c r="F17" s="5">
-        <v>2</v>
-      </c>
-      <c r="G17" s="5">
-        <v>2</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>24</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="3">
-        <v>60</v>
-      </c>
-      <c r="E19" s="14">
-        <v>8</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>4</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="5">
-        <v>70</v>
-      </c>
-      <c r="E20" s="15">
-        <v>720</v>
-      </c>
       <c r="F20" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="5">
         <v>0</v>
@@ -1977,392 +2196,641 @@
       <c r="I20" s="5">
         <v>4</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2" t="s">
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="5">
+        <v>200</v>
+      </c>
+      <c r="E21" s="16">
+        <v>80</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>24</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="15">
+        <v>120</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="5">
+        <v>300</v>
+      </c>
+      <c r="E23" s="16">
+        <v>90</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>24</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="3">
+        <v>60</v>
+      </c>
+      <c r="E25" s="15">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>4</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="5">
+        <v>70</v>
+      </c>
+      <c r="E26" s="16">
+        <v>720</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="5">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>4</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="3">
+        <v>50</v>
+      </c>
+      <c r="E27" s="15">
+        <v>720</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>72</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="5">
+        <v>80</v>
+      </c>
+      <c r="E28" s="16">
+        <v>100</v>
+      </c>
+      <c r="F28" s="5">
+        <v>5</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>12</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="3">
-        <v>50</v>
-      </c>
-      <c r="E21" s="14">
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
         <v>720</v>
       </c>
-      <c r="F21" s="3">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>72</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="5">
-        <v>80</v>
-      </c>
-      <c r="E22" s="15">
-        <v>100</v>
-      </c>
-      <c r="F22" s="5">
-        <v>5</v>
-      </c>
-      <c r="G22" s="5">
-        <v>2</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>12</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14">
-        <v>720</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
         <v>20</v>
-      </c>
-      <c r="I25" s="3">
-        <v>12</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0</v>
-      </c>
-      <c r="E26" s="15">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>15</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="14">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>30</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>60</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="3">
-        <v>400</v>
-      </c>
-      <c r="E31" s="14">
-        <v>48</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>2</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
       </c>
       <c r="I31" s="3">
         <v>12</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="6" t="s">
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>5</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>15</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>30</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>60</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="3">
+        <v>400</v>
+      </c>
+      <c r="E37" s="15">
+        <v>48</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>12</v>
+      </c>
+      <c r="J37" s="13">
+        <v>0</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="7">
+        <v>400</v>
+      </c>
+      <c r="E38" s="17">
+        <v>48</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7">
+        <v>2</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>12</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="7">
-        <v>400</v>
-      </c>
-      <c r="E32" s="16">
-        <v>48</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7">
-        <v>2</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>12</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -322,6 +322,54 @@
   </si>
   <si>
     <t>[Violation of Personal Space] Charge in a group of enemies, slowing and damaging them</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Orgo Book Attack</t>
+  </si>
+  <si>
+    <t>Vivian H.</t>
+  </si>
+  <si>
+    <t>Basic Attack: Whack nearby enemies with an Orgo textbook.</t>
+  </si>
+  <si>
+    <t>HPPerc</t>
+  </si>
+  <si>
+    <t>HPLump</t>
+  </si>
+  <si>
+    <t>Voice Attack</t>
+  </si>
+  <si>
+    <t>Huong V.</t>
+  </si>
+  <si>
+    <t>Basic Attack: Creates a sound shockwave.</t>
+  </si>
+  <si>
+    <t>Tickle Fight</t>
+  </si>
+  <si>
+    <t>Awkward Turtle</t>
+  </si>
+  <si>
+    <t>Ramen!</t>
+  </si>
+  <si>
+    <t>Damages nearby enemies. If some are hit, friendship points appear</t>
+  </si>
+  <si>
+    <t>Damages and slows targeted enemy</t>
+  </si>
+  <si>
+    <t>Heals target</t>
   </si>
 </sst>
 </file>
@@ -473,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -501,11 +549,73 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -532,6 +642,149 @@
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top/>
         <bottom style="thin">
           <color theme="0"/>
@@ -897,72 +1150,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thick">
           <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+      <border outline="0">
         <right style="thin">
           <color theme="0"/>
         </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1175,6 +1372,65 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema9">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Delay" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Min" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Max" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Damage" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema10">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Delay" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Min" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Max" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="HPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="HPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="1" Name="Abilities_Map" RootElement="Abilities" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="2" Name="Abilities_Map1" RootElement="Abilities" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="3" Name="Abilities_Map2" RootElement="Abilities" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
@@ -1183,45 +1439,59 @@
   <Map ID="6" Name="Abilities_Map5" RootElement="Abilities" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="7" Name="Abilities_Map6" RootElement="Abilities" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="8" Name="Abilities_Map7" RootElement="Abilities" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="9" Name="Abilities_Map8" RootElement="Abilities" SchemaID="Schema9" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="10" Name="Abilities_Map9" RootElement="Abilities" SchemaID="Schema10" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:K38" tableType="xml" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A2:K38"/>
-  <tableColumns count="11">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="10">
-      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:O43" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="17" tableBorderDxfId="18">
+  <autoFilter ref="A2:O43"/>
+  <tableColumns count="15">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="16">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="9">
-      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
+    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="15">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="8">
-      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="14">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="7">
-      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
+    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="13">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="6">
-      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Cooldown" xmlDataType="integer"/>
+    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="12">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Cooldown" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="5">
-      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
+    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="11">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="4">
-      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
+    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="10">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="3">
-      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
+    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="9">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="2">
-      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
+    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="8">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Damage" name="Damage" dataDxfId="1">
-      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Damage" xmlDataType="integer"/>
+    <tableColumn id="10" uniqueName="Min" name="Min" dataDxfId="7">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Description" name="Description" dataDxfId="0">
-      <xmlColumnPr mapId="8" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
+    <tableColumn id="11" uniqueName="Max" name="Max" dataDxfId="6">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="Damage" name="Damage" dataDxfId="5">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Damage" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="HPPerc" name="HPPerc" dataDxfId="4">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/HPPerc" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="HPLump" name="HPLump" dataDxfId="3">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/HPLump" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="Description" name="Description" dataDxfId="2">
+      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1513,32 +1783,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="104.28515625" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="G1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1567,13 +1841,25 @@
         <v>8</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1">
+      <c r="M2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickTop="1">
       <c r="A3" s="11" t="s">
         <v>95</v>
       </c>
@@ -1602,13 +1888,25 @@
         <v>12</v>
       </c>
       <c r="J3" s="13">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
+        <v>5</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4" s="11" t="s">
         <v>44</v>
       </c>
@@ -1639,11 +1937,23 @@
       <c r="J4" s="13">
         <v>0</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="13">
+        <v>5</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
@@ -1674,11 +1984,23 @@
       <c r="J5" s="13">
         <v>0</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="13">
+        <v>5</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1709,11 +2031,23 @@
       <c r="J6" s="13">
         <v>0</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="13">
+        <v>5</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="22">
+        <v>0</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
@@ -1742,13 +2076,25 @@
         <v>6</v>
       </c>
       <c r="J7" s="13">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13">
+        <v>5</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -1779,11 +2125,23 @@
       <c r="J8" s="13">
         <v>0</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="13">
+        <v>5</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>88</v>
       </c>
@@ -1814,11 +2172,23 @@
       <c r="J9" s="13">
         <v>0</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="13">
+        <v>5</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:15">
       <c r="A10" s="2" t="s">
         <v>89</v>
       </c>
@@ -1849,11 +2219,23 @@
       <c r="J10" s="13">
         <v>0</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="13">
+        <v>5</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1882,13 +2264,25 @@
         <v>6</v>
       </c>
       <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13">
+        <v>5</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1919,11 +2313,23 @@
       <c r="J12" s="13">
         <v>0</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="13">
+        <v>5</v>
+      </c>
+      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
+        <v>0</v>
+      </c>
+      <c r="O12" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1954,11 +2360,23 @@
       <c r="J13" s="13">
         <v>0</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="13">
+        <v>5</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
+        <v>0</v>
+      </c>
+      <c r="N13" s="22">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1989,11 +2407,23 @@
       <c r="J14" s="13">
         <v>0</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="13">
+        <v>5</v>
+      </c>
+      <c r="L14" s="22">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:15">
       <c r="A15" s="4" t="s">
         <v>97</v>
       </c>
@@ -2022,13 +2452,25 @@
         <v>6</v>
       </c>
       <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="13">
+        <v>5</v>
+      </c>
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:15">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -2057,13 +2499,25 @@
         <v>6</v>
       </c>
       <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="13">
+        <v>5</v>
+      </c>
+      <c r="L16" s="22">
+        <v>0</v>
+      </c>
+      <c r="M16" s="22">
+        <v>0</v>
+      </c>
+      <c r="N16" s="22">
+        <v>0</v>
+      </c>
+      <c r="O16" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -2094,11 +2548,23 @@
       <c r="J17" s="13">
         <v>0</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="13">
+        <v>5</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0</v>
+      </c>
+      <c r="M17" s="22">
+        <v>0</v>
+      </c>
+      <c r="N17" s="22">
+        <v>0</v>
+      </c>
+      <c r="O17" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>100</v>
       </c>
@@ -2129,11 +2595,23 @@
       <c r="J18" s="13">
         <v>0</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="13">
+        <v>5</v>
+      </c>
+      <c r="L18" s="22">
+        <v>0</v>
+      </c>
+      <c r="M18" s="22">
+        <v>0</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0</v>
+      </c>
+      <c r="O18" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -2164,11 +2642,23 @@
       <c r="J19" s="13">
         <v>0</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="13">
+        <v>5</v>
+      </c>
+      <c r="L19" s="22">
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0</v>
+      </c>
+      <c r="N19" s="22">
+        <v>0</v>
+      </c>
+      <c r="O19" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -2197,13 +2687,25 @@
         <v>4</v>
       </c>
       <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="13">
+        <v>5</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0</v>
+      </c>
+      <c r="M20" s="22">
+        <v>0</v>
+      </c>
+      <c r="N20" s="22">
+        <v>0</v>
+      </c>
+      <c r="O20" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -2234,11 +2736,23 @@
       <c r="J21" s="13">
         <v>0</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="13">
+        <v>5</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0</v>
+      </c>
+      <c r="M21" s="22">
+        <v>0</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0</v>
+      </c>
+      <c r="O21" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -2269,11 +2783,23 @@
       <c r="J22" s="13">
         <v>0</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="13">
+        <v>5</v>
+      </c>
+      <c r="L22" s="22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="22">
+        <v>0</v>
+      </c>
+      <c r="O22" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
@@ -2304,11 +2830,23 @@
       <c r="J23" s="13">
         <v>0</v>
       </c>
-      <c r="K23" s="19" t="s">
+      <c r="K23" s="13">
+        <v>5</v>
+      </c>
+      <c r="L23" s="22">
+        <v>0</v>
+      </c>
+      <c r="M23" s="22">
+        <v>0</v>
+      </c>
+      <c r="N23" s="22">
+        <v>0</v>
+      </c>
+      <c r="O23" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:15">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
@@ -2339,296 +2877,404 @@
       <c r="J24" s="13">
         <v>0</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="13">
+        <v>5</v>
+      </c>
+      <c r="L24" s="22">
+        <v>0</v>
+      </c>
+      <c r="M24" s="22">
+        <v>0</v>
+      </c>
+      <c r="N24" s="22">
+        <v>0</v>
+      </c>
+      <c r="O24" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:15">
+      <c r="A25" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="13">
+        <v>100</v>
+      </c>
+      <c r="E25" s="23">
+        <v>16</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <v>16</v>
+      </c>
+      <c r="J25" s="13">
+        <v>1</v>
+      </c>
+      <c r="K25" s="13">
+        <v>5</v>
+      </c>
+      <c r="L25" s="22">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>0</v>
+      </c>
+      <c r="N25" s="22">
+        <v>0</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="12">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>55</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="13">
+        <v>2</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <v>12</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <v>5</v>
+      </c>
+      <c r="L26" s="22">
+        <v>0</v>
+      </c>
+      <c r="M26" s="22">
+        <v>0</v>
+      </c>
+      <c r="N26" s="22">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="12">
+        <v>150</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
+        <v>2</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>12</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>5</v>
+      </c>
+      <c r="L27" s="22">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>0</v>
+      </c>
+      <c r="N27" s="22">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>110</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
+        <v>3</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>12</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <v>5</v>
+      </c>
+      <c r="L28" s="22">
+        <v>0</v>
+      </c>
+      <c r="M28" s="22">
+        <v>20</v>
+      </c>
+      <c r="N28" s="22">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D29" s="3">
         <v>60</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E29" s="15">
         <v>8</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>4</v>
       </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="19" t="s">
+      <c r="J29" s="13">
+        <v>1</v>
+      </c>
+      <c r="K29" s="13">
+        <v>5</v>
+      </c>
+      <c r="L29" s="22">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>0</v>
+      </c>
+      <c r="N29" s="22">
+        <v>0</v>
+      </c>
+      <c r="O29" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="4" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D30" s="5">
         <v>70</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E30" s="16">
         <v>720</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F30" s="5">
         <v>3</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G30" s="5">
         <v>3</v>
       </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
         <v>4</v>
       </c>
-      <c r="J26" s="13">
-        <v>0</v>
-      </c>
-      <c r="K26" s="19" t="s">
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <v>5</v>
+      </c>
+      <c r="L30" s="22">
+        <v>0</v>
+      </c>
+      <c r="M30" s="22">
+        <v>0</v>
+      </c>
+      <c r="N30" s="22">
+        <v>0</v>
+      </c>
+      <c r="O30" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2" t="s">
+    <row r="31" spans="1:15">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D31" s="3">
         <v>50</v>
-      </c>
-      <c r="E27" s="15">
-        <v>720</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>72</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="5">
-        <v>80</v>
-      </c>
-      <c r="E28" s="16">
-        <v>100</v>
-      </c>
-      <c r="F28" s="5">
-        <v>5</v>
-      </c>
-      <c r="G28" s="5">
-        <v>2</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
-        <v>12</v>
-      </c>
-      <c r="J28" s="13">
-        <v>0</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="13">
-        <v>0</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
       </c>
       <c r="E31" s="15">
         <v>720</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
       </c>
       <c r="H31" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
+        <v>72</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <v>5</v>
+      </c>
+      <c r="L31" s="22">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>0</v>
+      </c>
+      <c r="N31" s="22">
+        <v>0</v>
+      </c>
+      <c r="O31" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="5">
+        <v>80</v>
+      </c>
+      <c r="E32" s="16">
+        <v>100</v>
+      </c>
+      <c r="F32" s="5">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
         <v>12</v>
       </c>
-      <c r="J31" s="13">
-        <v>0</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
         <v>5</v>
       </c>
-      <c r="I32" s="5">
-        <v>0</v>
-      </c>
-      <c r="J32" s="13">
-        <v>0</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="22">
+        <v>0</v>
+      </c>
+      <c r="M32" s="22">
+        <v>0</v>
+      </c>
+      <c r="N32" s="22">
+        <v>0</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>82</v>
@@ -2646,24 +3292,36 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0</v>
+      </c>
+      <c r="K33" s="13">
         <v>5</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="13">
-        <v>0</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="22">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>0</v>
+      </c>
+      <c r="N33" s="22">
+        <v>0</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>82</v>
@@ -2681,155 +3339,450 @@
         <v>0</v>
       </c>
       <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <v>5</v>
+      </c>
+      <c r="L34" s="22">
+        <v>0</v>
+      </c>
+      <c r="M34" s="22">
+        <v>0</v>
+      </c>
+      <c r="N34" s="22">
+        <v>0</v>
+      </c>
+      <c r="O34" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="3">
+        <v>30</v>
+      </c>
+      <c r="E35" s="15">
+        <v>16</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>4</v>
+      </c>
+      <c r="J35" s="13">
+        <v>1</v>
+      </c>
+      <c r="K35" s="13">
+        <v>5</v>
+      </c>
+      <c r="L35" s="22">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>0</v>
+      </c>
+      <c r="N35" s="22">
+        <v>0</v>
+      </c>
+      <c r="O35" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="15">
+        <v>720</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3">
+        <v>12</v>
+      </c>
+      <c r="J36" s="13">
+        <v>1</v>
+      </c>
+      <c r="K36" s="13">
+        <v>1</v>
+      </c>
+      <c r="L36" s="22">
+        <v>0</v>
+      </c>
+      <c r="M36" s="22">
+        <v>0</v>
+      </c>
+      <c r="N36" s="22">
+        <v>0</v>
+      </c>
+      <c r="O36" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>5</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13">
+        <v>1</v>
+      </c>
+      <c r="K37" s="13">
+        <v>1</v>
+      </c>
+      <c r="L37" s="22">
+        <v>0</v>
+      </c>
+      <c r="M37" s="22">
+        <v>0</v>
+      </c>
+      <c r="N37" s="22">
+        <v>0</v>
+      </c>
+      <c r="O37" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="13">
+        <v>1</v>
+      </c>
+      <c r="K38" s="13">
+        <v>1</v>
+      </c>
+      <c r="L38" s="22">
+        <v>0</v>
+      </c>
+      <c r="M38" s="22">
+        <v>0</v>
+      </c>
+      <c r="N38" s="22">
+        <v>0</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
         <v>15</v>
       </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-      <c r="J34" s="13">
-        <v>0</v>
-      </c>
-      <c r="K34" s="19" t="s">
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
+        <v>1</v>
+      </c>
+      <c r="K39" s="13">
+        <v>1</v>
+      </c>
+      <c r="L39" s="22">
+        <v>0</v>
+      </c>
+      <c r="M39" s="22">
+        <v>0</v>
+      </c>
+      <c r="N39" s="22">
+        <v>0</v>
+      </c>
+      <c r="O39" s="19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="2" t="s">
+    <row r="40" spans="1:15">
+      <c r="A40" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
         <v>30</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="13">
-        <v>0</v>
-      </c>
-      <c r="K35" s="19" t="s">
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <v>1</v>
+      </c>
+      <c r="K40" s="13">
+        <v>1</v>
+      </c>
+      <c r="L40" s="22">
+        <v>0</v>
+      </c>
+      <c r="M40" s="22">
+        <v>0</v>
+      </c>
+      <c r="N40" s="22">
+        <v>0</v>
+      </c>
+      <c r="O40" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="4" t="s">
+    <row r="41" spans="1:15">
+      <c r="A41" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="5">
-        <v>0</v>
-      </c>
-      <c r="E36" s="16">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0</v>
-      </c>
-      <c r="H36" s="5">
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
         <v>60</v>
       </c>
-      <c r="I36" s="5">
-        <v>0</v>
-      </c>
-      <c r="J36" s="13">
-        <v>0</v>
-      </c>
-      <c r="K36" s="19" t="s">
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="13">
+        <v>1</v>
+      </c>
+      <c r="K41" s="13">
+        <v>1</v>
+      </c>
+      <c r="L41" s="22">
+        <v>0</v>
+      </c>
+      <c r="M41" s="22">
+        <v>0</v>
+      </c>
+      <c r="N41" s="22">
+        <v>0</v>
+      </c>
+      <c r="O41" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="2" t="s">
+    <row r="42" spans="1:15">
+      <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D42" s="3">
         <v>400</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E42" s="15">
         <v>48</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
         <v>2</v>
       </c>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>12</v>
       </c>
-      <c r="J37" s="13">
-        <v>0</v>
-      </c>
-      <c r="K37" s="19" t="s">
+      <c r="J42" s="13">
+        <v>1</v>
+      </c>
+      <c r="K42" s="13">
+        <v>1</v>
+      </c>
+      <c r="L42" s="22">
+        <v>0</v>
+      </c>
+      <c r="M42" s="22">
+        <v>0</v>
+      </c>
+      <c r="N42" s="22">
+        <v>0</v>
+      </c>
+      <c r="O42" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="6" t="s">
+    <row r="43" spans="1:15">
+      <c r="A43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>400</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E43" s="17">
         <v>48</v>
       </c>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7">
         <v>2</v>
       </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
         <v>12</v>
       </c>
-      <c r="J38" s="12">
-        <v>0</v>
-      </c>
-      <c r="K38" s="20" t="s">
+      <c r="J43" s="12">
+        <v>1</v>
+      </c>
+      <c r="K43" s="12">
+        <v>1</v>
+      </c>
+      <c r="L43" s="24">
+        <v>0</v>
+      </c>
+      <c r="M43" s="22">
+        <v>0</v>
+      </c>
+      <c r="N43" s="22">
+        <v>0</v>
+      </c>
+      <c r="O43" s="20" t="s">
         <v>55</v>
       </c>
     </row>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Shoe Throwing</t>
   </si>
   <si>
-    <t>Aggressive Mediation</t>
-  </si>
-  <si>
     <t>C. Kata</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>Increase your team's attack powers by 1 each time this Unit is hit.</t>
   </si>
   <si>
-    <t>Jump up and down violently, which solves nothing at all. HA TAKE THAT KATA</t>
-  </si>
-  <si>
     <t>Popularity</t>
   </si>
   <si>
@@ -370,13 +364,100 @@
   </si>
   <si>
     <t>Heals target</t>
+  </si>
+  <si>
+    <t>CDPerc</t>
+  </si>
+  <si>
+    <t>CDLump</t>
+  </si>
+  <si>
+    <t>APPerc</t>
+  </si>
+  <si>
+    <t>APLump</t>
+  </si>
+  <si>
+    <t>DPLump</t>
+  </si>
+  <si>
+    <t>SPPerc</t>
+  </si>
+  <si>
+    <t>SPLump</t>
+  </si>
+  <si>
+    <t>A. Mediation</t>
+  </si>
+  <si>
+    <t>[Aggressive Mediation] Jump up and down violently, which solves nothing at all. HA TAKE THAT KATA</t>
+  </si>
+  <si>
+    <t>SlowPerc</t>
+  </si>
+  <si>
+    <t>SickPerc</t>
+  </si>
+  <si>
+    <t>ExhaustDur</t>
+  </si>
+  <si>
+    <t>SickDur</t>
+  </si>
+  <si>
+    <t>SlowDur</t>
+  </si>
+  <si>
+    <t>StunDur</t>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>HitAnimation</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>BulletMovement</t>
+  </si>
+  <si>
+    <t>BulletRange</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>RegenDur</t>
+  </si>
+  <si>
+    <t>RegenPerc</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Self</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,19 +471,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -521,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -531,12 +599,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -546,51 +609,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="43">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <right style="thin">
           <color theme="0"/>
         </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -613,6 +658,29 @@
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -642,6 +710,870 @@
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top/>
         <bottom style="thin">
           <color theme="0"/>
@@ -1146,20 +2078,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="0"/>
-        </right>
       </border>
     </dxf>
   </dxfs>
@@ -1431,8 +2349,83 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema11">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Target" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema12">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activate" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Delay" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Min" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Max" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Speed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="StunDur" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="SlowDur" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="SickDur" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ExhaustDur" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="RegenDur" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="SlowPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="SickPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="RegenPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="HPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="HPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="APPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="APLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="DPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="SPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="SPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="CDPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="CDLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Move" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Tank" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Sprite" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HitAnimation" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Bullet" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="BulletMovement" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="BulletRange" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Target" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="1" Name="Abilities_Map" RootElement="Abilities" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="2" Name="Abilities_Map1" RootElement="Abilities" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="11" Name="Abilities_Map10" RootElement="Abilities" SchemaID="Schema11" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="12" Name="Abilities_Map11" RootElement="Abilities" SchemaID="Schema12" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="3" Name="Abilities_Map2" RootElement="Abilities" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="4" Name="Abilities_Map3" RootElement="Abilities" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="5" Name="Abilities_Map4" RootElement="Abilities" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
@@ -1445,53 +2438,125 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:O43" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="17" tableBorderDxfId="18">
-  <autoFilter ref="A2:O43"/>
-  <tableColumns count="15">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="16">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:AM43" tableType="xml" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="A2:AM43"/>
+  <tableColumns count="39">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="42">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="15">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
+    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="41">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="14">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="40">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="13">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
+    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="39">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="12">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Cooldown" xmlDataType="integer"/>
+    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="38">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Cooldown" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="11">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
+    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="37">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="10">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
+    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="36">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="9">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
+    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="35">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="8">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
+    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="34">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Min" name="Min" dataDxfId="7">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
+    <tableColumn id="10" uniqueName="Min" name="Min" dataDxfId="33">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Max" name="Max" dataDxfId="6">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
+    <tableColumn id="11" uniqueName="Max" name="Max" dataDxfId="32">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Damage" name="Damage" dataDxfId="5">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Damage" xmlDataType="integer"/>
+    <tableColumn id="12" uniqueName="Damage" name="Damage" dataDxfId="31">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Damage" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="HPPerc" name="HPPerc" dataDxfId="4">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/HPPerc" xmlDataType="integer"/>
+    <tableColumn id="13" uniqueName="Speed" name="Speed" dataDxfId="30">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="HPLump" name="HPLump" dataDxfId="3">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/HPLump" xmlDataType="integer"/>
+    <tableColumn id="14" uniqueName="StunDur" name="StunDur" dataDxfId="29">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/StunDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="Description" name="Description" dataDxfId="2">
-      <xmlColumnPr mapId="10" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
+    <tableColumn id="15" uniqueName="SlowDur" name="SlowDur" dataDxfId="28">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SlowDur" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="16" uniqueName="SickDur" name="SickDur" dataDxfId="27">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SickDur" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="17" uniqueName="ExhaustDur" name="ExhaustDur" dataDxfId="26">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/ExhaustDur" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="18" uniqueName="RegenDur" name="RegenDur" dataDxfId="25">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/RegenDur" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="19" uniqueName="SlowPerc" name="SlowPerc" dataDxfId="24">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SlowPerc" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="20" uniqueName="SickPerc" name="SickPerc" dataDxfId="23">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SickPerc" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="21" uniqueName="RegenPerc" name="RegenPerc" dataDxfId="22">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/RegenPerc" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="22" uniqueName="HPPerc" name="HPPerc" dataDxfId="21">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/HPPerc" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="23" uniqueName="HPLump" name="HPLump" dataDxfId="20">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/HPLump" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="24" uniqueName="APPerc" name="APPerc" dataDxfId="19">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/APPerc" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="25" uniqueName="APLump" name="APLump" dataDxfId="18">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/APLump" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="26" uniqueName="DPLump" name="DPLump" dataDxfId="17">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/DPLump" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="27" uniqueName="SPPerc" name="SPPerc" dataDxfId="16">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SPPerc" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="28" uniqueName="SPLump" name="SPLump" dataDxfId="15">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SPLump" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="29" uniqueName="CDPerc" name="CDPerc" dataDxfId="14">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/CDPerc" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="30" uniqueName="CDLump" name="CDLump" dataDxfId="13">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/CDLump" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="31" uniqueName="Move" name="Move" dataDxfId="12">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Move" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="32" uniqueName="Tank" name="Tank" dataDxfId="11">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Tank" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="33" uniqueName="Sprite" name="Sprite" dataDxfId="10">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Sprite" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="34" uniqueName="HitAnimation" name="HitAnimation" dataDxfId="9">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/HitAnimation" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="35" uniqueName="Bullet" name="Bullet" dataDxfId="8">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Bullet" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="36" uniqueName="BulletMovement" name="BulletMovement" dataDxfId="7">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/BulletMovement" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="37" uniqueName="BulletRange" name="BulletRange" dataDxfId="6">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/BulletRange" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="38" uniqueName="Target" name="Target" dataDxfId="5">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Target" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="39" uniqueName="Description" name="Description" dataDxfId="4">
+      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1783,15 +2848,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE44" sqref="AE44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
@@ -1800,79 +2866,166 @@
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
     <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="107" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
+    <col min="23" max="28" width="11" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" customWidth="1"/>
+    <col min="31" max="32" width="8.42578125" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" customWidth="1"/>
+    <col min="34" max="34" width="15" customWidth="1"/>
+    <col min="35" max="35" width="9" customWidth="1"/>
+    <col min="36" max="37" width="17.42578125" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" customWidth="1"/>
+    <col min="39" max="39" width="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:39">
       <c r="G1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+    <row r="2" spans="1:39" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="18" t="s">
+      <c r="J2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI2" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL2" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM2" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickTop="1">
-      <c r="A3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>47</v>
+    <row r="3" spans="1:39" ht="15.75" thickTop="1">
+      <c r="A3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="3">
         <v>80</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="10">
         <v>16</v>
       </c>
       <c r="F3" s="8">
@@ -1887,39 +3040,99 @@
       <c r="I3" s="8">
         <v>12</v>
       </c>
-      <c r="J3" s="13">
-        <v>1</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
         <v>5</v>
       </c>
-      <c r="L3" s="22">
-        <v>0</v>
-      </c>
-      <c r="M3" s="22">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22">
-        <v>0</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>96</v>
+      <c r="L3" s="17">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0</v>
+      </c>
+      <c r="N3" s="17">
+        <v>0</v>
+      </c>
+      <c r="O3" s="17">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>0</v>
+      </c>
+      <c r="R3" s="17">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17">
+        <v>0</v>
+      </c>
+      <c r="U3" s="17">
+        <v>0</v>
+      </c>
+      <c r="V3" s="17">
+        <v>0</v>
+      </c>
+      <c r="W3" s="17">
+        <v>0</v>
+      </c>
+      <c r="X3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM3" s="20" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>47</v>
+    <row r="4" spans="1:39">
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3">
         <v>80</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="10">
         <v>200</v>
       </c>
       <c r="F4" s="8">
@@ -1934,39 +3147,101 @@
       <c r="I4" s="8">
         <v>24</v>
       </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>5</v>
       </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>48</v>
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0</v>
+      </c>
+      <c r="N4" s="17">
+        <v>0</v>
+      </c>
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>0</v>
+      </c>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17">
+        <v>0</v>
+      </c>
+      <c r="U4" s="17">
+        <v>0</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0</v>
+      </c>
+      <c r="W4" s="17">
+        <v>0</v>
+      </c>
+      <c r="X4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM4" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:39">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5">
         <v>140</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>200</v>
       </c>
       <c r="F5" s="5">
@@ -1981,39 +3256,99 @@
       <c r="I5" s="5">
         <v>24</v>
       </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13">
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
         <v>5</v>
       </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>49</v>
+      <c r="L5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
+        <v>0</v>
+      </c>
+      <c r="O5" s="17">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>0</v>
+      </c>
+      <c r="R5" s="17">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17">
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
+        <v>0</v>
+      </c>
+      <c r="V5" s="17">
+        <v>0</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0</v>
+      </c>
+      <c r="X5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM5" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:39">
       <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="10">
         <v>150</v>
       </c>
       <c r="F6" s="3">
@@ -2028,39 +3363,99 @@
       <c r="I6" s="3">
         <v>12</v>
       </c>
-      <c r="J6" s="13">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <v>5</v>
       </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22">
-        <v>0</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>50</v>
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17">
+        <v>0</v>
+      </c>
+      <c r="P6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0</v>
+      </c>
+      <c r="S6" s="17">
+        <v>0</v>
+      </c>
+      <c r="T6" s="17">
+        <v>0</v>
+      </c>
+      <c r="U6" s="17">
+        <v>0</v>
+      </c>
+      <c r="V6" s="17">
+        <v>0</v>
+      </c>
+      <c r="W6" s="17">
+        <v>0</v>
+      </c>
+      <c r="X6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="17">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM6" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:39">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3">
         <v>20</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="10">
         <v>10</v>
       </c>
       <c r="F7" s="3">
@@ -2075,39 +3470,99 @@
       <c r="I7" s="3">
         <v>6</v>
       </c>
-      <c r="J7" s="13">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13">
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
         <v>5</v>
       </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>94</v>
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="17">
+        <v>0</v>
+      </c>
+      <c r="N7" s="17">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17">
+        <v>0</v>
+      </c>
+      <c r="P7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>0</v>
+      </c>
+      <c r="R7" s="17">
+        <v>0</v>
+      </c>
+      <c r="S7" s="17">
+        <v>0</v>
+      </c>
+      <c r="T7" s="17">
+        <v>0</v>
+      </c>
+      <c r="U7" s="17">
+        <v>0</v>
+      </c>
+      <c r="V7" s="17">
+        <v>0</v>
+      </c>
+      <c r="W7" s="17">
+        <v>0</v>
+      </c>
+      <c r="X7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM7" s="20" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:39">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="10">
         <v>0</v>
       </c>
       <c r="F8" s="3">
@@ -2122,34 +3577,94 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <v>5</v>
       </c>
-      <c r="L8" s="22">
-        <v>0</v>
-      </c>
-      <c r="M8" s="22">
-        <v>0</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>91</v>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0</v>
+      </c>
+      <c r="O8" s="17">
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17">
+        <v>0</v>
+      </c>
+      <c r="S8" s="17">
+        <v>0</v>
+      </c>
+      <c r="T8" s="17">
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
+        <v>0</v>
+      </c>
+      <c r="V8" s="17">
+        <v>0</v>
+      </c>
+      <c r="W8" s="17">
+        <v>0</v>
+      </c>
+      <c r="X8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM8" s="20" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:39">
       <c r="A9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="3">
         <v>120</v>
@@ -2169,39 +3684,99 @@
       <c r="I9" s="3">
         <v>24</v>
       </c>
-      <c r="J9" s="13">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <v>5</v>
       </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
-        <v>0</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>92</v>
+      <c r="L9" s="17">
+        <v>0</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0</v>
+      </c>
+      <c r="P9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>0</v>
+      </c>
+      <c r="R9" s="17">
+        <v>0</v>
+      </c>
+      <c r="S9" s="17">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17">
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
+        <v>0</v>
+      </c>
+      <c r="V9" s="17">
+        <v>0</v>
+      </c>
+      <c r="W9" s="17">
+        <v>0</v>
+      </c>
+      <c r="X9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM9" s="20" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:39">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5">
         <v>50</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="10">
         <v>120</v>
       </c>
       <c r="F10" s="3">
@@ -2216,39 +3791,99 @@
       <c r="I10" s="3">
         <v>24</v>
       </c>
-      <c r="J10" s="13">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13">
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
         <v>5</v>
       </c>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
-      <c r="M10" s="22">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>93</v>
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>0</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17">
+        <v>0</v>
+      </c>
+      <c r="S10" s="17">
+        <v>0</v>
+      </c>
+      <c r="T10" s="17">
+        <v>0</v>
+      </c>
+      <c r="U10" s="17">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
+        <v>0</v>
+      </c>
+      <c r="W10" s="17">
+        <v>0</v>
+      </c>
+      <c r="X10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM10" s="20" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:39">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3">
         <v>400</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="10">
         <v>16</v>
       </c>
       <c r="F11" s="3">
@@ -2263,39 +3898,99 @@
       <c r="I11" s="3">
         <v>6</v>
       </c>
-      <c r="J11" s="13">
-        <v>1</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <v>5</v>
       </c>
-      <c r="L11" s="22">
-        <v>0</v>
-      </c>
-      <c r="M11" s="22">
-        <v>0</v>
-      </c>
-      <c r="N11" s="22">
-        <v>0</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>23</v>
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0</v>
+      </c>
+      <c r="P11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>0</v>
+      </c>
+      <c r="R11" s="17">
+        <v>0</v>
+      </c>
+      <c r="S11" s="17">
+        <v>0</v>
+      </c>
+      <c r="T11" s="17">
+        <v>0</v>
+      </c>
+      <c r="U11" s="17">
+        <v>0</v>
+      </c>
+      <c r="V11" s="17">
+        <v>0</v>
+      </c>
+      <c r="W11" s="17">
+        <v>0</v>
+      </c>
+      <c r="X11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM11" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:39">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="10">
         <v>150</v>
       </c>
       <c r="F12" s="3">
@@ -2310,39 +4005,99 @@
       <c r="I12" s="3">
         <v>24</v>
       </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <v>5</v>
       </c>
-      <c r="L12" s="22">
-        <v>0</v>
-      </c>
-      <c r="M12" s="22">
-        <v>0</v>
-      </c>
-      <c r="N12" s="22">
-        <v>0</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>17</v>
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>0</v>
+      </c>
+      <c r="R12" s="17">
+        <v>0</v>
+      </c>
+      <c r="S12" s="17">
+        <v>0</v>
+      </c>
+      <c r="T12" s="17">
+        <v>0</v>
+      </c>
+      <c r="U12" s="17">
+        <v>0</v>
+      </c>
+      <c r="V12" s="17">
+        <v>0</v>
+      </c>
+      <c r="W12" s="17">
+        <v>0</v>
+      </c>
+      <c r="X12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM12" s="20" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:39">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="3">
         <v>500</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="10">
         <v>72</v>
       </c>
       <c r="F13" s="3">
@@ -2357,39 +4112,99 @@
       <c r="I13" s="3">
         <v>24</v>
       </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
         <v>5</v>
       </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
-        <v>0</v>
-      </c>
-      <c r="N13" s="22">
-        <v>0</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>21</v>
+      <c r="L13" s="17">
+        <v>0</v>
+      </c>
+      <c r="M13" s="17">
+        <v>0</v>
+      </c>
+      <c r="N13" s="17">
+        <v>0</v>
+      </c>
+      <c r="O13" s="17">
+        <v>0</v>
+      </c>
+      <c r="P13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>0</v>
+      </c>
+      <c r="R13" s="17">
+        <v>0</v>
+      </c>
+      <c r="S13" s="17">
+        <v>0</v>
+      </c>
+      <c r="T13" s="17">
+        <v>0</v>
+      </c>
+      <c r="U13" s="17">
+        <v>0</v>
+      </c>
+      <c r="V13" s="17">
+        <v>0</v>
+      </c>
+      <c r="W13" s="17">
+        <v>0</v>
+      </c>
+      <c r="X13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM13" s="20" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:39">
       <c r="A14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="10">
         <v>0</v>
       </c>
       <c r="F14" s="3">
@@ -2404,39 +4219,99 @@
       <c r="I14" s="3">
         <v>24</v>
       </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13">
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
         <v>5</v>
       </c>
-      <c r="L14" s="22">
-        <v>0</v>
-      </c>
-      <c r="M14" s="22">
-        <v>0</v>
-      </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>72</v>
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17">
+        <v>0</v>
+      </c>
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>0</v>
+      </c>
+      <c r="R14" s="17">
+        <v>0</v>
+      </c>
+      <c r="S14" s="17">
+        <v>0</v>
+      </c>
+      <c r="T14" s="17">
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
+        <v>0</v>
+      </c>
+      <c r="V14" s="17">
+        <v>0</v>
+      </c>
+      <c r="W14" s="17">
+        <v>0</v>
+      </c>
+      <c r="X14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM14" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:39">
       <c r="A15" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="5">
         <v>400</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="11">
         <v>12</v>
       </c>
       <c r="F15" s="5">
@@ -2451,39 +4326,99 @@
       <c r="I15" s="5">
         <v>6</v>
       </c>
-      <c r="J15" s="13">
-        <v>1</v>
-      </c>
-      <c r="K15" s="13">
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
         <v>5</v>
       </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
-        <v>0</v>
-      </c>
-      <c r="N15" s="22">
-        <v>0</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>99</v>
+      <c r="L15" s="17">
+        <v>0</v>
+      </c>
+      <c r="M15" s="17">
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
+        <v>0</v>
+      </c>
+      <c r="O15" s="17">
+        <v>0</v>
+      </c>
+      <c r="P15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>0</v>
+      </c>
+      <c r="R15" s="17">
+        <v>0</v>
+      </c>
+      <c r="S15" s="17">
+        <v>0</v>
+      </c>
+      <c r="T15" s="17">
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <v>0</v>
+      </c>
+      <c r="V15" s="17">
+        <v>0</v>
+      </c>
+      <c r="W15" s="17">
+        <v>0</v>
+      </c>
+      <c r="X15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM15" s="20" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:39">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="5">
         <v>80</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="11">
         <v>12</v>
       </c>
       <c r="F16" s="5">
@@ -2498,39 +4433,99 @@
       <c r="I16" s="5">
         <v>6</v>
       </c>
-      <c r="J16" s="13">
-        <v>1</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
         <v>5</v>
       </c>
-      <c r="L16" s="22">
-        <v>0</v>
-      </c>
-      <c r="M16" s="22">
-        <v>0</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>34</v>
+      <c r="L16" s="17">
+        <v>0</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0</v>
+      </c>
+      <c r="N16" s="17">
+        <v>0</v>
+      </c>
+      <c r="O16" s="17">
+        <v>0</v>
+      </c>
+      <c r="P16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="17">
+        <v>0</v>
+      </c>
+      <c r="R16" s="17">
+        <v>0</v>
+      </c>
+      <c r="S16" s="17">
+        <v>0</v>
+      </c>
+      <c r="T16" s="17">
+        <v>0</v>
+      </c>
+      <c r="U16" s="17">
+        <v>0</v>
+      </c>
+      <c r="V16" s="17">
+        <v>0</v>
+      </c>
+      <c r="W16" s="17">
+        <v>0</v>
+      </c>
+      <c r="X16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM16" s="20" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:39">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3">
         <v>50</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="10">
         <v>60</v>
       </c>
       <c r="F17" s="3">
@@ -2545,39 +4540,99 @@
       <c r="I17" s="3">
         <v>24</v>
       </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
         <v>5</v>
       </c>
-      <c r="L17" s="22">
-        <v>0</v>
-      </c>
-      <c r="M17" s="22">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>31</v>
+      <c r="L17" s="17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0</v>
+      </c>
+      <c r="N17" s="17">
+        <v>0</v>
+      </c>
+      <c r="O17" s="17">
+        <v>0</v>
+      </c>
+      <c r="P17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <v>0</v>
+      </c>
+      <c r="S17" s="17">
+        <v>0</v>
+      </c>
+      <c r="T17" s="17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <v>0</v>
+      </c>
+      <c r="V17" s="17">
+        <v>0</v>
+      </c>
+      <c r="W17" s="17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM17" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:39">
       <c r="A18" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="5">
         <v>100</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="11">
         <v>70</v>
       </c>
       <c r="F18" s="5">
@@ -2592,39 +4647,99 @@
       <c r="I18" s="5">
         <v>24</v>
       </c>
-      <c r="J18" s="13">
-        <v>0</v>
-      </c>
-      <c r="K18" s="13">
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
         <v>5</v>
       </c>
-      <c r="L18" s="22">
-        <v>0</v>
-      </c>
-      <c r="M18" s="22">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0</v>
-      </c>
-      <c r="O18" s="19" t="s">
-        <v>101</v>
+      <c r="L18" s="17">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>0</v>
+      </c>
+      <c r="N18" s="17">
+        <v>0</v>
+      </c>
+      <c r="O18" s="17">
+        <v>0</v>
+      </c>
+      <c r="P18" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>0</v>
+      </c>
+      <c r="R18" s="17">
+        <v>0</v>
+      </c>
+      <c r="S18" s="17">
+        <v>0</v>
+      </c>
+      <c r="T18" s="17">
+        <v>0</v>
+      </c>
+      <c r="U18" s="17">
+        <v>0</v>
+      </c>
+      <c r="V18" s="17">
+        <v>0</v>
+      </c>
+      <c r="W18" s="17">
+        <v>0</v>
+      </c>
+      <c r="X18" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM18" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:39">
       <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="3">
         <v>100</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="10">
         <v>80</v>
       </c>
       <c r="F19" s="3">
@@ -2639,39 +4754,99 @@
       <c r="I19" s="3">
         <v>24</v>
       </c>
-      <c r="J19" s="13">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13">
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
         <v>5</v>
       </c>
-      <c r="L19" s="22">
-        <v>0</v>
-      </c>
-      <c r="M19" s="22">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22">
-        <v>0</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>32</v>
+      <c r="L19" s="17">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>0</v>
+      </c>
+      <c r="R19" s="17">
+        <v>0</v>
+      </c>
+      <c r="S19" s="17">
+        <v>0</v>
+      </c>
+      <c r="T19" s="17">
+        <v>0</v>
+      </c>
+      <c r="U19" s="17">
+        <v>0</v>
+      </c>
+      <c r="V19" s="17">
+        <v>0</v>
+      </c>
+      <c r="W19" s="17">
+        <v>0</v>
+      </c>
+      <c r="X19" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM19" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:39">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="5">
         <v>300</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="11">
         <v>12</v>
       </c>
       <c r="F20" s="5">
@@ -2686,39 +4861,99 @@
       <c r="I20" s="5">
         <v>4</v>
       </c>
-      <c r="J20" s="13">
-        <v>1</v>
-      </c>
-      <c r="K20" s="13">
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
         <v>5</v>
       </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="22">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
-        <v>0</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>24</v>
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <v>0</v>
+      </c>
+      <c r="S20" s="17">
+        <v>0</v>
+      </c>
+      <c r="T20" s="17">
+        <v>0</v>
+      </c>
+      <c r="U20" s="17">
+        <v>0</v>
+      </c>
+      <c r="V20" s="17">
+        <v>0</v>
+      </c>
+      <c r="W20" s="17">
+        <v>0</v>
+      </c>
+      <c r="X20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM20" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:39">
       <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5">
         <v>200</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="11">
         <v>80</v>
       </c>
       <c r="F21" s="5">
@@ -2733,39 +4968,99 @@
       <c r="I21" s="5">
         <v>24</v>
       </c>
-      <c r="J21" s="13">
-        <v>0</v>
-      </c>
-      <c r="K21" s="13">
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
         <v>5</v>
       </c>
-      <c r="L21" s="22">
-        <v>0</v>
-      </c>
-      <c r="M21" s="22">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>18</v>
+      <c r="L21" s="17">
+        <v>0</v>
+      </c>
+      <c r="M21" s="17">
+        <v>0</v>
+      </c>
+      <c r="N21" s="17">
+        <v>0</v>
+      </c>
+      <c r="O21" s="17">
+        <v>0</v>
+      </c>
+      <c r="P21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>0</v>
+      </c>
+      <c r="R21" s="17">
+        <v>0</v>
+      </c>
+      <c r="S21" s="17">
+        <v>0</v>
+      </c>
+      <c r="T21" s="17">
+        <v>0</v>
+      </c>
+      <c r="U21" s="17">
+        <v>0</v>
+      </c>
+      <c r="V21" s="17">
+        <v>0</v>
+      </c>
+      <c r="W21" s="17">
+        <v>0</v>
+      </c>
+      <c r="X21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM21" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:39">
       <c r="A22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="10">
         <v>120</v>
       </c>
       <c r="F22" s="3">
@@ -2780,39 +5075,101 @@
       <c r="I22" s="3">
         <v>8</v>
       </c>
-      <c r="J22" s="13">
-        <v>0</v>
-      </c>
-      <c r="K22" s="13">
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
         <v>5</v>
       </c>
-      <c r="L22" s="22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="22">
-        <v>0</v>
-      </c>
-      <c r="O22" s="19" t="s">
-        <v>22</v>
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0</v>
+      </c>
+      <c r="O22" s="17">
+        <v>0</v>
+      </c>
+      <c r="P22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>0</v>
+      </c>
+      <c r="R22" s="17">
+        <v>0</v>
+      </c>
+      <c r="S22" s="17">
+        <v>0</v>
+      </c>
+      <c r="T22" s="17">
+        <v>0</v>
+      </c>
+      <c r="U22" s="17">
+        <v>0</v>
+      </c>
+      <c r="V22" s="17">
+        <v>0</v>
+      </c>
+      <c r="W22" s="17">
+        <v>0</v>
+      </c>
+      <c r="X22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM22" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:39">
       <c r="A23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D23" s="5">
         <v>300</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="11">
         <v>90</v>
       </c>
       <c r="F23" s="5">
@@ -2827,274 +5184,634 @@
       <c r="I23" s="5">
         <v>24</v>
       </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
         <v>5</v>
       </c>
-      <c r="L23" s="22">
-        <v>0</v>
-      </c>
-      <c r="M23" s="22">
-        <v>0</v>
-      </c>
-      <c r="N23" s="22">
-        <v>0</v>
-      </c>
-      <c r="O23" s="19" t="s">
+      <c r="L23" s="17">
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0</v>
+      </c>
+      <c r="N23" s="17">
+        <v>0</v>
+      </c>
+      <c r="O23" s="17">
+        <v>0</v>
+      </c>
+      <c r="P23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <v>0</v>
+      </c>
+      <c r="S23" s="17">
+        <v>0</v>
+      </c>
+      <c r="T23" s="17">
+        <v>0</v>
+      </c>
+      <c r="U23" s="17">
+        <v>0</v>
+      </c>
+      <c r="V23" s="17">
+        <v>0</v>
+      </c>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM23" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>0</v>
+      </c>
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+      <c r="O24" s="17">
+        <v>0</v>
+      </c>
+      <c r="P24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>0</v>
+      </c>
+      <c r="R24" s="17">
+        <v>0</v>
+      </c>
+      <c r="S24" s="17">
+        <v>0</v>
+      </c>
+      <c r="T24" s="17">
+        <v>0</v>
+      </c>
+      <c r="U24" s="17">
+        <v>0</v>
+      </c>
+      <c r="V24" s="17">
+        <v>0</v>
+      </c>
+      <c r="W24" s="17">
+        <v>0</v>
+      </c>
+      <c r="X24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM24" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24" s="13">
-        <v>0</v>
-      </c>
-      <c r="K24" s="13">
+    <row r="25" spans="1:39">
+      <c r="A25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="5">
+        <v>100</v>
+      </c>
+      <c r="E25" s="11">
+        <v>16</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>16</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
         <v>5</v>
       </c>
-      <c r="L24" s="22">
-        <v>0</v>
-      </c>
-      <c r="M24" s="22">
-        <v>0</v>
-      </c>
-      <c r="N24" s="22">
-        <v>0</v>
-      </c>
-      <c r="O24" s="19" t="s">
-        <v>27</v>
+      <c r="L25" s="17">
+        <v>0</v>
+      </c>
+      <c r="M25" s="17">
+        <v>0</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25" s="17">
+        <v>0</v>
+      </c>
+      <c r="P25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>0</v>
+      </c>
+      <c r="R25" s="17">
+        <v>0</v>
+      </c>
+      <c r="S25" s="17">
+        <v>0</v>
+      </c>
+      <c r="T25" s="17">
+        <v>0</v>
+      </c>
+      <c r="U25" s="17">
+        <v>0</v>
+      </c>
+      <c r="V25" s="17">
+        <v>0</v>
+      </c>
+      <c r="W25" s="17">
+        <v>0</v>
+      </c>
+      <c r="X25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM25" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="21" t="s">
+    <row r="26" spans="1:39">
+      <c r="A26" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="B26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="5">
         <v>100</v>
       </c>
-      <c r="E25" s="23">
-        <v>16</v>
-      </c>
-      <c r="F25" s="13">
-        <v>1</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13">
-        <v>16</v>
-      </c>
-      <c r="J25" s="13">
-        <v>1</v>
-      </c>
-      <c r="K25" s="13">
+      <c r="E26" s="5">
+        <v>55</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>12</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
         <v>5</v>
       </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-      <c r="M25" s="22">
-        <v>0</v>
-      </c>
-      <c r="N25" s="22">
-        <v>0</v>
-      </c>
-      <c r="O25" s="19" t="s">
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+      <c r="O26" s="17">
+        <v>0</v>
+      </c>
+      <c r="P26" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>0</v>
+      </c>
+      <c r="R26" s="17">
+        <v>0</v>
+      </c>
+      <c r="S26" s="17">
+        <v>0</v>
+      </c>
+      <c r="T26" s="17">
+        <v>0</v>
+      </c>
+      <c r="U26" s="17">
+        <v>0</v>
+      </c>
+      <c r="V26" s="17">
+        <v>0</v>
+      </c>
+      <c r="W26" s="17">
+        <v>0</v>
+      </c>
+      <c r="X26" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM26" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="A27" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="B27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="5">
+        <v>150</v>
+      </c>
+      <c r="E27" s="3">
+        <v>24</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>12</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>5</v>
+      </c>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>0</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+      <c r="O27" s="17">
+        <v>0</v>
+      </c>
+      <c r="P27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>0</v>
+      </c>
+      <c r="R27" s="17">
+        <v>0</v>
+      </c>
+      <c r="S27" s="17">
+        <v>0</v>
+      </c>
+      <c r="T27" s="17">
+        <v>0</v>
+      </c>
+      <c r="U27" s="17">
+        <v>0</v>
+      </c>
+      <c r="V27" s="17">
+        <v>0</v>
+      </c>
+      <c r="W27" s="17">
+        <v>0</v>
+      </c>
+      <c r="X27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM27" s="22" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="21" t="s">
+    <row r="28" spans="1:39">
+      <c r="A28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
         <v>110</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="12">
-        <v>100</v>
-      </c>
-      <c r="E26">
-        <v>55</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1</v>
-      </c>
-      <c r="G26" s="13">
-        <v>2</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
         <v>12</v>
       </c>
-      <c r="J26" s="13">
-        <v>0</v>
-      </c>
-      <c r="K26" s="13">
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
         <v>5</v>
       </c>
-      <c r="L26" s="22">
-        <v>0</v>
-      </c>
-      <c r="M26" s="22">
-        <v>0</v>
-      </c>
-      <c r="N26" s="22">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="17">
+        <v>0</v>
+      </c>
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+      <c r="O28" s="17">
+        <v>0</v>
+      </c>
+      <c r="P28" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>0</v>
+      </c>
+      <c r="R28" s="17">
+        <v>0</v>
+      </c>
+      <c r="S28" s="17">
+        <v>0</v>
+      </c>
+      <c r="T28" s="17">
+        <v>0</v>
+      </c>
+      <c r="U28" s="17">
+        <v>0</v>
+      </c>
+      <c r="V28" s="17">
+        <v>20</v>
+      </c>
+      <c r="W28" s="17">
+        <v>0</v>
+      </c>
+      <c r="X28" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM28" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="12">
-        <v>150</v>
-      </c>
-      <c r="E27">
-        <v>24</v>
-      </c>
-      <c r="F27" s="13">
-        <v>1</v>
-      </c>
-      <c r="G27" s="13">
-        <v>2</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
-        <v>12</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="13">
-        <v>5</v>
-      </c>
-      <c r="L27" s="22">
-        <v>0</v>
-      </c>
-      <c r="M27" s="22">
-        <v>0</v>
-      </c>
-      <c r="N27" s="22">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="13">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>110</v>
-      </c>
-      <c r="F28" s="13">
-        <v>1</v>
-      </c>
-      <c r="G28" s="13">
-        <v>3</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13">
-        <v>12</v>
-      </c>
-      <c r="J28" s="13">
-        <v>0</v>
-      </c>
-      <c r="K28" s="13">
-        <v>5</v>
-      </c>
-      <c r="L28" s="22">
-        <v>0</v>
-      </c>
-      <c r="M28" s="22">
-        <v>20</v>
-      </c>
-      <c r="N28" s="22">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:39">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="3">
         <v>60</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="10">
         <v>8</v>
       </c>
       <c r="F29" s="3">
@@ -3109,39 +5826,99 @@
       <c r="I29" s="3">
         <v>4</v>
       </c>
-      <c r="J29" s="13">
-        <v>1</v>
-      </c>
-      <c r="K29" s="13">
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
         <v>5</v>
       </c>
-      <c r="L29" s="22">
-        <v>0</v>
-      </c>
-      <c r="M29" s="22">
-        <v>0</v>
-      </c>
-      <c r="N29" s="22">
-        <v>0</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>37</v>
+      <c r="L29" s="17">
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <v>0</v>
+      </c>
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+      <c r="O29" s="17">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>0</v>
+      </c>
+      <c r="R29" s="17">
+        <v>0</v>
+      </c>
+      <c r="S29" s="17">
+        <v>0</v>
+      </c>
+      <c r="T29" s="17">
+        <v>0</v>
+      </c>
+      <c r="U29" s="17">
+        <v>0</v>
+      </c>
+      <c r="V29" s="17">
+        <v>0</v>
+      </c>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM29" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:39">
       <c r="A30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D30" s="5">
         <v>70</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="11">
         <v>720</v>
       </c>
       <c r="F30" s="5">
@@ -3156,39 +5933,99 @@
       <c r="I30" s="5">
         <v>4</v>
       </c>
-      <c r="J30" s="13">
-        <v>0</v>
-      </c>
-      <c r="K30" s="13">
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
         <v>5</v>
       </c>
-      <c r="L30" s="22">
-        <v>0</v>
-      </c>
-      <c r="M30" s="22">
-        <v>0</v>
-      </c>
-      <c r="N30" s="22">
-        <v>0</v>
-      </c>
-      <c r="O30" s="19" t="s">
-        <v>42</v>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="17">
+        <v>0</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30" s="17">
+        <v>0</v>
+      </c>
+      <c r="P30" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>0</v>
+      </c>
+      <c r="R30" s="17">
+        <v>0</v>
+      </c>
+      <c r="S30" s="17">
+        <v>0</v>
+      </c>
+      <c r="T30" s="17">
+        <v>0</v>
+      </c>
+      <c r="U30" s="17">
+        <v>0</v>
+      </c>
+      <c r="V30" s="17">
+        <v>0</v>
+      </c>
+      <c r="W30" s="17">
+        <v>0</v>
+      </c>
+      <c r="X30" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM30" s="20" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:39">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="3">
         <v>50</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="10">
         <v>720</v>
       </c>
       <c r="F31" s="3">
@@ -3203,39 +6040,99 @@
       <c r="I31" s="3">
         <v>72</v>
       </c>
-      <c r="J31" s="13">
-        <v>0</v>
-      </c>
-      <c r="K31" s="13">
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
         <v>5</v>
       </c>
-      <c r="L31" s="22">
-        <v>0</v>
-      </c>
-      <c r="M31" s="22">
-        <v>0</v>
-      </c>
-      <c r="N31" s="22">
-        <v>0</v>
-      </c>
-      <c r="O31" s="19" t="s">
-        <v>43</v>
+      <c r="L31" s="17">
+        <v>0</v>
+      </c>
+      <c r="M31" s="17">
+        <v>0</v>
+      </c>
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+      <c r="O31" s="17">
+        <v>0</v>
+      </c>
+      <c r="P31" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>0</v>
+      </c>
+      <c r="R31" s="17">
+        <v>0</v>
+      </c>
+      <c r="S31" s="17">
+        <v>0</v>
+      </c>
+      <c r="T31" s="17">
+        <v>0</v>
+      </c>
+      <c r="U31" s="17">
+        <v>0</v>
+      </c>
+      <c r="V31" s="17">
+        <v>0</v>
+      </c>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM31" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:39">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" s="5">
         <v>80</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="11">
         <v>100</v>
       </c>
       <c r="F32" s="5">
@@ -3250,133 +6147,309 @@
       <c r="I32" s="5">
         <v>12</v>
       </c>
-      <c r="J32" s="13">
-        <v>0</v>
-      </c>
-      <c r="K32" s="13">
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
         <v>5</v>
       </c>
-      <c r="L32" s="22">
-        <v>0</v>
-      </c>
-      <c r="M32" s="22">
-        <v>0</v>
-      </c>
-      <c r="N32" s="22">
-        <v>0</v>
-      </c>
-      <c r="O32" s="19" t="s">
-        <v>40</v>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>0</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0</v>
+      </c>
+      <c r="O32" s="17">
+        <v>0</v>
+      </c>
+      <c r="P32" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>0</v>
+      </c>
+      <c r="R32" s="17">
+        <v>0</v>
+      </c>
+      <c r="S32" s="17">
+        <v>0</v>
+      </c>
+      <c r="T32" s="17">
+        <v>0</v>
+      </c>
+      <c r="U32" s="17">
+        <v>0</v>
+      </c>
+      <c r="V32" s="17">
+        <v>0</v>
+      </c>
+      <c r="W32" s="17">
+        <v>0</v>
+      </c>
+      <c r="X32" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM32" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:39">
       <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>5</v>
+      </c>
+      <c r="L33" s="17">
+        <v>0</v>
+      </c>
+      <c r="M33" s="17">
+        <v>0</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="17">
+        <v>0</v>
+      </c>
+      <c r="P33" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="17">
+        <v>0</v>
+      </c>
+      <c r="R33" s="17">
+        <v>0</v>
+      </c>
+      <c r="S33" s="17">
+        <v>0</v>
+      </c>
+      <c r="T33" s="17">
+        <v>0</v>
+      </c>
+      <c r="U33" s="17">
+        <v>0</v>
+      </c>
+      <c r="V33" s="17">
+        <v>0</v>
+      </c>
+      <c r="W33" s="17">
+        <v>0</v>
+      </c>
+      <c r="X33" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="13">
-        <v>0</v>
-      </c>
-      <c r="K33" s="13">
+    </row>
+    <row r="34" spans="1:39">
+      <c r="A34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
         <v>5</v>
       </c>
-      <c r="L33" s="22">
-        <v>0</v>
-      </c>
-      <c r="M33" s="22">
-        <v>0</v>
-      </c>
-      <c r="N33" s="22">
-        <v>0</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>67</v>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>0</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+      <c r="O34" s="17">
+        <v>0</v>
+      </c>
+      <c r="P34" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="17">
+        <v>0</v>
+      </c>
+      <c r="R34" s="17">
+        <v>0</v>
+      </c>
+      <c r="S34" s="17">
+        <v>0</v>
+      </c>
+      <c r="T34" s="17">
+        <v>0</v>
+      </c>
+      <c r="U34" s="17">
+        <v>0</v>
+      </c>
+      <c r="V34" s="17">
+        <v>0</v>
+      </c>
+      <c r="W34" s="17">
+        <v>0</v>
+      </c>
+      <c r="X34" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="16">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0</v>
-      </c>
-      <c r="J34" s="13">
-        <v>0</v>
-      </c>
-      <c r="K34" s="13">
-        <v>5</v>
-      </c>
-      <c r="L34" s="22">
-        <v>0</v>
-      </c>
-      <c r="M34" s="22">
-        <v>0</v>
-      </c>
-      <c r="N34" s="22">
-        <v>0</v>
-      </c>
-      <c r="O34" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:39">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" s="3">
         <v>30</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="10">
         <v>16</v>
       </c>
       <c r="F35" s="3">
@@ -3391,39 +6464,99 @@
       <c r="I35" s="3">
         <v>4</v>
       </c>
-      <c r="J35" s="13">
-        <v>1</v>
-      </c>
-      <c r="K35" s="13">
+      <c r="J35" s="5">
+        <v>1</v>
+      </c>
+      <c r="K35" s="5">
         <v>5</v>
       </c>
-      <c r="L35" s="22">
-        <v>0</v>
-      </c>
-      <c r="M35" s="22">
-        <v>0</v>
-      </c>
-      <c r="N35" s="22">
-        <v>0</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>106</v>
+      <c r="L35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="17">
+        <v>0</v>
+      </c>
+      <c r="N35" s="17">
+        <v>0</v>
+      </c>
+      <c r="O35" s="17">
+        <v>0</v>
+      </c>
+      <c r="P35" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="17">
+        <v>0</v>
+      </c>
+      <c r="R35" s="17">
+        <v>0</v>
+      </c>
+      <c r="S35" s="17">
+        <v>0</v>
+      </c>
+      <c r="T35" s="17">
+        <v>0</v>
+      </c>
+      <c r="U35" s="17">
+        <v>0</v>
+      </c>
+      <c r="V35" s="17">
+        <v>0</v>
+      </c>
+      <c r="W35" s="17">
+        <v>0</v>
+      </c>
+      <c r="X35" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM35" s="20" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:39">
       <c r="A36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="10">
         <v>720</v>
       </c>
       <c r="F36" s="3">
@@ -3438,39 +6571,99 @@
       <c r="I36" s="3">
         <v>12</v>
       </c>
-      <c r="J36" s="13">
-        <v>1</v>
-      </c>
-      <c r="K36" s="13">
-        <v>1</v>
-      </c>
-      <c r="L36" s="22">
-        <v>0</v>
-      </c>
-      <c r="M36" s="22">
-        <v>0</v>
-      </c>
-      <c r="N36" s="22">
-        <v>0</v>
-      </c>
-      <c r="O36" s="19" t="s">
-        <v>58</v>
+      <c r="J36" s="5">
+        <v>1</v>
+      </c>
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="17">
+        <v>0</v>
+      </c>
+      <c r="N36" s="17">
+        <v>0</v>
+      </c>
+      <c r="O36" s="17">
+        <v>0</v>
+      </c>
+      <c r="P36" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>0</v>
+      </c>
+      <c r="R36" s="17">
+        <v>0</v>
+      </c>
+      <c r="S36" s="17">
+        <v>0</v>
+      </c>
+      <c r="T36" s="17">
+        <v>0</v>
+      </c>
+      <c r="U36" s="17">
+        <v>0</v>
+      </c>
+      <c r="V36" s="17">
+        <v>0</v>
+      </c>
+      <c r="W36" s="17">
+        <v>0</v>
+      </c>
+      <c r="X36" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+      <c r="AK36" s="4"/>
+      <c r="AL36" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM36" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:39">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D37" s="5">
         <v>0</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="11">
         <v>0</v>
       </c>
       <c r="F37" s="5">
@@ -3485,39 +6678,97 @@
       <c r="I37" s="5">
         <v>0</v>
       </c>
-      <c r="J37" s="13">
-        <v>1</v>
-      </c>
-      <c r="K37" s="13">
-        <v>1</v>
-      </c>
-      <c r="L37" s="22">
-        <v>0</v>
-      </c>
-      <c r="M37" s="22">
-        <v>0</v>
-      </c>
-      <c r="N37" s="22">
-        <v>0</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>76</v>
+      <c r="J37" s="5">
+        <v>1</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="17">
+        <v>0</v>
+      </c>
+      <c r="N37" s="17">
+        <v>0</v>
+      </c>
+      <c r="O37" s="17">
+        <v>0</v>
+      </c>
+      <c r="P37" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="17">
+        <v>0</v>
+      </c>
+      <c r="R37" s="17">
+        <v>0</v>
+      </c>
+      <c r="S37" s="17">
+        <v>0</v>
+      </c>
+      <c r="T37" s="17">
+        <v>0</v>
+      </c>
+      <c r="U37" s="17">
+        <v>0</v>
+      </c>
+      <c r="V37" s="17">
+        <v>0</v>
+      </c>
+      <c r="W37" s="17">
+        <v>0</v>
+      </c>
+      <c r="X37" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:39">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="10">
         <v>0</v>
       </c>
       <c r="F38" s="3">
@@ -3532,39 +6783,97 @@
       <c r="I38" s="3">
         <v>0</v>
       </c>
-      <c r="J38" s="13">
-        <v>1</v>
-      </c>
-      <c r="K38" s="13">
-        <v>1</v>
-      </c>
-      <c r="L38" s="22">
-        <v>0</v>
-      </c>
-      <c r="M38" s="22">
-        <v>0</v>
-      </c>
-      <c r="N38" s="22">
-        <v>0</v>
-      </c>
-      <c r="O38" s="19" t="s">
-        <v>74</v>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1</v>
+      </c>
+      <c r="L38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="17">
+        <v>0</v>
+      </c>
+      <c r="N38" s="17">
+        <v>0</v>
+      </c>
+      <c r="O38" s="17">
+        <v>0</v>
+      </c>
+      <c r="P38" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>0</v>
+      </c>
+      <c r="R38" s="17">
+        <v>0</v>
+      </c>
+      <c r="S38" s="17">
+        <v>0</v>
+      </c>
+      <c r="T38" s="17">
+        <v>0</v>
+      </c>
+      <c r="U38" s="17">
+        <v>0</v>
+      </c>
+      <c r="V38" s="17">
+        <v>0</v>
+      </c>
+      <c r="W38" s="17">
+        <v>0</v>
+      </c>
+      <c r="X38" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+      <c r="AK38" s="4"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:39">
       <c r="A39" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39" s="5">
         <v>0</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="11">
         <v>0</v>
       </c>
       <c r="F39" s="5">
@@ -3579,39 +6888,97 @@
       <c r="I39" s="5">
         <v>0</v>
       </c>
-      <c r="J39" s="13">
-        <v>1</v>
-      </c>
-      <c r="K39" s="13">
-        <v>1</v>
-      </c>
-      <c r="L39" s="22">
-        <v>0</v>
-      </c>
-      <c r="M39" s="22">
-        <v>0</v>
-      </c>
-      <c r="N39" s="22">
-        <v>0</v>
-      </c>
-      <c r="O39" s="19" t="s">
+      <c r="J39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="17">
+        <v>0</v>
+      </c>
+      <c r="N39" s="17">
+        <v>0</v>
+      </c>
+      <c r="O39" s="17">
+        <v>0</v>
+      </c>
+      <c r="P39" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>0</v>
+      </c>
+      <c r="R39" s="17">
+        <v>0</v>
+      </c>
+      <c r="S39" s="17">
+        <v>0</v>
+      </c>
+      <c r="T39" s="17">
+        <v>0</v>
+      </c>
+      <c r="U39" s="17">
+        <v>0</v>
+      </c>
+      <c r="V39" s="17">
+        <v>0</v>
+      </c>
+      <c r="W39" s="17">
+        <v>0</v>
+      </c>
+      <c r="X39" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39">
+      <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="10">
         <v>0</v>
       </c>
       <c r="F40" s="3">
@@ -3626,39 +6993,97 @@
       <c r="I40" s="3">
         <v>0</v>
       </c>
-      <c r="J40" s="13">
-        <v>1</v>
-      </c>
-      <c r="K40" s="13">
-        <v>1</v>
-      </c>
-      <c r="L40" s="22">
-        <v>0</v>
-      </c>
-      <c r="M40" s="22">
-        <v>0</v>
-      </c>
-      <c r="N40" s="22">
-        <v>0</v>
-      </c>
-      <c r="O40" s="19" t="s">
-        <v>63</v>
+      <c r="J40" s="5">
+        <v>1</v>
+      </c>
+      <c r="K40" s="5">
+        <v>1</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="17">
+        <v>0</v>
+      </c>
+      <c r="N40" s="17">
+        <v>0</v>
+      </c>
+      <c r="O40" s="17">
+        <v>0</v>
+      </c>
+      <c r="P40" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>0</v>
+      </c>
+      <c r="R40" s="17">
+        <v>0</v>
+      </c>
+      <c r="S40" s="17">
+        <v>0</v>
+      </c>
+      <c r="T40" s="17">
+        <v>0</v>
+      </c>
+      <c r="U40" s="17">
+        <v>0</v>
+      </c>
+      <c r="V40" s="17">
+        <v>0</v>
+      </c>
+      <c r="W40" s="17">
+        <v>0</v>
+      </c>
+      <c r="X40" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:39">
       <c r="A41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D41" s="5">
         <v>0</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="11">
         <v>0</v>
       </c>
       <c r="F41" s="5">
@@ -3673,39 +7098,97 @@
       <c r="I41" s="5">
         <v>0</v>
       </c>
-      <c r="J41" s="13">
-        <v>1</v>
-      </c>
-      <c r="K41" s="13">
-        <v>1</v>
-      </c>
-      <c r="L41" s="22">
-        <v>0</v>
-      </c>
-      <c r="M41" s="22">
-        <v>0</v>
-      </c>
-      <c r="N41" s="22">
-        <v>0</v>
-      </c>
-      <c r="O41" s="19" t="s">
-        <v>64</v>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17">
+        <v>0</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+      <c r="O41" s="17">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>0</v>
+      </c>
+      <c r="R41" s="17">
+        <v>0</v>
+      </c>
+      <c r="S41" s="17">
+        <v>0</v>
+      </c>
+      <c r="T41" s="17">
+        <v>0</v>
+      </c>
+      <c r="U41" s="17">
+        <v>0</v>
+      </c>
+      <c r="V41" s="17">
+        <v>0</v>
+      </c>
+      <c r="W41" s="17">
+        <v>0</v>
+      </c>
+      <c r="X41" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="20" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:39">
       <c r="A42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42" s="3">
         <v>400</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="10">
         <v>48</v>
       </c>
       <c r="F42" s="3">
@@ -3720,39 +7203,97 @@
       <c r="I42" s="3">
         <v>12</v>
       </c>
-      <c r="J42" s="13">
-        <v>1</v>
-      </c>
-      <c r="K42" s="13">
-        <v>1</v>
-      </c>
-      <c r="L42" s="22">
-        <v>0</v>
-      </c>
-      <c r="M42" s="22">
-        <v>0</v>
-      </c>
-      <c r="N42" s="22">
-        <v>0</v>
-      </c>
-      <c r="O42" s="19" t="s">
-        <v>54</v>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="K42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="17">
+        <v>0</v>
+      </c>
+      <c r="M42" s="17">
+        <v>0</v>
+      </c>
+      <c r="N42" s="17">
+        <v>0</v>
+      </c>
+      <c r="O42" s="17">
+        <v>0</v>
+      </c>
+      <c r="P42" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="17">
+        <v>0</v>
+      </c>
+      <c r="R42" s="17">
+        <v>0</v>
+      </c>
+      <c r="S42" s="17">
+        <v>0</v>
+      </c>
+      <c r="T42" s="17">
+        <v>0</v>
+      </c>
+      <c r="U42" s="17">
+        <v>0</v>
+      </c>
+      <c r="V42" s="17">
+        <v>0</v>
+      </c>
+      <c r="W42" s="17">
+        <v>0</v>
+      </c>
+      <c r="X42" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="20" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:39">
       <c r="A43" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D43" s="7">
         <v>400</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="12">
         <v>48</v>
       </c>
       <c r="F43" s="7">
@@ -3767,29 +7308,88 @@
       <c r="I43" s="7">
         <v>12</v>
       </c>
-      <c r="J43" s="12">
-        <v>1</v>
-      </c>
-      <c r="K43" s="12">
-        <v>1</v>
-      </c>
-      <c r="L43" s="24">
-        <v>0</v>
-      </c>
-      <c r="M43" s="22">
-        <v>0</v>
-      </c>
-      <c r="N43" s="22">
-        <v>0</v>
-      </c>
-      <c r="O43" s="20" t="s">
-        <v>55</v>
+      <c r="J43" s="7">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7">
+        <v>1</v>
+      </c>
+      <c r="L43" s="18">
+        <v>0</v>
+      </c>
+      <c r="M43" s="17">
+        <v>0</v>
+      </c>
+      <c r="N43" s="17">
+        <v>0</v>
+      </c>
+      <c r="O43" s="17">
+        <v>0</v>
+      </c>
+      <c r="P43" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="17">
+        <v>0</v>
+      </c>
+      <c r="R43" s="17">
+        <v>0</v>
+      </c>
+      <c r="S43" s="17">
+        <v>0</v>
+      </c>
+      <c r="T43" s="17">
+        <v>0</v>
+      </c>
+      <c r="U43" s="17">
+        <v>0</v>
+      </c>
+      <c r="V43" s="17">
+        <v>0</v>
+      </c>
+      <c r="W43" s="17">
+        <v>0</v>
+      </c>
+      <c r="X43" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="21" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -451,13 +451,19 @@
   </si>
   <si>
     <t>Self</t>
+  </si>
+  <si>
+    <t>Death Shout</t>
+  </si>
+  <si>
+    <t>Stuns all enemies within the shout's range for a second. gogoloudwhitegirl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,6 +477,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -589,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -619,71 +631,18 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="43">
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2079,6 +2038,66 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2438,124 +2457,124 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:AM43" tableType="xml" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
-  <autoFilter ref="A2:AM43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:AM44" tableType="xml" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
+  <autoFilter ref="A2:AM44"/>
   <tableColumns count="39">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="42">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="38">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="41">
+    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="37">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="40">
+    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="36">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="39">
+    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="35">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="38">
+    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="34">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Cooldown" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="37">
+    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="33">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="36">
+    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="32">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="35">
+    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="31">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="34">
+    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="30">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Min" name="Min" dataDxfId="33">
+    <tableColumn id="10" uniqueName="Min" name="Min" dataDxfId="29">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Max" name="Max" dataDxfId="32">
+    <tableColumn id="11" uniqueName="Max" name="Max" dataDxfId="28">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Damage" name="Damage" dataDxfId="31">
+    <tableColumn id="12" uniqueName="Damage" name="Damage" dataDxfId="27">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Damage" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Speed" name="Speed" dataDxfId="30">
+    <tableColumn id="13" uniqueName="Speed" name="Speed" dataDxfId="26">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="StunDur" name="StunDur" dataDxfId="29">
+    <tableColumn id="14" uniqueName="StunDur" name="StunDur" dataDxfId="25">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/StunDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="SlowDur" name="SlowDur" dataDxfId="28">
+    <tableColumn id="15" uniqueName="SlowDur" name="SlowDur" dataDxfId="24">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SlowDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="SickDur" name="SickDur" dataDxfId="27">
+    <tableColumn id="16" uniqueName="SickDur" name="SickDur" dataDxfId="23">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SickDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="ExhaustDur" name="ExhaustDur" dataDxfId="26">
+    <tableColumn id="17" uniqueName="ExhaustDur" name="ExhaustDur" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/ExhaustDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="RegenDur" name="RegenDur" dataDxfId="25">
+    <tableColumn id="18" uniqueName="RegenDur" name="RegenDur" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/RegenDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="19" uniqueName="SlowPerc" name="SlowPerc" dataDxfId="24">
+    <tableColumn id="19" uniqueName="SlowPerc" name="SlowPerc" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SlowPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="20" uniqueName="SickPerc" name="SickPerc" dataDxfId="23">
+    <tableColumn id="20" uniqueName="SickPerc" name="SickPerc" dataDxfId="19">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SickPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="21" uniqueName="RegenPerc" name="RegenPerc" dataDxfId="22">
+    <tableColumn id="21" uniqueName="RegenPerc" name="RegenPerc" dataDxfId="18">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/RegenPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="22" uniqueName="HPPerc" name="HPPerc" dataDxfId="21">
+    <tableColumn id="22" uniqueName="HPPerc" name="HPPerc" dataDxfId="17">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/HPPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="23" uniqueName="HPLump" name="HPLump" dataDxfId="20">
+    <tableColumn id="23" uniqueName="HPLump" name="HPLump" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/HPLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="24" uniqueName="APPerc" name="APPerc" dataDxfId="19">
+    <tableColumn id="24" uniqueName="APPerc" name="APPerc" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/APPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="25" uniqueName="APLump" name="APLump" dataDxfId="18">
+    <tableColumn id="25" uniqueName="APLump" name="APLump" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/APLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="26" uniqueName="DPLump" name="DPLump" dataDxfId="17">
+    <tableColumn id="26" uniqueName="DPLump" name="DPLump" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/DPLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="27" uniqueName="SPPerc" name="SPPerc" dataDxfId="16">
+    <tableColumn id="27" uniqueName="SPPerc" name="SPPerc" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SPPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="28" uniqueName="SPLump" name="SPLump" dataDxfId="15">
+    <tableColumn id="28" uniqueName="SPLump" name="SPLump" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SPLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="29" uniqueName="CDPerc" name="CDPerc" dataDxfId="14">
+    <tableColumn id="29" uniqueName="CDPerc" name="CDPerc" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/CDPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="30" uniqueName="CDLump" name="CDLump" dataDxfId="13">
+    <tableColumn id="30" uniqueName="CDLump" name="CDLump" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/CDLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="31" uniqueName="Move" name="Move" dataDxfId="12">
+    <tableColumn id="31" uniqueName="Move" name="Move" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Move" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="32" uniqueName="Tank" name="Tank" dataDxfId="11">
+    <tableColumn id="32" uniqueName="Tank" name="Tank" dataDxfId="7">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Tank" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="33" uniqueName="Sprite" name="Sprite" dataDxfId="10">
+    <tableColumn id="33" uniqueName="Sprite" name="Sprite" dataDxfId="6">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Sprite" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="34" uniqueName="HitAnimation" name="HitAnimation" dataDxfId="9">
+    <tableColumn id="34" uniqueName="HitAnimation" name="HitAnimation" dataDxfId="5">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/HitAnimation" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="35" uniqueName="Bullet" name="Bullet" dataDxfId="8">
+    <tableColumn id="35" uniqueName="Bullet" name="Bullet" dataDxfId="4">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Bullet" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="36" uniqueName="BulletMovement" name="BulletMovement" dataDxfId="7">
+    <tableColumn id="36" uniqueName="BulletMovement" name="BulletMovement" dataDxfId="3">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/BulletMovement" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="37" uniqueName="BulletRange" name="BulletRange" dataDxfId="6">
+    <tableColumn id="37" uniqueName="BulletRange" name="BulletRange" dataDxfId="2">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/BulletRange" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="38" uniqueName="Target" name="Target" dataDxfId="5">
+    <tableColumn id="38" uniqueName="Target" name="Target" dataDxfId="1">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="39" uniqueName="Description" name="Description" dataDxfId="4">
+    <tableColumn id="39" uniqueName="Description" name="Description" dataDxfId="0">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -2848,11 +2867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE44" sqref="AE44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4192,142 +4211,144 @@
       </c>
     </row>
     <row r="14" spans="1:39">
-      <c r="A14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="C14" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="24">
+        <v>200</v>
+      </c>
+      <c r="E14" s="25">
+        <v>120</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24">
+        <v>1</v>
+      </c>
+      <c r="H14" s="24">
+        <v>0</v>
+      </c>
+      <c r="I14" s="24">
         <v>24</v>
       </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="J14" s="24">
+        <v>0</v>
+      </c>
+      <c r="K14" s="24">
         <v>5</v>
       </c>
-      <c r="L14" s="17">
-        <v>0</v>
-      </c>
-      <c r="M14" s="17">
-        <v>0</v>
-      </c>
-      <c r="N14" s="17">
-        <v>0</v>
-      </c>
-      <c r="O14" s="17">
-        <v>0</v>
-      </c>
-      <c r="P14" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>0</v>
-      </c>
-      <c r="R14" s="17">
-        <v>0</v>
-      </c>
-      <c r="S14" s="17">
-        <v>0</v>
-      </c>
-      <c r="T14" s="17">
-        <v>0</v>
-      </c>
-      <c r="U14" s="17">
-        <v>0</v>
-      </c>
-      <c r="V14" s="17">
-        <v>0</v>
-      </c>
-      <c r="W14" s="17">
-        <v>0</v>
-      </c>
-      <c r="X14" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM14" s="20" t="s">
-        <v>124</v>
+      <c r="L14" s="26">
+        <v>0</v>
+      </c>
+      <c r="M14" s="26">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26">
+        <v>0</v>
+      </c>
+      <c r="O14" s="26">
+        <v>0</v>
+      </c>
+      <c r="P14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>0</v>
+      </c>
+      <c r="R14" s="26">
+        <v>0</v>
+      </c>
+      <c r="S14" s="26">
+        <v>0</v>
+      </c>
+      <c r="T14" s="26">
+        <v>0</v>
+      </c>
+      <c r="U14" s="26">
+        <v>0</v>
+      </c>
+      <c r="V14" s="26">
+        <v>0</v>
+      </c>
+      <c r="W14" s="26">
+        <v>0</v>
+      </c>
+      <c r="X14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="26">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM14" s="27" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:39">
-      <c r="A15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="5">
-        <v>400</v>
-      </c>
-      <c r="E15" s="11">
-        <v>12</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>6</v>
+      <c r="A15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>24</v>
       </c>
       <c r="J15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="5">
         <v>5</v>
@@ -4399,24 +4420,24 @@
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AM15" s="20" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="5">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="E16" s="11">
         <v>12</v>
@@ -4509,39 +4530,39 @@
         <v>142</v>
       </c>
       <c r="AM16" s="20" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:39">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="3">
-        <v>50</v>
-      </c>
-      <c r="E17" s="10">
-        <v>60</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>24</v>
+      <c r="D17" s="5">
+        <v>80</v>
+      </c>
+      <c r="E17" s="11">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>6</v>
       </c>
       <c r="J17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5">
         <v>5</v>
@@ -4616,35 +4637,35 @@
         <v>142</v>
       </c>
       <c r="AM17" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:39">
-      <c r="A18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="5">
-        <v>100</v>
-      </c>
-      <c r="E18" s="11">
-        <v>70</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>2</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="D18" s="3">
+        <v>50</v>
+      </c>
+      <c r="E18" s="10">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>24</v>
       </c>
       <c r="J18" s="5">
@@ -4723,35 +4744,35 @@
         <v>142</v>
       </c>
       <c r="AM18" s="20" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:39">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>100</v>
       </c>
-      <c r="E19" s="10">
-        <v>80</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="E19" s="11">
+        <v>70</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
         <v>24</v>
       </c>
       <c r="J19" s="5">
@@ -4830,39 +4851,39 @@
         <v>142</v>
       </c>
       <c r="AM19" s="20" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:39">
-      <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="5">
-        <v>300</v>
-      </c>
-      <c r="E20" s="11">
-        <v>12</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="10">
+        <v>80</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>24</v>
       </c>
       <c r="J20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5">
         <v>5</v>
@@ -4937,39 +4958,39 @@
         <v>142</v>
       </c>
       <c r="AM20" s="20" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E21" s="11">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="F21" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
       </c>
       <c r="I21" s="5">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="J21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5">
         <v>5</v>
@@ -5044,36 +5065,36 @@
         <v>142</v>
       </c>
       <c r="AM21" s="20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:39">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="3">
-        <v>500</v>
-      </c>
-      <c r="E22" s="10">
-        <v>120</v>
-      </c>
-      <c r="F22" s="3">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="D22" s="5">
+        <v>200</v>
+      </c>
+      <c r="E22" s="11">
+        <v>80</v>
+      </c>
+      <c r="F22" s="5">
         <v>2</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>8</v>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>24</v>
       </c>
       <c r="J22" s="5">
         <v>0</v>
@@ -5141,9 +5162,7 @@
       <c r="AE22" s="17">
         <v>1</v>
       </c>
-      <c r="AF22" s="4">
-        <v>1</v>
-      </c>
+      <c r="AF22" s="4"/>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
@@ -5153,36 +5172,36 @@
         <v>142</v>
       </c>
       <c r="AM22" s="20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:39">
-      <c r="A23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="5">
-        <v>300</v>
-      </c>
-      <c r="E23" s="11">
-        <v>90</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="10">
+        <v>120</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <v>24</v>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>8</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
@@ -5250,7 +5269,9 @@
       <c r="AE23" s="17">
         <v>1</v>
       </c>
-      <c r="AF23" s="4"/>
+      <c r="AF23" s="4">
+        <v>1</v>
+      </c>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
@@ -5260,36 +5281,36 @@
         <v>142</v>
       </c>
       <c r="AM23" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:39">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>80</v>
+      <c r="C24" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D24" s="5">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="11">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F24" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" s="5">
         <v>0</v>
       </c>
       <c r="I24" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
@@ -5364,42 +5385,42 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AM24" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" s="4" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D25" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E25" s="11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
       </c>
       <c r="I25" s="5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="5">
         <v>5</v>
@@ -5471,15 +5492,15 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AM25" s="20" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:39">
       <c r="A26" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>108</v>
@@ -5490,23 +5511,23 @@
       <c r="D26" s="5">
         <v>100</v>
       </c>
-      <c r="E26" s="5">
-        <v>55</v>
+      <c r="E26" s="11">
+        <v>16</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
       </c>
       <c r="G26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
       </c>
       <c r="I26" s="5">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J26" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="5">
         <v>5</v>
@@ -5581,12 +5602,12 @@
         <v>142</v>
       </c>
       <c r="AM26" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:39">
       <c r="A27" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>108</v>
@@ -5595,10 +5616,10 @@
         <v>76</v>
       </c>
       <c r="D27" s="5">
-        <v>150</v>
-      </c>
-      <c r="E27" s="3">
-        <v>24</v>
+        <v>100</v>
+      </c>
+      <c r="E27" s="5">
+        <v>55</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
@@ -5687,31 +5708,31 @@
       <c r="AL27" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AM27" s="22" t="s">
-        <v>114</v>
+      <c r="AM27" s="20" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D28" s="5">
-        <v>0</v>
-      </c>
-      <c r="E28" s="5">
-        <v>110</v>
+        <v>150</v>
+      </c>
+      <c r="E28" s="3">
+        <v>24</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
       </c>
       <c r="G28" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28" s="5">
         <v>0</v>
@@ -5756,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W28" s="17">
         <v>0</v>
@@ -5792,42 +5813,42 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM28" s="20" t="s">
-        <v>115</v>
+        <v>142</v>
+      </c>
+      <c r="AM28" s="22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:39">
-      <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="3">
-        <v>60</v>
-      </c>
-      <c r="E29" s="10">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>4</v>
+      <c r="A29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>110</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>3</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>12</v>
       </c>
       <c r="J29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="5">
         <v>5</v>
@@ -5863,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W29" s="17">
         <v>0</v>
@@ -5899,42 +5920,42 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AM29" s="20" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:39">
-      <c r="A30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="5">
-        <v>70</v>
-      </c>
-      <c r="E30" s="11">
-        <v>720</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3</v>
-      </c>
-      <c r="G30" s="5">
-        <v>3</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="C30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="3">
+        <v>60</v>
+      </c>
+      <c r="E30" s="10">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
         <v>4</v>
       </c>
       <c r="J30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="5">
         <v>5</v>
@@ -6006,39 +6027,39 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AM30" s="20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:39">
-      <c r="A31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="3">
-        <v>50</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="C31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="5">
+        <v>70</v>
+      </c>
+      <c r="E31" s="11">
         <v>720</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="5">
         <v>3</v>
       </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>72</v>
+      <c r="G31" s="5">
+        <v>3</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>4</v>
       </c>
       <c r="J31" s="5">
         <v>0</v>
@@ -6113,39 +6134,39 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM31" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:39">
-      <c r="A32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="5">
-        <v>80</v>
-      </c>
-      <c r="E32" s="11">
-        <v>100</v>
-      </c>
-      <c r="F32" s="5">
-        <v>5</v>
-      </c>
-      <c r="G32" s="5">
-        <v>2</v>
-      </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>12</v>
+      <c r="C32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3">
+        <v>50</v>
+      </c>
+      <c r="E32" s="10">
+        <v>720</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>72</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
@@ -6220,39 +6241,39 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AM32" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:39">
-      <c r="A33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="5">
         <v>80</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
+      <c r="E33" s="11">
+        <v>100</v>
+      </c>
+      <c r="F33" s="5">
+        <v>5</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>12</v>
       </c>
       <c r="J33" s="5">
         <v>0</v>
@@ -6326,37 +6347,39 @@
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
+      <c r="AL33" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="AM33" s="20" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:39">
-      <c r="A34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="5">
-        <v>0</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
         <v>0</v>
       </c>
       <c r="J34" s="5">
@@ -6433,39 +6456,39 @@
       <c r="AK34" s="4"/>
       <c r="AL34" s="4"/>
       <c r="AM34" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:39">
-      <c r="A35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="3">
-        <v>30</v>
-      </c>
-      <c r="E35" s="10">
-        <v>16</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>4</v>
+      <c r="A35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
       </c>
       <c r="J35" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="5">
         <v>5</v>
@@ -6536,28 +6559,26 @@
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4"/>
-      <c r="AL35" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="AL35" s="4"/>
       <c r="AM35" s="20" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E36" s="10">
-        <v>720</v>
+        <v>16</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -6566,16 +6587,16 @@
         <v>1</v>
       </c>
       <c r="H36" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J36" s="5">
         <v>1</v>
       </c>
       <c r="K36" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L36" s="17">
         <v>0</v>
@@ -6647,36 +6668,36 @@
         <v>142</v>
       </c>
       <c r="AM36" s="20" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:39">
-      <c r="A37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5">
-        <v>5</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0</v>
+      <c r="C37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
+        <v>720</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>20</v>
+      </c>
+      <c r="I37" s="3">
+        <v>12</v>
       </c>
       <c r="J37" s="5">
         <v>1</v>
@@ -6750,37 +6771,39 @@
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
+      <c r="AL37" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="AM37" s="20" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3">
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
         <v>5</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="5">
         <v>0</v>
       </c>
       <c r="J38" s="5">
@@ -6857,35 +6880,35 @@
       <c r="AK38" s="4"/>
       <c r="AL38" s="4"/>
       <c r="AM38" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="11">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0</v>
-      </c>
-      <c r="H39" s="5">
-        <v>15</v>
-      </c>
-      <c r="I39" s="5">
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5</v>
+      </c>
+      <c r="I39" s="3">
         <v>0</v>
       </c>
       <c r="J39" s="5">
@@ -6962,35 +6985,35 @@
       <c r="AK39" s="4"/>
       <c r="AL39" s="4"/>
       <c r="AM39" s="20" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>30</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>15</v>
+      </c>
+      <c r="I40" s="5">
         <v>0</v>
       </c>
       <c r="J40" s="5">
@@ -7067,35 +7090,35 @@
       <c r="AK40" s="4"/>
       <c r="AL40" s="4"/>
       <c r="AM40" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="5">
-        <v>0</v>
-      </c>
-      <c r="E41" s="11">
-        <v>0</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5">
-        <v>60</v>
-      </c>
-      <c r="I41" s="5">
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>30</v>
+      </c>
+      <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="5">
@@ -7172,36 +7195,36 @@
       <c r="AK41" s="4"/>
       <c r="AL41" s="4"/>
       <c r="AM41" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="3">
-        <v>400</v>
-      </c>
-      <c r="E42" s="10">
-        <v>48</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>2</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>12</v>
+      <c r="A42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>60</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
       </c>
       <c r="J42" s="5">
         <v>1</v>
@@ -7277,111 +7300,216 @@
       <c r="AK42" s="4"/>
       <c r="AL42" s="4"/>
       <c r="AM42" s="20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="10">
+        <v>48</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>12</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>1</v>
+      </c>
+      <c r="L43" s="17">
+        <v>0</v>
+      </c>
+      <c r="M43" s="17">
+        <v>0</v>
+      </c>
+      <c r="N43" s="17">
+        <v>0</v>
+      </c>
+      <c r="O43" s="17">
+        <v>0</v>
+      </c>
+      <c r="P43" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="17">
+        <v>0</v>
+      </c>
+      <c r="R43" s="17">
+        <v>0</v>
+      </c>
+      <c r="S43" s="17">
+        <v>0</v>
+      </c>
+      <c r="T43" s="17">
+        <v>0</v>
+      </c>
+      <c r="U43" s="17">
+        <v>0</v>
+      </c>
+      <c r="V43" s="17">
+        <v>0</v>
+      </c>
+      <c r="W43" s="17">
+        <v>0</v>
+      </c>
+      <c r="X43" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
+      <c r="AH43" s="4"/>
+      <c r="AI43" s="4"/>
+      <c r="AJ43" s="4"/>
+      <c r="AK43" s="4"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39">
+      <c r="A44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D44" s="7">
         <v>400</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E44" s="12">
         <v>48</v>
       </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="7">
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
         <v>2</v>
       </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
+      <c r="H44" s="7">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
         <v>12</v>
       </c>
-      <c r="J43" s="7">
-        <v>1</v>
-      </c>
-      <c r="K43" s="7">
-        <v>1</v>
-      </c>
-      <c r="L43" s="18">
-        <v>0</v>
-      </c>
-      <c r="M43" s="17">
-        <v>0</v>
-      </c>
-      <c r="N43" s="17">
-        <v>0</v>
-      </c>
-      <c r="O43" s="17">
-        <v>0</v>
-      </c>
-      <c r="P43" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="17">
-        <v>0</v>
-      </c>
-      <c r="R43" s="17">
-        <v>0</v>
-      </c>
-      <c r="S43" s="17">
-        <v>0</v>
-      </c>
-      <c r="T43" s="17">
-        <v>0</v>
-      </c>
-      <c r="U43" s="17">
-        <v>0</v>
-      </c>
-      <c r="V43" s="17">
-        <v>0</v>
-      </c>
-      <c r="W43" s="17">
-        <v>0</v>
-      </c>
-      <c r="X43" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
-      <c r="AL43" s="6"/>
-      <c r="AM43" s="21" t="s">
+      <c r="J44" s="7">
+        <v>1</v>
+      </c>
+      <c r="K44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="18">
+        <v>0</v>
+      </c>
+      <c r="M44" s="17">
+        <v>0</v>
+      </c>
+      <c r="N44" s="17">
+        <v>0</v>
+      </c>
+      <c r="O44" s="17">
+        <v>0</v>
+      </c>
+      <c r="P44" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="17">
+        <v>0</v>
+      </c>
+      <c r="R44" s="17">
+        <v>0</v>
+      </c>
+      <c r="S44" s="17">
+        <v>0</v>
+      </c>
+      <c r="T44" s="17">
+        <v>0</v>
+      </c>
+      <c r="U44" s="17">
+        <v>0</v>
+      </c>
+      <c r="V44" s="17">
+        <v>0</v>
+      </c>
+      <c r="W44" s="17">
+        <v>0</v>
+      </c>
+      <c r="X44" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6"/>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="21" t="s">
         <v>54</v>
       </c>
     </row>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="180">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>C. Kata</t>
   </si>
   <si>
-    <t>Stomping Ground</t>
-  </si>
-  <si>
     <t>John T.</t>
   </si>
   <si>
@@ -66,21 +63,12 @@
     <t>Mediation</t>
   </si>
   <si>
-    <t>Stuns an enemy for two seconds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoots four arrows toward a target. </t>
-  </si>
-  <si>
     <t>Hoverpad Attack</t>
   </si>
   <si>
     <t>Railgun Attack</t>
   </si>
   <si>
-    <t>Throws a random shoe toward a target out of anger.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dashes in a straight line, inflicting Stun. </t>
   </si>
   <si>
@@ -96,9 +84,6 @@
     <t>Creates a magic and apologetic wall that lasts for four seconds.</t>
   </si>
   <si>
-    <t>Restores 1 HP per second. But really, he stopped doing this a few months ago. No REALLY. OMG SHUT UP, YOU HATER.</t>
-  </si>
-  <si>
     <t>Perk-kulate</t>
   </si>
   <si>
@@ -165,9 +150,6 @@
     <t>Improve self and ally's attack speeds</t>
   </si>
   <si>
-    <t>Teleport self and ally to a point</t>
-  </si>
-  <si>
     <t>Girly Swirl</t>
   </si>
   <si>
@@ -195,12 +177,6 @@
     <t>Second Chance</t>
   </si>
   <si>
-    <t>Revives this Unit to 1 HP after he/she reaches 0 HP. Can only be used once per stage.</t>
-  </si>
-  <si>
-    <t>Second Wind</t>
-  </si>
-  <si>
     <t>Second World</t>
   </si>
   <si>
@@ -249,9 +225,6 @@
     <t>Damage</t>
   </si>
   <si>
-    <t>Support</t>
-  </si>
-  <si>
     <t>Teleport</t>
   </si>
   <si>
@@ -267,9 +240,6 @@
     <t>Stop</t>
   </si>
   <si>
-    <t>Nothing</t>
-  </si>
-  <si>
     <t>Claw Attack</t>
   </si>
   <si>
@@ -339,9 +309,6 @@
     <t>HPLump</t>
   </si>
   <si>
-    <t>Voice Attack</t>
-  </si>
-  <si>
     <t>Huong V.</t>
   </si>
   <si>
@@ -390,9 +357,6 @@
     <t>A. Mediation</t>
   </si>
   <si>
-    <t>[Aggressive Mediation] Jump up and down violently, which solves nothing at all. HA TAKE THAT KATA</t>
-  </si>
-  <si>
     <t>SlowPerc</t>
   </si>
   <si>
@@ -457,6 +421,141 @@
   </si>
   <si>
     <t>Stuns all enemies within the shout's range for a second. gogoloudwhitegirl</t>
+  </si>
+  <si>
+    <t>Beatrice C.</t>
+  </si>
+  <si>
+    <t>Happiness</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>Tevin J.</t>
+  </si>
+  <si>
+    <t>Lung Crusher</t>
+  </si>
+  <si>
+    <t>Deep Sleep</t>
+  </si>
+  <si>
+    <t>Sonic Laugh</t>
+  </si>
+  <si>
+    <t>Basic Attack: Charge toward an enemy and overpower it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restores HP over time. Tevin cannot move nor use abilities during this time. </t>
+  </si>
+  <si>
+    <t>Launches a conical sound blast in front of him, damaging and slowing down enemies.</t>
+  </si>
+  <si>
+    <t>Crushes the enemy through the power of hugging at close-range.</t>
+  </si>
+  <si>
+    <t>Raymon B.</t>
+  </si>
+  <si>
+    <t>Siphon</t>
+  </si>
+  <si>
+    <t>Shockwave</t>
+  </si>
+  <si>
+    <t>Bio-Leech</t>
+  </si>
+  <si>
+    <t>Overload</t>
+  </si>
+  <si>
+    <t>Machine Gun Attack</t>
+  </si>
+  <si>
+    <t>Strength Attack</t>
+  </si>
+  <si>
+    <t>Seals an enemy in a magical circlet, which slows the enemy and siphons HP after a few seconds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creates a temporary aura of circles that heals Cia and deals damage to closeby enemies. </t>
+  </si>
+  <si>
+    <t>Cheer</t>
+  </si>
+  <si>
+    <t>C. Kata restores some HP every few seconds.</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Downgrade</t>
+  </si>
+  <si>
+    <t>Nearby enemies surrounding Cia are slowed for a few seconds.</t>
+  </si>
+  <si>
+    <t>Stuns an enemy for a few seconds.</t>
+  </si>
+  <si>
+    <t>Restores a small amount of HP per second. But really, he stopped doing this a few months ago. REALLY. OMG SHUT UP, YOU HATER.</t>
+  </si>
+  <si>
+    <t>Logic Puzzle</t>
+  </si>
+  <si>
+    <t>Bling Bling</t>
+  </si>
+  <si>
+    <t>Taking Heart</t>
+  </si>
+  <si>
+    <t>Damages enemies in a wave</t>
+  </si>
+  <si>
+    <t>Drain HP from target enemy</t>
+  </si>
+  <si>
+    <t>After channeling, unleash massive damage to nearby enemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Attack: Shoot down an enemy with rapid gunfire. </t>
+  </si>
+  <si>
+    <t>Creates a ray of solar energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gains one solar charge every few seconds. After gaining three charges and activating again, sends forth bursts of solar energy. </t>
+  </si>
+  <si>
+    <t>Teleports Charles and Nate to a point. Afterwards, shoots kunais outward that temporarily stuns nearby enemies.</t>
+  </si>
+  <si>
+    <t>Ananya A.</t>
+  </si>
+  <si>
+    <t>Final Destination</t>
+  </si>
+  <si>
+    <t>Change X's and Ananya's Friendship Finale to Destination Zero.</t>
+  </si>
+  <si>
+    <t>[Aggressive Mediation] Jump up and down violently. Probably does nothing at all. HA TAKE THAT KATA</t>
+  </si>
+  <si>
+    <t>Arrow Control</t>
+  </si>
+  <si>
+    <t>Megaphone Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throws a random shoe toward a target out of anger. </t>
+  </si>
+  <si>
+    <t>Shoots arrows toward a target.</t>
   </si>
 </sst>
 </file>
@@ -601,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -638,6 +737,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2457,8 +2560,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:AM44" tableType="xml" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
-  <autoFilter ref="A2:AM44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:AM58" tableType="xml" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
+  <autoFilter ref="A2:AM58"/>
   <tableColumns count="39">
     <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="38">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
@@ -2867,18 +2970,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM14" sqref="AM14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
@@ -2904,12 +3007,12 @@
     <col min="35" max="35" width="9" customWidth="1"/>
     <col min="36" max="37" width="17.42578125" customWidth="1"/>
     <col min="38" max="38" width="10.42578125" customWidth="1"/>
-    <col min="39" max="39" width="107" customWidth="1"/>
+    <col min="39" max="39" width="119.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39">
       <c r="G1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="15.75" thickBot="1">
@@ -2920,7 +3023,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>2</v>
@@ -2941,91 +3044,91 @@
         <v>8</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="O2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF2" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="AG2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL2" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF2" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG2" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH2" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI2" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL2" s="19" t="s">
-        <v>140</v>
       </c>
       <c r="AM2" s="19" t="s">
         <v>1</v>
@@ -3033,13 +3136,13 @@
     </row>
     <row r="3" spans="1:39" ht="15.75" thickTop="1">
       <c r="A3" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3">
         <v>80</v>
@@ -3066,10 +3169,10 @@
         <v>5</v>
       </c>
       <c r="L3" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3" s="17">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N3" s="17">
         <v>0</v>
@@ -3132,21 +3235,21 @@
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM3" s="20" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:39">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3">
         <v>80</v>
@@ -3173,7 +3276,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M4" s="17">
         <v>0</v>
@@ -3241,21 +3344,21 @@
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM4" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="D5" s="5">
         <v>140</v>
@@ -3348,21 +3451,21 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AM5" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D6" s="3">
         <v>30</v>
@@ -3389,10 +3492,10 @@
         <v>5</v>
       </c>
       <c r="L6" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M6" s="17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N6" s="17">
         <v>0</v>
@@ -3455,21 +3558,21 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM6" s="20" t="s">
-        <v>49</v>
+        <v>131</v>
+      </c>
+      <c r="AM6" s="30" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="A7" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D7" s="3">
         <v>20</v>
@@ -3496,10 +3599,10 @@
         <v>5</v>
       </c>
       <c r="L7" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M7" s="17">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N7" s="17">
         <v>0</v>
@@ -3562,21 +3665,21 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM7" s="20" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -3669,21 +3772,21 @@
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AM8" s="20" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:39">
       <c r="A9" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3">
         <v>120</v>
@@ -3710,10 +3813,10 @@
         <v>5</v>
       </c>
       <c r="L9" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9" s="17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N9" s="17">
         <v>0</v>
@@ -3776,21 +3879,21 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM9" s="20" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>157</v>
       </c>
       <c r="D10" s="5">
         <v>50</v>
@@ -3883,21 +3986,21 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AM10" s="20" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3">
         <v>400</v>
@@ -3924,10 +4027,10 @@
         <v>5</v>
       </c>
       <c r="L11" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="17">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N11" s="17">
         <v>0</v>
@@ -3990,10 +4093,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM11" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -4004,7 +4107,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D12" s="3">
         <v>500</v>
@@ -4031,10 +4134,10 @@
         <v>5</v>
       </c>
       <c r="L12" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" s="17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N12" s="17">
         <v>0</v>
@@ -4097,10 +4200,10 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM12" s="20" t="s">
-        <v>16</v>
+        <v>130</v>
+      </c>
+      <c r="AM12" s="30" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -4111,7 +4214,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3">
         <v>500</v>
@@ -4138,10 +4241,10 @@
         <v>5</v>
       </c>
       <c r="L13" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M13" s="17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N13" s="17">
         <v>0</v>
@@ -4204,21 +4307,21 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM13" s="20" t="s">
-        <v>20</v>
+        <v>130</v>
+      </c>
+      <c r="AM13" s="30" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="23" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D14" s="24">
         <v>200</v>
@@ -4245,10 +4348,10 @@
         <v>5</v>
       </c>
       <c r="L14" s="26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M14" s="26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N14" s="26">
         <v>0</v>
@@ -4313,30 +4416,30 @@
       <c r="AJ14" s="26"/>
       <c r="AK14" s="26"/>
       <c r="AL14" s="23" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM14" s="27" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>83</v>
+      <c r="C15" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="10">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F15" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -4351,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L15" s="17">
         <v>0</v>
       </c>
       <c r="M15" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N15" s="17">
         <v>0</v>
@@ -4419,22 +4522,22 @@
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
-      <c r="AL15" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM15" s="20" t="s">
-        <v>124</v>
+      <c r="AL15" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM15" s="30" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5">
         <v>400</v>
@@ -4461,10 +4564,10 @@
         <v>5</v>
       </c>
       <c r="L16" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N16" s="17">
         <v>0</v>
@@ -4527,51 +4630,51 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM16" s="20" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:39">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="5">
-        <v>80</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="A17" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="24">
+        <v>50</v>
+      </c>
+      <c r="E17" s="25">
+        <v>120</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0</v>
+      </c>
+      <c r="I17" s="24">
         <v>12</v>
       </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>6</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="J17" s="24">
+        <v>0</v>
+      </c>
+      <c r="K17" s="24">
         <v>5</v>
       </c>
       <c r="L17" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17" s="17">
         <v>0</v>
@@ -4627,55 +4730,55 @@
       <c r="AE17" s="17">
         <v>1</v>
       </c>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM17" s="20" t="s">
-        <v>33</v>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM17" s="27" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:39">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="3">
-        <v>50</v>
-      </c>
-      <c r="E18" s="10">
-        <v>60</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>24</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="A18" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="24">
+        <v>800</v>
+      </c>
+      <c r="E18" s="25">
+        <v>120</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>2</v>
+      </c>
+      <c r="H18" s="24">
+        <v>0</v>
+      </c>
+      <c r="I18" s="24">
+        <v>12</v>
+      </c>
+      <c r="J18" s="24">
+        <v>0</v>
+      </c>
+      <c r="K18" s="24">
         <v>5</v>
       </c>
       <c r="L18" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M18" s="17">
         <v>0</v>
@@ -4732,60 +4835,60 @@
         <v>0</v>
       </c>
       <c r="AE18" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM18" s="20" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM18" s="27" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:39">
-      <c r="A19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="A19" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="24">
         <v>100</v>
       </c>
-      <c r="E19" s="11">
-        <v>70</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>2</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>24</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="E19" s="25">
+        <v>120</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24">
+        <v>12</v>
+      </c>
+      <c r="J19" s="24">
+        <v>0</v>
+      </c>
+      <c r="K19" s="24">
         <v>5</v>
       </c>
       <c r="L19" s="17">
         <v>0</v>
       </c>
       <c r="M19" s="17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N19" s="17">
         <v>0</v>
@@ -4839,53 +4942,53 @@
         <v>0</v>
       </c>
       <c r="AE19" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM19" s="20" t="s">
-        <v>99</v>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM19" s="27" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:39">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="3">
-        <v>100</v>
-      </c>
-      <c r="E20" s="10">
-        <v>80</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>24</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
+      <c r="A20" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24">
+        <v>0</v>
+      </c>
+      <c r="J20" s="24">
+        <v>0</v>
+      </c>
+      <c r="K20" s="24">
         <v>5</v>
       </c>
       <c r="L20" s="17">
@@ -4946,33 +5049,33 @@
         <v>0</v>
       </c>
       <c r="AE20" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM20" s="20" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM20" s="27" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:39">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D21" s="5">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="E21" s="11">
         <v>12</v>
@@ -4987,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J21" s="5">
         <v>1</v>
@@ -4996,10 +5099,10 @@
         <v>5</v>
       </c>
       <c r="L21" s="17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M21" s="17">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N21" s="17">
         <v>0</v>
@@ -5062,38 +5165,38 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM21" s="20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:39">
-      <c r="A22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>13</v>
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="5">
-        <v>200</v>
-      </c>
-      <c r="E22" s="11">
-        <v>80</v>
-      </c>
-      <c r="F22" s="5">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5">
-        <v>2</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3">
+        <v>50</v>
+      </c>
+      <c r="E22" s="10">
+        <v>60</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>24</v>
       </c>
       <c r="J22" s="5">
@@ -5103,10 +5206,10 @@
         <v>5</v>
       </c>
       <c r="L22" s="17">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M22" s="17">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N22" s="17">
         <v>0</v>
@@ -5169,39 +5272,39 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM22" s="20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:39">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>13</v>
+      <c r="A23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="3">
-        <v>500</v>
-      </c>
-      <c r="E23" s="10">
-        <v>120</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
+        <v>68</v>
+      </c>
+      <c r="D23" s="5">
+        <v>100</v>
+      </c>
+      <c r="E23" s="11">
+        <v>70</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
         <v>2</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>8</v>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>24</v>
       </c>
       <c r="J23" s="5">
         <v>0</v>
@@ -5210,10 +5313,10 @@
         <v>5</v>
       </c>
       <c r="L23" s="17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M23" s="17">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="N23" s="17">
         <v>0</v>
@@ -5269,47 +5372,45 @@
       <c r="AE23" s="17">
         <v>1</v>
       </c>
-      <c r="AF23" s="4">
-        <v>1</v>
-      </c>
+      <c r="AF23" s="4"/>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM23" s="20" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:39">
-      <c r="A24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="5">
-        <v>300</v>
-      </c>
-      <c r="E24" s="11">
-        <v>90</v>
-      </c>
-      <c r="F24" s="5">
-        <v>2</v>
-      </c>
-      <c r="G24" s="5">
-        <v>2</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
+        <v>68</v>
+      </c>
+      <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="10">
+        <v>80</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>24</v>
       </c>
       <c r="J24" s="5">
@@ -5319,10 +5420,10 @@
         <v>5</v>
       </c>
       <c r="L24" s="17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M24" s="17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N24" s="17">
         <v>0</v>
@@ -5385,48 +5486,48 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM24" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:39">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D25" s="5">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="5">
         <v>0</v>
       </c>
       <c r="I25" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="5">
         <v>5</v>
       </c>
       <c r="L25" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M25" s="17">
         <v>0</v>
@@ -5492,48 +5593,48 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="AM25" s="20" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:39">
-      <c r="A26" s="4" t="s">
-        <v>107</v>
+      <c r="A26" s="28" t="s">
+        <v>176</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>76</v>
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D26" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="11">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F26" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G26" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" s="5">
         <v>0</v>
       </c>
       <c r="I26" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="5">
         <v>5</v>
       </c>
       <c r="L26" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" s="17">
         <v>0</v>
@@ -5599,39 +5700,39 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM26" s="20" t="s">
-        <v>109</v>
+        <v>130</v>
+      </c>
+      <c r="AM26" s="30" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:39">
-      <c r="A27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>108</v>
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="5">
-        <v>100</v>
-      </c>
-      <c r="E27" s="5">
-        <v>55</v>
-      </c>
-      <c r="F27" s="5">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5">
+        <v>68</v>
+      </c>
+      <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="10">
+        <v>120</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
         <v>2</v>
       </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>12</v>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>8</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
@@ -5640,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="L27" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M27" s="17">
         <v>0</v>
@@ -5699,37 +5800,39 @@
       <c r="AE27" s="17">
         <v>1</v>
       </c>
-      <c r="AF27" s="4"/>
+      <c r="AF27" s="4">
+        <v>1</v>
+      </c>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
       <c r="AL27" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM27" s="20" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:39">
       <c r="A28" s="4" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>76</v>
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="D28" s="5">
-        <v>150</v>
-      </c>
-      <c r="E28" s="3">
-        <v>24</v>
+        <v>300</v>
+      </c>
+      <c r="E28" s="11">
+        <v>90</v>
       </c>
       <c r="F28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5">
         <v>2</v>
@@ -5738,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="5">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J28" s="5">
         <v>0</v>
@@ -5813,39 +5916,39 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM28" s="22" t="s">
-        <v>114</v>
+        <v>130</v>
+      </c>
+      <c r="AM28" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:39">
       <c r="A29" s="4" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D29" s="5">
         <v>0</v>
       </c>
-      <c r="E29" s="5">
-        <v>110</v>
+      <c r="E29" s="11">
+        <v>0</v>
       </c>
       <c r="F29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" s="5">
         <v>0</v>
       </c>
       <c r="I29" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5">
         <v>0</v>
@@ -5884,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W29" s="17">
         <v>0</v>
@@ -5920,39 +6023,39 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM29" s="20" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="AM29" s="30" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:39">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="3">
-        <v>60</v>
-      </c>
-      <c r="E30" s="10">
-        <v>8</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>4</v>
+      <c r="A30" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="5">
+        <v>100</v>
+      </c>
+      <c r="E30" s="11">
+        <v>16</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>16</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -5961,7 +6064,7 @@
         <v>5</v>
       </c>
       <c r="L30" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M30" s="17">
         <v>0</v>
@@ -6027,39 +6130,39 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
       <c r="AL30" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AM30" s="20" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:39">
       <c r="A31" s="4" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D31" s="5">
-        <v>70</v>
-      </c>
-      <c r="E31" s="11">
-        <v>720</v>
+        <v>100</v>
+      </c>
+      <c r="E31" s="5">
+        <v>55</v>
       </c>
       <c r="F31" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" s="5">
         <v>0</v>
       </c>
       <c r="I31" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J31" s="5">
         <v>0</v>
@@ -6068,7 +6171,7 @@
         <v>5</v>
       </c>
       <c r="L31" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M31" s="17">
         <v>0</v>
@@ -6134,39 +6237,39 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
       <c r="AL31" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AM31" s="20" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:39">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="3">
-        <v>50</v>
-      </c>
-      <c r="E32" s="10">
-        <v>720</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>72</v>
+      <c r="A32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="5">
+        <v>150</v>
+      </c>
+      <c r="E32" s="3">
+        <v>24</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>12</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
@@ -6175,7 +6278,7 @@
         <v>5</v>
       </c>
       <c r="L32" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M32" s="17">
         <v>0</v>
@@ -6241,33 +6344,33 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
       <c r="AL32" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM32" s="20" t="s">
-        <v>42</v>
+        <v>130</v>
+      </c>
+      <c r="AM32" s="22" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D33" s="5">
-        <v>80</v>
-      </c>
-      <c r="E33" s="11">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>110</v>
       </c>
       <c r="F33" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="5">
         <v>0</v>
@@ -6312,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W33" s="17">
         <v>0</v>
@@ -6341,55 +6444,55 @@
       <c r="AE33" s="17">
         <v>1</v>
       </c>
-      <c r="AF33" s="4"/>
+      <c r="AF33" s="28"/>
       <c r="AG33" s="4"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
       <c r="AL33" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AM33" s="20" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:39">
-      <c r="A34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="A34" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="24">
+        <v>30</v>
+      </c>
+      <c r="E34" s="25">
+        <v>24</v>
+      </c>
+      <c r="F34" s="24">
+        <v>1</v>
+      </c>
+      <c r="G34" s="24">
+        <v>1</v>
+      </c>
+      <c r="H34" s="24">
+        <v>0</v>
+      </c>
+      <c r="I34" s="24">
+        <v>12</v>
+      </c>
+      <c r="J34" s="24">
+        <v>1</v>
+      </c>
+      <c r="K34" s="24">
         <v>5</v>
       </c>
       <c r="L34" s="17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M34" s="17">
         <v>0</v>
@@ -6419,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W34" s="17">
         <v>0</v>
@@ -6448,53 +6551,57 @@
       <c r="AE34" s="17">
         <v>1</v>
       </c>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="20" t="s">
-        <v>66</v>
+      <c r="AF34" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM34" s="27" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:39">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
-        <v>0</v>
-      </c>
-      <c r="J35" s="5">
-        <v>0</v>
-      </c>
-      <c r="K35" s="5">
+      <c r="D35" s="24">
+        <v>50</v>
+      </c>
+      <c r="E35" s="25">
+        <v>50</v>
+      </c>
+      <c r="F35" s="24">
+        <v>3</v>
+      </c>
+      <c r="G35" s="24">
+        <v>2</v>
+      </c>
+      <c r="H35" s="24">
+        <v>0</v>
+      </c>
+      <c r="I35" s="24">
+        <v>12</v>
+      </c>
+      <c r="J35" s="24">
+        <v>0</v>
+      </c>
+      <c r="K35" s="24">
         <v>5</v>
       </c>
       <c r="L35" s="17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M35" s="17">
         <v>0</v>
@@ -6524,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W35" s="17">
         <v>0</v>
@@ -6553,49 +6660,51 @@
       <c r="AE35" s="17">
         <v>1</v>
       </c>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="20" t="s">
-        <v>70</v>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM35" s="27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:39">
-      <c r="A36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="3">
-        <v>30</v>
-      </c>
-      <c r="E36" s="10">
-        <v>16</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>4</v>
-      </c>
-      <c r="J36" s="5">
-        <v>1</v>
-      </c>
-      <c r="K36" s="5">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
+      <c r="E36" s="25">
+        <v>230</v>
+      </c>
+      <c r="F36" s="24">
+        <v>1</v>
+      </c>
+      <c r="G36" s="24">
+        <v>1</v>
+      </c>
+      <c r="H36" s="24">
+        <v>0</v>
+      </c>
+      <c r="I36" s="24">
+        <v>12</v>
+      </c>
+      <c r="J36" s="24">
+        <v>0</v>
+      </c>
+      <c r="K36" s="24">
         <v>5</v>
       </c>
       <c r="L36" s="17">
@@ -6629,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W36" s="17">
         <v>0</v>
@@ -6658,86 +6767,86 @@
       <c r="AE36" s="17">
         <v>1</v>
       </c>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM36" s="20" t="s">
-        <v>104</v>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM36" s="27" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:39">
-      <c r="A37" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="10">
-        <v>720</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="24">
+        <v>100</v>
+      </c>
+      <c r="E37" s="25">
+        <v>48</v>
+      </c>
+      <c r="F37" s="24">
+        <v>3</v>
+      </c>
+      <c r="G37" s="24">
+        <v>2</v>
+      </c>
+      <c r="H37" s="24">
+        <v>0</v>
+      </c>
+      <c r="I37" s="24">
+        <v>12</v>
+      </c>
+      <c r="J37" s="24">
+        <v>0</v>
+      </c>
+      <c r="K37" s="24">
+        <v>5</v>
+      </c>
+      <c r="L37" s="17">
+        <v>12</v>
+      </c>
+      <c r="M37" s="17">
+        <v>0</v>
+      </c>
+      <c r="N37" s="17">
+        <v>0</v>
+      </c>
+      <c r="O37" s="17">
+        <v>0</v>
+      </c>
+      <c r="P37" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="17">
+        <v>0</v>
+      </c>
+      <c r="R37" s="17">
+        <v>0</v>
+      </c>
+      <c r="S37" s="17">
+        <v>0</v>
+      </c>
+      <c r="T37" s="17">
+        <v>0</v>
+      </c>
+      <c r="U37" s="17">
+        <v>0</v>
+      </c>
+      <c r="V37" s="17">
         <v>20</v>
       </c>
-      <c r="I37" s="3">
-        <v>12</v>
-      </c>
-      <c r="J37" s="5">
-        <v>1</v>
-      </c>
-      <c r="K37" s="5">
-        <v>1</v>
-      </c>
-      <c r="L37" s="17">
-        <v>0</v>
-      </c>
-      <c r="M37" s="17">
-        <v>0</v>
-      </c>
-      <c r="N37" s="17">
-        <v>0</v>
-      </c>
-      <c r="O37" s="17">
-        <v>0</v>
-      </c>
-      <c r="P37" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="17">
-        <v>0</v>
-      </c>
-      <c r="R37" s="17">
-        <v>0</v>
-      </c>
-      <c r="S37" s="17">
-        <v>0</v>
-      </c>
-      <c r="T37" s="17">
-        <v>0</v>
-      </c>
-      <c r="U37" s="17">
-        <v>0</v>
-      </c>
-      <c r="V37" s="17">
-        <v>0</v>
-      </c>
       <c r="W37" s="17">
         <v>0</v>
       </c>
@@ -6765,55 +6874,55 @@
       <c r="AE37" s="17">
         <v>1</v>
       </c>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM37" s="20" t="s">
-        <v>57</v>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM37" s="27" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="3">
+        <v>60</v>
+      </c>
+      <c r="E38" s="10">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>4</v>
+      </c>
+      <c r="J38" s="5">
+        <v>1</v>
+      </c>
+      <c r="K38" s="5">
         <v>5</v>
       </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5">
-        <v>1</v>
-      </c>
-      <c r="K38" s="5">
-        <v>1</v>
-      </c>
       <c r="L38" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M38" s="17">
         <v>0</v>
@@ -6878,44 +6987,46 @@
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
+      <c r="AL38" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="AM38" s="20" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
+      <c r="A39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="5">
+        <v>70</v>
+      </c>
+      <c r="E39" s="11">
+        <v>720</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3</v>
+      </c>
+      <c r="G39" s="5">
+        <v>3</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>4</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
         <v>5</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>1</v>
-      </c>
-      <c r="K39" s="5">
-        <v>1</v>
       </c>
       <c r="L39" s="17">
         <v>0</v>
@@ -6983,44 +7094,46 @@
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
+      <c r="AL39" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="AM39" s="20" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:39">
-      <c r="A40" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5">
-        <v>0</v>
-      </c>
-      <c r="H40" s="5">
-        <v>15</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0</v>
+      <c r="A40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="3">
+        <v>50</v>
+      </c>
+      <c r="E40" s="10">
+        <v>720</v>
+      </c>
+      <c r="F40" s="3">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>72</v>
       </c>
       <c r="J40" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L40" s="17">
         <v>0</v>
@@ -7088,47 +7201,49 @@
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
+      <c r="AL40" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="AM40" s="20" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:39">
-      <c r="A41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="A41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="5">
         <v>80</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>30</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
+      <c r="E41" s="11">
+        <v>100</v>
+      </c>
+      <c r="F41" s="5">
+        <v>5</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>12</v>
       </c>
       <c r="J41" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L41" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M41" s="17">
         <v>0</v>
@@ -7193,44 +7308,46 @@
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
+      <c r="AL41" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="AM41" s="20" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:39">
-      <c r="A42" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="5">
-        <v>0</v>
-      </c>
-      <c r="E42" s="11">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5">
-        <v>60</v>
-      </c>
-      <c r="I42" s="5">
+      <c r="B42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L42" s="17">
         <v>0</v>
@@ -7298,44 +7415,46 @@
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
+      <c r="AL42" s="28" t="s">
+        <v>132</v>
+      </c>
       <c r="AM42" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:39">
-      <c r="A43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="3">
-        <v>400</v>
-      </c>
-      <c r="E43" s="10">
-        <v>48</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>12</v>
+      <c r="A43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
       </c>
       <c r="J43" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L43" s="17">
         <v>0</v>
@@ -7403,114 +7522,1618 @@
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
+      <c r="AL43" s="28" t="s">
+        <v>131</v>
+      </c>
       <c r="AM43" s="20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:39">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="3">
+        <v>30</v>
+      </c>
+      <c r="E44" s="10">
+        <v>16</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>5</v>
+      </c>
+      <c r="L44" s="17">
+        <v>5</v>
+      </c>
+      <c r="M44" s="17">
+        <v>0</v>
+      </c>
+      <c r="N44" s="17">
+        <v>0</v>
+      </c>
+      <c r="O44" s="17">
+        <v>0</v>
+      </c>
+      <c r="P44" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="17">
+        <v>0</v>
+      </c>
+      <c r="R44" s="17">
+        <v>0</v>
+      </c>
+      <c r="S44" s="17">
+        <v>0</v>
+      </c>
+      <c r="T44" s="17">
+        <v>0</v>
+      </c>
+      <c r="U44" s="17">
+        <v>0</v>
+      </c>
+      <c r="V44" s="17">
+        <v>0</v>
+      </c>
+      <c r="W44" s="17">
+        <v>0</v>
+      </c>
+      <c r="X44" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
+      <c r="AH44" s="4"/>
+      <c r="AI44" s="4"/>
+      <c r="AJ44" s="4"/>
+      <c r="AK44" s="4"/>
+      <c r="AL44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM44" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39">
+      <c r="A45" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1</v>
+      </c>
+      <c r="K45" s="5">
+        <v>1</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="17">
+        <v>0</v>
+      </c>
+      <c r="N45" s="17">
+        <v>0</v>
+      </c>
+      <c r="O45" s="17">
+        <v>0</v>
+      </c>
+      <c r="P45" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>0</v>
+      </c>
+      <c r="R45" s="17">
+        <v>0</v>
+      </c>
+      <c r="S45" s="17">
+        <v>0</v>
+      </c>
+      <c r="T45" s="17">
+        <v>0</v>
+      </c>
+      <c r="U45" s="17">
+        <v>0</v>
+      </c>
+      <c r="V45" s="17">
+        <v>0</v>
+      </c>
+      <c r="W45" s="17">
+        <v>0</v>
+      </c>
+      <c r="X45" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
+      <c r="AH45" s="4"/>
+      <c r="AI45" s="4"/>
+      <c r="AJ45" s="4"/>
+      <c r="AK45" s="4"/>
+      <c r="AL45" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM45" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="A46" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="24">
+        <v>800</v>
+      </c>
+      <c r="E46" s="25">
+        <v>12</v>
+      </c>
+      <c r="F46" s="24">
+        <v>1</v>
+      </c>
+      <c r="G46" s="24">
+        <v>2</v>
+      </c>
+      <c r="H46" s="24">
+        <v>0</v>
+      </c>
+      <c r="I46" s="24">
+        <v>12</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="5">
+        <v>5</v>
+      </c>
+      <c r="L46" s="17">
+        <v>5</v>
+      </c>
+      <c r="M46" s="17">
+        <v>0</v>
+      </c>
+      <c r="N46" s="17">
+        <v>0</v>
+      </c>
+      <c r="O46" s="17">
+        <v>0</v>
+      </c>
+      <c r="P46" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="17">
+        <v>0</v>
+      </c>
+      <c r="R46" s="17">
+        <v>0</v>
+      </c>
+      <c r="S46" s="17">
+        <v>0</v>
+      </c>
+      <c r="T46" s="17">
+        <v>0</v>
+      </c>
+      <c r="U46" s="17">
+        <v>0</v>
+      </c>
+      <c r="V46" s="17">
+        <v>0</v>
+      </c>
+      <c r="W46" s="17">
+        <v>0</v>
+      </c>
+      <c r="X46" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="26"/>
+      <c r="AG46" s="26"/>
+      <c r="AH46" s="26"/>
+      <c r="AI46" s="26"/>
+      <c r="AJ46" s="26"/>
+      <c r="AK46" s="26"/>
+      <c r="AL46" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39">
+      <c r="A47" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="24">
+        <v>100</v>
+      </c>
+      <c r="E47" s="25">
+        <v>64</v>
+      </c>
+      <c r="F47" s="24">
+        <v>10</v>
+      </c>
+      <c r="G47" s="24">
+        <v>4</v>
+      </c>
+      <c r="H47" s="24">
+        <v>0</v>
+      </c>
+      <c r="I47" s="24">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="5">
+        <v>5</v>
+      </c>
+      <c r="L47" s="17">
+        <v>15</v>
+      </c>
+      <c r="M47" s="17">
+        <v>0</v>
+      </c>
+      <c r="N47" s="17">
+        <v>0</v>
+      </c>
+      <c r="O47" s="17">
+        <v>0</v>
+      </c>
+      <c r="P47" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="17">
+        <v>0</v>
+      </c>
+      <c r="R47" s="17">
+        <v>0</v>
+      </c>
+      <c r="S47" s="17">
+        <v>0</v>
+      </c>
+      <c r="T47" s="17">
+        <v>0</v>
+      </c>
+      <c r="U47" s="17">
+        <v>0</v>
+      </c>
+      <c r="V47" s="17">
+        <v>0</v>
+      </c>
+      <c r="W47" s="17">
+        <v>0</v>
+      </c>
+      <c r="X47" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="26"/>
+      <c r="AJ47" s="26"/>
+      <c r="AK47" s="26"/>
+      <c r="AL47" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39">
+      <c r="A48" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="24">
+        <v>300</v>
+      </c>
+      <c r="E48" s="25">
+        <v>16</v>
+      </c>
+      <c r="F48" s="24">
+        <v>10</v>
+      </c>
+      <c r="G48" s="24">
+        <v>4</v>
+      </c>
+      <c r="H48" s="24">
+        <v>0</v>
+      </c>
+      <c r="I48" s="24">
+        <v>1</v>
+      </c>
+      <c r="J48" s="24">
+        <v>1</v>
+      </c>
+      <c r="K48" s="24">
+        <v>5</v>
+      </c>
+      <c r="L48" s="17">
+        <v>3</v>
+      </c>
+      <c r="M48" s="17">
+        <v>0</v>
+      </c>
+      <c r="N48" s="17">
+        <v>0</v>
+      </c>
+      <c r="O48" s="17">
+        <v>0</v>
+      </c>
+      <c r="P48" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="17">
+        <v>0</v>
+      </c>
+      <c r="R48" s="17">
+        <v>0</v>
+      </c>
+      <c r="S48" s="17">
+        <v>0</v>
+      </c>
+      <c r="T48" s="17">
+        <v>0</v>
+      </c>
+      <c r="U48" s="17">
+        <v>0</v>
+      </c>
+      <c r="V48" s="17">
+        <v>0</v>
+      </c>
+      <c r="W48" s="17">
+        <v>0</v>
+      </c>
+      <c r="X48" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="26"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
+      <c r="AJ48" s="26"/>
+      <c r="AK48" s="26"/>
+      <c r="AL48" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM48" s="27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39">
+      <c r="A49" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="24">
+        <v>100</v>
+      </c>
+      <c r="E49" s="25">
+        <v>72</v>
+      </c>
+      <c r="F49" s="24">
+        <v>3</v>
+      </c>
+      <c r="G49" s="24">
+        <v>1</v>
+      </c>
+      <c r="H49" s="24">
+        <v>0</v>
+      </c>
+      <c r="I49" s="24">
+        <v>16</v>
+      </c>
+      <c r="J49" s="24">
+        <v>0</v>
+      </c>
+      <c r="K49" s="24">
+        <v>5</v>
+      </c>
+      <c r="L49" s="17">
+        <v>25</v>
+      </c>
+      <c r="M49" s="17">
+        <v>0</v>
+      </c>
+      <c r="N49" s="17">
+        <v>0</v>
+      </c>
+      <c r="O49" s="17">
+        <v>0</v>
+      </c>
+      <c r="P49" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="17">
+        <v>0</v>
+      </c>
+      <c r="R49" s="17">
+        <v>0</v>
+      </c>
+      <c r="S49" s="17">
+        <v>0</v>
+      </c>
+      <c r="T49" s="17">
+        <v>0</v>
+      </c>
+      <c r="U49" s="17">
+        <v>0</v>
+      </c>
+      <c r="V49" s="17">
+        <v>0</v>
+      </c>
+      <c r="W49" s="17">
+        <v>0</v>
+      </c>
+      <c r="X49" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="26"/>
+      <c r="AG49" s="26"/>
+      <c r="AH49" s="26"/>
+      <c r="AI49" s="26"/>
+      <c r="AJ49" s="26"/>
+      <c r="AK49" s="26"/>
+      <c r="AL49" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="A50" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="24">
+        <v>50</v>
+      </c>
+      <c r="E50" s="25">
+        <v>48</v>
+      </c>
+      <c r="F50" s="24">
+        <v>1</v>
+      </c>
+      <c r="G50" s="24">
+        <v>2</v>
+      </c>
+      <c r="H50" s="24">
+        <v>0</v>
+      </c>
+      <c r="I50" s="24">
+        <v>12</v>
+      </c>
+      <c r="J50" s="24">
+        <v>0</v>
+      </c>
+      <c r="K50" s="24">
+        <v>5</v>
+      </c>
+      <c r="L50" s="17">
+        <v>5</v>
+      </c>
+      <c r="M50" s="17">
+        <v>0</v>
+      </c>
+      <c r="N50" s="17">
+        <v>0</v>
+      </c>
+      <c r="O50" s="17">
+        <v>0</v>
+      </c>
+      <c r="P50" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="17">
+        <v>0</v>
+      </c>
+      <c r="R50" s="17">
+        <v>0</v>
+      </c>
+      <c r="S50" s="17">
+        <v>0</v>
+      </c>
+      <c r="T50" s="17">
+        <v>0</v>
+      </c>
+      <c r="U50" s="17">
+        <v>0</v>
+      </c>
+      <c r="V50" s="17">
+        <v>0</v>
+      </c>
+      <c r="W50" s="17">
+        <v>0</v>
+      </c>
+      <c r="X50" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="26"/>
+      <c r="AG50" s="26"/>
+      <c r="AH50" s="26"/>
+      <c r="AI50" s="26"/>
+      <c r="AJ50" s="26"/>
+      <c r="AK50" s="26"/>
+      <c r="AL50" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39">
+      <c r="A51" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="24">
+        <v>80</v>
+      </c>
+      <c r="E51" s="25">
+        <v>120</v>
+      </c>
+      <c r="F51" s="24">
+        <v>1</v>
+      </c>
+      <c r="G51" s="24">
+        <v>1</v>
+      </c>
+      <c r="H51" s="24">
+        <v>0</v>
+      </c>
+      <c r="I51" s="24">
+        <v>12</v>
+      </c>
+      <c r="J51" s="24">
+        <v>0</v>
+      </c>
+      <c r="K51" s="24">
+        <v>5</v>
+      </c>
+      <c r="L51" s="17">
+        <v>40</v>
+      </c>
+      <c r="M51" s="17">
+        <v>0</v>
+      </c>
+      <c r="N51" s="17">
+        <v>0</v>
+      </c>
+      <c r="O51" s="17">
+        <v>0</v>
+      </c>
+      <c r="P51" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="17">
+        <v>0</v>
+      </c>
+      <c r="R51" s="17">
+        <v>0</v>
+      </c>
+      <c r="S51" s="17">
+        <v>0</v>
+      </c>
+      <c r="T51" s="17">
+        <v>0</v>
+      </c>
+      <c r="U51" s="17">
+        <v>0</v>
+      </c>
+      <c r="V51" s="17">
+        <v>0</v>
+      </c>
+      <c r="W51" s="17">
+        <v>0</v>
+      </c>
+      <c r="X51" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="26"/>
+      <c r="AH51" s="26"/>
+      <c r="AI51" s="26"/>
+      <c r="AJ51" s="26"/>
+      <c r="AK51" s="26"/>
+      <c r="AL51" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39">
+      <c r="A52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <v>720</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3">
+        <v>20</v>
+      </c>
+      <c r="I52" s="3">
+        <v>12</v>
+      </c>
+      <c r="J52" s="5">
+        <v>1</v>
+      </c>
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+      <c r="L52" s="17">
+        <v>0</v>
+      </c>
+      <c r="M52" s="17">
+        <v>0</v>
+      </c>
+      <c r="N52" s="17">
+        <v>0</v>
+      </c>
+      <c r="O52" s="17">
+        <v>0</v>
+      </c>
+      <c r="P52" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="17">
+        <v>0</v>
+      </c>
+      <c r="R52" s="17">
+        <v>0</v>
+      </c>
+      <c r="S52" s="17">
+        <v>0</v>
+      </c>
+      <c r="T52" s="17">
+        <v>0</v>
+      </c>
+      <c r="U52" s="17">
+        <v>0</v>
+      </c>
+      <c r="V52" s="17">
+        <v>0</v>
+      </c>
+      <c r="W52" s="17">
+        <v>0</v>
+      </c>
+      <c r="X52" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM52" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39">
+      <c r="A53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0</v>
+      </c>
+      <c r="H53" s="5">
+        <v>5</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53" s="5">
+        <v>1</v>
+      </c>
+      <c r="L53" s="17">
+        <v>0</v>
+      </c>
+      <c r="M53" s="17">
+        <v>0</v>
+      </c>
+      <c r="N53" s="17">
+        <v>0</v>
+      </c>
+      <c r="O53" s="17">
+        <v>0</v>
+      </c>
+      <c r="P53" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="17">
+        <v>0</v>
+      </c>
+      <c r="R53" s="17">
+        <v>0</v>
+      </c>
+      <c r="S53" s="17">
+        <v>0</v>
+      </c>
+      <c r="T53" s="17">
+        <v>0</v>
+      </c>
+      <c r="U53" s="17">
+        <v>0</v>
+      </c>
+      <c r="V53" s="17">
+        <v>0</v>
+      </c>
+      <c r="W53" s="17">
+        <v>0</v>
+      </c>
+      <c r="X53" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM53" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39">
+      <c r="A54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>1</v>
+      </c>
+      <c r="K54" s="5">
+        <v>1</v>
+      </c>
+      <c r="L54" s="17">
+        <v>0</v>
+      </c>
+      <c r="M54" s="17">
+        <v>0</v>
+      </c>
+      <c r="N54" s="17">
+        <v>0</v>
+      </c>
+      <c r="O54" s="17">
+        <v>0</v>
+      </c>
+      <c r="P54" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="17">
+        <v>0</v>
+      </c>
+      <c r="R54" s="17">
+        <v>0</v>
+      </c>
+      <c r="S54" s="17">
+        <v>0</v>
+      </c>
+      <c r="T54" s="17">
+        <v>0</v>
+      </c>
+      <c r="U54" s="17">
+        <v>0</v>
+      </c>
+      <c r="V54" s="17">
+        <v>0</v>
+      </c>
+      <c r="W54" s="17">
+        <v>0</v>
+      </c>
+      <c r="X54" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
+      <c r="AH54" s="4"/>
+      <c r="AI54" s="4"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM54" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39">
+      <c r="A55" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="B55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>30</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <v>1</v>
+      </c>
+      <c r="K55" s="5">
+        <v>1</v>
+      </c>
+      <c r="L55" s="17">
+        <v>0</v>
+      </c>
+      <c r="M55" s="17">
+        <v>0</v>
+      </c>
+      <c r="N55" s="17">
+        <v>0</v>
+      </c>
+      <c r="O55" s="17">
+        <v>0</v>
+      </c>
+      <c r="P55" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="17">
+        <v>0</v>
+      </c>
+      <c r="R55" s="17">
+        <v>0</v>
+      </c>
+      <c r="S55" s="17">
+        <v>0</v>
+      </c>
+      <c r="T55" s="17">
+        <v>0</v>
+      </c>
+      <c r="U55" s="17">
+        <v>0</v>
+      </c>
+      <c r="V55" s="17">
+        <v>0</v>
+      </c>
+      <c r="W55" s="17">
+        <v>0</v>
+      </c>
+      <c r="X55" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM55" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39">
+      <c r="A56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <v>60</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>1</v>
+      </c>
+      <c r="K56" s="5">
+        <v>1</v>
+      </c>
+      <c r="L56" s="17">
+        <v>0</v>
+      </c>
+      <c r="M56" s="17">
+        <v>0</v>
+      </c>
+      <c r="N56" s="17">
+        <v>0</v>
+      </c>
+      <c r="O56" s="17">
+        <v>0</v>
+      </c>
+      <c r="P56" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="17">
+        <v>0</v>
+      </c>
+      <c r="R56" s="17">
+        <v>0</v>
+      </c>
+      <c r="S56" s="17">
+        <v>0</v>
+      </c>
+      <c r="T56" s="17">
+        <v>0</v>
+      </c>
+      <c r="U56" s="17">
+        <v>0</v>
+      </c>
+      <c r="V56" s="17">
+        <v>0</v>
+      </c>
+      <c r="W56" s="17">
+        <v>0</v>
+      </c>
+      <c r="X56" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM56" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39">
+      <c r="A57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E57" s="10">
         <v>48</v>
       </c>
-      <c r="F44" s="7">
-        <v>1</v>
-      </c>
-      <c r="G44" s="7">
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
         <v>2</v>
       </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>12</v>
       </c>
-      <c r="J44" s="7">
-        <v>1</v>
-      </c>
-      <c r="K44" s="7">
-        <v>1</v>
-      </c>
-      <c r="L44" s="18">
-        <v>0</v>
-      </c>
-      <c r="M44" s="17">
-        <v>0</v>
-      </c>
-      <c r="N44" s="17">
-        <v>0</v>
-      </c>
-      <c r="O44" s="17">
-        <v>0</v>
-      </c>
-      <c r="P44" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="17">
-        <v>0</v>
-      </c>
-      <c r="R44" s="17">
-        <v>0</v>
-      </c>
-      <c r="S44" s="17">
-        <v>0</v>
-      </c>
-      <c r="T44" s="17">
-        <v>0</v>
-      </c>
-      <c r="U44" s="17">
-        <v>0</v>
-      </c>
-      <c r="V44" s="17">
-        <v>0</v>
-      </c>
-      <c r="W44" s="17">
-        <v>0</v>
-      </c>
-      <c r="X44" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="6"/>
-      <c r="AK44" s="6"/>
-      <c r="AL44" s="6"/>
-      <c r="AM44" s="21" t="s">
-        <v>54</v>
+      <c r="J57" s="5">
+        <v>1</v>
+      </c>
+      <c r="K57" s="5">
+        <v>1</v>
+      </c>
+      <c r="L57" s="17">
+        <v>20</v>
+      </c>
+      <c r="M57" s="17">
+        <v>0</v>
+      </c>
+      <c r="N57" s="17">
+        <v>0</v>
+      </c>
+      <c r="O57" s="17">
+        <v>0</v>
+      </c>
+      <c r="P57" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="17">
+        <v>0</v>
+      </c>
+      <c r="R57" s="17">
+        <v>0</v>
+      </c>
+      <c r="S57" s="17">
+        <v>0</v>
+      </c>
+      <c r="T57" s="17">
+        <v>0</v>
+      </c>
+      <c r="U57" s="17">
+        <v>0</v>
+      </c>
+      <c r="V57" s="17">
+        <v>0</v>
+      </c>
+      <c r="W57" s="17">
+        <v>0</v>
+      </c>
+      <c r="X57" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="17">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM57" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39">
+      <c r="A58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="7">
+        <v>400</v>
+      </c>
+      <c r="E58" s="12">
+        <v>48</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7">
+        <v>2</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <v>12</v>
+      </c>
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+      <c r="K58" s="7">
+        <v>1</v>
+      </c>
+      <c r="L58" s="18">
+        <v>40</v>
+      </c>
+      <c r="M58" s="17">
+        <v>0</v>
+      </c>
+      <c r="N58" s="17">
+        <v>0</v>
+      </c>
+      <c r="O58" s="17">
+        <v>0</v>
+      </c>
+      <c r="P58" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="17">
+        <v>0</v>
+      </c>
+      <c r="R58" s="17">
+        <v>0</v>
+      </c>
+      <c r="S58" s="17">
+        <v>0</v>
+      </c>
+      <c r="T58" s="17">
+        <v>0</v>
+      </c>
+      <c r="U58" s="17">
+        <v>0</v>
+      </c>
+      <c r="V58" s="17">
+        <v>0</v>
+      </c>
+      <c r="W58" s="17">
+        <v>0</v>
+      </c>
+      <c r="X58" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM58" s="21" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="202">
   <si>
     <t>Name</t>
   </si>
@@ -384,15 +384,6 @@
     <t>HitAnimation</t>
   </si>
   <si>
-    <t>Bullet</t>
-  </si>
-  <si>
-    <t>BulletMovement</t>
-  </si>
-  <si>
-    <t>BulletRange</t>
-  </si>
-  <si>
     <t>Speed</t>
   </si>
   <si>
@@ -471,9 +462,6 @@
     <t>Overload</t>
   </si>
   <si>
-    <t>Machine Gun Attack</t>
-  </si>
-  <si>
     <t>Strength Attack</t>
   </si>
   <si>
@@ -556,6 +544,84 @@
   </si>
   <si>
     <t>Shoots arrows toward a target.</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Cone</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>Invis</t>
+  </si>
+  <si>
+    <t>Kunai</t>
+  </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Shoe</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Circles</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>Aura</t>
+  </si>
+  <si>
+    <t>Set Damage</t>
+  </si>
+  <si>
+    <t>M. Gun Attack</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>AttackNum</t>
+  </si>
+  <si>
+    <t>AttackW</t>
+  </si>
+  <si>
+    <t>AttackH</t>
+  </si>
+  <si>
+    <t>AttackDist</t>
   </si>
 </sst>
 </file>
@@ -700,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -741,11 +807,52 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -832,7 +939,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -868,7 +975,43 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -2053,6 +2196,42 @@
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.59999389629810485"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
@@ -2560,124 +2739,130 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:AM58" tableType="xml" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
-  <autoFilter ref="A2:AM58"/>
-  <tableColumns count="39">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:AP58" tableType="xml" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+  <autoFilter ref="A2:AP58">
+    <filterColumn colId="3"/>
+    <filterColumn colId="36"/>
+    <filterColumn colId="37"/>
+    <filterColumn colId="38"/>
+  </autoFilter>
+  <tableColumns count="42">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="41">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="37">
+    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="40">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="36">
+    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="39">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="35">
+    <tableColumn id="40" uniqueName="40" name="Area" dataDxfId="38"/>
+    <tableColumn id="4" uniqueName="Range" name="Range" dataDxfId="37">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="34">
+    <tableColumn id="5" uniqueName="Cooldown" name="Cooldown" dataDxfId="36">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Cooldown" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="33">
+    <tableColumn id="6" uniqueName="Uses" name="Uses" dataDxfId="35">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="32">
+    <tableColumn id="7" uniqueName="Activate" name="Activate" dataDxfId="34">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="31">
+    <tableColumn id="8" uniqueName="Value" name="Value" dataDxfId="33">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="30">
+    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="32">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Min" name="Min" dataDxfId="29">
+    <tableColumn id="10" uniqueName="Min" name="Min" dataDxfId="31">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Max" name="Max" dataDxfId="28">
+    <tableColumn id="11" uniqueName="Max" name="Max" dataDxfId="30">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Damage" name="Damage" dataDxfId="27">
+    <tableColumn id="12" uniqueName="Damage" name="Damage" dataDxfId="29">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Damage" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Speed" name="Speed" dataDxfId="26">
+    <tableColumn id="13" uniqueName="Speed" name="Speed" dataDxfId="28">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="StunDur" name="StunDur" dataDxfId="25">
+    <tableColumn id="14" uniqueName="StunDur" name="StunDur" dataDxfId="27">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/StunDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="SlowDur" name="SlowDur" dataDxfId="24">
+    <tableColumn id="15" uniqueName="SlowDur" name="SlowDur" dataDxfId="26">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SlowDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="SickDur" name="SickDur" dataDxfId="23">
+    <tableColumn id="16" uniqueName="SickDur" name="SickDur" dataDxfId="25">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SickDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="ExhaustDur" name="ExhaustDur" dataDxfId="22">
+    <tableColumn id="17" uniqueName="ExhaustDur" name="ExhaustDur" dataDxfId="24">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/ExhaustDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="RegenDur" name="RegenDur" dataDxfId="21">
+    <tableColumn id="18" uniqueName="RegenDur" name="RegenDur" dataDxfId="23">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/RegenDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="19" uniqueName="SlowPerc" name="SlowPerc" dataDxfId="20">
+    <tableColumn id="19" uniqueName="SlowPerc" name="SlowPerc" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SlowPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="20" uniqueName="SickPerc" name="SickPerc" dataDxfId="19">
+    <tableColumn id="20" uniqueName="SickPerc" name="SickPerc" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SickPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="21" uniqueName="RegenPerc" name="RegenPerc" dataDxfId="18">
+    <tableColumn id="21" uniqueName="RegenPerc" name="RegenPerc" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/RegenPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="22" uniqueName="HPPerc" name="HPPerc" dataDxfId="17">
+    <tableColumn id="22" uniqueName="HPPerc" name="HPPerc" dataDxfId="19">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/HPPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="23" uniqueName="HPLump" name="HPLump" dataDxfId="16">
+    <tableColumn id="23" uniqueName="HPLump" name="HPLump" dataDxfId="18">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/HPLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="24" uniqueName="APPerc" name="APPerc" dataDxfId="15">
+    <tableColumn id="24" uniqueName="APPerc" name="APPerc" dataDxfId="17">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/APPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="25" uniqueName="APLump" name="APLump" dataDxfId="14">
+    <tableColumn id="25" uniqueName="APLump" name="APLump" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/APLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="26" uniqueName="DPLump" name="DPLump" dataDxfId="13">
+    <tableColumn id="26" uniqueName="DPLump" name="DPLump" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/DPLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="27" uniqueName="SPPerc" name="SPPerc" dataDxfId="12">
+    <tableColumn id="27" uniqueName="SPPerc" name="SPPerc" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SPPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="28" uniqueName="SPLump" name="SPLump" dataDxfId="11">
+    <tableColumn id="28" uniqueName="SPLump" name="SPLump" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/SPLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="29" uniqueName="CDPerc" name="CDPerc" dataDxfId="10">
+    <tableColumn id="29" uniqueName="CDPerc" name="CDPerc" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/CDPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="30" uniqueName="CDLump" name="CDLump" dataDxfId="9">
+    <tableColumn id="30" uniqueName="CDLump" name="CDLump" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/CDLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="31" uniqueName="Move" name="Move" dataDxfId="8">
+    <tableColumn id="31" uniqueName="Move" name="Move" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Move" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="32" uniqueName="Tank" name="Tank" dataDxfId="7">
+    <tableColumn id="32" uniqueName="Tank" name="Tank" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Tank" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="33" uniqueName="Sprite" name="Sprite" dataDxfId="6">
+    <tableColumn id="33" uniqueName="Sprite" name="Sprite" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Sprite" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="34" uniqueName="HitAnimation" name="HitAnimation" dataDxfId="5">
+    <tableColumn id="34" uniqueName="HitAnimation" name="HitAnimation" dataDxfId="7">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/HitAnimation" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="35" uniqueName="Bullet" name="Bullet" dataDxfId="4">
+    <tableColumn id="35" uniqueName="Bullet" name="Attack" dataDxfId="6">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Bullet" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="36" uniqueName="BulletMovement" name="BulletMovement" dataDxfId="3">
-      <xmlColumnPr mapId="12" xpath="/Abilities/Ability/BulletMovement" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="37" uniqueName="BulletRange" name="BulletRange" dataDxfId="2">
+    <tableColumn id="36" uniqueName="36" name="AttackNum" dataDxfId="0"/>
+    <tableColumn id="41" uniqueName="41" name="AttackW" dataDxfId="5"/>
+    <tableColumn id="42" uniqueName="42" name="AttackH" dataDxfId="4"/>
+    <tableColumn id="37" uniqueName="BulletRange" name="AttackDist" dataDxfId="3">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/BulletRange" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="38" uniqueName="Target" name="Target" dataDxfId="1">
+    <tableColumn id="38" uniqueName="Target" name="Target" dataDxfId="2">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="39" uniqueName="Description" name="Description" dataDxfId="0">
+    <tableColumn id="39" uniqueName="Description" name="Description" dataDxfId="1">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -2970,52 +3155,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M25" sqref="M25"/>
+      <selection pane="topRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="10" customWidth="1"/>
-    <col min="23" max="28" width="11" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" customWidth="1"/>
-    <col min="31" max="32" width="8.42578125" customWidth="1"/>
-    <col min="33" max="33" width="12.140625" customWidth="1"/>
-    <col min="34" max="34" width="15" customWidth="1"/>
-    <col min="35" max="35" width="9" customWidth="1"/>
-    <col min="36" max="37" width="17.42578125" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" customWidth="1"/>
-    <col min="39" max="39" width="119.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="29" width="11" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" customWidth="1"/>
+    <col min="32" max="33" width="8.42578125" customWidth="1"/>
+    <col min="34" max="34" width="12.140625" customWidth="1"/>
+    <col min="35" max="35" width="15" customWidth="1"/>
+    <col min="36" max="36" width="9" customWidth="1"/>
+    <col min="37" max="37" width="13.42578125" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" customWidth="1"/>
+    <col min="39" max="39" width="10.140625" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" customWidth="1"/>
+    <col min="41" max="41" width="10.42578125" customWidth="1"/>
+    <col min="42" max="42" width="119.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
-      <c r="G1" t="s">
+    <row r="1" spans="1:42">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15.75" thickBot="1">
+    <row r="2" spans="1:42" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3025,116 +3214,125 @@
       <c r="C2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI2" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ2" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK2" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL2" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM2" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN2" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO2" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="N2" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF2" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG2" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH2" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI2" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK2" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL2" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM2" s="19" t="s">
+      <c r="AP2" s="19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="15.75" thickTop="1">
+    <row r="3" spans="1:42" ht="15.75" thickTop="1">
       <c r="A3" s="9" t="s">
         <v>83</v>
       </c>
@@ -3144,39 +3342,39 @@
       <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="3">
         <v>80</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F3" s="10">
         <v>16</v>
       </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
       <c r="G3" s="8">
         <v>1</v>
       </c>
       <c r="H3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
         <v>12</v>
       </c>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
       <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
         <v>5</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="17">
         <v>5</v>
       </c>
-      <c r="M3" s="17">
+      <c r="N3" s="17">
         <v>32</v>
       </c>
-      <c r="N3" s="17">
-        <v>0</v>
-      </c>
       <c r="O3" s="17">
         <v>0</v>
       </c>
@@ -3226,22 +3424,33 @@
         <v>0</v>
       </c>
       <c r="AE3" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>1</v>
+      </c>
       <c r="AG3" s="4"/>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM3" s="20" t="s">
+      <c r="AJ3" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK3" s="33">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="33">
+        <v>100</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP3" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:42">
       <c r="A4" s="9" t="s">
         <v>38</v>
       </c>
@@ -3251,36 +3460,36 @@
       <c r="C4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="3">
         <v>80</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="10">
         <v>200</v>
       </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
       <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
       <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
         <v>24</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
       <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
         <v>5</v>
       </c>
-      <c r="L4" s="17">
+      <c r="M4" s="17">
         <v>15</v>
       </c>
-      <c r="M4" s="17">
-        <v>0</v>
-      </c>
       <c r="N4" s="17">
         <v>0</v>
       </c>
@@ -3333,24 +3542,35 @@
         <v>0</v>
       </c>
       <c r="AE4" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>1</v>
+      </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM4" s="20" t="s">
+      <c r="AJ4" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="33">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP4" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:42">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -3358,35 +3578,35 @@
         <v>41</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="5">
+        <v>153</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="5">
         <v>140</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="11">
         <v>200</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
       <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
       <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <v>24</v>
       </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
       <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
         <v>5</v>
       </c>
-      <c r="L5" s="17">
-        <v>0</v>
-      </c>
       <c r="M5" s="17">
         <v>0</v>
       </c>
@@ -3444,20 +3664,31 @@
       <c r="AE5" s="17">
         <v>0</v>
       </c>
-      <c r="AF5" s="4"/>
+      <c r="AF5" s="17">
+        <v>0</v>
+      </c>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM5" s="20" t="s">
+      <c r="AJ5" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK5" s="33">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP5" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:42">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -3467,39 +3698,39 @@
       <c r="C6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="10">
         <v>150</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
       <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
       <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>12</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
       <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
         <v>5</v>
       </c>
-      <c r="L6" s="17">
-        <v>10</v>
-      </c>
       <c r="M6" s="17">
+        <v>1</v>
+      </c>
+      <c r="N6" s="17">
         <v>8</v>
       </c>
-      <c r="N6" s="17">
-        <v>0</v>
-      </c>
       <c r="O6" s="17">
         <v>0</v>
       </c>
@@ -3549,22 +3780,33 @@
         <v>0</v>
       </c>
       <c r="AE6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="17">
         <v>2</v>
       </c>
-      <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM6" s="30" t="s">
-        <v>171</v>
+      <c r="AJ6" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK6" s="33">
+        <v>8</v>
+      </c>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="34">
+        <v>50</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP6" s="30" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:42">
       <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
@@ -3574,39 +3816,39 @@
       <c r="C7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="3">
         <v>20</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F7" s="10">
         <v>10</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
         <v>6</v>
       </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
       <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
         <v>5</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>5</v>
       </c>
-      <c r="M7" s="17">
+      <c r="N7" s="17">
         <v>32</v>
       </c>
-      <c r="N7" s="17">
-        <v>0</v>
-      </c>
       <c r="O7" s="17">
         <v>0</v>
       </c>
@@ -3656,22 +3898,33 @@
         <v>0</v>
       </c>
       <c r="AE7" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="17">
+        <v>1</v>
+      </c>
       <c r="AG7" s="4"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM7" s="20" t="s">
+      <c r="AJ7" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK7" s="33">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="34">
+        <v>40</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP7" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:42">
       <c r="A8" s="2" t="s">
         <v>75</v>
       </c>
@@ -3679,15 +3932,15 @@
         <v>78</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+        <v>153</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
         <v>0</v>
       </c>
       <c r="G8" s="3">
@@ -3699,15 +3952,15 @@
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
         <v>5</v>
       </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
       <c r="M8" s="17">
         <v>0</v>
       </c>
@@ -3763,22 +4016,31 @@
         <v>0</v>
       </c>
       <c r="AE8" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>1</v>
+      </c>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM8" s="20" t="s">
+      <c r="AJ8" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP8" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:42">
       <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
@@ -3788,39 +4050,39 @@
       <c r="C9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="3">
         <v>120</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
       <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>24</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
       <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
         <v>5</v>
       </c>
-      <c r="L9" s="17">
+      <c r="M9" s="17">
         <v>5</v>
       </c>
-      <c r="M9" s="17">
+      <c r="N9" s="17">
         <v>16</v>
       </c>
-      <c r="N9" s="17">
-        <v>0</v>
-      </c>
       <c r="O9" s="17">
         <v>0</v>
       </c>
@@ -3870,22 +4132,31 @@
         <v>0</v>
       </c>
       <c r="AE9" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="17">
+        <v>1</v>
+      </c>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM9" s="20" t="s">
+      <c r="AJ9" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="34">
+        <v>50</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP9" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:42">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -3893,35 +4164,35 @@
         <v>78</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="5">
+        <v>153</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" s="5">
         <v>50</v>
       </c>
-      <c r="E10" s="10">
+      <c r="F10" s="10">
         <v>120</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>24</v>
       </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
       <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
         <v>5</v>
       </c>
-      <c r="L10" s="17">
-        <v>0</v>
-      </c>
       <c r="M10" s="17">
         <v>0</v>
       </c>
@@ -3977,22 +4248,31 @@
         <v>0</v>
       </c>
       <c r="AE10" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>1</v>
+      </c>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM10" s="20" t="s">
+      <c r="AJ10" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="34">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP10" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:42">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -4002,39 +4282,39 @@
       <c r="C11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="3">
         <v>400</v>
       </c>
-      <c r="E11" s="10">
+      <c r="F11" s="10">
         <v>16</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
         <v>6</v>
       </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
       <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
         <v>5</v>
       </c>
-      <c r="L11" s="17">
+      <c r="M11" s="17">
         <v>5</v>
       </c>
-      <c r="M11" s="17">
+      <c r="N11" s="17">
         <v>25</v>
       </c>
-      <c r="N11" s="17">
-        <v>0</v>
-      </c>
       <c r="O11" s="17">
         <v>0</v>
       </c>
@@ -4084,22 +4364,29 @@
         <v>0</v>
       </c>
       <c r="AE11" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>1</v>
+      </c>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM11" s="20" t="s">
+      <c r="AJ11" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP11" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:42">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -4109,39 +4396,39 @@
       <c r="C12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="10">
+      <c r="F12" s="10">
         <v>150</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
       <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>24</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
       <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
         <v>5</v>
       </c>
-      <c r="L12" s="17">
+      <c r="M12" s="17">
         <v>3</v>
       </c>
-      <c r="M12" s="17">
+      <c r="N12" s="17">
         <v>15</v>
       </c>
-      <c r="N12" s="17">
-        <v>0</v>
-      </c>
       <c r="O12" s="17">
         <v>0</v>
       </c>
@@ -4191,22 +4478,29 @@
         <v>0</v>
       </c>
       <c r="AE12" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>1</v>
+      </c>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM12" s="30" t="s">
-        <v>160</v>
+      <c r="AJ12" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP12" s="30" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:42">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -4216,39 +4510,39 @@
       <c r="C13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E13" s="3">
         <v>500</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
         <v>72</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
       <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
       <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
         <v>24</v>
       </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
       <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
         <v>5</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="17">
         <v>5</v>
       </c>
-      <c r="M13" s="17">
+      <c r="N13" s="17">
         <v>15</v>
       </c>
-      <c r="N13" s="17">
-        <v>0</v>
-      </c>
       <c r="O13" s="17">
         <v>0</v>
       </c>
@@ -4298,24 +4592,31 @@
         <v>0</v>
       </c>
       <c r="AE13" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="17">
+        <v>1</v>
+      </c>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4" t="s">
+      <c r="AJ13" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="34"/>
+      <c r="AO13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP13" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" s="23" t="s">
         <v>130</v>
-      </c>
-      <c r="AM13" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>11</v>
@@ -4323,39 +4624,39 @@
       <c r="C14" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="24">
         <v>200</v>
       </c>
-      <c r="E14" s="25">
+      <c r="F14" s="25">
         <v>120</v>
       </c>
-      <c r="F14" s="24">
-        <v>1</v>
-      </c>
       <c r="G14" s="24">
         <v>1</v>
       </c>
       <c r="H14" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="24">
+        <v>0</v>
+      </c>
+      <c r="J14" s="24">
         <v>24</v>
       </c>
-      <c r="J14" s="24">
-        <v>0</v>
-      </c>
       <c r="K14" s="24">
+        <v>0</v>
+      </c>
+      <c r="L14" s="24">
         <v>5</v>
       </c>
-      <c r="L14" s="26">
+      <c r="M14" s="26">
         <v>30</v>
       </c>
-      <c r="M14" s="26">
+      <c r="N14" s="26">
         <v>15</v>
       </c>
-      <c r="N14" s="26">
-        <v>0</v>
-      </c>
       <c r="O14" s="26">
         <v>0</v>
       </c>
@@ -4408,21 +4709,28 @@
         <v>0</v>
       </c>
       <c r="AF14" s="26">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="26">
+        <v>1</v>
+      </c>
       <c r="AH14" s="26"/>
       <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM14" s="27" t="s">
-        <v>134</v>
+      <c r="AJ14" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP14" s="27" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:42">
       <c r="A15" s="2" t="s">
         <v>112</v>
       </c>
@@ -4432,39 +4740,39 @@
       <c r="C15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
         <v>240</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
       <c r="G15" s="3">
         <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>24</v>
       </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
       <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
         <v>10</v>
       </c>
-      <c r="L15" s="17">
-        <v>0</v>
-      </c>
       <c r="M15" s="17">
+        <v>0</v>
+      </c>
+      <c r="N15" s="17">
         <v>20</v>
       </c>
-      <c r="N15" s="17">
-        <v>0</v>
-      </c>
       <c r="O15" s="17">
         <v>0</v>
       </c>
@@ -4514,22 +4822,29 @@
         <v>0</v>
       </c>
       <c r="AE15" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="17">
+        <v>1</v>
+      </c>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM15" s="30" t="s">
-        <v>175</v>
+      <c r="AJ15" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP15" s="30" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:42">
       <c r="A16" s="4" t="s">
         <v>85</v>
       </c>
@@ -4539,39 +4854,39 @@
       <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="5">
         <v>400</v>
       </c>
-      <c r="E16" s="11">
+      <c r="F16" s="11">
         <v>12</v>
       </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
       <c r="G16" s="5">
         <v>1</v>
       </c>
       <c r="H16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <v>6</v>
       </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
       <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
         <v>5</v>
       </c>
-      <c r="L16" s="17">
+      <c r="M16" s="17">
         <v>5</v>
       </c>
-      <c r="M16" s="17">
+      <c r="N16" s="17">
         <v>10</v>
       </c>
-      <c r="N16" s="17">
-        <v>0</v>
-      </c>
       <c r="O16" s="17">
         <v>0</v>
       </c>
@@ -4621,24 +4936,31 @@
         <v>0</v>
       </c>
       <c r="AE16" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="17">
+        <v>1</v>
+      </c>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM16" s="20" t="s">
+      <c r="AJ16" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP16" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:42">
       <c r="A17" s="23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>86</v>
@@ -4646,39 +4968,39 @@
       <c r="C17" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="24">
         <v>50</v>
       </c>
-      <c r="E17" s="25">
+      <c r="F17" s="25">
         <v>120</v>
       </c>
-      <c r="F17" s="24">
-        <v>1</v>
-      </c>
       <c r="G17" s="24">
         <v>1</v>
       </c>
       <c r="H17" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="24">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
         <v>12</v>
       </c>
-      <c r="J17" s="24">
-        <v>0</v>
-      </c>
       <c r="K17" s="24">
+        <v>0</v>
+      </c>
+      <c r="L17" s="24">
         <v>5</v>
       </c>
-      <c r="L17" s="17">
+      <c r="M17" s="17">
         <v>2</v>
       </c>
-      <c r="M17" s="17">
+      <c r="N17" s="17">
         <v>5</v>
       </c>
-      <c r="N17" s="17">
-        <v>0</v>
-      </c>
       <c r="O17" s="17">
         <v>0</v>
       </c>
@@ -4728,61 +5050,68 @@
         <v>0</v>
       </c>
       <c r="AE17" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="17">
+        <v>1</v>
+      </c>
       <c r="AG17" s="26"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM17" s="27" t="s">
-        <v>154</v>
+      <c r="AJ17" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP17" s="27" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:42">
       <c r="A18" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="24">
+        <v>144</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="24">
         <v>800</v>
       </c>
-      <c r="E18" s="25">
+      <c r="F18" s="25">
         <v>120</v>
       </c>
-      <c r="F18" s="24">
-        <v>1</v>
-      </c>
       <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
         <v>2</v>
       </c>
-      <c r="H18" s="24">
-        <v>0</v>
-      </c>
       <c r="I18" s="24">
+        <v>0</v>
+      </c>
+      <c r="J18" s="24">
         <v>12</v>
       </c>
-      <c r="J18" s="24">
-        <v>0</v>
-      </c>
       <c r="K18" s="24">
+        <v>0</v>
+      </c>
+      <c r="L18" s="24">
         <v>5</v>
       </c>
-      <c r="L18" s="17">
+      <c r="M18" s="17">
         <v>5</v>
       </c>
-      <c r="M18" s="17">
-        <v>0</v>
-      </c>
       <c r="N18" s="17">
         <v>0</v>
       </c>
@@ -4837,62 +5166,69 @@
       <c r="AE18" s="17">
         <v>0</v>
       </c>
-      <c r="AF18" s="26"/>
+      <c r="AF18" s="17">
+        <v>0</v>
+      </c>
       <c r="AG18" s="26"/>
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM18" s="27" t="s">
-        <v>153</v>
+      <c r="AJ18" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP18" s="27" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:42">
       <c r="A19" s="23" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="24">
+        <v>154</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="24">
         <v>100</v>
       </c>
-      <c r="E19" s="25">
+      <c r="F19" s="25">
         <v>120</v>
       </c>
-      <c r="F19" s="24">
-        <v>1</v>
-      </c>
       <c r="G19" s="24">
         <v>1</v>
       </c>
       <c r="H19" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="24">
+        <v>0</v>
+      </c>
+      <c r="J19" s="24">
         <v>12</v>
       </c>
-      <c r="J19" s="24">
-        <v>0</v>
-      </c>
       <c r="K19" s="24">
+        <v>0</v>
+      </c>
+      <c r="L19" s="24">
         <v>5</v>
       </c>
-      <c r="L19" s="17">
-        <v>0</v>
-      </c>
       <c r="M19" s="17">
+        <v>0</v>
+      </c>
+      <c r="N19" s="17">
         <v>15</v>
       </c>
-      <c r="N19" s="17">
-        <v>0</v>
-      </c>
       <c r="O19" s="17">
         <v>0</v>
       </c>
@@ -4944,22 +5280,29 @@
       <c r="AE19" s="17">
         <v>0</v>
       </c>
-      <c r="AF19" s="26"/>
+      <c r="AF19" s="17">
+        <v>0</v>
+      </c>
       <c r="AG19" s="26"/>
       <c r="AH19" s="26"/>
       <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM19" s="27" t="s">
-        <v>159</v>
+      <c r="AJ19" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP19" s="27" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:42">
       <c r="A20" s="23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>86</v>
@@ -4967,13 +5310,13 @@
       <c r="C20" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="24">
-        <v>0</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="D20" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0</v>
+      </c>
+      <c r="F20" s="25">
         <v>0</v>
       </c>
       <c r="G20" s="24">
@@ -4989,11 +5332,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="24">
+        <v>0</v>
+      </c>
+      <c r="L20" s="24">
         <v>5</v>
       </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
       <c r="M20" s="17">
         <v>0</v>
       </c>
@@ -5051,20 +5394,27 @@
       <c r="AE20" s="17">
         <v>0</v>
       </c>
-      <c r="AF20" s="26"/>
+      <c r="AF20" s="17">
+        <v>0</v>
+      </c>
       <c r="AG20" s="26"/>
       <c r="AH20" s="26"/>
       <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM20" s="27" t="s">
-        <v>156</v>
+      <c r="AJ20" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK20" s="33"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP20" s="27" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:42">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -5074,39 +5424,39 @@
       <c r="C21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="5">
         <v>80</v>
       </c>
-      <c r="E21" s="11">
+      <c r="F21" s="11">
         <v>12</v>
       </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
       <c r="G21" s="5">
         <v>1</v>
       </c>
       <c r="H21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
         <v>6</v>
       </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
       <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
         <v>5</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M21" s="17">
         <v>8</v>
       </c>
-      <c r="M21" s="17">
+      <c r="N21" s="17">
         <v>32</v>
       </c>
-      <c r="N21" s="17">
-        <v>0</v>
-      </c>
       <c r="O21" s="17">
         <v>0</v>
       </c>
@@ -5156,22 +5506,29 @@
         <v>0</v>
       </c>
       <c r="AE21" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="17">
+        <v>1</v>
+      </c>
       <c r="AG21" s="4"/>
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM21" s="20" t="s">
+      <c r="AJ21" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK21" s="33"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="34"/>
+      <c r="AO21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP21" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:42">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -5181,39 +5538,39 @@
       <c r="C22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="3">
         <v>50</v>
       </c>
-      <c r="E22" s="10">
+      <c r="F22" s="10">
         <v>60</v>
       </c>
-      <c r="F22" s="3">
-        <v>3</v>
-      </c>
       <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>24</v>
       </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
       <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
         <v>5</v>
       </c>
-      <c r="L22" s="17">
+      <c r="M22" s="17">
         <v>24</v>
       </c>
-      <c r="M22" s="17">
+      <c r="N22" s="17">
         <v>32</v>
       </c>
-      <c r="N22" s="17">
-        <v>0</v>
-      </c>
       <c r="O22" s="17">
         <v>0</v>
       </c>
@@ -5263,22 +5620,29 @@
         <v>0</v>
       </c>
       <c r="AE22" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="17">
+        <v>1</v>
+      </c>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM22" s="20" t="s">
+      <c r="AJ22" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK22" s="33"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="34"/>
+      <c r="AO22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP22" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:42">
       <c r="A23" s="4" t="s">
         <v>88</v>
       </c>
@@ -5288,39 +5652,39 @@
       <c r="C23" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="5">
         <v>100</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>70</v>
       </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
       <c r="G23" s="5">
+        <v>3</v>
+      </c>
+      <c r="H23" s="5">
         <v>2</v>
       </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
       <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
         <v>24</v>
       </c>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
       <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
         <v>5</v>
       </c>
-      <c r="L23" s="17">
+      <c r="M23" s="17">
         <v>12</v>
       </c>
-      <c r="M23" s="17">
+      <c r="N23" s="17">
         <v>32</v>
       </c>
-      <c r="N23" s="17">
-        <v>0</v>
-      </c>
       <c r="O23" s="17">
         <v>0</v>
       </c>
@@ -5370,22 +5734,29 @@
         <v>0</v>
       </c>
       <c r="AE23" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="17">
+        <v>1</v>
+      </c>
       <c r="AG23" s="4"/>
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM23" s="20" t="s">
+      <c r="AJ23" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="34"/>
+      <c r="AO23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP23" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:42">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -5395,39 +5766,39 @@
       <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="10">
+      <c r="F24" s="10">
         <v>80</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
       <c r="G24" s="3">
         <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>24</v>
       </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
       <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
         <v>5</v>
       </c>
-      <c r="L24" s="17">
+      <c r="M24" s="17">
         <v>6</v>
       </c>
-      <c r="M24" s="17">
+      <c r="N24" s="17">
         <v>16</v>
       </c>
-      <c r="N24" s="17">
-        <v>0</v>
-      </c>
       <c r="O24" s="17">
         <v>0</v>
       </c>
@@ -5477,22 +5848,29 @@
         <v>0</v>
       </c>
       <c r="AE24" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="17">
+        <v>1</v>
+      </c>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM24" s="20" t="s">
+      <c r="AJ24" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="34"/>
+      <c r="AO24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP24" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:42">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -5502,36 +5880,36 @@
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="5">
         <v>300</v>
       </c>
-      <c r="E25" s="11">
+      <c r="F25" s="11">
         <v>12</v>
       </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
       <c r="G25" s="5">
         <v>1</v>
       </c>
       <c r="H25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
         <v>4</v>
       </c>
-      <c r="J25" s="5">
-        <v>1</v>
-      </c>
       <c r="K25" s="5">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5">
         <v>5</v>
       </c>
-      <c r="L25" s="17">
+      <c r="M25" s="17">
         <v>5</v>
       </c>
-      <c r="M25" s="17">
-        <v>0</v>
-      </c>
       <c r="N25" s="17">
         <v>0</v>
       </c>
@@ -5584,61 +5962,68 @@
         <v>0</v>
       </c>
       <c r="AE25" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="17">
+        <v>1</v>
+      </c>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM25" s="20" t="s">
+      <c r="AJ25" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="34"/>
+      <c r="AO25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP25" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:42">
       <c r="A26" s="28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C26" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="5">
         <v>200</v>
       </c>
-      <c r="E26" s="11">
+      <c r="F26" s="11">
         <v>80</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>8</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>4</v>
       </c>
-      <c r="H26" s="5">
-        <v>0</v>
-      </c>
       <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
         <v>2</v>
       </c>
-      <c r="J26" s="5">
-        <v>0</v>
-      </c>
       <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
         <v>5</v>
       </c>
-      <c r="L26" s="17">
+      <c r="M26" s="17">
         <v>3</v>
       </c>
-      <c r="M26" s="17">
-        <v>0</v>
-      </c>
       <c r="N26" s="17">
         <v>0</v>
       </c>
@@ -5691,22 +6076,29 @@
         <v>0</v>
       </c>
       <c r="AE26" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="17">
+        <v>1</v>
+      </c>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM26" s="30" t="s">
-        <v>179</v>
+      <c r="AJ26" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP26" s="30" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:42">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -5716,36 +6108,36 @@
       <c r="C27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="3">
-        <v>500</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
         <v>120</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>8</v>
       </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
       <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
         <v>5</v>
       </c>
-      <c r="L27" s="17">
+      <c r="M27" s="17">
         <v>10</v>
       </c>
-      <c r="M27" s="17">
-        <v>0</v>
-      </c>
       <c r="N27" s="17">
         <v>0</v>
       </c>
@@ -5798,24 +6190,31 @@
         <v>0</v>
       </c>
       <c r="AE27" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="4">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>1</v>
+      </c>
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM27" s="20" t="s">
+      <c r="AJ27" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="34"/>
+      <c r="AO27" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP27" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:42">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -5825,33 +6224,33 @@
       <c r="C28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="5">
         <v>300</v>
       </c>
-      <c r="E28" s="11">
+      <c r="F28" s="11">
         <v>90</v>
-      </c>
-      <c r="F28" s="5">
-        <v>2</v>
       </c>
       <c r="G28" s="5">
         <v>2</v>
       </c>
       <c r="H28" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
         <v>24</v>
       </c>
-      <c r="J28" s="5">
-        <v>0</v>
-      </c>
       <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
         <v>5</v>
       </c>
-      <c r="L28" s="17">
-        <v>0</v>
-      </c>
       <c r="M28" s="17">
         <v>0</v>
       </c>
@@ -5907,22 +6306,29 @@
         <v>0</v>
       </c>
       <c r="AE28" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="17">
+        <v>1</v>
+      </c>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
       <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-      <c r="AL28" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM28" s="20" t="s">
+      <c r="AJ28" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="34"/>
+      <c r="AO28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP28" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:42">
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
@@ -5932,13 +6338,13 @@
       <c r="C29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="5">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="D29" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
         <v>0</v>
       </c>
       <c r="G29" s="5">
@@ -5954,11 +6360,11 @@
         <v>0</v>
       </c>
       <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
         <v>5</v>
       </c>
-      <c r="L29" s="17">
-        <v>0</v>
-      </c>
       <c r="M29" s="17">
         <v>0</v>
       </c>
@@ -6014,24 +6420,31 @@
         <v>0</v>
       </c>
       <c r="AE29" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="17">
+        <v>1</v>
+      </c>
       <c r="AG29" s="4"/>
       <c r="AH29" s="4"/>
       <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM29" s="30" t="s">
-        <v>161</v>
+      <c r="AJ29" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP29" s="30" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:42">
       <c r="A30" s="28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>97</v>
@@ -6039,36 +6452,36 @@
       <c r="C30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="5">
         <v>100</v>
       </c>
-      <c r="E30" s="11">
+      <c r="F30" s="11">
         <v>16</v>
       </c>
-      <c r="F30" s="5">
-        <v>1</v>
-      </c>
       <c r="G30" s="5">
         <v>1</v>
       </c>
       <c r="H30" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
         <v>16</v>
       </c>
-      <c r="J30" s="5">
-        <v>1</v>
-      </c>
       <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5">
         <v>5</v>
       </c>
-      <c r="L30" s="17">
+      <c r="M30" s="17">
         <v>5</v>
       </c>
-      <c r="M30" s="17">
-        <v>0</v>
-      </c>
       <c r="N30" s="17">
         <v>0</v>
       </c>
@@ -6121,22 +6534,27 @@
         <v>0</v>
       </c>
       <c r="AE30" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="17">
+        <v>1</v>
+      </c>
       <c r="AG30" s="4"/>
       <c r="AH30" s="4"/>
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM30" s="20" t="s">
+      <c r="AK30" s="34"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="34"/>
+      <c r="AO30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP30" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:42">
       <c r="A31" s="4" t="s">
         <v>99</v>
       </c>
@@ -6146,36 +6564,36 @@
       <c r="C31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="5">
         <v>100</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>55</v>
       </c>
-      <c r="F31" s="5">
-        <v>1</v>
-      </c>
       <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
         <v>2</v>
       </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
       <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
         <v>12</v>
       </c>
-      <c r="J31" s="5">
-        <v>0</v>
-      </c>
       <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
         <v>5</v>
       </c>
-      <c r="L31" s="17">
+      <c r="M31" s="17">
         <v>10</v>
       </c>
-      <c r="M31" s="17">
-        <v>0</v>
-      </c>
       <c r="N31" s="17">
         <v>0</v>
       </c>
@@ -6228,22 +6646,27 @@
         <v>0</v>
       </c>
       <c r="AE31" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="17">
+        <v>1</v>
+      </c>
       <c r="AG31" s="4"/>
       <c r="AH31" s="4"/>
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM31" s="20" t="s">
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+      <c r="AN31" s="34"/>
+      <c r="AO31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP31" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:42">
       <c r="A32" s="4" t="s">
         <v>100</v>
       </c>
@@ -6253,36 +6676,36 @@
       <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="5">
         <v>150</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>24</v>
       </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
       <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
         <v>2</v>
       </c>
-      <c r="H32" s="5">
-        <v>0</v>
-      </c>
       <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
         <v>12</v>
       </c>
-      <c r="J32" s="5">
-        <v>0</v>
-      </c>
       <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
         <v>5</v>
       </c>
-      <c r="L32" s="17">
+      <c r="M32" s="17">
         <v>10</v>
       </c>
-      <c r="M32" s="17">
-        <v>0</v>
-      </c>
       <c r="N32" s="17">
         <v>0</v>
       </c>
@@ -6335,22 +6758,27 @@
         <v>0</v>
       </c>
       <c r="AE32" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="17">
+        <v>1</v>
+      </c>
       <c r="AG32" s="4"/>
       <c r="AH32" s="4"/>
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM32" s="22" t="s">
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+      <c r="AN32" s="34"/>
+      <c r="AO32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP32" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:42">
       <c r="A33" s="4" t="s">
         <v>101</v>
       </c>
@@ -6360,33 +6788,33 @@
       <c r="C33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="5">
-        <v>0</v>
+      <c r="D33" s="28" t="s">
+        <v>178</v>
       </c>
       <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
         <v>110</v>
       </c>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
       <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
         <v>3</v>
       </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
       <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
         <v>12</v>
       </c>
-      <c r="J33" s="5">
-        <v>0</v>
-      </c>
       <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
         <v>5</v>
       </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
       <c r="M33" s="17">
         <v>0</v>
       </c>
@@ -6415,11 +6843,11 @@
         <v>0</v>
       </c>
       <c r="V33" s="17">
+        <v>0</v>
+      </c>
+      <c r="W33" s="17">
         <v>20</v>
       </c>
-      <c r="W33" s="17">
-        <v>0</v>
-      </c>
       <c r="X33" s="17">
         <v>0</v>
       </c>
@@ -6442,61 +6870,66 @@
         <v>0</v>
       </c>
       <c r="AE33" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="28"/>
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM33" s="20" t="s">
+      <c r="AK33" s="34"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+      <c r="AN33" s="34"/>
+      <c r="AO33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP33" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:42">
       <c r="A34" s="23" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="24">
         <v>30</v>
       </c>
-      <c r="E34" s="25">
+      <c r="F34" s="25">
         <v>24</v>
       </c>
-      <c r="F34" s="24">
-        <v>1</v>
-      </c>
       <c r="G34" s="24">
         <v>1</v>
       </c>
       <c r="H34" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="24">
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
         <v>12</v>
       </c>
-      <c r="J34" s="24">
-        <v>1</v>
-      </c>
       <c r="K34" s="24">
+        <v>1</v>
+      </c>
+      <c r="L34" s="24">
         <v>5</v>
       </c>
-      <c r="L34" s="17">
+      <c r="M34" s="17">
         <v>8</v>
       </c>
-      <c r="M34" s="17">
-        <v>0</v>
-      </c>
       <c r="N34" s="17">
         <v>0</v>
       </c>
@@ -6522,11 +6955,11 @@
         <v>0</v>
       </c>
       <c r="V34" s="17">
+        <v>0</v>
+      </c>
+      <c r="W34" s="17">
         <v>20</v>
       </c>
-      <c r="W34" s="17">
-        <v>0</v>
-      </c>
       <c r="X34" s="17">
         <v>0</v>
       </c>
@@ -6549,63 +6982,68 @@
         <v>0</v>
       </c>
       <c r="AE34" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="26">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="26">
+        <v>1</v>
+      </c>
       <c r="AH34" s="26"/>
       <c r="AI34" s="26"/>
       <c r="AJ34" s="26"/>
-      <c r="AK34" s="26"/>
-      <c r="AL34" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM34" s="27" t="s">
-        <v>142</v>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="35"/>
+      <c r="AO34" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP34" s="27" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:42">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="24">
         <v>50</v>
       </c>
-      <c r="E35" s="25">
+      <c r="F35" s="25">
         <v>50</v>
       </c>
-      <c r="F35" s="24">
+      <c r="G35" s="24">
         <v>3</v>
       </c>
-      <c r="G35" s="24">
+      <c r="H35" s="24">
         <v>2</v>
       </c>
-      <c r="H35" s="24">
-        <v>0</v>
-      </c>
       <c r="I35" s="24">
+        <v>0</v>
+      </c>
+      <c r="J35" s="24">
         <v>12</v>
       </c>
-      <c r="J35" s="24">
-        <v>0</v>
-      </c>
       <c r="K35" s="24">
+        <v>0</v>
+      </c>
+      <c r="L35" s="24">
         <v>5</v>
       </c>
-      <c r="L35" s="17">
+      <c r="M35" s="17">
         <v>30</v>
       </c>
-      <c r="M35" s="17">
-        <v>0</v>
-      </c>
       <c r="N35" s="17">
         <v>0</v>
       </c>
@@ -6631,11 +7069,11 @@
         <v>0</v>
       </c>
       <c r="V35" s="17">
+        <v>0</v>
+      </c>
+      <c r="W35" s="17">
         <v>20</v>
       </c>
-      <c r="W35" s="17">
-        <v>0</v>
-      </c>
       <c r="X35" s="17">
         <v>0</v>
       </c>
@@ -6658,58 +7096,63 @@
         <v>0</v>
       </c>
       <c r="AE35" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="17">
+        <v>1</v>
+      </c>
       <c r="AG35" s="26"/>
       <c r="AH35" s="26"/>
       <c r="AI35" s="26"/>
       <c r="AJ35" s="26"/>
-      <c r="AK35" s="26"/>
-      <c r="AL35" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM35" s="27" t="s">
-        <v>145</v>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP35" s="27" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:42">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="24">
-        <v>0</v>
-      </c>
-      <c r="E36" s="25">
+      <c r="D36" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E36" s="24">
+        <v>0</v>
+      </c>
+      <c r="F36" s="25">
         <v>230</v>
       </c>
-      <c r="F36" s="24">
-        <v>1</v>
-      </c>
       <c r="G36" s="24">
         <v>1</v>
       </c>
       <c r="H36" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="24">
+        <v>0</v>
+      </c>
+      <c r="J36" s="24">
         <v>12</v>
       </c>
-      <c r="J36" s="24">
-        <v>0</v>
-      </c>
       <c r="K36" s="24">
+        <v>0</v>
+      </c>
+      <c r="L36" s="24">
         <v>5</v>
       </c>
-      <c r="L36" s="17">
-        <v>0</v>
-      </c>
       <c r="M36" s="17">
         <v>0</v>
       </c>
@@ -6738,11 +7181,11 @@
         <v>0</v>
       </c>
       <c r="V36" s="17">
+        <v>0</v>
+      </c>
+      <c r="W36" s="17">
         <v>20</v>
       </c>
-      <c r="W36" s="17">
-        <v>0</v>
-      </c>
       <c r="X36" s="17">
         <v>0</v>
       </c>
@@ -6765,61 +7208,66 @@
         <v>0</v>
       </c>
       <c r="AE36" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="17">
+        <v>1</v>
+      </c>
       <c r="AG36" s="26"/>
       <c r="AH36" s="26"/>
       <c r="AI36" s="26"/>
       <c r="AJ36" s="26"/>
-      <c r="AK36" s="26"/>
-      <c r="AL36" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM36" s="27" t="s">
-        <v>143</v>
+      <c r="AK36" s="35"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="35"/>
+      <c r="AO36" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP36" s="27" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:42">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="24">
         <v>100</v>
       </c>
-      <c r="E37" s="25">
+      <c r="F37" s="25">
         <v>48</v>
       </c>
-      <c r="F37" s="24">
+      <c r="G37" s="24">
         <v>3</v>
       </c>
-      <c r="G37" s="24">
+      <c r="H37" s="24">
         <v>2</v>
       </c>
-      <c r="H37" s="24">
-        <v>0</v>
-      </c>
       <c r="I37" s="24">
+        <v>0</v>
+      </c>
+      <c r="J37" s="24">
         <v>12</v>
       </c>
-      <c r="J37" s="24">
-        <v>0</v>
-      </c>
       <c r="K37" s="24">
+        <v>0</v>
+      </c>
+      <c r="L37" s="24">
         <v>5</v>
       </c>
-      <c r="L37" s="17">
+      <c r="M37" s="17">
         <v>12</v>
       </c>
-      <c r="M37" s="17">
-        <v>0</v>
-      </c>
       <c r="N37" s="17">
         <v>0</v>
       </c>
@@ -6845,11 +7293,11 @@
         <v>0</v>
       </c>
       <c r="V37" s="17">
+        <v>0</v>
+      </c>
+      <c r="W37" s="17">
         <v>20</v>
       </c>
-      <c r="W37" s="17">
-        <v>0</v>
-      </c>
       <c r="X37" s="17">
         <v>0</v>
       </c>
@@ -6872,22 +7320,27 @@
         <v>0</v>
       </c>
       <c r="AE37" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="17">
+        <v>1</v>
+      </c>
       <c r="AG37" s="26"/>
       <c r="AH37" s="26"/>
       <c r="AI37" s="26"/>
       <c r="AJ37" s="26"/>
-      <c r="AK37" s="26"/>
-      <c r="AL37" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM37" s="27" t="s">
-        <v>144</v>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="26"/>
+      <c r="AN37" s="35"/>
+      <c r="AO37" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP37" s="27" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:42">
       <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
@@ -6897,36 +7350,36 @@
       <c r="C38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="3">
         <v>60</v>
       </c>
-      <c r="E38" s="10">
+      <c r="F38" s="10">
         <v>8</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
       <c r="G38" s="3">
         <v>1</v>
       </c>
       <c r="H38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
         <v>4</v>
       </c>
-      <c r="J38" s="5">
-        <v>1</v>
-      </c>
       <c r="K38" s="5">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
         <v>5</v>
       </c>
-      <c r="L38" s="17">
+      <c r="M38" s="17">
         <v>5</v>
       </c>
-      <c r="M38" s="17">
-        <v>0</v>
-      </c>
       <c r="N38" s="17">
         <v>0</v>
       </c>
@@ -6979,22 +7432,27 @@
         <v>0</v>
       </c>
       <c r="AE38" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="17">
+        <v>1</v>
+      </c>
       <c r="AG38" s="4"/>
       <c r="AH38" s="4"/>
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM38" s="20" t="s">
+      <c r="AK38" s="34"/>
+      <c r="AL38" s="4"/>
+      <c r="AM38" s="4"/>
+      <c r="AN38" s="34"/>
+      <c r="AO38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP38" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:42">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
@@ -7004,33 +7462,33 @@
       <c r="C39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="5">
         <v>70</v>
       </c>
-      <c r="E39" s="11">
+      <c r="F39" s="11">
         <v>720</v>
-      </c>
-      <c r="F39" s="5">
-        <v>3</v>
       </c>
       <c r="G39" s="5">
         <v>3</v>
       </c>
       <c r="H39" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
         <v>4</v>
       </c>
-      <c r="J39" s="5">
-        <v>0</v>
-      </c>
       <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
         <v>5</v>
       </c>
-      <c r="L39" s="17">
-        <v>0</v>
-      </c>
       <c r="M39" s="17">
         <v>0</v>
       </c>
@@ -7086,22 +7544,27 @@
         <v>0</v>
       </c>
       <c r="AE39" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="17">
+        <v>1</v>
+      </c>
       <c r="AG39" s="4"/>
       <c r="AH39" s="4"/>
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM39" s="20" t="s">
+      <c r="AK39" s="34"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="34"/>
+      <c r="AO39" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP39" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:42">
       <c r="A40" s="2" t="s">
         <v>32</v>
       </c>
@@ -7109,35 +7572,35 @@
         <v>29</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="3">
+        <v>153</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="3">
         <v>50</v>
       </c>
-      <c r="E40" s="10">
+      <c r="F40" s="10">
         <v>720</v>
       </c>
-      <c r="F40" s="3">
+      <c r="G40" s="3">
         <v>3</v>
       </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
       <c r="H40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
         <v>72</v>
       </c>
-      <c r="J40" s="5">
-        <v>0</v>
-      </c>
       <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
         <v>5</v>
       </c>
-      <c r="L40" s="17">
-        <v>0</v>
-      </c>
       <c r="M40" s="17">
         <v>0</v>
       </c>
@@ -7193,22 +7656,27 @@
         <v>0</v>
       </c>
       <c r="AE40" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="17">
+        <v>1</v>
+      </c>
       <c r="AG40" s="4"/>
       <c r="AH40" s="4"/>
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM40" s="20" t="s">
+      <c r="AK40" s="34"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="34"/>
+      <c r="AO40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP40" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:42">
       <c r="A41" s="4" t="s">
         <v>33</v>
       </c>
@@ -7218,36 +7686,36 @@
       <c r="C41" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="5">
         <v>80</v>
       </c>
-      <c r="E41" s="11">
+      <c r="F41" s="11">
         <v>100</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>5</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <v>2</v>
       </c>
-      <c r="H41" s="5">
-        <v>0</v>
-      </c>
       <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
         <v>12</v>
       </c>
-      <c r="J41" s="5">
-        <v>0</v>
-      </c>
       <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
         <v>5</v>
       </c>
-      <c r="L41" s="17">
+      <c r="M41" s="17">
         <v>10</v>
       </c>
-      <c r="M41" s="17">
-        <v>0</v>
-      </c>
       <c r="N41" s="17">
         <v>0</v>
       </c>
@@ -7300,22 +7768,27 @@
         <v>0</v>
       </c>
       <c r="AE41" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="17">
+        <v>1</v>
+      </c>
       <c r="AG41" s="4"/>
       <c r="AH41" s="4"/>
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM41" s="20" t="s">
+      <c r="AK41" s="34"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="34"/>
+      <c r="AO41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP41" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:42">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
@@ -7325,13 +7798,13 @@
       <c r="C42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="D42" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
         <v>0</v>
       </c>
       <c r="G42" s="3">
@@ -7343,15 +7816,15 @@
       <c r="I42" s="3">
         <v>0</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
         <v>5</v>
       </c>
-      <c r="L42" s="17">
-        <v>0</v>
-      </c>
       <c r="M42" s="17">
         <v>0</v>
       </c>
@@ -7407,22 +7880,27 @@
         <v>0</v>
       </c>
       <c r="AE42" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="17">
+        <v>1</v>
+      </c>
       <c r="AG42" s="4"/>
       <c r="AH42" s="4"/>
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM42" s="20" t="s">
+      <c r="AK42" s="34"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="4"/>
+      <c r="AN42" s="34"/>
+      <c r="AO42" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP42" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:42">
       <c r="A43" s="4" t="s">
         <v>60</v>
       </c>
@@ -7432,13 +7910,13 @@
       <c r="C43" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="5">
-        <v>0</v>
-      </c>
-      <c r="E43" s="11">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="D43" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="11">
         <v>0</v>
       </c>
       <c r="G43" s="5">
@@ -7454,11 +7932,11 @@
         <v>0</v>
       </c>
       <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
         <v>5</v>
       </c>
-      <c r="L43" s="17">
-        <v>0</v>
-      </c>
       <c r="M43" s="17">
         <v>0</v>
       </c>
@@ -7514,22 +7992,27 @@
         <v>0</v>
       </c>
       <c r="AE43" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="17">
+        <v>1</v>
+      </c>
       <c r="AG43" s="4"/>
       <c r="AH43" s="4"/>
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM43" s="20" t="s">
+      <c r="AK43" s="34"/>
+      <c r="AL43" s="4"/>
+      <c r="AM43" s="4"/>
+      <c r="AN43" s="34"/>
+      <c r="AO43" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP43" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:42">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -7539,36 +8022,36 @@
       <c r="C44" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" s="3">
         <v>30</v>
       </c>
-      <c r="E44" s="10">
+      <c r="F44" s="10">
         <v>16</v>
       </c>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
       <c r="G44" s="3">
         <v>1</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>4</v>
       </c>
-      <c r="J44" s="5">
-        <v>1</v>
-      </c>
       <c r="K44" s="5">
+        <v>1</v>
+      </c>
+      <c r="L44" s="5">
         <v>5</v>
       </c>
-      <c r="L44" s="17">
+      <c r="M44" s="17">
         <v>5</v>
       </c>
-      <c r="M44" s="17">
-        <v>0</v>
-      </c>
       <c r="N44" s="17">
         <v>0</v>
       </c>
@@ -7621,38 +8104,43 @@
         <v>0</v>
       </c>
       <c r="AE44" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF44" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="17">
+        <v>1</v>
+      </c>
       <c r="AG44" s="4"/>
       <c r="AH44" s="4"/>
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
-      <c r="AK44" s="4"/>
-      <c r="AL44" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM44" s="20" t="s">
+      <c r="AK44" s="34"/>
+      <c r="AL44" s="4"/>
+      <c r="AM44" s="4"/>
+      <c r="AN44" s="34"/>
+      <c r="AO44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP44" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:42">
       <c r="A45" s="23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="5">
-        <v>0</v>
-      </c>
-      <c r="E45" s="11">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="D45" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11">
         <v>0</v>
       </c>
       <c r="G45" s="5">
@@ -7665,13 +8153,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="5">
         <v>1</v>
       </c>
-      <c r="L45" s="17">
-        <v>0</v>
+      <c r="L45" s="5">
+        <v>1</v>
       </c>
       <c r="M45" s="17">
         <v>0</v>
@@ -7728,60 +8216,65 @@
         <v>0</v>
       </c>
       <c r="AE45" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF45" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="17">
+        <v>1</v>
+      </c>
       <c r="AG45" s="4"/>
       <c r="AH45" s="4"/>
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
-      <c r="AK45" s="4"/>
-      <c r="AL45" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM45" s="27" t="s">
-        <v>174</v>
+      <c r="AK45" s="34"/>
+      <c r="AL45" s="4"/>
+      <c r="AM45" s="4"/>
+      <c r="AN45" s="34"/>
+      <c r="AO45" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP45" s="27" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:42">
       <c r="A46" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E46" s="24">
         <v>800</v>
       </c>
-      <c r="E46" s="25">
+      <c r="F46" s="25">
         <v>12</v>
       </c>
-      <c r="F46" s="24">
-        <v>1</v>
-      </c>
       <c r="G46" s="24">
+        <v>1</v>
+      </c>
+      <c r="H46" s="24">
         <v>2</v>
       </c>
-      <c r="H46" s="24">
-        <v>0</v>
-      </c>
       <c r="I46" s="24">
+        <v>0</v>
+      </c>
+      <c r="J46" s="24">
         <v>12</v>
       </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
       <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
         <v>5</v>
       </c>
-      <c r="L46" s="17">
-        <v>5</v>
-      </c>
       <c r="M46" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N46" s="17">
         <v>0</v>
@@ -7835,61 +8328,66 @@
         <v>0</v>
       </c>
       <c r="AE46" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF46" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="17">
+        <v>1</v>
+      </c>
       <c r="AG46" s="26"/>
       <c r="AH46" s="26"/>
       <c r="AI46" s="26"/>
       <c r="AJ46" s="26"/>
-      <c r="AK46" s="26"/>
-      <c r="AL46" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM46" t="s">
-        <v>170</v>
+      <c r="AK46" s="35"/>
+      <c r="AL46" s="26"/>
+      <c r="AM46" s="26"/>
+      <c r="AN46" s="35"/>
+      <c r="AO46" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:42">
       <c r="A47" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" s="24">
         <v>100</v>
       </c>
-      <c r="E47" s="25">
+      <c r="F47" s="25">
         <v>64</v>
       </c>
-      <c r="F47" s="24">
+      <c r="G47" s="24">
         <v>10</v>
       </c>
-      <c r="G47" s="24">
+      <c r="H47" s="24">
         <v>4</v>
       </c>
-      <c r="H47" s="24">
-        <v>0</v>
-      </c>
       <c r="I47" s="24">
-        <v>1</v>
-      </c>
-      <c r="J47" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J47" s="24">
+        <v>1</v>
       </c>
       <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
         <v>5</v>
       </c>
-      <c r="L47" s="17">
+      <c r="M47" s="17">
         <v>15</v>
       </c>
-      <c r="M47" s="17">
-        <v>0</v>
-      </c>
       <c r="N47" s="17">
         <v>0</v>
       </c>
@@ -7942,60 +8440,65 @@
         <v>0</v>
       </c>
       <c r="AE47" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF47" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="17">
+        <v>1</v>
+      </c>
       <c r="AG47" s="26"/>
       <c r="AH47" s="26"/>
       <c r="AI47" s="26"/>
       <c r="AJ47" s="26"/>
-      <c r="AK47" s="26"/>
-      <c r="AL47" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>169</v>
+      <c r="AK47" s="35"/>
+      <c r="AL47" s="26"/>
+      <c r="AM47" s="26"/>
+      <c r="AN47" s="35"/>
+      <c r="AO47" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
-      <c r="A48" s="23" t="s">
-        <v>151</v>
+    <row r="48" spans="1:42">
+      <c r="A48" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="24">
+        <v>143</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="24">
         <v>300</v>
       </c>
-      <c r="E48" s="25">
+      <c r="F48" s="25">
         <v>16</v>
       </c>
-      <c r="F48" s="24">
+      <c r="G48" s="24">
         <v>10</v>
       </c>
-      <c r="G48" s="24">
+      <c r="H48" s="24">
         <v>4</v>
       </c>
-      <c r="H48" s="24">
-        <v>0</v>
-      </c>
       <c r="I48" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="24">
         <v>1</v>
       </c>
       <c r="K48" s="24">
+        <v>1</v>
+      </c>
+      <c r="L48" s="24">
         <v>5</v>
       </c>
-      <c r="L48" s="17">
-        <v>3</v>
-      </c>
       <c r="M48" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N48" s="17">
         <v>0</v>
@@ -8049,61 +8552,66 @@
         <v>0</v>
       </c>
       <c r="AE48" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF48" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="17">
+        <v>1</v>
+      </c>
       <c r="AG48" s="26"/>
       <c r="AH48" s="26"/>
       <c r="AI48" s="26"/>
       <c r="AJ48" s="26"/>
-      <c r="AK48" s="26"/>
-      <c r="AL48" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM48" s="27" t="s">
-        <v>168</v>
+      <c r="AK48" s="35"/>
+      <c r="AL48" s="26"/>
+      <c r="AM48" s="26"/>
+      <c r="AN48" s="35"/>
+      <c r="AO48" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP48" s="27" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:42">
       <c r="A49" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="24">
+      <c r="D49" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="24">
         <v>100</v>
       </c>
-      <c r="E49" s="25">
+      <c r="F49" s="25">
         <v>72</v>
       </c>
-      <c r="F49" s="24">
+      <c r="G49" s="24">
         <v>3</v>
       </c>
-      <c r="G49" s="24">
-        <v>1</v>
-      </c>
       <c r="H49" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="24">
+        <v>0</v>
+      </c>
+      <c r="J49" s="24">
         <v>16</v>
       </c>
-      <c r="J49" s="24">
-        <v>0</v>
-      </c>
       <c r="K49" s="24">
+        <v>0</v>
+      </c>
+      <c r="L49" s="24">
         <v>5</v>
       </c>
-      <c r="L49" s="17">
+      <c r="M49" s="17">
         <v>25</v>
       </c>
-      <c r="M49" s="17">
-        <v>0</v>
-      </c>
       <c r="N49" s="17">
         <v>0</v>
       </c>
@@ -8156,61 +8664,66 @@
         <v>0</v>
       </c>
       <c r="AE49" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF49" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="17">
+        <v>1</v>
+      </c>
       <c r="AG49" s="26"/>
       <c r="AH49" s="26"/>
       <c r="AI49" s="26"/>
       <c r="AJ49" s="26"/>
-      <c r="AK49" s="26"/>
-      <c r="AL49" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>165</v>
+      <c r="AK49" s="35"/>
+      <c r="AL49" s="26"/>
+      <c r="AM49" s="26"/>
+      <c r="AN49" s="35"/>
+      <c r="AO49" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:42">
       <c r="A50" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="24">
+        <v>144</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50" s="24">
         <v>50</v>
       </c>
-      <c r="E50" s="25">
+      <c r="F50" s="25">
         <v>48</v>
       </c>
-      <c r="F50" s="24">
-        <v>1</v>
-      </c>
       <c r="G50" s="24">
+        <v>1</v>
+      </c>
+      <c r="H50" s="24">
         <v>2</v>
       </c>
-      <c r="H50" s="24">
-        <v>0</v>
-      </c>
       <c r="I50" s="24">
+        <v>0</v>
+      </c>
+      <c r="J50" s="24">
         <v>12</v>
       </c>
-      <c r="J50" s="24">
-        <v>0</v>
-      </c>
       <c r="K50" s="24">
+        <v>0</v>
+      </c>
+      <c r="L50" s="24">
         <v>5</v>
       </c>
-      <c r="L50" s="17">
+      <c r="M50" s="17">
         <v>5</v>
       </c>
-      <c r="M50" s="17">
-        <v>0</v>
-      </c>
       <c r="N50" s="17">
         <v>0</v>
       </c>
@@ -8263,61 +8776,66 @@
         <v>0</v>
       </c>
       <c r="AE50" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF50" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="17">
+        <v>1</v>
+      </c>
       <c r="AG50" s="26"/>
       <c r="AH50" s="26"/>
       <c r="AI50" s="26"/>
       <c r="AJ50" s="26"/>
-      <c r="AK50" s="26"/>
-      <c r="AL50" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>166</v>
+      <c r="AK50" s="35"/>
+      <c r="AL50" s="26"/>
+      <c r="AM50" s="26"/>
+      <c r="AN50" s="35"/>
+      <c r="AO50" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:42">
       <c r="A51" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="24">
+      <c r="D51" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E51" s="24">
         <v>80</v>
       </c>
-      <c r="E51" s="25">
+      <c r="F51" s="25">
         <v>120</v>
       </c>
-      <c r="F51" s="24">
-        <v>1</v>
-      </c>
       <c r="G51" s="24">
         <v>1</v>
       </c>
       <c r="H51" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="24">
+        <v>0</v>
+      </c>
+      <c r="J51" s="24">
         <v>12</v>
       </c>
-      <c r="J51" s="24">
-        <v>0</v>
-      </c>
       <c r="K51" s="24">
+        <v>0</v>
+      </c>
+      <c r="L51" s="24">
         <v>5</v>
       </c>
-      <c r="L51" s="17">
+      <c r="M51" s="17">
         <v>40</v>
       </c>
-      <c r="M51" s="17">
-        <v>0</v>
-      </c>
       <c r="N51" s="17">
         <v>0</v>
       </c>
@@ -8370,24 +8888,29 @@
         <v>0</v>
       </c>
       <c r="AE51" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF51" s="26">
-        <v>1</v>
-      </c>
-      <c r="AG51" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="17">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="26">
+        <v>1</v>
+      </c>
       <c r="AH51" s="26"/>
       <c r="AI51" s="26"/>
       <c r="AJ51" s="26"/>
-      <c r="AK51" s="26"/>
-      <c r="AL51" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM51" t="s">
-        <v>167</v>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="26"/>
+      <c r="AM51" s="26"/>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:42">
       <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
@@ -8397,32 +8920,32 @@
       <c r="C52" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10">
+      <c r="D52" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10">
         <v>720</v>
       </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
       <c r="G52" s="3">
         <v>1</v>
       </c>
       <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3">
         <v>20</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12</v>
       </c>
-      <c r="J52" s="5">
-        <v>1</v>
-      </c>
       <c r="K52" s="5">
         <v>1</v>
       </c>
-      <c r="L52" s="17">
-        <v>0</v>
+      <c r="L52" s="5">
+        <v>1</v>
       </c>
       <c r="M52" s="17">
         <v>0</v>
@@ -8479,22 +9002,27 @@
         <v>0</v>
       </c>
       <c r="AE52" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF52" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="17">
+        <v>1</v>
+      </c>
       <c r="AG52" s="4"/>
       <c r="AH52" s="4"/>
       <c r="AI52" s="4"/>
       <c r="AJ52" s="4"/>
-      <c r="AK52" s="4"/>
-      <c r="AL52" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM52" s="20" t="s">
+      <c r="AK52" s="34"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="34"/>
+      <c r="AO52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP52" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:42">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -8504,32 +9032,32 @@
       <c r="C53" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="5">
-        <v>0</v>
-      </c>
-      <c r="E53" s="11">
-        <v>0</v>
-      </c>
-      <c r="F53" s="5">
+      <c r="D53" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
         <v>0</v>
       </c>
       <c r="G53" s="5">
         <v>0</v>
       </c>
       <c r="H53" s="5">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
         <v>5</v>
       </c>
-      <c r="I53" s="5">
-        <v>0</v>
-      </c>
       <c r="J53" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="5">
         <v>1</v>
       </c>
-      <c r="L53" s="17">
-        <v>0</v>
+      <c r="L53" s="5">
+        <v>1</v>
       </c>
       <c r="M53" s="17">
         <v>0</v>
@@ -8586,22 +9114,27 @@
         <v>0</v>
       </c>
       <c r="AE53" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF53" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="17">
+        <v>1</v>
+      </c>
       <c r="AG53" s="4"/>
       <c r="AH53" s="4"/>
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4"/>
-      <c r="AK53" s="4"/>
-      <c r="AL53" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM53" s="20" t="s">
+      <c r="AK53" s="34"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="34"/>
+      <c r="AO53" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP53" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:42">
       <c r="A54" s="2" t="s">
         <v>63</v>
       </c>
@@ -8611,32 +9144,32 @@
       <c r="C54" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="D54" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10">
         <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>5</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5">
-        <v>1</v>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="5">
         <v>1</v>
       </c>
-      <c r="L54" s="17">
-        <v>0</v>
+      <c r="L54" s="5">
+        <v>1</v>
       </c>
       <c r="M54" s="17">
         <v>0</v>
@@ -8693,22 +9226,27 @@
         <v>0</v>
       </c>
       <c r="AE54" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF54" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="17">
+        <v>1</v>
+      </c>
       <c r="AG54" s="4"/>
       <c r="AH54" s="4"/>
       <c r="AI54" s="4"/>
       <c r="AJ54" s="4"/>
-      <c r="AK54" s="4"/>
-      <c r="AL54" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM54" s="20" t="s">
+      <c r="AK54" s="34"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
+      <c r="AN54" s="34"/>
+      <c r="AO54" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP54" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:42">
       <c r="A55" s="29" t="s">
         <v>52</v>
       </c>
@@ -8718,32 +9256,32 @@
       <c r="C55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="10">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="D55" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="10">
         <v>0</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
       </c>
       <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
         <v>30</v>
       </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" s="5">
-        <v>1</v>
+      <c r="J55" s="3">
+        <v>0</v>
       </c>
       <c r="K55" s="5">
         <v>1</v>
       </c>
-      <c r="L55" s="17">
-        <v>0</v>
+      <c r="L55" s="5">
+        <v>1</v>
       </c>
       <c r="M55" s="17">
         <v>0</v>
@@ -8800,22 +9338,27 @@
         <v>0</v>
       </c>
       <c r="AE55" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF55" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="17">
+        <v>1</v>
+      </c>
       <c r="AG55" s="4"/>
       <c r="AH55" s="4"/>
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
-      <c r="AL55" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM55" s="20" t="s">
+      <c r="AK55" s="34"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="34"/>
+      <c r="AO55" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP55" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:42">
       <c r="A56" s="4" t="s">
         <v>53</v>
       </c>
@@ -8825,32 +9368,32 @@
       <c r="C56" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="5">
-        <v>0</v>
-      </c>
-      <c r="E56" s="11">
-        <v>0</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="D56" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
         <v>0</v>
       </c>
       <c r="G56" s="5">
         <v>0</v>
       </c>
       <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
         <v>60</v>
       </c>
-      <c r="I56" s="5">
-        <v>0</v>
-      </c>
       <c r="J56" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="5">
         <v>1</v>
       </c>
-      <c r="L56" s="17">
-        <v>0</v>
+      <c r="L56" s="5">
+        <v>1</v>
       </c>
       <c r="M56" s="17">
         <v>0</v>
@@ -8907,22 +9450,27 @@
         <v>0</v>
       </c>
       <c r="AE56" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF56" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="17">
+        <v>1</v>
+      </c>
       <c r="AG56" s="4"/>
       <c r="AH56" s="4"/>
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
-      <c r="AK56" s="4"/>
-      <c r="AL56" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM56" s="20" t="s">
+      <c r="AK56" s="34"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="4"/>
+      <c r="AN56" s="34"/>
+      <c r="AO56" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP56" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:42">
       <c r="A57" s="2" t="s">
         <v>44</v>
       </c>
@@ -8932,36 +9480,36 @@
       <c r="C57" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="10">
+      <c r="F57" s="10">
         <v>48</v>
       </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
       <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3">
         <v>2</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>12</v>
       </c>
-      <c r="J57" s="5">
-        <v>1</v>
-      </c>
       <c r="K57" s="5">
         <v>1</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="5">
+        <v>1</v>
+      </c>
+      <c r="M57" s="17">
         <v>20</v>
       </c>
-      <c r="M57" s="17">
-        <v>0</v>
-      </c>
       <c r="N57" s="17">
         <v>0</v>
       </c>
@@ -9014,22 +9562,27 @@
         <v>0</v>
       </c>
       <c r="AE57" s="17">
-        <v>1</v>
-      </c>
-      <c r="AF57" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="17">
+        <v>1</v>
+      </c>
       <c r="AG57" s="4"/>
       <c r="AH57" s="4"/>
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
-      <c r="AK57" s="4"/>
-      <c r="AL57" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM57" s="20" t="s">
+      <c r="AK57" s="34"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="34"/>
+      <c r="AO57" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP57" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:42">
       <c r="A58" s="6" t="s">
         <v>46</v>
       </c>
@@ -9039,36 +9592,36 @@
       <c r="C58" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="7">
         <v>400</v>
       </c>
-      <c r="E58" s="12">
+      <c r="F58" s="12">
         <v>48</v>
       </c>
-      <c r="F58" s="7">
-        <v>1</v>
-      </c>
       <c r="G58" s="7">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7">
         <v>2</v>
       </c>
-      <c r="H58" s="7">
-        <v>0</v>
-      </c>
       <c r="I58" s="7">
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
         <v>12</v>
       </c>
-      <c r="J58" s="7">
-        <v>1</v>
-      </c>
       <c r="K58" s="7">
         <v>1</v>
       </c>
-      <c r="L58" s="18">
+      <c r="L58" s="7">
+        <v>1</v>
+      </c>
+      <c r="M58" s="18">
         <v>40</v>
       </c>
-      <c r="M58" s="17">
-        <v>0</v>
-      </c>
       <c r="N58" s="17">
         <v>0</v>
       </c>
@@ -9120,19 +9673,24 @@
       <c r="AD58" s="17">
         <v>0</v>
       </c>
-      <c r="AE58" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF58" s="6"/>
+      <c r="AE58" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="18">
+        <v>1</v>
+      </c>
       <c r="AG58" s="6"/>
       <c r="AH58" s="6"/>
       <c r="AI58" s="6"/>
       <c r="AJ58" s="6"/>
-      <c r="AK58" s="6"/>
-      <c r="AL58" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM58" s="21" t="s">
+      <c r="AK58" s="36"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="6"/>
+      <c r="AN58" s="36"/>
+      <c r="AO58" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP58" s="21" t="s">
         <v>48</v>
       </c>
     </row>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -480,148 +480,148 @@
     <t>Upgrade</t>
   </si>
   <si>
+    <t>Nearby enemies surrounding Cia are slowed for a few seconds.</t>
+  </si>
+  <si>
+    <t>Stuns an enemy for a few seconds.</t>
+  </si>
+  <si>
+    <t>Restores a small amount of HP per second. But really, he stopped doing this a few months ago. REALLY. OMG SHUT UP, YOU HATER.</t>
+  </si>
+  <si>
+    <t>Logic Puzzle</t>
+  </si>
+  <si>
+    <t>Bling Bling</t>
+  </si>
+  <si>
+    <t>Taking Heart</t>
+  </si>
+  <si>
+    <t>Damages enemies in a wave</t>
+  </si>
+  <si>
+    <t>Drain HP from target enemy</t>
+  </si>
+  <si>
+    <t>After channeling, unleash massive damage to nearby enemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Attack: Shoot down an enemy with rapid gunfire. </t>
+  </si>
+  <si>
+    <t>Creates a ray of solar energy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gains one solar charge every few seconds. After gaining three charges and activating again, sends forth bursts of solar energy. </t>
+  </si>
+  <si>
+    <t>Teleports Charles and Nate to a point. Afterwards, shoots kunais outward that temporarily stuns nearby enemies.</t>
+  </si>
+  <si>
+    <t>Ananya A.</t>
+  </si>
+  <si>
+    <t>Final Destination</t>
+  </si>
+  <si>
+    <t>Change X's and Ananya's Friendship Finale to Destination Zero.</t>
+  </si>
+  <si>
+    <t>[Aggressive Mediation] Jump up and down violently. Probably does nothing at all. HA TAKE THAT KATA</t>
+  </si>
+  <si>
+    <t>Arrow Control</t>
+  </si>
+  <si>
+    <t>Megaphone Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throws a random shoe toward a target out of anger. </t>
+  </si>
+  <si>
+    <t>Shoots arrows toward a target.</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Cone</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>Invis</t>
+  </si>
+  <si>
+    <t>Kunai</t>
+  </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Shoe</t>
+  </si>
+  <si>
+    <t>Thunder</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Circles</t>
+  </si>
+  <si>
+    <t>Seal</t>
+  </si>
+  <si>
+    <t>Laser</t>
+  </si>
+  <si>
+    <t>Arrow</t>
+  </si>
+  <si>
+    <t>Aura</t>
+  </si>
+  <si>
+    <t>Set Damage</t>
+  </si>
+  <si>
+    <t>M. Gun Attack</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>AttackNum</t>
+  </si>
+  <si>
+    <t>AttackW</t>
+  </si>
+  <si>
+    <t>AttackH</t>
+  </si>
+  <si>
+    <t>AttackDist</t>
+  </si>
+  <si>
     <t>Downgrade</t>
-  </si>
-  <si>
-    <t>Nearby enemies surrounding Cia are slowed for a few seconds.</t>
-  </si>
-  <si>
-    <t>Stuns an enemy for a few seconds.</t>
-  </si>
-  <si>
-    <t>Restores a small amount of HP per second. But really, he stopped doing this a few months ago. REALLY. OMG SHUT UP, YOU HATER.</t>
-  </si>
-  <si>
-    <t>Logic Puzzle</t>
-  </si>
-  <si>
-    <t>Bling Bling</t>
-  </si>
-  <si>
-    <t>Taking Heart</t>
-  </si>
-  <si>
-    <t>Damages enemies in a wave</t>
-  </si>
-  <si>
-    <t>Drain HP from target enemy</t>
-  </si>
-  <si>
-    <t>After channeling, unleash massive damage to nearby enemies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basic Attack: Shoot down an enemy with rapid gunfire. </t>
-  </si>
-  <si>
-    <t>Creates a ray of solar energy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gains one solar charge every few seconds. After gaining three charges and activating again, sends forth bursts of solar energy. </t>
-  </si>
-  <si>
-    <t>Teleports Charles and Nate to a point. Afterwards, shoots kunais outward that temporarily stuns nearby enemies.</t>
-  </si>
-  <si>
-    <t>Ananya A.</t>
-  </si>
-  <si>
-    <t>Final Destination</t>
-  </si>
-  <si>
-    <t>Change X's and Ananya's Friendship Finale to Destination Zero.</t>
-  </si>
-  <si>
-    <t>[Aggressive Mediation] Jump up and down violently. Probably does nothing at all. HA TAKE THAT KATA</t>
-  </si>
-  <si>
-    <t>Arrow Control</t>
-  </si>
-  <si>
-    <t>Megaphone Attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Throws a random shoe toward a target out of anger. </t>
-  </si>
-  <si>
-    <t>Shoots arrows toward a target.</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>Cone</t>
-  </si>
-  <si>
-    <t>Point</t>
-  </si>
-  <si>
-    <t>Wall</t>
-  </si>
-  <si>
-    <t>Invis</t>
-  </si>
-  <si>
-    <t>Kunai</t>
-  </si>
-  <si>
-    <t>Shot</t>
-  </si>
-  <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t>Shoe</t>
-  </si>
-  <si>
-    <t>Thunder</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>Circles</t>
-  </si>
-  <si>
-    <t>Seal</t>
-  </si>
-  <si>
-    <t>Laser</t>
-  </si>
-  <si>
-    <t>Arrow</t>
-  </si>
-  <si>
-    <t>Aura</t>
-  </si>
-  <si>
-    <t>Set Damage</t>
-  </si>
-  <si>
-    <t>M. Gun Attack</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>AttackNum</t>
-  </si>
-  <si>
-    <t>AttackW</t>
-  </si>
-  <si>
-    <t>AttackH</t>
-  </si>
-  <si>
-    <t>AttackDist</t>
   </si>
 </sst>
 </file>
@@ -648,6 +648,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -833,42 +834,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
@@ -1012,6 +977,42 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -2853,16 +2854,16 @@
     <tableColumn id="35" uniqueName="Bullet" name="Attack" dataDxfId="6">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Bullet" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="36" uniqueName="36" name="AttackNum" dataDxfId="0"/>
-    <tableColumn id="41" uniqueName="41" name="AttackW" dataDxfId="5"/>
-    <tableColumn id="42" uniqueName="42" name="AttackH" dataDxfId="4"/>
-    <tableColumn id="37" uniqueName="BulletRange" name="AttackDist" dataDxfId="3">
+    <tableColumn id="36" uniqueName="36" name="AttackNum" dataDxfId="5"/>
+    <tableColumn id="41" uniqueName="41" name="AttackW" dataDxfId="4"/>
+    <tableColumn id="42" uniqueName="42" name="AttackH" dataDxfId="3"/>
+    <tableColumn id="37" uniqueName="BulletRange" name="AttackDist" dataDxfId="2">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/BulletRange" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="38" uniqueName="Target" name="Target" dataDxfId="2">
+    <tableColumn id="38" uniqueName="Target" name="Target" dataDxfId="1">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="39" uniqueName="Description" name="Description" dataDxfId="1">
+    <tableColumn id="39" uniqueName="Description" name="Description" dataDxfId="0">
       <xmlColumnPr mapId="12" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3157,9 +3158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D50" sqref="D50"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3215,7 +3216,7 @@
         <v>67</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>2</v>
@@ -3311,19 +3312,19 @@
         <v>121</v>
       </c>
       <c r="AJ2" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK2" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AL2" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="AL2" s="19" t="s">
+      <c r="AM2" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="AM2" s="19" t="s">
+      <c r="AN2" s="19" t="s">
         <v>200</v>
-      </c>
-      <c r="AN2" s="19" t="s">
-        <v>201</v>
       </c>
       <c r="AO2" s="19" t="s">
         <v>125</v>
@@ -3343,7 +3344,7 @@
         <v>68</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3">
         <v>80</v>
@@ -3433,7 +3434,7 @@
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
       <c r="AJ3" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK3" s="33">
         <v>1</v>
@@ -3461,7 +3462,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3">
         <v>80</v>
@@ -3553,7 +3554,7 @@
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
       <c r="AJ4" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK4" s="33">
         <v>0</v>
@@ -3581,7 +3582,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="5">
         <v>140</v>
@@ -3671,7 +3672,7 @@
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK5" s="33">
         <v>0</v>
@@ -3699,7 +3700,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" s="3">
         <v>30</v>
@@ -3789,7 +3790,7 @@
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AK6" s="33">
         <v>8</v>
@@ -3803,7 +3804,7 @@
         <v>128</v>
       </c>
       <c r="AP6" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -3817,7 +3818,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7" s="3">
         <v>20</v>
@@ -3907,7 +3908,7 @@
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
       <c r="AJ7" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK7" s="33">
         <v>1</v>
@@ -3935,7 +3936,7 @@
         <v>153</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -4025,7 +4026,7 @@
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK8" s="33"/>
       <c r="AL8" s="4"/>
@@ -4051,7 +4052,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E9" s="3">
         <v>120</v>
@@ -4141,7 +4142,7 @@
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK9" s="33"/>
       <c r="AL9" s="4"/>
@@ -4167,7 +4168,7 @@
         <v>153</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="5">
         <v>50</v>
@@ -4257,7 +4258,7 @@
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK10" s="33"/>
       <c r="AL10" s="4"/>
@@ -4283,7 +4284,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="3">
         <v>400</v>
@@ -4373,7 +4374,7 @@
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK11" s="33"/>
       <c r="AL11" s="4"/>
@@ -4397,7 +4398,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
@@ -4487,7 +4488,7 @@
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK12" s="33"/>
       <c r="AL12" s="4"/>
@@ -4497,7 +4498,7 @@
         <v>127</v>
       </c>
       <c r="AP12" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -4511,7 +4512,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E13" s="3">
         <v>500</v>
@@ -4601,7 +4602,7 @@
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK13" s="33"/>
       <c r="AL13" s="4"/>
@@ -4611,7 +4612,7 @@
         <v>127</v>
       </c>
       <c r="AP13" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -4625,7 +4626,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" s="24">
         <v>200</v>
@@ -4717,7 +4718,7 @@
       <c r="AH14" s="26"/>
       <c r="AI14" s="26"/>
       <c r="AJ14" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AK14" s="33"/>
       <c r="AL14" s="26"/>
@@ -4741,7 +4742,7 @@
         <v>68</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -4831,7 +4832,7 @@
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK15" s="33"/>
       <c r="AL15" s="4"/>
@@ -4841,7 +4842,7 @@
         <v>127</v>
       </c>
       <c r="AP15" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -4855,7 +4856,7 @@
         <v>68</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E16" s="5">
         <v>400</v>
@@ -4945,7 +4946,7 @@
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AK16" s="33"/>
       <c r="AL16" s="4"/>
@@ -4960,7 +4961,7 @@
     </row>
     <row r="17" spans="1:42">
       <c r="A17" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>86</v>
@@ -4969,7 +4970,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="24">
         <v>50</v>
@@ -5059,7 +5060,7 @@
       <c r="AH17" s="26"/>
       <c r="AI17" s="26"/>
       <c r="AJ17" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK17" s="33"/>
       <c r="AL17" s="26"/>
@@ -5074,7 +5075,7 @@
     </row>
     <row r="18" spans="1:42">
       <c r="A18" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>86</v>
@@ -5083,7 +5084,7 @@
         <v>144</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" s="24">
         <v>800</v>
@@ -5173,7 +5174,7 @@
       <c r="AH18" s="26"/>
       <c r="AI18" s="26"/>
       <c r="AJ18" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK18" s="33"/>
       <c r="AL18" s="26"/>
@@ -5188,16 +5189,16 @@
     </row>
     <row r="19" spans="1:42">
       <c r="A19" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>154</v>
+      <c r="C19" s="28" t="s">
+        <v>201</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="24">
         <v>100</v>
@@ -5287,7 +5288,7 @@
       <c r="AH19" s="26"/>
       <c r="AI19" s="26"/>
       <c r="AJ19" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK19" s="33"/>
       <c r="AL19" s="26"/>
@@ -5297,7 +5298,7 @@
         <v>127</v>
       </c>
       <c r="AP19" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:42">
@@ -5311,7 +5312,7 @@
         <v>71</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" s="24">
         <v>0</v>
@@ -5401,7 +5402,7 @@
       <c r="AH20" s="26"/>
       <c r="AI20" s="26"/>
       <c r="AJ20" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK20" s="33"/>
       <c r="AL20" s="26"/>
@@ -5425,7 +5426,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E21" s="5">
         <v>80</v>
@@ -5515,7 +5516,7 @@
       <c r="AH21" s="4"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK21" s="33"/>
       <c r="AL21" s="4"/>
@@ -5539,7 +5540,7 @@
         <v>68</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" s="3">
         <v>50</v>
@@ -5629,7 +5630,7 @@
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
       <c r="AJ22" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK22" s="33"/>
       <c r="AL22" s="4"/>
@@ -5653,7 +5654,7 @@
         <v>68</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E23" s="5">
         <v>100</v>
@@ -5743,7 +5744,7 @@
       <c r="AH23" s="4"/>
       <c r="AI23" s="4"/>
       <c r="AJ23" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK23" s="33"/>
       <c r="AL23" s="4"/>
@@ -5767,7 +5768,7 @@
         <v>68</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -5857,7 +5858,7 @@
       <c r="AH24" s="4"/>
       <c r="AI24" s="4"/>
       <c r="AJ24" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK24" s="33"/>
       <c r="AL24" s="4"/>
@@ -5881,7 +5882,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="5">
         <v>300</v>
@@ -5971,7 +5972,7 @@
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK25" s="33"/>
       <c r="AL25" s="4"/>
@@ -5986,16 +5987,16 @@
     </row>
     <row r="26" spans="1:42">
       <c r="A26" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E26" s="5">
         <v>200</v>
@@ -6085,7 +6086,7 @@
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AK26" s="33"/>
       <c r="AL26" s="4"/>
@@ -6095,7 +6096,7 @@
         <v>127</v>
       </c>
       <c r="AP26" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:42">
@@ -6109,7 +6110,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -6201,7 +6202,7 @@
       <c r="AH27" s="4"/>
       <c r="AI27" s="4"/>
       <c r="AJ27" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK27" s="33"/>
       <c r="AL27" s="4"/>
@@ -6210,7 +6211,7 @@
       <c r="AO27" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="AP27" s="20" t="s">
+      <c r="AP27" s="30" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6225,7 +6226,7 @@
         <v>70</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E28" s="5">
         <v>300</v>
@@ -6315,7 +6316,7 @@
       <c r="AH28" s="4"/>
       <c r="AI28" s="4"/>
       <c r="AJ28" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK28" s="33"/>
       <c r="AL28" s="4"/>
@@ -6339,7 +6340,7 @@
         <v>71</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -6429,7 +6430,7 @@
       <c r="AH29" s="4"/>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK29" s="33"/>
       <c r="AL29" s="4"/>
@@ -6439,12 +6440,12 @@
         <v>129</v>
       </c>
       <c r="AP29" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:42">
       <c r="A30" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>97</v>
@@ -6453,7 +6454,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E30" s="5">
         <v>100</v>
@@ -6565,7 +6566,7 @@
         <v>68</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E31" s="5">
         <v>100</v>
@@ -6677,7 +6678,7 @@
         <v>68</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E32" s="5">
         <v>150</v>
@@ -6789,7 +6790,7 @@
         <v>72</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -6901,7 +6902,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E34" s="24">
         <v>30</v>
@@ -7015,7 +7016,7 @@
         <v>68</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E35" s="24">
         <v>50</v>
@@ -7127,7 +7128,7 @@
         <v>72</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E36" s="24">
         <v>0</v>
@@ -7239,7 +7240,7 @@
         <v>68</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" s="24">
         <v>100</v>
@@ -7351,7 +7352,7 @@
         <v>68</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E38" s="3">
         <v>60</v>
@@ -7463,7 +7464,7 @@
         <v>72</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E39" s="5">
         <v>70</v>
@@ -7575,7 +7576,7 @@
         <v>153</v>
       </c>
       <c r="D40" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="3">
         <v>50</v>
@@ -7687,7 +7688,7 @@
         <v>68</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="5">
         <v>80</v>
@@ -7799,7 +7800,7 @@
         <v>71</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -7911,7 +7912,7 @@
         <v>71</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -8023,7 +8024,7 @@
         <v>68</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E44" s="3">
         <v>30</v>
@@ -8126,16 +8127,16 @@
     </row>
     <row r="45" spans="1:42">
       <c r="A45" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -8233,7 +8234,7 @@
         <v>128</v>
       </c>
       <c r="AP45" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:42">
@@ -8247,7 +8248,7 @@
         <v>68</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E46" s="24">
         <v>800</v>
@@ -8345,7 +8346,7 @@
         <v>127</v>
       </c>
       <c r="AP46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:42">
@@ -8359,7 +8360,7 @@
         <v>68</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E47" s="24">
         <v>100</v>
@@ -8457,21 +8458,21 @@
         <v>127</v>
       </c>
       <c r="AP47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:42">
       <c r="A48" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>143</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E48" s="24">
         <v>300</v>
@@ -8569,7 +8570,7 @@
         <v>127</v>
       </c>
       <c r="AP48" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:42">
@@ -8583,7 +8584,7 @@
         <v>68</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E49" s="24">
         <v>100</v>
@@ -8681,7 +8682,7 @@
         <v>127</v>
       </c>
       <c r="AP49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:42">
@@ -8695,7 +8696,7 @@
         <v>144</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E50" s="24">
         <v>50</v>
@@ -8793,7 +8794,7 @@
         <v>127</v>
       </c>
       <c r="AP50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:42">
@@ -8807,7 +8808,7 @@
         <v>68</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E51" s="24">
         <v>80</v>
@@ -8907,7 +8908,7 @@
         <v>127</v>
       </c>
       <c r="AP51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:42">
@@ -8921,7 +8922,7 @@
         <v>73</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -9033,7 +9034,7 @@
         <v>71</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E53" s="5">
         <v>0</v>
@@ -9145,7 +9146,7 @@
         <v>71</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -9257,7 +9258,7 @@
         <v>71</v>
       </c>
       <c r="D55" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
@@ -9369,7 +9370,7 @@
         <v>71</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E56" s="5">
         <v>0</v>
@@ -9481,7 +9482,7 @@
         <v>68</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -9593,7 +9594,7 @@
         <v>68</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E58" s="7">
         <v>400</v>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="222">
   <si>
     <t>Name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Railgun Attack</t>
   </si>
   <si>
-    <t>Basic Attack: Shoots a bullet toward a target.</t>
-  </si>
-  <si>
     <t>Basic Attack: Shoots two guided lasers toward a target.</t>
   </si>
   <si>
@@ -162,12 +159,6 @@
     <t>Second World</t>
   </si>
   <si>
-    <t>Revives this Unit to half HP after he/she reaches 0 HP. Can only be used once per stage.</t>
-  </si>
-  <si>
-    <t>Revives this Unit to full HP after he/she reaches 0 HP. Can only be used once per stage.</t>
-  </si>
-  <si>
     <t>0 - passive</t>
   </si>
   <si>
@@ -387,15 +378,9 @@
     <t>Strength Attack</t>
   </si>
   <si>
-    <t xml:space="preserve">Creates a temporary aura of circles that heals Cia and deals damage to closeby enemies. </t>
-  </si>
-  <si>
     <t>Cheer</t>
   </si>
   <si>
-    <t>C. Kata restores some HP every few seconds.</t>
-  </si>
-  <si>
     <t>Upgrade</t>
   </si>
   <si>
@@ -417,9 +402,6 @@
     <t>Taking Heart</t>
   </si>
   <si>
-    <t xml:space="preserve">Basic Attack: Shoot down an enemy with rapid gunfire. </t>
-  </si>
-  <si>
     <t>Creates a ray of solar energy.</t>
   </si>
   <si>
@@ -507,9 +489,6 @@
     <t>Aura</t>
   </si>
   <si>
-    <t>Set Damage</t>
-  </si>
-  <si>
     <t>M. Gun Attack</t>
   </si>
   <si>
@@ -537,9 +516,6 @@
     <t>CustomDur</t>
   </si>
   <si>
-    <t>DamageTarget</t>
-  </si>
-  <si>
     <t>ModTarget</t>
   </si>
   <si>
@@ -600,9 +576,6 @@
     <t>Charges with shinai in a direction, mowing down any enemies or small obstacles in the way.</t>
   </si>
   <si>
-    <t>Increases Charles' and Nate's Speed.</t>
-  </si>
-  <si>
     <t>Allows Nate to deal extra damage on his next three moves.</t>
   </si>
   <si>
@@ -664,13 +637,58 @@
   </si>
   <si>
     <t>Strengthens Nate with extra Attack and Health restoration over time.</t>
+  </si>
+  <si>
+    <t>Reduces Charles' and Nate's Reload Times.</t>
+  </si>
+  <si>
+    <t>Revives this Unit to half Health immediately after he/she reaches 0 Health. Can only be used once per stage.</t>
+  </si>
+  <si>
+    <t>Revives this Unit to full Health immediately after he/she reaches 0 Health. Can only be used once per stage.</t>
+  </si>
+  <si>
+    <t>Basic Attack: Shoots a bullet toward a target enemy.</t>
+  </si>
+  <si>
+    <t>Maul</t>
+  </si>
+  <si>
+    <t>"That's What She Said"</t>
+  </si>
+  <si>
+    <t>Silent Treatment</t>
+  </si>
+  <si>
+    <t>Shreds any enemies in front of Vivian with ferocious claws.</t>
+  </si>
+  <si>
+    <t>Exhausts nearby enemies with a meme that still remains relatively popular in correge culture.</t>
+  </si>
+  <si>
+    <t>Stuns an enemy by socially rejecting them. :(</t>
+  </si>
+  <si>
+    <t>S-Damage</t>
+  </si>
+  <si>
+    <t>HealthTarget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creates a temporary aura of circles that heals Cia and deals damage to nearby enemies. </t>
+  </si>
+  <si>
+    <t>C. Kata restores some Health every few seconds.</t>
+  </si>
+  <si>
+    <t>Basic Attack: Fire a bullet at a target enemy. Hold down for rapid gunfire.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,6 +702,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -737,7 +761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -831,11 +855,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -918,6 +966,39 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,14 +1020,371 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0"/>
@@ -976,13 +1414,14 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0"/>
@@ -2035,411 +2474,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2548,17 +2582,64 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thick">
           <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3000,142 +3081,142 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:AS56" tableType="xml" totalsRowShown="0" headerRowDxfId="32" dataDxfId="33" headerRowBorderDxfId="47" tableBorderDxfId="48">
-  <autoFilter ref="A2:AS56"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:AS59" tableType="xml" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
+  <autoFilter ref="A2:AS59"/>
   <tableColumns count="45">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="46">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="44">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="45">
+    <tableColumn id="2" uniqueName="Availability" name="Availability" dataDxfId="43">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="44">
+    <tableColumn id="3" uniqueName="Spec" name="Spec" dataDxfId="42">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Area" name="Area" dataDxfId="31">
+    <tableColumn id="4" uniqueName="Area" name="Area" dataDxfId="41">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Area" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Uses" name="Uses" dataDxfId="30">
+    <tableColumn id="5" uniqueName="Uses" name="Uses" dataDxfId="40">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Activate" name="Activate" dataDxfId="29">
+    <tableColumn id="6" uniqueName="Activate" name="Activate" dataDxfId="39">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Activate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Value" name="Value" dataDxfId="28">
+    <tableColumn id="7" uniqueName="Value" name="Value" dataDxfId="38">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Stand" name="Stand" dataDxfId="27">
+    <tableColumn id="8" uniqueName="Stand" name="Stand" dataDxfId="37">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Stand" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="26">
+    <tableColumn id="9" uniqueName="Delay" name="Delay" dataDxfId="36">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Delay" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Min" name="Min" dataDxfId="25">
+    <tableColumn id="10" uniqueName="Min" name="Min" dataDxfId="35">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Max" name="Max" dataDxfId="24">
+    <tableColumn id="11" uniqueName="Max" name="Max" dataDxfId="34">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Range" name="Range" dataDxfId="23">
+    <tableColumn id="12" uniqueName="Range" name="Range" dataDxfId="33">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Cooldown" name="Cooldown" dataDxfId="22">
+    <tableColumn id="13" uniqueName="Cooldown" name="Cooldown" dataDxfId="32">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Cooldown" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="Damage" name="Damage" dataDxfId="21">
+    <tableColumn id="14" uniqueName="Damage" name="Damage" dataDxfId="31">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Damage" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="Speed" name="Speed" dataDxfId="20">
+    <tableColumn id="15" uniqueName="Speed" name="Speed" dataDxfId="30">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="StunDur" name="StunDur" dataDxfId="19">
+    <tableColumn id="16" uniqueName="StunDur" name="StunDur" dataDxfId="29">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/StunDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="SlowDur" name="SlowDur" dataDxfId="18">
+    <tableColumn id="17" uniqueName="SlowDur" name="SlowDur" dataDxfId="28">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/SlowDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="SickDur" name="SickDur" dataDxfId="17">
+    <tableColumn id="18" uniqueName="SickDur" name="SickDur" dataDxfId="27">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/SickDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="19" uniqueName="ExhaustDur" name="ExhaustDur" dataDxfId="16">
+    <tableColumn id="19" uniqueName="ExhaustDur" name="ExhaustDur" dataDxfId="26">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/ExhaustDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="20" uniqueName="RegenDur" name="RegenDur" dataDxfId="15">
+    <tableColumn id="20" uniqueName="RegenDur" name="RegenDur" dataDxfId="25">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/RegenDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="21" uniqueName="SlowPerc" name="SlowPerc" dataDxfId="14">
+    <tableColumn id="21" uniqueName="SlowPerc" name="SlowPerc" dataDxfId="24">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/SlowPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="22" uniqueName="SickPerc" name="SickPerc" dataDxfId="13">
+    <tableColumn id="22" uniqueName="SickPerc" name="SickPerc" dataDxfId="23">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/SickPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="23" uniqueName="RegenPerc" name="RegenPerc" dataDxfId="12">
+    <tableColumn id="23" uniqueName="RegenPerc" name="RegenPerc" dataDxfId="22">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/RegenPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="24" uniqueName="HPPerc" name="HPPerc" dataDxfId="11">
+    <tableColumn id="24" uniqueName="HPPerc" name="HPPerc" dataDxfId="21">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/HPPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="25" uniqueName="HPLump" name="HPLump" dataDxfId="10">
+    <tableColumn id="25" uniqueName="HPLump" name="HPLump" dataDxfId="20">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/HPLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="26" uniqueName="APPerc" name="APPerc" dataDxfId="9">
+    <tableColumn id="26" uniqueName="APPerc" name="APPerc" dataDxfId="19">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/APPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="27" uniqueName="APLump" name="APLump" dataDxfId="8">
+    <tableColumn id="27" uniqueName="APLump" name="APLump" dataDxfId="18">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/APLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="28" uniqueName="DPLump" name="DPLump" dataDxfId="7">
+    <tableColumn id="28" uniqueName="DPLump" name="DPLump" dataDxfId="17">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/DPLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="29" uniqueName="SPPerc" name="SPPerc" dataDxfId="6">
+    <tableColumn id="29" uniqueName="SPPerc" name="SPPerc" dataDxfId="16">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/SPPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="30" uniqueName="SPLump" name="SPLump" dataDxfId="5">
+    <tableColumn id="30" uniqueName="SPLump" name="SPLump" dataDxfId="15">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/SPLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="31" uniqueName="CDPerc" name="CDPerc" dataDxfId="4">
+    <tableColumn id="31" uniqueName="CDPerc" name="CDPerc" dataDxfId="14">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/CDPerc" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="32" uniqueName="CDLump" name="CDLump" dataDxfId="3">
+    <tableColumn id="32" uniqueName="CDLump" name="CDLump" dataDxfId="13">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/CDLump" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="33" uniqueName="CustomDur" name="CustomDur" dataDxfId="2">
+    <tableColumn id="33" uniqueName="CustomDur" name="CustomDur" dataDxfId="12">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/CustomDur" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="34" uniqueName="Move" name="Move" dataDxfId="0">
+    <tableColumn id="34" uniqueName="Move" name="Move" dataDxfId="11">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Move" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="35" uniqueName="Tank" name="Tank" dataDxfId="1">
+    <tableColumn id="35" uniqueName="Tank" name="Tank" dataDxfId="10">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Tank" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="36" uniqueName="Sprite" name="Sprite" dataDxfId="43">
+    <tableColumn id="36" uniqueName="Sprite" name="Sprite" dataDxfId="9">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Sprite" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="37" uniqueName="HitAnimation" name="HitAnimation" dataDxfId="42">
+    <tableColumn id="37" uniqueName="HitAnimation" name="HitAnimation" dataDxfId="8">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/HitAnimation" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="38" uniqueName="Attack" name="Attack" dataDxfId="41">
+    <tableColumn id="38" uniqueName="Attack" name="Attack" dataDxfId="7">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Attack" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="39" uniqueName="AttackNum" name="AttackNum" dataDxfId="40">
+    <tableColumn id="39" uniqueName="AttackNum" name="AttackNum" dataDxfId="6">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/AttackNum" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="40" uniqueName="AttackW" name="AttackW" dataDxfId="39">
+    <tableColumn id="40" uniqueName="AttackW" name="AttackW" dataDxfId="5">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/AttackW" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="41" uniqueName="AttackH" name="AttackH" dataDxfId="38">
+    <tableColumn id="41" uniqueName="AttackH" name="AttackH" dataDxfId="4">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/AttackH" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="42" uniqueName="AttackDist" name="AttackDist" dataDxfId="37">
+    <tableColumn id="42" uniqueName="AttackDist" name="AttackDist" dataDxfId="3">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/AttackDist" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="43" uniqueName="DamageTarget" name="DamageTarget" dataDxfId="36">
+    <tableColumn id="43" uniqueName="DamageTarget" name="HealthTarget" dataDxfId="2">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/DamageTarget" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="44" uniqueName="ModTarget" name="ModTarget" dataDxfId="35">
+    <tableColumn id="44" uniqueName="ModTarget" name="ModTarget" dataDxfId="1">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/ModTarget" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="45" uniqueName="Description" name="Description" dataDxfId="34">
+    <tableColumn id="45" uniqueName="Description" name="Description" dataDxfId="0">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3428,16 +3509,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS56"/>
+  <dimension ref="A1:AS59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AS50" sqref="AS50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
@@ -3460,23 +3541,23 @@
     <col min="31" max="31" width="10.7109375" customWidth="1"/>
     <col min="32" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="13.28515625" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" customWidth="1"/>
-    <col min="35" max="35" width="15" customWidth="1"/>
+    <col min="34" max="34" width="9.5703125" customWidth="1"/>
+    <col min="35" max="35" width="10" customWidth="1"/>
     <col min="36" max="36" width="9" customWidth="1"/>
     <col min="37" max="37" width="14.28515625" customWidth="1"/>
     <col min="38" max="38" width="10.5703125" customWidth="1"/>
     <col min="39" max="39" width="13.140625" customWidth="1"/>
-    <col min="40" max="40" width="14.42578125" customWidth="1"/>
+    <col min="40" max="40" width="12.140625" customWidth="1"/>
     <col min="41" max="41" width="10.42578125" customWidth="1"/>
-    <col min="42" max="42" width="19" customWidth="1"/>
-    <col min="43" max="43" width="18.85546875" customWidth="1"/>
+    <col min="42" max="42" width="12.5703125" customWidth="1"/>
+    <col min="43" max="43" width="16.5703125" customWidth="1"/>
     <col min="44" max="44" width="17.85546875" customWidth="1"/>
     <col min="45" max="45" width="128.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
       <c r="F1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="15.75" thickBot="1">
@@ -3487,10 +3568,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>4</v>
@@ -3502,16 +3583,16 @@
         <v>7</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>2</v>
@@ -3520,97 +3601,97 @@
         <v>3</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="AJ2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="AL2" s="10" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AM2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="AS2" s="21" t="s">
         <v>1</v>
@@ -3618,16 +3699,16 @@
     </row>
     <row r="3" spans="1:45" ht="15.75" thickTop="1">
       <c r="A3" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E3" s="34">
         <v>1</v>
@@ -3648,16 +3729,16 @@
         <v>1</v>
       </c>
       <c r="K3" s="35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L3" s="36">
         <v>80</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O3" s="22">
         <v>32</v>
@@ -3723,7 +3804,7 @@
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
       <c r="AL3" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AM3" s="23">
         <v>1</v>
@@ -3734,27 +3815,27 @@
         <v>100</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS3" s="25" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E4" s="37">
         <v>1</v>
@@ -3775,16 +3856,16 @@
         <v>0</v>
       </c>
       <c r="K4" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L4" s="39">
         <v>80</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="O4" s="5">
         <v>0</v>
@@ -3852,7 +3933,7 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AM4" s="11">
         <v>0</v>
@@ -3863,27 +3944,27 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS4" s="25" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E5" s="40">
         <v>1</v>
@@ -3904,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L5" s="40">
         <v>140</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N5" s="29">
         <v>0</v>
@@ -3979,7 +4060,7 @@
       <c r="AJ5" s="18"/>
       <c r="AK5" s="18"/>
       <c r="AL5" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AM5" s="20">
         <v>0</v>
@@ -3990,27 +4071,27 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS5" s="25" t="s">
-        <v>194</v>
+        <v>101</v>
+      </c>
+      <c r="AS5" s="42" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="C6" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E6" s="39">
         <v>1</v>
@@ -4031,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L6" s="39">
         <v>30</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="O6" s="5">
         <v>8</v>
@@ -4106,7 +4187,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AM6" s="11">
         <v>8</v>
@@ -4117,27 +4198,27 @@
         <v>50</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS6" s="25" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:45">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E7" s="24">
         <v>1</v>
@@ -4158,16 +4239,16 @@
         <v>1</v>
       </c>
       <c r="K7" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L7" s="24">
         <v>20</v>
       </c>
       <c r="M7" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>184</v>
-      </c>
-      <c r="N7" s="29" t="s">
-        <v>192</v>
       </c>
       <c r="O7" s="19">
         <v>32</v>
@@ -4233,7 +4314,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18"/>
       <c r="AL7" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AM7" s="20">
         <v>1</v>
@@ -4244,27 +4325,27 @@
         <v>40</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="C8" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E8" s="39">
         <v>0</v>
@@ -4285,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L8" s="39">
         <v>0</v>
@@ -4360,7 +4441,7 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AM8" s="11"/>
       <c r="AN8" s="3"/>
@@ -4369,27 +4450,27 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AS8" s="25" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E9" s="24">
         <v>1</v>
@@ -4410,16 +4491,16 @@
         <v>0</v>
       </c>
       <c r="K9" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L9" s="24">
         <v>120</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="O9" s="19">
         <v>16</v>
@@ -4485,7 +4566,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="18"/>
       <c r="AL9" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AM9" s="20"/>
       <c r="AN9" s="18"/>
@@ -4494,27 +4575,27 @@
         <v>50</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS9" s="25" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E10" s="39">
         <v>1</v>
@@ -4535,13 +4616,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L10" s="38">
         <v>50</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="N10" s="31">
         <v>0</v>
@@ -4610,7 +4691,7 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AM10" s="11"/>
       <c r="AN10" s="3"/>
@@ -4619,13 +4700,13 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AS10" s="25" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -4636,10 +4717,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E11" s="24">
         <v>1</v>
@@ -4660,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L11" s="24">
         <v>400</v>
@@ -4735,20 +4816,20 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="18"/>
       <c r="AL11" s="18" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AM11" s="20"/>
       <c r="AN11" s="18"/>
       <c r="AO11" s="18"/>
       <c r="AP11" s="20"/>
       <c r="AQ11" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS11" s="25" t="s">
-        <v>17</v>
+        <v>140</v>
+      </c>
+      <c r="AS11" s="42" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -4759,10 +4840,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E12" s="39">
         <v>1</v>
@@ -4783,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L12" s="39">
         <v>500</v>
@@ -4858,20 +4939,20 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AM12" s="11"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR12" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AS12" s="25" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -4882,10 +4963,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E13" s="24">
         <v>1</v>
@@ -4906,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L13" s="24">
         <v>500</v>
@@ -4981,34 +5062,34 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AM13" s="20"/>
       <c r="AN13" s="18"/>
       <c r="AO13" s="18"/>
       <c r="AP13" s="20"/>
       <c r="AQ13" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS13" s="25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E14" s="38">
         <v>1</v>
@@ -5029,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L14" s="38">
         <v>200</v>
@@ -5106,34 +5187,34 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AM14" s="11"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="11"/>
       <c r="AQ14" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AS14" s="25" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E15" s="24">
         <v>1</v>
@@ -5229,34 +5310,34 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="18"/>
       <c r="AL15" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AM15" s="20"/>
       <c r="AN15" s="18"/>
       <c r="AO15" s="18"/>
       <c r="AP15" s="20"/>
       <c r="AQ15" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AS15" s="25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E16" s="38">
         <v>1</v>
@@ -5277,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L16" s="38">
         <v>400</v>
@@ -5352,34 +5433,34 @@
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AM16" s="11"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="11"/>
       <c r="AQ16" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR16" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS16" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:45">
       <c r="A17" s="18" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E17" s="40">
         <v>1</v>
@@ -5400,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L17" s="40">
         <v>50</v>
@@ -5475,34 +5556,34 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="18"/>
       <c r="AL17" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AM17" s="20"/>
       <c r="AN17" s="18"/>
       <c r="AO17" s="18"/>
       <c r="AP17" s="20"/>
       <c r="AQ17" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS17" s="25" t="s">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="AS17" s="42" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:45">
       <c r="A18" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E18" s="38">
         <v>1</v>
@@ -5523,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L18" s="38">
         <v>800</v>
@@ -5598,34 +5679,34 @@
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AM18" s="11"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="11"/>
       <c r="AQ18" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS18" s="25" t="s">
-        <v>208</v>
+        <v>140</v>
+      </c>
+      <c r="AS18" s="42" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:45">
       <c r="A19" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E19" s="40">
         <v>1</v>
@@ -5646,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L19" s="40">
         <v>100</v>
@@ -5721,34 +5802,34 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="18"/>
       <c r="AL19" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AM19" s="20"/>
       <c r="AN19" s="18"/>
       <c r="AO19" s="18"/>
       <c r="AP19" s="20"/>
       <c r="AQ19" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS19" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:45">
       <c r="A20" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E20" s="38">
         <v>0</v>
@@ -5769,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L20" s="38">
         <v>0</v>
@@ -5844,34 +5925,34 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AM20" s="11"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="11"/>
       <c r="AQ20" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS20" s="25" t="s">
-        <v>125</v>
+        <v>173</v>
+      </c>
+      <c r="AS20" s="42" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:45">
       <c r="A21" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E21" s="40">
         <v>1</v>
@@ -5892,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L21" s="40">
         <v>80</v>
@@ -5967,34 +6048,34 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="18"/>
       <c r="AL21" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AM21" s="20"/>
       <c r="AN21" s="18"/>
       <c r="AO21" s="18"/>
       <c r="AP21" s="20"/>
       <c r="AQ21" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS21" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:45">
       <c r="A22" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E22" s="39">
         <v>1</v>
@@ -6015,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L22" s="39">
         <v>50</v>
@@ -6090,34 +6171,34 @@
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AM22" s="11"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="11"/>
       <c r="AQ22" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS22" s="25" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:45">
       <c r="A23" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E23" s="40">
         <v>3</v>
@@ -6138,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L23" s="40">
         <v>100</v>
@@ -6213,34 +6294,34 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="18"/>
       <c r="AL23" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AM23" s="20"/>
       <c r="AN23" s="18"/>
       <c r="AO23" s="18"/>
       <c r="AP23" s="20"/>
       <c r="AQ23" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR23" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AS23" s="25" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:45">
       <c r="A24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="C24" s="17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E24" s="39">
         <v>1</v>
@@ -6261,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L24" s="39">
         <v>100</v>
@@ -6336,20 +6417,20 @@
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AM24" s="11"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="11"/>
       <c r="AQ24" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR24" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AS24" s="25" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -6360,10 +6441,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E25" s="40">
         <v>1</v>
@@ -6384,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L25" s="40">
         <v>300</v>
@@ -6459,34 +6540,34 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="18"/>
       <c r="AL25" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AM25" s="20"/>
       <c r="AN25" s="18"/>
       <c r="AO25" s="18"/>
       <c r="AP25" s="20"/>
       <c r="AQ25" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR25" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS25" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:45">
       <c r="A26" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>163</v>
+      <c r="C26" s="60" t="s">
+        <v>217</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E26" s="38">
         <v>8</v>
@@ -6507,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L26" s="38">
         <v>200</v>
@@ -6582,20 +6663,20 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AM26" s="11"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="11"/>
       <c r="AQ26" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR26" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS26" s="25" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -6606,10 +6687,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E27" s="24">
         <v>5</v>
@@ -6630,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L27" s="24">
         <v>0</v>
@@ -6707,20 +6788,20 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18"/>
       <c r="AL27" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AM27" s="20"/>
       <c r="AN27" s="18"/>
       <c r="AO27" s="18"/>
       <c r="AP27" s="20"/>
       <c r="AQ27" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AR27" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AS27" s="25" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -6731,10 +6812,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E28" s="38">
         <v>2</v>
@@ -6755,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L28" s="38">
         <v>300</v>
@@ -6830,34 +6911,34 @@
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AM28" s="11"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="11"/>
       <c r="AQ28" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AS28" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:45">
       <c r="A29" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E29" s="40">
         <v>0</v>
@@ -6878,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L29" s="40">
         <v>0</v>
@@ -6953,34 +7034,34 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="18"/>
       <c r="AL29" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AM29" s="20"/>
       <c r="AN29" s="18"/>
       <c r="AO29" s="18"/>
       <c r="AP29" s="20"/>
       <c r="AQ29" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AS29" s="25" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:45">
       <c r="A30" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E30" s="38">
         <v>1</v>
@@ -7001,7 +7082,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L30" s="38">
         <v>100</v>
@@ -7081,25 +7162,27 @@
       <c r="AO30" s="3"/>
       <c r="AP30" s="11"/>
       <c r="AQ30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR30" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR30" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS30" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:45">
       <c r="A31" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E31" s="40">
         <v>1</v>
@@ -7120,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="40">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L31" s="40">
         <v>100</v>
@@ -7200,25 +7283,27 @@
       <c r="AO31" s="18"/>
       <c r="AP31" s="20"/>
       <c r="AQ31" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR31" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR31" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS31" s="25" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:45">
       <c r="A32" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E32" s="38">
         <v>1</v>
@@ -7239,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L32" s="38">
         <v>150</v>
@@ -7319,144 +7404,148 @@
       <c r="AO32" s="3"/>
       <c r="AP32" s="11"/>
       <c r="AQ32" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR32" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR32" s="43" t="s">
+        <v>100</v>
+      </c>
       <c r="AS32" s="25" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="38">
-        <v>1</v>
-      </c>
-      <c r="F33" s="38">
+      <c r="A33" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="40">
+        <v>1</v>
+      </c>
+      <c r="F33" s="40">
         <v>3</v>
       </c>
-      <c r="G33" s="38">
-        <v>0</v>
-      </c>
-      <c r="H33" s="38">
+      <c r="G33" s="40">
+        <v>0</v>
+      </c>
+      <c r="H33" s="40">
         <v>12</v>
       </c>
-      <c r="I33" s="38">
-        <v>0</v>
-      </c>
-      <c r="J33" s="38">
-        <v>0</v>
-      </c>
-      <c r="K33" s="38">
-        <v>5</v>
-      </c>
-      <c r="L33" s="38">
-        <v>0</v>
-      </c>
-      <c r="M33" s="31">
+      <c r="I33" s="40">
+        <v>0</v>
+      </c>
+      <c r="J33" s="40">
+        <v>0</v>
+      </c>
+      <c r="K33" s="40">
+        <v>10</v>
+      </c>
+      <c r="L33" s="40">
+        <v>0</v>
+      </c>
+      <c r="M33" s="29">
         <v>110</v>
       </c>
-      <c r="N33" s="31">
-        <v>0</v>
-      </c>
-      <c r="O33" s="5">
-        <v>0</v>
-      </c>
-      <c r="P33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="5">
-        <v>0</v>
-      </c>
-      <c r="R33" s="5">
-        <v>0</v>
-      </c>
-      <c r="S33" s="5">
-        <v>0</v>
-      </c>
-      <c r="T33" s="5">
-        <v>0</v>
-      </c>
-      <c r="U33" s="5">
-        <v>0</v>
-      </c>
-      <c r="V33" s="5">
-        <v>0</v>
-      </c>
-      <c r="W33" s="5">
-        <v>0</v>
-      </c>
-      <c r="X33" s="5">
+      <c r="N33" s="29">
+        <v>0</v>
+      </c>
+      <c r="O33" s="19">
+        <v>0</v>
+      </c>
+      <c r="P33" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>0</v>
+      </c>
+      <c r="R33" s="19">
+        <v>0</v>
+      </c>
+      <c r="S33" s="19">
+        <v>0</v>
+      </c>
+      <c r="T33" s="19">
+        <v>0</v>
+      </c>
+      <c r="U33" s="19">
+        <v>0</v>
+      </c>
+      <c r="V33" s="19">
+        <v>0</v>
+      </c>
+      <c r="W33" s="19">
+        <v>0</v>
+      </c>
+      <c r="X33" s="19">
         <v>20</v>
       </c>
-      <c r="Y33" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="11"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="11"/>
+      <c r="Y33" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="18"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="18"/>
+      <c r="AO33" s="18"/>
+      <c r="AP33" s="20"/>
       <c r="AQ33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR33" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="AR33" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS33" s="25" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:45">
       <c r="A34" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E34" s="38">
         <v>1</v>
@@ -7477,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L34" s="38">
         <v>30</v>
@@ -7559,144 +7648,148 @@
       <c r="AO34" s="3"/>
       <c r="AP34" s="11"/>
       <c r="AQ34" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR34" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR34" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS34" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:45">
       <c r="A35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="38">
+        <v>108</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="40">
         <v>3</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="40">
         <v>2</v>
       </c>
-      <c r="G35" s="38">
-        <v>0</v>
-      </c>
-      <c r="H35" s="38">
+      <c r="G35" s="40">
+        <v>0</v>
+      </c>
+      <c r="H35" s="40">
         <v>12</v>
       </c>
-      <c r="I35" s="38">
-        <v>0</v>
-      </c>
-      <c r="J35" s="38">
-        <v>0</v>
-      </c>
-      <c r="K35" s="38">
-        <v>5</v>
-      </c>
-      <c r="L35" s="38">
+      <c r="I35" s="40">
+        <v>0</v>
+      </c>
+      <c r="J35" s="40">
+        <v>0</v>
+      </c>
+      <c r="K35" s="40">
+        <v>10</v>
+      </c>
+      <c r="L35" s="40">
         <v>50</v>
       </c>
-      <c r="M35" s="31">
+      <c r="M35" s="29">
         <v>50</v>
       </c>
-      <c r="N35" s="31">
+      <c r="N35" s="29">
         <v>30</v>
       </c>
-      <c r="O35" s="5">
-        <v>0</v>
-      </c>
-      <c r="P35" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="5">
-        <v>0</v>
-      </c>
-      <c r="R35" s="5">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5">
-        <v>0</v>
-      </c>
-      <c r="T35" s="5">
-        <v>0</v>
-      </c>
-      <c r="U35" s="5">
-        <v>0</v>
-      </c>
-      <c r="V35" s="5">
-        <v>0</v>
-      </c>
-      <c r="W35" s="5">
-        <v>0</v>
-      </c>
-      <c r="X35" s="5">
+      <c r="O35" s="19">
+        <v>0</v>
+      </c>
+      <c r="P35" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>0</v>
+      </c>
+      <c r="R35" s="19">
+        <v>0</v>
+      </c>
+      <c r="S35" s="19">
+        <v>0</v>
+      </c>
+      <c r="T35" s="19">
+        <v>0</v>
+      </c>
+      <c r="U35" s="19">
+        <v>0</v>
+      </c>
+      <c r="V35" s="19">
+        <v>0</v>
+      </c>
+      <c r="W35" s="19">
+        <v>0</v>
+      </c>
+      <c r="X35" s="19">
         <v>20</v>
       </c>
-      <c r="Y35" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="11"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="11"/>
+      <c r="Y35" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="18"/>
+      <c r="AJ35" s="18"/>
+      <c r="AK35" s="18"/>
+      <c r="AL35" s="18"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="18"/>
+      <c r="AO35" s="18"/>
+      <c r="AP35" s="20"/>
       <c r="AQ35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR35" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR35" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS35" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:45">
       <c r="A36" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E36" s="38">
         <v>1</v>
@@ -7717,7 +7810,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L36" s="38">
         <v>0</v>
@@ -7797,144 +7890,148 @@
       <c r="AO36" s="3"/>
       <c r="AP36" s="11"/>
       <c r="AQ36" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR36" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="AR36" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="AS36" s="25" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:45">
       <c r="A37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="38">
+      <c r="B37" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="40">
         <v>3</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="40">
         <v>2</v>
       </c>
-      <c r="G37" s="38">
-        <v>0</v>
-      </c>
-      <c r="H37" s="38">
+      <c r="G37" s="40">
+        <v>0</v>
+      </c>
+      <c r="H37" s="40">
         <v>12</v>
       </c>
-      <c r="I37" s="38">
-        <v>0</v>
-      </c>
-      <c r="J37" s="38">
-        <v>0</v>
-      </c>
-      <c r="K37" s="38">
-        <v>5</v>
-      </c>
-      <c r="L37" s="38">
+      <c r="I37" s="40">
+        <v>0</v>
+      </c>
+      <c r="J37" s="40">
+        <v>0</v>
+      </c>
+      <c r="K37" s="40">
+        <v>10</v>
+      </c>
+      <c r="L37" s="40">
         <v>100</v>
       </c>
-      <c r="M37" s="31">
+      <c r="M37" s="29">
         <v>48</v>
       </c>
-      <c r="N37" s="31">
+      <c r="N37" s="29">
         <v>12</v>
       </c>
-      <c r="O37" s="5">
-        <v>0</v>
-      </c>
-      <c r="P37" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>0</v>
-      </c>
-      <c r="R37" s="5">
-        <v>0</v>
-      </c>
-      <c r="S37" s="5">
-        <v>0</v>
-      </c>
-      <c r="T37" s="5">
-        <v>0</v>
-      </c>
-      <c r="U37" s="5">
-        <v>0</v>
-      </c>
-      <c r="V37" s="5">
-        <v>0</v>
-      </c>
-      <c r="W37" s="5">
-        <v>0</v>
-      </c>
-      <c r="X37" s="5">
+      <c r="O37" s="19">
+        <v>0</v>
+      </c>
+      <c r="P37" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>0</v>
+      </c>
+      <c r="R37" s="19">
+        <v>0</v>
+      </c>
+      <c r="S37" s="19">
+        <v>0</v>
+      </c>
+      <c r="T37" s="19">
+        <v>0</v>
+      </c>
+      <c r="U37" s="19">
+        <v>0</v>
+      </c>
+      <c r="V37" s="19">
+        <v>0</v>
+      </c>
+      <c r="W37" s="19">
+        <v>0</v>
+      </c>
+      <c r="X37" s="19">
         <v>20</v>
       </c>
-      <c r="Y37" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
-      <c r="AM37" s="11"/>
-      <c r="AN37" s="3"/>
-      <c r="AO37" s="3"/>
-      <c r="AP37" s="11"/>
+      <c r="Y37" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="18"/>
+      <c r="AO37" s="18"/>
+      <c r="AP37" s="20"/>
       <c r="AQ37" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR37" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR37" s="43" t="s">
+        <v>100</v>
+      </c>
       <c r="AS37" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:45">
       <c r="A38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E38" s="24">
         <v>1</v>
@@ -7955,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L38" s="24">
         <v>60</v>
@@ -8035,144 +8132,148 @@
       <c r="AO38" s="3"/>
       <c r="AP38" s="11"/>
       <c r="AQ38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR38" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR38" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS38" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:45">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="40">
+        <v>3</v>
+      </c>
+      <c r="F39" s="40">
+        <v>3</v>
+      </c>
+      <c r="G39" s="40">
+        <v>0</v>
+      </c>
+      <c r="H39" s="40">
+        <v>4</v>
+      </c>
+      <c r="I39" s="40">
+        <v>0</v>
+      </c>
+      <c r="J39" s="40">
+        <v>0</v>
+      </c>
+      <c r="K39" s="40">
+        <v>10</v>
+      </c>
+      <c r="L39" s="40">
+        <v>70</v>
+      </c>
+      <c r="M39" s="29">
+        <v>720</v>
+      </c>
+      <c r="N39" s="29">
+        <v>0</v>
+      </c>
+      <c r="O39" s="19">
+        <v>0</v>
+      </c>
+      <c r="P39" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>0</v>
+      </c>
+      <c r="R39" s="19">
+        <v>0</v>
+      </c>
+      <c r="S39" s="19">
+        <v>0</v>
+      </c>
+      <c r="T39" s="19">
+        <v>0</v>
+      </c>
+      <c r="U39" s="19">
+        <v>0</v>
+      </c>
+      <c r="V39" s="19">
+        <v>0</v>
+      </c>
+      <c r="W39" s="19">
+        <v>0</v>
+      </c>
+      <c r="X39" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="18"/>
+      <c r="AJ39" s="18"/>
+      <c r="AK39" s="18"/>
+      <c r="AL39" s="18"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="18"/>
+      <c r="AO39" s="18"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR39" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS39" s="25" t="s">
         <v>32</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="38">
-        <v>3</v>
-      </c>
-      <c r="F39" s="38">
-        <v>3</v>
-      </c>
-      <c r="G39" s="38">
-        <v>0</v>
-      </c>
-      <c r="H39" s="38">
-        <v>4</v>
-      </c>
-      <c r="I39" s="38">
-        <v>0</v>
-      </c>
-      <c r="J39" s="38">
-        <v>0</v>
-      </c>
-      <c r="K39" s="38">
-        <v>5</v>
-      </c>
-      <c r="L39" s="38">
-        <v>70</v>
-      </c>
-      <c r="M39" s="31">
-        <v>720</v>
-      </c>
-      <c r="N39" s="31">
-        <v>0</v>
-      </c>
-      <c r="O39" s="5">
-        <v>0</v>
-      </c>
-      <c r="P39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="5">
-        <v>0</v>
-      </c>
-      <c r="R39" s="5">
-        <v>0</v>
-      </c>
-      <c r="S39" s="5">
-        <v>0</v>
-      </c>
-      <c r="T39" s="5">
-        <v>0</v>
-      </c>
-      <c r="U39" s="5">
-        <v>0</v>
-      </c>
-      <c r="V39" s="5">
-        <v>0</v>
-      </c>
-      <c r="W39" s="5">
-        <v>0</v>
-      </c>
-      <c r="X39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="11"/>
-      <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
-      <c r="AP39" s="11"/>
-      <c r="AQ39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR39" s="3"/>
-      <c r="AS39" s="25" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:45">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E40" s="24">
         <v>3</v>
@@ -8193,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L40" s="24">
         <v>50</v>
@@ -8272,145 +8373,149 @@
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="11"/>
-      <c r="AQ40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR40" s="3"/>
+      <c r="AQ40" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR40" s="43" t="s">
+        <v>102</v>
+      </c>
       <c r="AS40" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="40">
+        <v>5</v>
+      </c>
+      <c r="F41" s="40">
+        <v>2</v>
+      </c>
+      <c r="G41" s="40">
+        <v>0</v>
+      </c>
+      <c r="H41" s="40">
+        <v>12</v>
+      </c>
+      <c r="I41" s="40">
+        <v>0</v>
+      </c>
+      <c r="J41" s="40">
+        <v>0</v>
+      </c>
+      <c r="K41" s="40">
+        <v>10</v>
+      </c>
+      <c r="L41" s="40">
+        <v>80</v>
+      </c>
+      <c r="M41" s="29">
+        <v>100</v>
+      </c>
+      <c r="N41" s="29">
+        <v>10</v>
+      </c>
+      <c r="O41" s="19">
+        <v>0</v>
+      </c>
+      <c r="P41" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>0</v>
+      </c>
+      <c r="R41" s="19">
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <v>0</v>
+      </c>
+      <c r="T41" s="19">
+        <v>0</v>
+      </c>
+      <c r="U41" s="19">
+        <v>0</v>
+      </c>
+      <c r="V41" s="19">
+        <v>0</v>
+      </c>
+      <c r="W41" s="19">
+        <v>0</v>
+      </c>
+      <c r="X41" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="18"/>
+      <c r="AO41" s="18"/>
+      <c r="AP41" s="20"/>
+      <c r="AQ41" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR41" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS41" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="38">
-        <v>5</v>
-      </c>
-      <c r="F41" s="38">
-        <v>2</v>
-      </c>
-      <c r="G41" s="38">
-        <v>0</v>
-      </c>
-      <c r="H41" s="38">
-        <v>12</v>
-      </c>
-      <c r="I41" s="38">
-        <v>0</v>
-      </c>
-      <c r="J41" s="38">
-        <v>0</v>
-      </c>
-      <c r="K41" s="38">
-        <v>5</v>
-      </c>
-      <c r="L41" s="38">
-        <v>80</v>
-      </c>
-      <c r="M41" s="31">
-        <v>100</v>
-      </c>
-      <c r="N41" s="31">
-        <v>10</v>
-      </c>
-      <c r="O41" s="5">
-        <v>0</v>
-      </c>
-      <c r="P41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="5">
-        <v>0</v>
-      </c>
-      <c r="R41" s="5">
-        <v>0</v>
-      </c>
-      <c r="S41" s="5">
-        <v>0</v>
-      </c>
-      <c r="T41" s="5">
-        <v>0</v>
-      </c>
-      <c r="U41" s="5">
-        <v>0</v>
-      </c>
-      <c r="V41" s="5">
-        <v>0</v>
-      </c>
-      <c r="W41" s="5">
-        <v>0</v>
-      </c>
-      <c r="X41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
-      <c r="AM41" s="11"/>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="11"/>
-      <c r="AQ41" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR41" s="3"/>
-      <c r="AS41" s="25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:45">
       <c r="A42" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E42" s="24">
         <v>1</v>
@@ -8431,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L42" s="24">
         <v>30</v>
@@ -8511,175 +8616,179 @@
       <c r="AO42" s="3"/>
       <c r="AP42" s="11"/>
       <c r="AQ42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR42" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR42" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS42" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:45">
-      <c r="A43" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43" s="38">
-        <v>0</v>
-      </c>
-      <c r="F43" s="38">
-        <v>0</v>
-      </c>
-      <c r="G43" s="38">
-        <v>0</v>
-      </c>
-      <c r="H43" s="38">
-        <v>0</v>
-      </c>
-      <c r="I43" s="38">
-        <v>0</v>
-      </c>
-      <c r="J43" s="38">
-        <v>1</v>
-      </c>
-      <c r="K43" s="38">
-        <v>1</v>
-      </c>
-      <c r="L43" s="38">
-        <v>0</v>
-      </c>
-      <c r="M43" s="31">
-        <v>0</v>
-      </c>
-      <c r="N43" s="31">
-        <v>0</v>
-      </c>
-      <c r="O43" s="5">
-        <v>0</v>
-      </c>
-      <c r="P43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="5">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5">
-        <v>0</v>
-      </c>
-      <c r="S43" s="5">
-        <v>0</v>
-      </c>
-      <c r="T43" s="5">
-        <v>0</v>
-      </c>
-      <c r="U43" s="5">
-        <v>0</v>
-      </c>
-      <c r="V43" s="5">
-        <v>0</v>
-      </c>
-      <c r="W43" s="5">
-        <v>0</v>
-      </c>
-      <c r="X43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="3"/>
-      <c r="AM43" s="11"/>
-      <c r="AN43" s="3"/>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="11"/>
-      <c r="AQ43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR43" s="3"/>
-      <c r="AS43" s="25" t="s">
-        <v>139</v>
+      <c r="A43" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="46">
+        <v>1</v>
+      </c>
+      <c r="F43" s="47">
+        <v>2</v>
+      </c>
+      <c r="G43" s="47">
+        <v>0</v>
+      </c>
+      <c r="H43" s="47">
+        <v>4</v>
+      </c>
+      <c r="I43" s="47">
+        <v>0</v>
+      </c>
+      <c r="J43" s="55">
+        <v>0</v>
+      </c>
+      <c r="K43" s="55">
+        <v>10</v>
+      </c>
+      <c r="L43" s="47">
+        <v>40</v>
+      </c>
+      <c r="M43" s="49">
+        <v>48</v>
+      </c>
+      <c r="N43" s="56">
+        <v>15</v>
+      </c>
+      <c r="O43" s="19">
+        <v>0</v>
+      </c>
+      <c r="P43" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>0</v>
+      </c>
+      <c r="R43" s="19">
+        <v>0</v>
+      </c>
+      <c r="S43" s="19">
+        <v>0</v>
+      </c>
+      <c r="T43" s="19">
+        <v>0</v>
+      </c>
+      <c r="U43" s="19">
+        <v>0</v>
+      </c>
+      <c r="V43" s="19">
+        <v>0</v>
+      </c>
+      <c r="W43" s="19">
+        <v>0</v>
+      </c>
+      <c r="X43" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="57"/>
+      <c r="AJ43" s="58"/>
+      <c r="AK43" s="58"/>
+      <c r="AL43" s="58"/>
+      <c r="AM43" s="59"/>
+      <c r="AN43" s="58"/>
+      <c r="AO43" s="58"/>
+      <c r="AP43" s="59"/>
+      <c r="AQ43" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR43" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS43" s="53" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:45">
-      <c r="A44" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="38">
-        <v>1</v>
-      </c>
-      <c r="F44" s="38">
-        <v>2</v>
-      </c>
-      <c r="G44" s="38">
-        <v>0</v>
-      </c>
-      <c r="H44" s="38">
-        <v>12</v>
-      </c>
-      <c r="I44" s="38">
-        <v>0</v>
-      </c>
-      <c r="J44" s="38">
-        <v>0</v>
-      </c>
-      <c r="K44" s="38">
-        <v>5</v>
-      </c>
-      <c r="L44" s="38">
-        <v>800</v>
-      </c>
-      <c r="M44" s="31">
-        <v>12</v>
-      </c>
-      <c r="N44" s="31">
+      <c r="A44" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="46">
+        <v>1</v>
+      </c>
+      <c r="F44" s="47">
+        <v>1</v>
+      </c>
+      <c r="G44" s="47">
+        <v>0</v>
+      </c>
+      <c r="H44" s="47">
+        <v>4</v>
+      </c>
+      <c r="I44" s="47">
+        <v>0</v>
+      </c>
+      <c r="J44" s="48">
+        <v>0</v>
+      </c>
+      <c r="K44" s="48">
         <v>10</v>
       </c>
+      <c r="L44" s="47">
+        <v>80</v>
+      </c>
+      <c r="M44" s="49">
+        <v>120</v>
+      </c>
+      <c r="N44" s="54">
+        <v>0</v>
+      </c>
       <c r="O44" s="5">
         <v>0</v>
       </c>
@@ -8693,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="5">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T44" s="5">
         <v>0</v>
@@ -8740,165 +8849,169 @@
       <c r="AH44" s="5">
         <v>1</v>
       </c>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="3"/>
-      <c r="AL44" s="3"/>
-      <c r="AM44" s="11"/>
-      <c r="AN44" s="3"/>
-      <c r="AO44" s="3"/>
-      <c r="AP44" s="11"/>
-      <c r="AQ44" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR44" s="3"/>
-      <c r="AS44" s="25" t="s">
-        <v>135</v>
+      <c r="AI44" s="50"/>
+      <c r="AJ44" s="51"/>
+      <c r="AK44" s="51"/>
+      <c r="AL44" s="51"/>
+      <c r="AM44" s="52"/>
+      <c r="AN44" s="51"/>
+      <c r="AO44" s="51"/>
+      <c r="AP44" s="52"/>
+      <c r="AQ44" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR44" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS44" s="53" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:45">
-      <c r="A45" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="38">
+      <c r="A45" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="46">
+        <v>1</v>
+      </c>
+      <c r="F45" s="47">
+        <v>2</v>
+      </c>
+      <c r="G45" s="47">
+        <v>0</v>
+      </c>
+      <c r="H45" s="47">
+        <v>4</v>
+      </c>
+      <c r="I45" s="47">
+        <v>0</v>
+      </c>
+      <c r="J45" s="55">
+        <v>0</v>
+      </c>
+      <c r="K45" s="55">
         <v>10</v>
       </c>
-      <c r="F45" s="38">
-        <v>4</v>
-      </c>
-      <c r="G45" s="38">
-        <v>0</v>
-      </c>
-      <c r="H45" s="38">
-        <v>1</v>
-      </c>
-      <c r="I45" s="38">
-        <v>0</v>
-      </c>
-      <c r="J45" s="38">
-        <v>0</v>
-      </c>
-      <c r="K45" s="38">
-        <v>5</v>
-      </c>
-      <c r="L45" s="38">
+      <c r="L45" s="47">
+        <v>150</v>
+      </c>
+      <c r="M45" s="49">
+        <v>120</v>
+      </c>
+      <c r="N45" s="56">
+        <v>0</v>
+      </c>
+      <c r="O45" s="19">
+        <v>0</v>
+      </c>
+      <c r="P45" s="19">
+        <v>48</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>0</v>
+      </c>
+      <c r="R45" s="19">
+        <v>0</v>
+      </c>
+      <c r="S45" s="19">
+        <v>0</v>
+      </c>
+      <c r="T45" s="19">
+        <v>0</v>
+      </c>
+      <c r="U45" s="19">
+        <v>0</v>
+      </c>
+      <c r="V45" s="19">
+        <v>0</v>
+      </c>
+      <c r="W45" s="19">
+        <v>0</v>
+      </c>
+      <c r="X45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="57"/>
+      <c r="AJ45" s="58"/>
+      <c r="AK45" s="58"/>
+      <c r="AL45" s="58"/>
+      <c r="AM45" s="59"/>
+      <c r="AN45" s="58"/>
+      <c r="AO45" s="58"/>
+      <c r="AP45" s="59"/>
+      <c r="AQ45" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="M45" s="31">
-        <v>64</v>
-      </c>
-      <c r="N45" s="31">
-        <v>15</v>
-      </c>
-      <c r="O45" s="5">
-        <v>0</v>
-      </c>
-      <c r="P45" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="5">
-        <v>0</v>
-      </c>
-      <c r="R45" s="5">
-        <v>0</v>
-      </c>
-      <c r="S45" s="5">
-        <v>0</v>
-      </c>
-      <c r="T45" s="5">
-        <v>0</v>
-      </c>
-      <c r="U45" s="5">
-        <v>0</v>
-      </c>
-      <c r="V45" s="5">
-        <v>0</v>
-      </c>
-      <c r="W45" s="5">
-        <v>0</v>
-      </c>
-      <c r="X45" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="3"/>
-      <c r="AJ45" s="3"/>
-      <c r="AK45" s="3"/>
-      <c r="AL45" s="3"/>
-      <c r="AM45" s="11"/>
-      <c r="AN45" s="3"/>
-      <c r="AO45" s="3"/>
-      <c r="AP45" s="11"/>
-      <c r="AQ45" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR45" s="3"/>
-      <c r="AS45" s="25" t="s">
-        <v>134</v>
+      <c r="AR45" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS45" s="53" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:45">
       <c r="A46" s="3" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E46" s="38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F46" s="38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46" s="38">
         <v>0</v>
       </c>
       <c r="H46" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="38">
         <v>0</v>
@@ -8907,16 +9020,16 @@
         <v>1</v>
       </c>
       <c r="K46" s="38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L46" s="38">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M46" s="31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N46" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46" s="5">
         <v>0</v>
@@ -8987,37 +9100,39 @@
       <c r="AO46" s="3"/>
       <c r="AP46" s="11"/>
       <c r="AQ46" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR46" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="AR46" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS46" s="25" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:45">
       <c r="A47" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E47" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F47" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="38">
         <v>0</v>
       </c>
       <c r="H47" s="38">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="38">
         <v>0</v>
@@ -9026,16 +9141,16 @@
         <v>0</v>
       </c>
       <c r="K47" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L47" s="38">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="M47" s="31">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="N47" s="31">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="O47" s="5">
         <v>0</v>
@@ -9106,37 +9221,39 @@
       <c r="AO47" s="3"/>
       <c r="AP47" s="11"/>
       <c r="AQ47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR47" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR47" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS47" s="25" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:45">
       <c r="A48" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E48" s="38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F48" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" s="38">
         <v>0</v>
       </c>
       <c r="H48" s="38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I48" s="38">
         <v>0</v>
@@ -9145,16 +9262,16 @@
         <v>0</v>
       </c>
       <c r="K48" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L48" s="38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M48" s="31">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="N48" s="31">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O48" s="5">
         <v>0</v>
@@ -9225,55 +9342,57 @@
       <c r="AO48" s="3"/>
       <c r="AP48" s="11"/>
       <c r="AQ48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR48" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR48" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS48" s="25" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:45">
       <c r="A49" s="3" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>54</v>
+        <v>114</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>217</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E49" s="38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F49" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G49" s="38">
         <v>0</v>
       </c>
       <c r="H49" s="38">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I49" s="38">
         <v>0</v>
       </c>
       <c r="J49" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="38">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L49" s="38">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="M49" s="31">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="N49" s="31">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="O49" s="5">
         <v>0</v>
@@ -9335,9 +9454,7 @@
       <c r="AH49" s="5">
         <v>1</v>
       </c>
-      <c r="AI49" s="3">
-        <v>1</v>
-      </c>
+      <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
@@ -9346,55 +9463,57 @@
       <c r="AO49" s="3"/>
       <c r="AP49" s="11"/>
       <c r="AQ49" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR49" s="3"/>
-      <c r="AS49" s="25" t="s">
-        <v>209</v>
+        <v>100</v>
+      </c>
+      <c r="AR49" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS49" s="42" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:45">
-      <c r="A50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E50" s="24">
-        <v>1</v>
-      </c>
-      <c r="F50" s="24">
-        <v>1</v>
-      </c>
-      <c r="G50" s="24">
-        <v>20</v>
-      </c>
-      <c r="H50" s="24">
-        <v>12</v>
-      </c>
-      <c r="I50" s="24">
+      <c r="A50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="38">
+        <v>3</v>
+      </c>
+      <c r="F50" s="38">
+        <v>1</v>
+      </c>
+      <c r="G50" s="38">
+        <v>0</v>
+      </c>
+      <c r="H50" s="38">
+        <v>16</v>
+      </c>
+      <c r="I50" s="38">
         <v>0</v>
       </c>
       <c r="J50" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="38">
-        <v>1</v>
-      </c>
-      <c r="L50" s="24">
-        <v>0</v>
-      </c>
-      <c r="M50" s="30">
-        <v>720</v>
+        <v>10</v>
+      </c>
+      <c r="L50" s="38">
+        <v>100</v>
+      </c>
+      <c r="M50" s="31">
+        <v>72</v>
       </c>
       <c r="N50" s="31">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O50" s="5">
         <v>0</v>
@@ -9465,55 +9584,57 @@
       <c r="AO50" s="3"/>
       <c r="AP50" s="11"/>
       <c r="AQ50" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR50" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR50" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS50" s="25" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:45">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E51" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51" s="38">
+        <v>0</v>
+      </c>
+      <c r="H51" s="38">
+        <v>12</v>
+      </c>
+      <c r="I51" s="38">
+        <v>0</v>
+      </c>
+      <c r="J51" s="38">
+        <v>0</v>
+      </c>
+      <c r="K51" s="38">
+        <v>10</v>
+      </c>
+      <c r="L51" s="38">
+        <v>50</v>
+      </c>
+      <c r="M51" s="31">
+        <v>48</v>
+      </c>
+      <c r="N51" s="31">
         <v>5</v>
-      </c>
-      <c r="H51" s="38">
-        <v>0</v>
-      </c>
-      <c r="I51" s="38">
-        <v>0</v>
-      </c>
-      <c r="J51" s="38">
-        <v>1</v>
-      </c>
-      <c r="K51" s="38">
-        <v>1</v>
-      </c>
-      <c r="L51" s="38">
-        <v>0</v>
-      </c>
-      <c r="M51" s="31">
-        <v>0</v>
-      </c>
-      <c r="N51" s="31">
-        <v>0</v>
       </c>
       <c r="O51" s="5">
         <v>0</v>
@@ -9584,55 +9705,57 @@
       <c r="AO51" s="3"/>
       <c r="AP51" s="11"/>
       <c r="AQ51" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR51" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR51" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS51" s="25" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:45">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E52" s="24">
-        <v>0</v>
-      </c>
-      <c r="F52" s="24">
-        <v>0</v>
-      </c>
-      <c r="G52" s="24">
-        <v>5</v>
-      </c>
-      <c r="H52" s="24">
-        <v>0</v>
-      </c>
-      <c r="I52" s="24">
+      <c r="D52" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="38">
+        <v>1</v>
+      </c>
+      <c r="F52" s="38">
+        <v>1</v>
+      </c>
+      <c r="G52" s="38">
+        <v>0</v>
+      </c>
+      <c r="H52" s="38">
+        <v>12</v>
+      </c>
+      <c r="I52" s="38">
         <v>0</v>
       </c>
       <c r="J52" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="38">
-        <v>1</v>
-      </c>
-      <c r="L52" s="24">
-        <v>0</v>
-      </c>
-      <c r="M52" s="30">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="L52" s="38">
+        <v>80</v>
+      </c>
+      <c r="M52" s="31">
+        <v>120</v>
       </c>
       <c r="N52" s="31">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O52" s="5">
         <v>0</v>
@@ -9694,7 +9817,9 @@
       <c r="AH52" s="5">
         <v>1</v>
       </c>
-      <c r="AI52" s="3"/>
+      <c r="AI52" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
@@ -9703,37 +9828,39 @@
       <c r="AO52" s="3"/>
       <c r="AP52" s="11"/>
       <c r="AQ52" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AR52" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="AR52" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="AS52" s="25" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:45">
       <c r="A53" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E53" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H53" s="24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I53" s="24">
         <v>0</v>
@@ -9748,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="30">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="N53" s="31">
         <v>0</v>
@@ -9821,26 +9948,28 @@
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="11"/>
-      <c r="AQ53" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR53" s="3"/>
+      <c r="AQ53" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR53" s="43" t="s">
+        <v>100</v>
+      </c>
       <c r="AS53" s="25" t="s">
-        <v>48</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:45">
       <c r="A54" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E54" s="38">
         <v>0</v>
@@ -9849,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="38">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H54" s="38">
         <v>0</v>
@@ -9941,37 +10070,37 @@
       <c r="AO54" s="3"/>
       <c r="AP54" s="11"/>
       <c r="AQ54" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AR54" s="3"/>
       <c r="AS54" s="25" t="s">
-        <v>49</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:45">
       <c r="A55" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E55" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G55" s="24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H55" s="24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I55" s="24">
         <v>0</v>
@@ -9983,13 +10112,13 @@
         <v>1</v>
       </c>
       <c r="L55" s="24">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M55" s="30">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N55" s="31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O55" s="5">
         <v>0</v>
@@ -10060,130 +10189,487 @@
       <c r="AO55" s="3"/>
       <c r="AP55" s="11"/>
       <c r="AQ55" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AR55" s="3"/>
       <c r="AS55" s="25" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:45">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="24">
+        <v>0</v>
+      </c>
+      <c r="F56" s="24">
+        <v>0</v>
+      </c>
+      <c r="G56" s="24">
+        <v>30</v>
+      </c>
+      <c r="H56" s="24">
+        <v>0</v>
+      </c>
+      <c r="I56" s="24">
+        <v>0</v>
+      </c>
+      <c r="J56" s="38">
+        <v>1</v>
+      </c>
+      <c r="K56" s="38">
+        <v>1</v>
+      </c>
+      <c r="L56" s="24">
+        <v>0</v>
+      </c>
+      <c r="M56" s="30">
+        <v>0</v>
+      </c>
+      <c r="N56" s="31">
+        <v>0</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>0</v>
+      </c>
+      <c r="R56" s="5">
+        <v>0</v>
+      </c>
+      <c r="S56" s="5">
+        <v>0</v>
+      </c>
+      <c r="T56" s="5">
+        <v>0</v>
+      </c>
+      <c r="U56" s="5">
+        <v>0</v>
+      </c>
+      <c r="V56" s="5">
+        <v>0</v>
+      </c>
+      <c r="W56" s="5">
+        <v>0</v>
+      </c>
+      <c r="X56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="3"/>
+      <c r="AJ56" s="3"/>
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="3"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="3"/>
+      <c r="AO56" s="3"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR56" s="3"/>
+      <c r="AS56" s="42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45">
+      <c r="A57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="38">
+        <v>0</v>
+      </c>
+      <c r="F57" s="38">
+        <v>0</v>
+      </c>
+      <c r="G57" s="38">
+        <v>60</v>
+      </c>
+      <c r="H57" s="38">
+        <v>0</v>
+      </c>
+      <c r="I57" s="38">
+        <v>0</v>
+      </c>
+      <c r="J57" s="38">
+        <v>1</v>
+      </c>
+      <c r="K57" s="38">
+        <v>1</v>
+      </c>
+      <c r="L57" s="38">
+        <v>0</v>
+      </c>
+      <c r="M57" s="31">
+        <v>0</v>
+      </c>
+      <c r="N57" s="31">
+        <v>0</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>0</v>
+      </c>
+      <c r="R57" s="5">
+        <v>0</v>
+      </c>
+      <c r="S57" s="5">
+        <v>0</v>
+      </c>
+      <c r="T57" s="5">
+        <v>0</v>
+      </c>
+      <c r="U57" s="5">
+        <v>0</v>
+      </c>
+      <c r="V57" s="5">
+        <v>0</v>
+      </c>
+      <c r="W57" s="5">
+        <v>0</v>
+      </c>
+      <c r="X57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="3"/>
+      <c r="AJ57" s="3"/>
+      <c r="AK57" s="3"/>
+      <c r="AL57" s="3"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="3"/>
+      <c r="AO57" s="3"/>
+      <c r="AP57" s="11"/>
+      <c r="AQ57" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR57" s="3"/>
+      <c r="AS57" s="42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45">
+      <c r="A58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E58" s="24">
+        <v>1</v>
+      </c>
+      <c r="F58" s="24">
+        <v>2</v>
+      </c>
+      <c r="G58" s="24">
+        <v>0</v>
+      </c>
+      <c r="H58" s="24">
+        <v>12</v>
+      </c>
+      <c r="I58" s="24">
+        <v>0</v>
+      </c>
+      <c r="J58" s="38">
+        <v>1</v>
+      </c>
+      <c r="K58" s="38">
+        <v>1</v>
+      </c>
+      <c r="L58" s="24">
+        <v>400</v>
+      </c>
+      <c r="M58" s="30">
+        <v>48</v>
+      </c>
+      <c r="N58" s="31">
+        <v>20</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>0</v>
+      </c>
+      <c r="R58" s="5">
+        <v>0</v>
+      </c>
+      <c r="S58" s="5">
+        <v>0</v>
+      </c>
+      <c r="T58" s="5">
+        <v>0</v>
+      </c>
+      <c r="U58" s="5">
+        <v>0</v>
+      </c>
+      <c r="V58" s="5">
+        <v>0</v>
+      </c>
+      <c r="W58" s="5">
+        <v>0</v>
+      </c>
+      <c r="X58" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH58" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="3"/>
+      <c r="AJ58" s="3"/>
+      <c r="AK58" s="3"/>
+      <c r="AL58" s="3"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="3"/>
+      <c r="AO58" s="3"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR58" s="3"/>
+      <c r="AS58" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="4" t="s">
+    </row>
+    <row r="59" spans="1:45">
+      <c r="A59" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="41">
-        <v>1</v>
-      </c>
-      <c r="F56" s="41">
+      <c r="B59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" s="41">
+        <v>1</v>
+      </c>
+      <c r="F59" s="41">
         <v>2</v>
       </c>
-      <c r="G56" s="41">
-        <v>0</v>
-      </c>
-      <c r="H56" s="41">
+      <c r="G59" s="41">
+        <v>0</v>
+      </c>
+      <c r="H59" s="41">
         <v>12</v>
       </c>
-      <c r="I56" s="41">
-        <v>0</v>
-      </c>
-      <c r="J56" s="41">
-        <v>1</v>
-      </c>
-      <c r="K56" s="41">
-        <v>1</v>
-      </c>
-      <c r="L56" s="41">
+      <c r="I59" s="41">
+        <v>0</v>
+      </c>
+      <c r="J59" s="41">
+        <v>1</v>
+      </c>
+      <c r="K59" s="41">
+        <v>1</v>
+      </c>
+      <c r="L59" s="41">
         <v>400</v>
       </c>
-      <c r="M56" s="32">
+      <c r="M59" s="32">
         <v>48</v>
       </c>
-      <c r="N56" s="32">
+      <c r="N59" s="32">
         <v>40</v>
       </c>
-      <c r="O56" s="5">
-        <v>0</v>
-      </c>
-      <c r="P56" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="5">
-        <v>0</v>
-      </c>
-      <c r="R56" s="5">
-        <v>0</v>
-      </c>
-      <c r="S56" s="5">
-        <v>0</v>
-      </c>
-      <c r="T56" s="5">
-        <v>0</v>
-      </c>
-      <c r="U56" s="5">
-        <v>0</v>
-      </c>
-      <c r="V56" s="5">
-        <v>0</v>
-      </c>
-      <c r="W56" s="5">
-        <v>0</v>
-      </c>
-      <c r="X56" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH56" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI56" s="4"/>
-      <c r="AJ56" s="4"/>
-      <c r="AK56" s="4"/>
-      <c r="AL56" s="4"/>
-      <c r="AM56" s="12"/>
-      <c r="AN56" s="4"/>
-      <c r="AO56" s="4"/>
-      <c r="AP56" s="12"/>
-      <c r="AQ56" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AR56" s="4"/>
-      <c r="AS56" s="26" t="s">
-        <v>43</v>
+      <c r="O59" s="5">
+        <v>0</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>0</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0</v>
+      </c>
+      <c r="S59" s="5">
+        <v>0</v>
+      </c>
+      <c r="T59" s="5">
+        <v>0</v>
+      </c>
+      <c r="U59" s="5">
+        <v>0</v>
+      </c>
+      <c r="V59" s="5">
+        <v>0</v>
+      </c>
+      <c r="W59" s="5">
+        <v>0</v>
+      </c>
+      <c r="X59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="4"/>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="12"/>
+      <c r="AN59" s="4"/>
+      <c r="AO59" s="4"/>
+      <c r="AP59" s="12"/>
+      <c r="AQ59" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR59" s="4"/>
+      <c r="AS59" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="223">
   <si>
     <t>Name</t>
   </si>
@@ -682,6 +682,9 @@
   </si>
   <si>
     <t>Basic Attack: Fire a bullet at a target enemy. Hold down for rapid gunfire.</t>
+  </si>
+  <si>
+    <t>0-none 1-move 2-align 3-teleport</t>
   </si>
 </sst>
 </file>
@@ -3511,9 +3514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AS50" sqref="AS50"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3559,6 +3562,9 @@
       <c r="F1" t="s">
         <v>47</v>
       </c>
+      <c r="AH1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="2" spans="1:45" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
@@ -3798,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI3" s="15"/>
       <c r="AJ3" s="15"/>
@@ -3925,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI4" s="3">
         <v>1</v>
@@ -4181,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
@@ -4308,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="236">
   <si>
     <t>Name</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Healthy Explosion</t>
   </si>
   <si>
-    <t>Damages close target</t>
-  </si>
-  <si>
     <t>Happy Healing</t>
   </si>
   <si>
@@ -390,9 +387,6 @@
     <t>Stuns an enemy for a few seconds.</t>
   </si>
   <si>
-    <t>Restores a small amount of HP per second. But really, he stopped doing this a few months ago. REALLY. OMG SHUT UP, YOU HATER.</t>
-  </si>
-  <si>
     <t>Logic Puzzle</t>
   </si>
   <si>
@@ -678,13 +672,58 @@
     <t xml:space="preserve">Creates a temporary aura of circles that heals Cia and deals damage to nearby enemies. </t>
   </si>
   <si>
-    <t>C. Kata restores some Health every few seconds.</t>
-  </si>
-  <si>
     <t>Basic Attack: Fire a bullet at a target enemy. Hold down for rapid gunfire.</t>
   </si>
   <si>
     <t>0-none 1-move 2-align 3-teleport</t>
+  </si>
+  <si>
+    <t>Sassy Yet Unique</t>
+  </si>
+  <si>
+    <t>Become a sassy yet unique individual by getting Health regeneration and posh increases to Max Health, Attack, and Speed.</t>
+  </si>
+  <si>
+    <t>Chris P.</t>
+  </si>
+  <si>
+    <t>Lift Lid</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>Sideburnt</t>
+  </si>
+  <si>
+    <t>Charm Attack</t>
+  </si>
+  <si>
+    <t>Mom Swap</t>
+  </si>
+  <si>
+    <t>Basic Attack: Weaken an enemy with lust.</t>
+  </si>
+  <si>
+    <t>Place a booby-trapped fake beard on an enemy, which explodes for massive damage.</t>
+  </si>
+  <si>
+    <t>Slows himself and nearby enemies. TROLOLOLOLOLOLOL</t>
+  </si>
+  <si>
+    <t>Unleashes a magical elongated surprise from a magical box. ;D</t>
+  </si>
+  <si>
+    <t>Restores some of Kata's Health every few seconds.</t>
+  </si>
+  <si>
+    <t>Creates a happy shield inside a target and makes it expand.</t>
+  </si>
+  <si>
+    <t>Restores a small amount of Health per second. But really, he stopped doing this a few months ago. NO REALLY. OMG SHUT UP, YOU HATER.</t>
+  </si>
+  <si>
+    <t>Take possession of an enemy's mother and make passionate love to her. Also stuns that enemy, probably.</t>
   </si>
 </sst>
 </file>
@@ -764,7 +803,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -882,11 +921,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1002,6 +1061,37 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3084,8 +3174,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:AS59" tableType="xml" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
-  <autoFilter ref="A2:AS59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:AS65" tableType="xml" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45">
+  <autoFilter ref="A2:AS65"/>
   <tableColumns count="45">
     <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="44">
       <xmlColumnPr mapId="22" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
@@ -3512,11 +3602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS59"/>
+  <dimension ref="A1:AS65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3560,10 +3650,10 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="F1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="15.75" thickBot="1">
@@ -3574,10 +3664,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>4</v>
@@ -3589,16 +3679,16 @@
         <v>7</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>2</v>
@@ -3607,97 +3697,97 @@
         <v>3</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="U2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="W2" s="9" t="s">
+      <c r="AI2" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AI2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
+      <c r="AK2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AK2" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="AL2" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN2" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="AM2" s="10" t="s">
+      <c r="AO2" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AO2" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="AQ2" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AS2" s="21" t="s">
         <v>1</v>
@@ -3705,16 +3795,16 @@
     </row>
     <row r="3" spans="1:45" ht="15.75" thickTop="1">
       <c r="A3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3" s="34">
         <v>1</v>
@@ -3741,10 +3831,10 @@
         <v>80</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O3" s="22">
         <v>32</v>
@@ -3810,7 +3900,7 @@
       <c r="AJ3" s="15"/>
       <c r="AK3" s="15"/>
       <c r="AL3" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AM3" s="23">
         <v>1</v>
@@ -3821,27 +3911,27 @@
         <v>100</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS3" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:45">
       <c r="A4" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" s="37">
         <v>1</v>
@@ -3868,10 +3958,10 @@
         <v>80</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O4" s="5">
         <v>0</v>
@@ -3939,7 +4029,7 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AM4" s="11">
         <v>0</v>
@@ -3950,27 +4040,27 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS4" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:45">
       <c r="A5" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="40">
         <v>1</v>
@@ -3997,7 +4087,7 @@
         <v>140</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N5" s="29">
         <v>0</v>
@@ -4066,7 +4156,7 @@
       <c r="AJ5" s="18"/>
       <c r="AK5" s="18"/>
       <c r="AL5" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AM5" s="20">
         <v>0</v>
@@ -4077,27 +4167,27 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS5" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:45">
       <c r="A6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E6" s="39">
         <v>1</v>
@@ -4124,10 +4214,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N6" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O6" s="5">
         <v>8</v>
@@ -4193,7 +4283,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AM6" s="11">
         <v>8</v>
@@ -4204,27 +4294,27 @@
         <v>50</v>
       </c>
       <c r="AQ6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS6" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:45">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E7" s="24">
         <v>1</v>
@@ -4251,10 +4341,10 @@
         <v>20</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O7" s="19">
         <v>32</v>
@@ -4320,7 +4410,7 @@
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18"/>
       <c r="AL7" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AM7" s="20">
         <v>1</v>
@@ -4331,27 +4421,27 @@
         <v>40</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS7" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:45">
       <c r="A8" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" s="39">
         <v>0</v>
@@ -4447,7 +4537,7 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AM8" s="11"/>
       <c r="AN8" s="3"/>
@@ -4456,27 +4546,27 @@
         <v>0</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS8" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:45">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="24">
         <v>1</v>
@@ -4503,10 +4593,10 @@
         <v>120</v>
       </c>
       <c r="M9" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>177</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>179</v>
       </c>
       <c r="O9" s="19">
         <v>16</v>
@@ -4572,7 +4662,7 @@
       <c r="AJ9" s="18"/>
       <c r="AK9" s="18"/>
       <c r="AL9" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AM9" s="20"/>
       <c r="AN9" s="18"/>
@@ -4581,27 +4671,27 @@
         <v>50</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS9" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:45">
       <c r="A10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>60</v>
-      </c>
       <c r="C10" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="39">
         <v>1</v>
@@ -4628,7 +4718,7 @@
         <v>50</v>
       </c>
       <c r="M10" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N10" s="31">
         <v>0</v>
@@ -4697,7 +4787,7 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AM10" s="11"/>
       <c r="AN10" s="3"/>
@@ -4706,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS10" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -4723,10 +4813,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E11" s="24">
         <v>1</v>
@@ -4822,20 +4912,20 @@
       <c r="AJ11" s="18"/>
       <c r="AK11" s="18"/>
       <c r="AL11" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AM11" s="20"/>
       <c r="AN11" s="18"/>
       <c r="AO11" s="18"/>
       <c r="AP11" s="20"/>
       <c r="AQ11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS11" s="42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -4846,10 +4936,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E12" s="39">
         <v>1</v>
@@ -4945,20 +5035,20 @@
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AM12" s="11"/>
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS12" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -4969,10 +5059,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E13" s="24">
         <v>1</v>
@@ -5068,34 +5158,34 @@
       <c r="AJ13" s="18"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AM13" s="20"/>
       <c r="AN13" s="18"/>
       <c r="AO13" s="18"/>
       <c r="AP13" s="20"/>
       <c r="AQ13" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS13" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E14" s="38">
         <v>1</v>
@@ -5193,34 +5283,34 @@
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AM14" s="11"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
       <c r="AP14" s="11"/>
       <c r="AQ14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS14" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:45">
       <c r="A15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E15" s="24">
         <v>1</v>
@@ -5316,34 +5406,34 @@
       <c r="AJ15" s="18"/>
       <c r="AK15" s="18"/>
       <c r="AL15" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AM15" s="20"/>
       <c r="AN15" s="18"/>
       <c r="AO15" s="18"/>
       <c r="AP15" s="20"/>
       <c r="AQ15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS15" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:45">
       <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E16" s="38">
         <v>1</v>
@@ -5439,34 +5529,34 @@
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AM16" s="11"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
       <c r="AP16" s="11"/>
       <c r="AQ16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR16" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:45">
       <c r="A17" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" s="40">
         <v>1</v>
@@ -5562,34 +5652,34 @@
       <c r="AJ17" s="18"/>
       <c r="AK17" s="18"/>
       <c r="AL17" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AM17" s="20"/>
       <c r="AN17" s="18"/>
       <c r="AO17" s="18"/>
       <c r="AP17" s="20"/>
       <c r="AQ17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS17" s="42" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:45">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18" s="38">
         <v>1</v>
@@ -5685,34 +5775,34 @@
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AM18" s="11"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="11"/>
       <c r="AQ18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS18" s="42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:45">
       <c r="A19" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E19" s="40">
         <v>1</v>
@@ -5808,34 +5898,34 @@
       <c r="AJ19" s="18"/>
       <c r="AK19" s="18"/>
       <c r="AL19" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AM19" s="20"/>
       <c r="AN19" s="18"/>
       <c r="AO19" s="18"/>
       <c r="AP19" s="20"/>
       <c r="AQ19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS19" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:45">
       <c r="A20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" s="38">
         <v>0</v>
@@ -5931,20 +6021,20 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AM20" s="11"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="11"/>
       <c r="AQ20" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AS20" s="42" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:45">
@@ -5955,10 +6045,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E21" s="40">
         <v>1</v>
@@ -6054,17 +6144,17 @@
       <c r="AJ21" s="18"/>
       <c r="AK21" s="18"/>
       <c r="AL21" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AM21" s="20"/>
       <c r="AN21" s="18"/>
       <c r="AO21" s="18"/>
       <c r="AP21" s="20"/>
       <c r="AQ21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS21" s="25" t="s">
         <v>24</v>
@@ -6078,10 +6168,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E22" s="39">
         <v>1</v>
@@ -6177,34 +6267,34 @@
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AM22" s="11"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
       <c r="AP22" s="11"/>
       <c r="AQ22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS22" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:45">
       <c r="A23" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E23" s="40">
         <v>3</v>
@@ -6300,20 +6390,20 @@
       <c r="AJ23" s="18"/>
       <c r="AK23" s="18"/>
       <c r="AL23" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AM23" s="20"/>
       <c r="AN23" s="18"/>
       <c r="AO23" s="18"/>
       <c r="AP23" s="20"/>
       <c r="AQ23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS23" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:45">
@@ -6324,10 +6414,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>139</v>
+        <v>50</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>154</v>
       </c>
       <c r="E24" s="39">
         <v>1</v>
@@ -6423,20 +6513,20 @@
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AM24" s="11"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
       <c r="AP24" s="11"/>
       <c r="AQ24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR24" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AS24" s="25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:45">
@@ -6447,10 +6537,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25" s="40">
         <v>1</v>
@@ -6546,17 +6636,17 @@
       <c r="AJ25" s="18"/>
       <c r="AK25" s="18"/>
       <c r="AL25" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AM25" s="20"/>
       <c r="AN25" s="18"/>
       <c r="AO25" s="18"/>
       <c r="AP25" s="20"/>
       <c r="AQ25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR25" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS25" s="25" t="s">
         <v>17</v>
@@ -6564,16 +6654,16 @@
     </row>
     <row r="26" spans="1:45">
       <c r="A26" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E26" s="38">
         <v>8</v>
@@ -6669,20 +6759,20 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AM26" s="11"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
       <c r="AP26" s="11"/>
       <c r="AQ26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR26" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS26" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:45">
@@ -6693,10 +6783,10 @@
         <v>12</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E27" s="24">
         <v>5</v>
@@ -6794,20 +6884,20 @@
       <c r="AJ27" s="18"/>
       <c r="AK27" s="18"/>
       <c r="AL27" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AM27" s="20"/>
       <c r="AN27" s="18"/>
       <c r="AO27" s="18"/>
       <c r="AP27" s="20"/>
       <c r="AQ27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR27" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS27" s="25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:45">
@@ -6818,10 +6908,10 @@
         <v>12</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E28" s="38">
         <v>2</v>
@@ -6917,17 +7007,17 @@
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AM28" s="11"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="11"/>
       <c r="AQ28" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AR28" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS28" s="25" t="s">
         <v>19</v>
@@ -6941,10 +7031,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E29" s="40">
         <v>0</v>
@@ -7040,34 +7130,34 @@
       <c r="AJ29" s="18"/>
       <c r="AK29" s="18"/>
       <c r="AL29" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AM29" s="20"/>
       <c r="AN29" s="18"/>
       <c r="AO29" s="18"/>
       <c r="AP29" s="20"/>
       <c r="AQ29" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS29" s="25" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="AS29" s="42" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:45">
       <c r="A30" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E30" s="38">
         <v>1</v>
@@ -7168,27 +7258,27 @@
       <c r="AO30" s="3"/>
       <c r="AP30" s="11"/>
       <c r="AQ30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR30" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS30" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:45">
       <c r="A31" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E31" s="40">
         <v>1</v>
@@ -7289,27 +7379,27 @@
       <c r="AO31" s="18"/>
       <c r="AP31" s="20"/>
       <c r="AQ31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR31" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS31" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:45">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E32" s="38">
         <v>1</v>
@@ -7410,27 +7500,27 @@
       <c r="AO32" s="3"/>
       <c r="AP32" s="11"/>
       <c r="AQ32" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR32" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS32" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:45">
       <c r="A33" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E33" s="40">
         <v>1</v>
@@ -7531,27 +7621,27 @@
       <c r="AO33" s="18"/>
       <c r="AP33" s="20"/>
       <c r="AQ33" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AR33" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS33" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:45">
       <c r="A34" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E34" s="38">
         <v>1</v>
@@ -7654,27 +7744,27 @@
       <c r="AO34" s="3"/>
       <c r="AP34" s="11"/>
       <c r="AQ34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR34" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS34" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:45">
       <c r="A35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E35" s="40">
         <v>3</v>
@@ -7775,27 +7865,27 @@
       <c r="AO35" s="18"/>
       <c r="AP35" s="20"/>
       <c r="AQ35" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR35" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS35" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:45">
       <c r="A36" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E36" s="38">
         <v>1</v>
@@ -7896,27 +7986,27 @@
       <c r="AO36" s="3"/>
       <c r="AP36" s="11"/>
       <c r="AQ36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR36" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS36" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:45">
       <c r="A37" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E37" s="40">
         <v>3</v>
@@ -8017,56 +8107,56 @@
       <c r="AO37" s="18"/>
       <c r="AP37" s="20"/>
       <c r="AQ37" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR37" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS37" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="24">
-        <v>1</v>
-      </c>
-      <c r="F38" s="24">
-        <v>1</v>
-      </c>
-      <c r="G38" s="24">
-        <v>0</v>
-      </c>
-      <c r="H38" s="24">
-        <v>4</v>
-      </c>
-      <c r="I38" s="24">
-        <v>0</v>
-      </c>
-      <c r="J38" s="38">
-        <v>1</v>
-      </c>
-      <c r="K38" s="38">
+      <c r="A38" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="40">
+        <v>1</v>
+      </c>
+      <c r="F38" s="40">
+        <v>1</v>
+      </c>
+      <c r="G38" s="40">
+        <v>0</v>
+      </c>
+      <c r="H38" s="40">
+        <v>12</v>
+      </c>
+      <c r="I38" s="40">
+        <v>0</v>
+      </c>
+      <c r="J38" s="40">
+        <v>1</v>
+      </c>
+      <c r="K38" s="40">
         <v>10</v>
       </c>
-      <c r="L38" s="24">
-        <v>60</v>
-      </c>
-      <c r="M38" s="30">
-        <v>8</v>
-      </c>
-      <c r="N38" s="31">
+      <c r="L38" s="40">
+        <v>120</v>
+      </c>
+      <c r="M38" s="29">
+        <v>12</v>
+      </c>
+      <c r="N38" s="29">
         <v>5</v>
       </c>
       <c r="O38" s="5">
@@ -8137,58 +8227,58 @@
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="11"/>
-      <c r="AQ38" s="3" t="s">
-        <v>100</v>
+      <c r="AQ38" s="43" t="s">
+        <v>99</v>
       </c>
       <c r="AR38" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS38" s="25" t="s">
-        <v>27</v>
+        <v>138</v>
+      </c>
+      <c r="AS38" s="42" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:45">
-      <c r="A39" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="40">
-        <v>3</v>
-      </c>
-      <c r="F39" s="40">
-        <v>3</v>
-      </c>
-      <c r="G39" s="40">
-        <v>0</v>
-      </c>
-      <c r="H39" s="40">
-        <v>4</v>
-      </c>
-      <c r="I39" s="40">
-        <v>0</v>
-      </c>
-      <c r="J39" s="40">
-        <v>0</v>
-      </c>
-      <c r="K39" s="40">
+      <c r="A39" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="46">
+        <v>1</v>
+      </c>
+      <c r="F39" s="47">
+        <v>1</v>
+      </c>
+      <c r="G39" s="47">
+        <v>0</v>
+      </c>
+      <c r="H39" s="47">
+        <v>12</v>
+      </c>
+      <c r="I39" s="47">
+        <v>0</v>
+      </c>
+      <c r="J39" s="55">
+        <v>0</v>
+      </c>
+      <c r="K39" s="55">
         <v>10</v>
       </c>
-      <c r="L39" s="40">
-        <v>70</v>
-      </c>
-      <c r="M39" s="29">
-        <v>720</v>
-      </c>
-      <c r="N39" s="29">
-        <v>0</v>
+      <c r="L39" s="47">
+        <v>800</v>
+      </c>
+      <c r="M39" s="49">
+        <v>48</v>
+      </c>
+      <c r="N39" s="56">
+        <v>10</v>
       </c>
       <c r="O39" s="19">
         <v>0</v>
@@ -8250,66 +8340,66 @@
       <c r="AH39" s="19">
         <v>1</v>
       </c>
-      <c r="AI39" s="18"/>
-      <c r="AJ39" s="18"/>
-      <c r="AK39" s="18"/>
-      <c r="AL39" s="18"/>
-      <c r="AM39" s="20"/>
-      <c r="AN39" s="18"/>
-      <c r="AO39" s="18"/>
-      <c r="AP39" s="20"/>
-      <c r="AQ39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR39" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS39" s="25" t="s">
-        <v>32</v>
+      <c r="AI39" s="57"/>
+      <c r="AJ39" s="58"/>
+      <c r="AK39" s="58"/>
+      <c r="AL39" s="58"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="58"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR39" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS39" s="53" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:45">
-      <c r="A40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="24">
+      <c r="A40" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="46">
+        <v>1</v>
+      </c>
+      <c r="F40" s="47">
         <v>3</v>
       </c>
-      <c r="F40" s="24">
-        <v>1</v>
-      </c>
-      <c r="G40" s="24">
-        <v>0</v>
-      </c>
-      <c r="H40" s="24">
+      <c r="G40" s="47">
+        <v>0</v>
+      </c>
+      <c r="H40" s="47">
         <v>72</v>
       </c>
-      <c r="I40" s="24">
-        <v>0</v>
-      </c>
-      <c r="J40" s="38">
-        <v>0</v>
-      </c>
-      <c r="K40" s="38">
+      <c r="I40" s="47">
+        <v>0</v>
+      </c>
+      <c r="J40" s="48">
+        <v>0</v>
+      </c>
+      <c r="K40" s="48">
         <v>10</v>
       </c>
-      <c r="L40" s="24">
-        <v>50</v>
-      </c>
-      <c r="M40" s="30">
-        <v>720</v>
-      </c>
-      <c r="N40" s="31">
-        <v>0</v>
+      <c r="L40" s="47">
+        <v>250</v>
+      </c>
+      <c r="M40" s="49">
+        <v>96</v>
+      </c>
+      <c r="N40" s="54">
+        <v>20</v>
       </c>
       <c r="O40" s="5">
         <v>0</v>
@@ -8371,792 +8461,792 @@
       <c r="AH40" s="5">
         <v>1</v>
       </c>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="11"/>
-      <c r="AN40" s="3"/>
-      <c r="AO40" s="3"/>
-      <c r="AP40" s="11"/>
-      <c r="AQ40" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR40" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS40" s="25" t="s">
-        <v>33</v>
+      <c r="AI40" s="50"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="52"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="51"/>
+      <c r="AP40" s="52"/>
+      <c r="AQ40" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR40" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS40" s="53" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="E41" s="40">
-        <v>5</v>
-      </c>
-      <c r="F41" s="40">
-        <v>2</v>
-      </c>
-      <c r="G41" s="40">
-        <v>0</v>
-      </c>
-      <c r="H41" s="40">
-        <v>12</v>
-      </c>
-      <c r="I41" s="40">
-        <v>0</v>
-      </c>
-      <c r="J41" s="40">
-        <v>0</v>
-      </c>
-      <c r="K41" s="40">
+      <c r="A41" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="46">
+        <v>1</v>
+      </c>
+      <c r="F41" s="47">
+        <v>1</v>
+      </c>
+      <c r="G41" s="47">
+        <v>0</v>
+      </c>
+      <c r="H41" s="47">
+        <v>72</v>
+      </c>
+      <c r="I41" s="47">
+        <v>0</v>
+      </c>
+      <c r="J41" s="48">
+        <v>0</v>
+      </c>
+      <c r="K41" s="48">
         <v>10</v>
       </c>
-      <c r="L41" s="40">
-        <v>80</v>
-      </c>
-      <c r="M41" s="29">
-        <v>100</v>
-      </c>
-      <c r="N41" s="29">
-        <v>10</v>
-      </c>
-      <c r="O41" s="19">
-        <v>0</v>
-      </c>
-      <c r="P41" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="19">
-        <v>0</v>
-      </c>
-      <c r="R41" s="19">
-        <v>0</v>
-      </c>
-      <c r="S41" s="19">
-        <v>0</v>
-      </c>
-      <c r="T41" s="19">
-        <v>0</v>
-      </c>
-      <c r="U41" s="19">
-        <v>0</v>
-      </c>
-      <c r="V41" s="19">
-        <v>0</v>
-      </c>
-      <c r="W41" s="19">
-        <v>0</v>
-      </c>
-      <c r="X41" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="18"/>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="18"/>
-      <c r="AL41" s="18"/>
-      <c r="AM41" s="20"/>
-      <c r="AN41" s="18"/>
-      <c r="AO41" s="18"/>
-      <c r="AP41" s="20"/>
-      <c r="AQ41" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR41" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS41" s="25" t="s">
-        <v>30</v>
+      <c r="L41" s="47">
+        <v>0</v>
+      </c>
+      <c r="M41" s="49">
+        <v>360</v>
+      </c>
+      <c r="N41" s="61">
+        <v>0</v>
+      </c>
+      <c r="O41" s="61">
+        <v>0</v>
+      </c>
+      <c r="P41" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="61">
+        <v>0</v>
+      </c>
+      <c r="R41" s="61">
+        <v>0</v>
+      </c>
+      <c r="S41" s="61">
+        <v>0</v>
+      </c>
+      <c r="T41" s="61">
+        <v>0</v>
+      </c>
+      <c r="U41" s="61">
+        <v>0</v>
+      </c>
+      <c r="V41" s="61">
+        <v>0</v>
+      </c>
+      <c r="W41" s="61">
+        <v>0</v>
+      </c>
+      <c r="X41" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="61">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="61">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="61">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="61">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="61">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="61">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="61">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="62">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="50"/>
+      <c r="AJ41" s="51"/>
+      <c r="AK41" s="51"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="52"/>
+      <c r="AN41" s="51"/>
+      <c r="AO41" s="51"/>
+      <c r="AP41" s="52"/>
+      <c r="AQ41" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR41" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS41" s="53" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:45">
-      <c r="A42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="24">
-        <v>1</v>
-      </c>
-      <c r="F42" s="24">
-        <v>1</v>
-      </c>
-      <c r="G42" s="24">
-        <v>0</v>
-      </c>
-      <c r="H42" s="24">
-        <v>4</v>
-      </c>
-      <c r="I42" s="24">
-        <v>0</v>
-      </c>
-      <c r="J42" s="38">
-        <v>1</v>
-      </c>
-      <c r="K42" s="38">
+      <c r="A42" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="46">
+        <v>1</v>
+      </c>
+      <c r="F42" s="47">
+        <v>1</v>
+      </c>
+      <c r="G42" s="47">
+        <v>0</v>
+      </c>
+      <c r="H42" s="47">
+        <v>12</v>
+      </c>
+      <c r="I42" s="47">
+        <v>0</v>
+      </c>
+      <c r="J42" s="55">
+        <v>0</v>
+      </c>
+      <c r="K42" s="55">
         <v>10</v>
       </c>
-      <c r="L42" s="24">
-        <v>30</v>
-      </c>
-      <c r="M42" s="30">
-        <v>16</v>
-      </c>
-      <c r="N42" s="31">
-        <v>5</v>
-      </c>
-      <c r="O42" s="5">
-        <v>0</v>
-      </c>
-      <c r="P42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="5">
-        <v>0</v>
-      </c>
-      <c r="R42" s="5">
-        <v>0</v>
-      </c>
-      <c r="S42" s="5">
-        <v>0</v>
-      </c>
-      <c r="T42" s="5">
-        <v>0</v>
-      </c>
-      <c r="U42" s="5">
-        <v>0</v>
-      </c>
-      <c r="V42" s="5">
-        <v>0</v>
-      </c>
-      <c r="W42" s="5">
-        <v>0</v>
-      </c>
-      <c r="X42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="3"/>
-      <c r="AL42" s="3"/>
-      <c r="AM42" s="11"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="3"/>
-      <c r="AP42" s="11"/>
-      <c r="AQ42" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR42" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS42" s="25" t="s">
-        <v>71</v>
+      <c r="L42" s="47">
+        <v>150</v>
+      </c>
+      <c r="M42" s="49">
+        <v>72</v>
+      </c>
+      <c r="N42" s="56">
+        <v>0</v>
+      </c>
+      <c r="O42" s="19">
+        <v>0</v>
+      </c>
+      <c r="P42" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>0</v>
+      </c>
+      <c r="R42" s="19">
+        <v>0</v>
+      </c>
+      <c r="S42" s="19">
+        <v>0</v>
+      </c>
+      <c r="T42" s="19">
+        <v>0</v>
+      </c>
+      <c r="U42" s="19">
+        <v>0</v>
+      </c>
+      <c r="V42" s="19">
+        <v>0</v>
+      </c>
+      <c r="W42" s="19">
+        <v>0</v>
+      </c>
+      <c r="X42" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="57"/>
+      <c r="AJ42" s="58"/>
+      <c r="AK42" s="58"/>
+      <c r="AL42" s="58"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="58"/>
+      <c r="AO42" s="58"/>
+      <c r="AP42" s="59"/>
+      <c r="AQ42" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR42" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS42" s="53" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:45">
-      <c r="A43" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="46">
-        <v>1</v>
-      </c>
-      <c r="F43" s="47">
-        <v>2</v>
-      </c>
-      <c r="G43" s="47">
-        <v>0</v>
-      </c>
-      <c r="H43" s="47">
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="24">
+        <v>1</v>
+      </c>
+      <c r="F43" s="24">
+        <v>1</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0</v>
+      </c>
+      <c r="H43" s="24">
         <v>4</v>
       </c>
-      <c r="I43" s="47">
-        <v>0</v>
-      </c>
-      <c r="J43" s="55">
-        <v>0</v>
-      </c>
-      <c r="K43" s="55">
+      <c r="I43" s="24">
+        <v>0</v>
+      </c>
+      <c r="J43" s="38">
+        <v>1</v>
+      </c>
+      <c r="K43" s="38">
         <v>10</v>
       </c>
-      <c r="L43" s="47">
-        <v>40</v>
-      </c>
-      <c r="M43" s="49">
-        <v>48</v>
-      </c>
-      <c r="N43" s="56">
-        <v>15</v>
-      </c>
-      <c r="O43" s="19">
-        <v>0</v>
-      </c>
-      <c r="P43" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="19">
-        <v>0</v>
-      </c>
-      <c r="R43" s="19">
-        <v>0</v>
-      </c>
-      <c r="S43" s="19">
-        <v>0</v>
-      </c>
-      <c r="T43" s="19">
-        <v>0</v>
-      </c>
-      <c r="U43" s="19">
-        <v>0</v>
-      </c>
-      <c r="V43" s="19">
-        <v>0</v>
-      </c>
-      <c r="W43" s="19">
-        <v>0</v>
-      </c>
-      <c r="X43" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="57"/>
-      <c r="AJ43" s="58"/>
-      <c r="AK43" s="58"/>
-      <c r="AL43" s="58"/>
-      <c r="AM43" s="59"/>
-      <c r="AN43" s="58"/>
-      <c r="AO43" s="58"/>
-      <c r="AP43" s="59"/>
-      <c r="AQ43" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR43" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS43" s="53" t="s">
-        <v>214</v>
+      <c r="L43" s="24">
+        <v>60</v>
+      </c>
+      <c r="M43" s="30">
+        <v>8</v>
+      </c>
+      <c r="N43" s="31">
+        <v>5</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0</v>
+      </c>
+      <c r="R43" s="5">
+        <v>0</v>
+      </c>
+      <c r="S43" s="5">
+        <v>0</v>
+      </c>
+      <c r="T43" s="5">
+        <v>0</v>
+      </c>
+      <c r="U43" s="5">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43" s="5">
+        <v>0</v>
+      </c>
+      <c r="X43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR43" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS43" s="25" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:45">
-      <c r="A44" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="B44" s="44" t="s">
+      <c r="A44" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="40">
+        <v>3</v>
+      </c>
+      <c r="F44" s="40">
+        <v>3</v>
+      </c>
+      <c r="G44" s="40">
+        <v>0</v>
+      </c>
+      <c r="H44" s="40">
+        <v>4</v>
+      </c>
+      <c r="I44" s="40">
+        <v>0</v>
+      </c>
+      <c r="J44" s="40">
+        <v>0</v>
+      </c>
+      <c r="K44" s="40">
+        <v>10</v>
+      </c>
+      <c r="L44" s="40">
         <v>70</v>
       </c>
-      <c r="C44" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="46">
-        <v>1</v>
-      </c>
-      <c r="F44" s="47">
-        <v>1</v>
-      </c>
-      <c r="G44" s="47">
-        <v>0</v>
-      </c>
-      <c r="H44" s="47">
-        <v>4</v>
-      </c>
-      <c r="I44" s="47">
-        <v>0</v>
-      </c>
-      <c r="J44" s="48">
-        <v>0</v>
-      </c>
-      <c r="K44" s="48">
-        <v>10</v>
-      </c>
-      <c r="L44" s="47">
-        <v>80</v>
-      </c>
-      <c r="M44" s="49">
-        <v>120</v>
-      </c>
-      <c r="N44" s="54">
-        <v>0</v>
-      </c>
-      <c r="O44" s="5">
-        <v>0</v>
-      </c>
-      <c r="P44" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="5">
-        <v>0</v>
-      </c>
-      <c r="R44" s="5">
-        <v>0</v>
-      </c>
-      <c r="S44" s="5">
-        <v>48</v>
-      </c>
-      <c r="T44" s="5">
-        <v>0</v>
-      </c>
-      <c r="U44" s="5">
-        <v>0</v>
-      </c>
-      <c r="V44" s="5">
-        <v>0</v>
-      </c>
-      <c r="W44" s="5">
-        <v>0</v>
-      </c>
-      <c r="X44" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="50"/>
-      <c r="AJ44" s="51"/>
-      <c r="AK44" s="51"/>
-      <c r="AL44" s="51"/>
-      <c r="AM44" s="52"/>
-      <c r="AN44" s="51"/>
-      <c r="AO44" s="51"/>
-      <c r="AP44" s="52"/>
-      <c r="AQ44" s="51" t="s">
+      <c r="M44" s="29">
+        <v>720</v>
+      </c>
+      <c r="N44" s="29">
+        <v>0</v>
+      </c>
+      <c r="O44" s="19">
+        <v>0</v>
+      </c>
+      <c r="P44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>0</v>
+      </c>
+      <c r="R44" s="19">
+        <v>0</v>
+      </c>
+      <c r="S44" s="19">
+        <v>0</v>
+      </c>
+      <c r="T44" s="19">
+        <v>0</v>
+      </c>
+      <c r="U44" s="19">
+        <v>0</v>
+      </c>
+      <c r="V44" s="19">
+        <v>0</v>
+      </c>
+      <c r="W44" s="19">
+        <v>0</v>
+      </c>
+      <c r="X44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="18"/>
+      <c r="AK44" s="18"/>
+      <c r="AL44" s="18"/>
+      <c r="AM44" s="20"/>
+      <c r="AN44" s="18"/>
+      <c r="AO44" s="18"/>
+      <c r="AP44" s="20"/>
+      <c r="AQ44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AR44" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS44" s="53" t="s">
-        <v>215</v>
+      <c r="AR44" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS44" s="25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:45">
-      <c r="A45" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="46">
-        <v>1</v>
-      </c>
-      <c r="F45" s="47">
-        <v>2</v>
-      </c>
-      <c r="G45" s="47">
-        <v>0</v>
-      </c>
-      <c r="H45" s="47">
-        <v>4</v>
-      </c>
-      <c r="I45" s="47">
-        <v>0</v>
-      </c>
-      <c r="J45" s="55">
-        <v>0</v>
-      </c>
-      <c r="K45" s="55">
+      <c r="A45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="24">
+        <v>3</v>
+      </c>
+      <c r="F45" s="24">
+        <v>1</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0</v>
+      </c>
+      <c r="H45" s="24">
+        <v>72</v>
+      </c>
+      <c r="I45" s="24">
+        <v>0</v>
+      </c>
+      <c r="J45" s="38">
+        <v>0</v>
+      </c>
+      <c r="K45" s="38">
         <v>10</v>
       </c>
-      <c r="L45" s="47">
-        <v>150</v>
-      </c>
-      <c r="M45" s="49">
-        <v>120</v>
-      </c>
-      <c r="N45" s="56">
-        <v>0</v>
-      </c>
-      <c r="O45" s="19">
-        <v>0</v>
-      </c>
-      <c r="P45" s="19">
-        <v>48</v>
-      </c>
-      <c r="Q45" s="19">
-        <v>0</v>
-      </c>
-      <c r="R45" s="19">
-        <v>0</v>
-      </c>
-      <c r="S45" s="19">
-        <v>0</v>
-      </c>
-      <c r="T45" s="19">
-        <v>0</v>
-      </c>
-      <c r="U45" s="19">
-        <v>0</v>
-      </c>
-      <c r="V45" s="19">
-        <v>0</v>
-      </c>
-      <c r="W45" s="19">
-        <v>0</v>
-      </c>
-      <c r="X45" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="57"/>
-      <c r="AJ45" s="58"/>
-      <c r="AK45" s="58"/>
-      <c r="AL45" s="58"/>
-      <c r="AM45" s="59"/>
-      <c r="AN45" s="58"/>
-      <c r="AO45" s="58"/>
-      <c r="AP45" s="59"/>
-      <c r="AQ45" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR45" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS45" s="53" t="s">
-        <v>216</v>
+      <c r="L45" s="24">
+        <v>50</v>
+      </c>
+      <c r="M45" s="30">
+        <v>720</v>
+      </c>
+      <c r="N45" s="31">
+        <v>0</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>0</v>
+      </c>
+      <c r="R45" s="5">
+        <v>0</v>
+      </c>
+      <c r="S45" s="5">
+        <v>0</v>
+      </c>
+      <c r="T45" s="5">
+        <v>0</v>
+      </c>
+      <c r="U45" s="5">
+        <v>0</v>
+      </c>
+      <c r="V45" s="5">
+        <v>0</v>
+      </c>
+      <c r="W45" s="5">
+        <v>0</v>
+      </c>
+      <c r="X45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="11"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR45" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS45" s="25" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:45">
-      <c r="A46" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" s="38">
-        <v>0</v>
-      </c>
-      <c r="F46" s="38">
-        <v>0</v>
-      </c>
-      <c r="G46" s="38">
-        <v>0</v>
-      </c>
-      <c r="H46" s="38">
-        <v>0</v>
-      </c>
-      <c r="I46" s="38">
-        <v>0</v>
-      </c>
-      <c r="J46" s="38">
-        <v>1</v>
-      </c>
-      <c r="K46" s="38">
-        <v>1</v>
-      </c>
-      <c r="L46" s="38">
-        <v>0</v>
-      </c>
-      <c r="M46" s="31">
-        <v>0</v>
-      </c>
-      <c r="N46" s="31">
-        <v>0</v>
-      </c>
-      <c r="O46" s="5">
-        <v>0</v>
-      </c>
-      <c r="P46" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="5">
-        <v>0</v>
-      </c>
-      <c r="R46" s="5">
-        <v>0</v>
-      </c>
-      <c r="S46" s="5">
-        <v>0</v>
-      </c>
-      <c r="T46" s="5">
-        <v>0</v>
-      </c>
-      <c r="U46" s="5">
-        <v>0</v>
-      </c>
-      <c r="V46" s="5">
-        <v>0</v>
-      </c>
-      <c r="W46" s="5">
-        <v>0</v>
-      </c>
-      <c r="X46" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI46" s="3"/>
-      <c r="AJ46" s="3"/>
-      <c r="AK46" s="3"/>
-      <c r="AL46" s="3"/>
-      <c r="AM46" s="11"/>
-      <c r="AN46" s="3"/>
-      <c r="AO46" s="3"/>
-      <c r="AP46" s="11"/>
+      <c r="A46" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E46" s="40">
+        <v>5</v>
+      </c>
+      <c r="F46" s="40">
+        <v>2</v>
+      </c>
+      <c r="G46" s="40">
+        <v>0</v>
+      </c>
+      <c r="H46" s="40">
+        <v>12</v>
+      </c>
+      <c r="I46" s="40">
+        <v>0</v>
+      </c>
+      <c r="J46" s="40">
+        <v>0</v>
+      </c>
+      <c r="K46" s="40">
+        <v>10</v>
+      </c>
+      <c r="L46" s="40">
+        <v>80</v>
+      </c>
+      <c r="M46" s="29">
+        <v>100</v>
+      </c>
+      <c r="N46" s="29">
+        <v>10</v>
+      </c>
+      <c r="O46" s="19">
+        <v>0</v>
+      </c>
+      <c r="P46" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>0</v>
+      </c>
+      <c r="R46" s="19">
+        <v>0</v>
+      </c>
+      <c r="S46" s="19">
+        <v>0</v>
+      </c>
+      <c r="T46" s="19">
+        <v>0</v>
+      </c>
+      <c r="U46" s="19">
+        <v>0</v>
+      </c>
+      <c r="V46" s="19">
+        <v>0</v>
+      </c>
+      <c r="W46" s="19">
+        <v>0</v>
+      </c>
+      <c r="X46" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="18"/>
+      <c r="AJ46" s="18"/>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="18"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="18"/>
+      <c r="AO46" s="18"/>
+      <c r="AP46" s="20"/>
       <c r="AQ46" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR46" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS46" s="25" t="s">
-        <v>133</v>
+        <v>138</v>
+      </c>
+      <c r="AS46" s="42" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:45">
-      <c r="A47" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="38">
-        <v>1</v>
-      </c>
-      <c r="F47" s="38">
-        <v>2</v>
-      </c>
-      <c r="G47" s="38">
-        <v>0</v>
-      </c>
-      <c r="H47" s="38">
-        <v>12</v>
-      </c>
-      <c r="I47" s="38">
+      <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="24">
+        <v>1</v>
+      </c>
+      <c r="F47" s="24">
+        <v>1</v>
+      </c>
+      <c r="G47" s="24">
+        <v>0</v>
+      </c>
+      <c r="H47" s="24">
+        <v>4</v>
+      </c>
+      <c r="I47" s="24">
         <v>0</v>
       </c>
       <c r="J47" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="38">
         <v>10</v>
       </c>
-      <c r="L47" s="38">
-        <v>800</v>
-      </c>
-      <c r="M47" s="31">
-        <v>12</v>
+      <c r="L47" s="24">
+        <v>30</v>
+      </c>
+      <c r="M47" s="30">
+        <v>16</v>
       </c>
       <c r="N47" s="31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O47" s="5">
         <v>0</v>
@@ -9227,178 +9317,178 @@
       <c r="AO47" s="3"/>
       <c r="AP47" s="11"/>
       <c r="AQ47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR47" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS47" s="25" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:45">
-      <c r="A48" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="38">
+      <c r="A48" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="46">
+        <v>1</v>
+      </c>
+      <c r="F48" s="47">
+        <v>2</v>
+      </c>
+      <c r="G48" s="47">
+        <v>0</v>
+      </c>
+      <c r="H48" s="47">
+        <v>4</v>
+      </c>
+      <c r="I48" s="47">
+        <v>0</v>
+      </c>
+      <c r="J48" s="55">
+        <v>0</v>
+      </c>
+      <c r="K48" s="55">
         <v>10</v>
       </c>
-      <c r="F48" s="38">
-        <v>4</v>
-      </c>
-      <c r="G48" s="38">
-        <v>0</v>
-      </c>
-      <c r="H48" s="38">
-        <v>1</v>
-      </c>
-      <c r="I48" s="38">
-        <v>0</v>
-      </c>
-      <c r="J48" s="38">
-        <v>0</v>
-      </c>
-      <c r="K48" s="38">
-        <v>10</v>
-      </c>
-      <c r="L48" s="38">
-        <v>100</v>
-      </c>
-      <c r="M48" s="31">
-        <v>64</v>
-      </c>
-      <c r="N48" s="31">
+      <c r="L48" s="47">
+        <v>40</v>
+      </c>
+      <c r="M48" s="49">
+        <v>48</v>
+      </c>
+      <c r="N48" s="56">
         <v>15</v>
       </c>
-      <c r="O48" s="5">
-        <v>0</v>
-      </c>
-      <c r="P48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="5">
-        <v>0</v>
-      </c>
-      <c r="R48" s="5">
-        <v>0</v>
-      </c>
-      <c r="S48" s="5">
-        <v>0</v>
-      </c>
-      <c r="T48" s="5">
-        <v>0</v>
-      </c>
-      <c r="U48" s="5">
-        <v>0</v>
-      </c>
-      <c r="V48" s="5">
-        <v>0</v>
-      </c>
-      <c r="W48" s="5">
-        <v>0</v>
-      </c>
-      <c r="X48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="11"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="11"/>
-      <c r="AQ48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR48" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS48" s="25" t="s">
-        <v>128</v>
+      <c r="O48" s="19">
+        <v>0</v>
+      </c>
+      <c r="P48" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="19">
+        <v>0</v>
+      </c>
+      <c r="R48" s="19">
+        <v>0</v>
+      </c>
+      <c r="S48" s="19">
+        <v>0</v>
+      </c>
+      <c r="T48" s="19">
+        <v>0</v>
+      </c>
+      <c r="U48" s="19">
+        <v>0</v>
+      </c>
+      <c r="V48" s="19">
+        <v>0</v>
+      </c>
+      <c r="W48" s="19">
+        <v>0</v>
+      </c>
+      <c r="X48" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="57"/>
+      <c r="AJ48" s="58"/>
+      <c r="AK48" s="58"/>
+      <c r="AL48" s="58"/>
+      <c r="AM48" s="59"/>
+      <c r="AN48" s="58"/>
+      <c r="AO48" s="58"/>
+      <c r="AP48" s="59"/>
+      <c r="AQ48" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR48" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS48" s="53" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:45">
-      <c r="A49" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="38">
+      <c r="A49" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="46">
+        <v>1</v>
+      </c>
+      <c r="F49" s="47">
+        <v>1</v>
+      </c>
+      <c r="G49" s="47">
+        <v>0</v>
+      </c>
+      <c r="H49" s="47">
+        <v>4</v>
+      </c>
+      <c r="I49" s="47">
+        <v>0</v>
+      </c>
+      <c r="J49" s="48">
+        <v>0</v>
+      </c>
+      <c r="K49" s="48">
         <v>10</v>
       </c>
-      <c r="F49" s="38">
-        <v>4</v>
-      </c>
-      <c r="G49" s="38">
-        <v>0</v>
-      </c>
-      <c r="H49" s="38">
-        <v>1</v>
-      </c>
-      <c r="I49" s="38">
-        <v>0</v>
-      </c>
-      <c r="J49" s="38">
-        <v>1</v>
-      </c>
-      <c r="K49" s="38">
-        <v>10</v>
-      </c>
-      <c r="L49" s="38">
-        <v>300</v>
-      </c>
-      <c r="M49" s="31">
-        <v>16</v>
-      </c>
-      <c r="N49" s="31">
-        <v>2</v>
+      <c r="L49" s="47">
+        <v>80</v>
+      </c>
+      <c r="M49" s="49">
+        <v>120</v>
+      </c>
+      <c r="N49" s="54">
+        <v>0</v>
       </c>
       <c r="O49" s="5">
         <v>0</v>
@@ -9413,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="5">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="T49" s="5">
         <v>0</v>
@@ -9460,187 +9550,187 @@
       <c r="AH49" s="5">
         <v>1</v>
       </c>
-      <c r="AI49" s="3"/>
-      <c r="AJ49" s="3"/>
-      <c r="AK49" s="3"/>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="11"/>
-      <c r="AN49" s="3"/>
-      <c r="AO49" s="3"/>
-      <c r="AP49" s="11"/>
-      <c r="AQ49" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR49" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS49" s="42" t="s">
-        <v>221</v>
+      <c r="AI49" s="50"/>
+      <c r="AJ49" s="51"/>
+      <c r="AK49" s="51"/>
+      <c r="AL49" s="51"/>
+      <c r="AM49" s="52"/>
+      <c r="AN49" s="51"/>
+      <c r="AO49" s="51"/>
+      <c r="AP49" s="52"/>
+      <c r="AQ49" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR49" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS49" s="53" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:45">
-      <c r="A50" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="38">
-        <v>3</v>
-      </c>
-      <c r="F50" s="38">
-        <v>1</v>
-      </c>
-      <c r="G50" s="38">
-        <v>0</v>
-      </c>
-      <c r="H50" s="38">
-        <v>16</v>
-      </c>
-      <c r="I50" s="38">
-        <v>0</v>
-      </c>
-      <c r="J50" s="38">
-        <v>0</v>
-      </c>
-      <c r="K50" s="38">
+      <c r="A50" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="46">
+        <v>1</v>
+      </c>
+      <c r="F50" s="47">
+        <v>2</v>
+      </c>
+      <c r="G50" s="47">
+        <v>0</v>
+      </c>
+      <c r="H50" s="47">
+        <v>4</v>
+      </c>
+      <c r="I50" s="47">
+        <v>0</v>
+      </c>
+      <c r="J50" s="55">
+        <v>0</v>
+      </c>
+      <c r="K50" s="55">
         <v>10</v>
       </c>
-      <c r="L50" s="38">
-        <v>100</v>
-      </c>
-      <c r="M50" s="31">
-        <v>72</v>
-      </c>
-      <c r="N50" s="31">
-        <v>25</v>
-      </c>
-      <c r="O50" s="5">
-        <v>0</v>
-      </c>
-      <c r="P50" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="5">
-        <v>0</v>
-      </c>
-      <c r="R50" s="5">
-        <v>0</v>
-      </c>
-      <c r="S50" s="5">
-        <v>0</v>
-      </c>
-      <c r="T50" s="5">
-        <v>0</v>
-      </c>
-      <c r="U50" s="5">
-        <v>0</v>
-      </c>
-      <c r="V50" s="5">
-        <v>0</v>
-      </c>
-      <c r="W50" s="5">
-        <v>0</v>
-      </c>
-      <c r="X50" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="5">
-        <v>1</v>
-      </c>
-      <c r="AI50" s="3"/>
-      <c r="AJ50" s="3"/>
-      <c r="AK50" s="3"/>
-      <c r="AL50" s="3"/>
-      <c r="AM50" s="11"/>
-      <c r="AN50" s="3"/>
-      <c r="AO50" s="3"/>
-      <c r="AP50" s="11"/>
-      <c r="AQ50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR50" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS50" s="25" t="s">
-        <v>197</v>
+      <c r="L50" s="47">
+        <v>150</v>
+      </c>
+      <c r="M50" s="49">
+        <v>120</v>
+      </c>
+      <c r="N50" s="56">
+        <v>0</v>
+      </c>
+      <c r="O50" s="19">
+        <v>0</v>
+      </c>
+      <c r="P50" s="19">
+        <v>48</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>0</v>
+      </c>
+      <c r="R50" s="19">
+        <v>0</v>
+      </c>
+      <c r="S50" s="19">
+        <v>0</v>
+      </c>
+      <c r="T50" s="19">
+        <v>0</v>
+      </c>
+      <c r="U50" s="19">
+        <v>0</v>
+      </c>
+      <c r="V50" s="19">
+        <v>0</v>
+      </c>
+      <c r="W50" s="19">
+        <v>0</v>
+      </c>
+      <c r="X50" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="57"/>
+      <c r="AJ50" s="58"/>
+      <c r="AK50" s="58"/>
+      <c r="AL50" s="58"/>
+      <c r="AM50" s="59"/>
+      <c r="AN50" s="58"/>
+      <c r="AO50" s="58"/>
+      <c r="AP50" s="59"/>
+      <c r="AQ50" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR50" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS50" s="53" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:45">
       <c r="A51" s="3" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E51" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" s="38">
         <v>0</v>
       </c>
       <c r="H51" s="38">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I51" s="38">
         <v>0</v>
       </c>
       <c r="J51" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L51" s="38">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M51" s="31">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N51" s="31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O51" s="5">
         <v>0</v>
@@ -9714,30 +9804,30 @@
         <v>100</v>
       </c>
       <c r="AR51" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS51" s="25" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:45">
       <c r="A52" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E52" s="38">
         <v>1</v>
       </c>
       <c r="F52" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="38">
         <v>0</v>
@@ -9755,13 +9845,13 @@
         <v>10</v>
       </c>
       <c r="L52" s="38">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="M52" s="31">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="N52" s="31">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="O52" s="5">
         <v>0</v>
@@ -9823,9 +9913,7 @@
       <c r="AH52" s="5">
         <v>1</v>
       </c>
-      <c r="AI52" s="3">
-        <v>1</v>
-      </c>
+      <c r="AI52" s="3"/>
       <c r="AJ52" s="3"/>
       <c r="AK52" s="3"/>
       <c r="AL52" s="3"/>
@@ -9834,57 +9922,57 @@
       <c r="AO52" s="3"/>
       <c r="AP52" s="11"/>
       <c r="AQ52" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AR52" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AS52" s="25" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:45">
-      <c r="A53" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="A53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E53" s="24">
-        <v>1</v>
-      </c>
-      <c r="F53" s="24">
-        <v>1</v>
-      </c>
-      <c r="G53" s="24">
-        <v>20</v>
-      </c>
-      <c r="H53" s="24">
-        <v>12</v>
-      </c>
-      <c r="I53" s="24">
+      <c r="E53" s="38">
+        <v>10</v>
+      </c>
+      <c r="F53" s="38">
+        <v>4</v>
+      </c>
+      <c r="G53" s="38">
+        <v>0</v>
+      </c>
+      <c r="H53" s="38">
+        <v>1</v>
+      </c>
+      <c r="I53" s="38">
         <v>0</v>
       </c>
       <c r="J53" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="38">
-        <v>1</v>
-      </c>
-      <c r="L53" s="24">
-        <v>0</v>
-      </c>
-      <c r="M53" s="30">
-        <v>720</v>
+        <v>10</v>
+      </c>
+      <c r="L53" s="38">
+        <v>100</v>
+      </c>
+      <c r="M53" s="31">
+        <v>64</v>
       </c>
       <c r="N53" s="31">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O53" s="5">
         <v>0</v>
@@ -9954,40 +10042,40 @@
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="11"/>
-      <c r="AQ53" s="43" t="s">
-        <v>140</v>
+      <c r="AQ53" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="AR53" s="43" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="AS53" s="25" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:45">
       <c r="A54" s="3" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>169</v>
+        <v>113</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>215</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E54" s="38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F54" s="38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G54" s="38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H54" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="38">
         <v>0</v>
@@ -9996,16 +10084,16 @@
         <v>1</v>
       </c>
       <c r="K54" s="38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L54" s="38">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M54" s="31">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N54" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O54" s="5">
         <v>0</v>
@@ -10076,55 +10164,57 @@
       <c r="AO54" s="3"/>
       <c r="AP54" s="11"/>
       <c r="AQ54" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR54" s="3"/>
-      <c r="AS54" s="25" t="s">
-        <v>202</v>
+        <v>99</v>
+      </c>
+      <c r="AR54" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS54" s="42" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:45">
-      <c r="A55" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="A55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="24">
-        <v>0</v>
-      </c>
-      <c r="F55" s="24">
-        <v>0</v>
-      </c>
-      <c r="G55" s="24">
-        <v>5</v>
-      </c>
-      <c r="H55" s="24">
-        <v>0</v>
-      </c>
-      <c r="I55" s="24">
+      <c r="E55" s="38">
+        <v>3</v>
+      </c>
+      <c r="F55" s="38">
+        <v>1</v>
+      </c>
+      <c r="G55" s="38">
+        <v>0</v>
+      </c>
+      <c r="H55" s="38">
+        <v>16</v>
+      </c>
+      <c r="I55" s="38">
         <v>0</v>
       </c>
       <c r="J55" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="38">
-        <v>1</v>
-      </c>
-      <c r="L55" s="24">
-        <v>0</v>
-      </c>
-      <c r="M55" s="30">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="L55" s="38">
+        <v>100</v>
+      </c>
+      <c r="M55" s="31">
+        <v>72</v>
       </c>
       <c r="N55" s="31">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O55" s="5">
         <v>0</v>
@@ -10195,55 +10285,57 @@
       <c r="AO55" s="3"/>
       <c r="AP55" s="11"/>
       <c r="AQ55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AR55" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="AR55" s="43" t="s">
+        <v>138</v>
+      </c>
       <c r="AS55" s="25" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:45">
-      <c r="A56" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E56" s="24">
-        <v>0</v>
-      </c>
-      <c r="F56" s="24">
-        <v>0</v>
-      </c>
-      <c r="G56" s="24">
-        <v>30</v>
-      </c>
-      <c r="H56" s="24">
-        <v>0</v>
-      </c>
-      <c r="I56" s="24">
+      <c r="A56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="38">
+        <v>1</v>
+      </c>
+      <c r="F56" s="38">
+        <v>2</v>
+      </c>
+      <c r="G56" s="38">
+        <v>0</v>
+      </c>
+      <c r="H56" s="38">
+        <v>12</v>
+      </c>
+      <c r="I56" s="38">
         <v>0</v>
       </c>
       <c r="J56" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="38">
-        <v>1</v>
-      </c>
-      <c r="L56" s="24">
-        <v>0</v>
-      </c>
-      <c r="M56" s="30">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="L56" s="38">
+        <v>50</v>
+      </c>
+      <c r="M56" s="31">
+        <v>48</v>
       </c>
       <c r="N56" s="31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O56" s="5">
         <v>0</v>
@@ -10314,55 +10406,57 @@
       <c r="AO56" s="3"/>
       <c r="AP56" s="11"/>
       <c r="AQ56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR56" s="3"/>
-      <c r="AS56" s="42" t="s">
-        <v>208</v>
+        <v>99</v>
+      </c>
+      <c r="AR56" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS56" s="25" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:45">
       <c r="A57" s="3" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="38">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H57" s="38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I57" s="38">
         <v>0</v>
       </c>
       <c r="J57" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="38">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L57" s="38">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M57" s="31">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N57" s="31">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O57" s="5">
         <v>0</v>
@@ -10424,7 +10518,9 @@
       <c r="AH57" s="5">
         <v>1</v>
       </c>
-      <c r="AI57" s="3"/>
+      <c r="AI57" s="3">
+        <v>1</v>
+      </c>
       <c r="AJ57" s="3"/>
       <c r="AK57" s="3"/>
       <c r="AL57" s="3"/>
@@ -10433,34 +10529,36 @@
       <c r="AO57" s="3"/>
       <c r="AP57" s="11"/>
       <c r="AQ57" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR57" s="3"/>
-      <c r="AS57" s="42" t="s">
-        <v>209</v>
+        <v>99</v>
+      </c>
+      <c r="AR57" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS57" s="25" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:45">
       <c r="A58" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E58" s="24">
         <v>1</v>
       </c>
       <c r="F58" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="24">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H58" s="24">
         <v>12</v>
@@ -10475,13 +10573,13 @@
         <v>1</v>
       </c>
       <c r="L58" s="24">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M58" s="30">
-        <v>48</v>
+        <v>720</v>
       </c>
       <c r="N58" s="31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O58" s="5">
         <v>0</v>
@@ -10551,131 +10649,847 @@
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
       <c r="AP58" s="11"/>
-      <c r="AQ58" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR58" s="3"/>
+      <c r="AQ58" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR58" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="AS58" s="25" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:45">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="38">
+        <v>0</v>
+      </c>
+      <c r="F59" s="38">
+        <v>0</v>
+      </c>
+      <c r="G59" s="38">
+        <v>5</v>
+      </c>
+      <c r="H59" s="38">
+        <v>0</v>
+      </c>
+      <c r="I59" s="38">
+        <v>0</v>
+      </c>
+      <c r="J59" s="38">
+        <v>1</v>
+      </c>
+      <c r="K59" s="38">
+        <v>1</v>
+      </c>
+      <c r="L59" s="38">
+        <v>0</v>
+      </c>
+      <c r="M59" s="31">
+        <v>0</v>
+      </c>
+      <c r="N59" s="31">
+        <v>0</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>0</v>
+      </c>
+      <c r="R59" s="5">
+        <v>0</v>
+      </c>
+      <c r="S59" s="5">
+        <v>0</v>
+      </c>
+      <c r="T59" s="5">
+        <v>0</v>
+      </c>
+      <c r="U59" s="5">
+        <v>0</v>
+      </c>
+      <c r="V59" s="5">
+        <v>0</v>
+      </c>
+      <c r="W59" s="5">
+        <v>0</v>
+      </c>
+      <c r="X59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH59" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="3"/>
+      <c r="AO59" s="3"/>
+      <c r="AP59" s="11"/>
+      <c r="AQ59" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR59" s="3"/>
+      <c r="AS59" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45">
+      <c r="A60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="24">
+        <v>0</v>
+      </c>
+      <c r="F60" s="24">
+        <v>0</v>
+      </c>
+      <c r="G60" s="24">
+        <v>5</v>
+      </c>
+      <c r="H60" s="24">
+        <v>0</v>
+      </c>
+      <c r="I60" s="24">
+        <v>0</v>
+      </c>
+      <c r="J60" s="38">
+        <v>1</v>
+      </c>
+      <c r="K60" s="38">
+        <v>1</v>
+      </c>
+      <c r="L60" s="24">
+        <v>0</v>
+      </c>
+      <c r="M60" s="30">
+        <v>0</v>
+      </c>
+      <c r="N60" s="31">
+        <v>0</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>0</v>
+      </c>
+      <c r="R60" s="5">
+        <v>0</v>
+      </c>
+      <c r="S60" s="5">
+        <v>0</v>
+      </c>
+      <c r="T60" s="5">
+        <v>0</v>
+      </c>
+      <c r="U60" s="5">
+        <v>0</v>
+      </c>
+      <c r="V60" s="5">
+        <v>0</v>
+      </c>
+      <c r="W60" s="5">
+        <v>0</v>
+      </c>
+      <c r="X60" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="3"/>
+      <c r="AJ60" s="3"/>
+      <c r="AK60" s="3"/>
+      <c r="AL60" s="3"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="3"/>
+      <c r="AO60" s="3"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR60" s="3"/>
+      <c r="AS60" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45">
+      <c r="A61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="24">
+        <v>0</v>
+      </c>
+      <c r="F61" s="24">
+        <v>0</v>
+      </c>
+      <c r="G61" s="24">
+        <v>30</v>
+      </c>
+      <c r="H61" s="24">
+        <v>0</v>
+      </c>
+      <c r="I61" s="24">
+        <v>0</v>
+      </c>
+      <c r="J61" s="38">
+        <v>1</v>
+      </c>
+      <c r="K61" s="38">
+        <v>1</v>
+      </c>
+      <c r="L61" s="24">
+        <v>0</v>
+      </c>
+      <c r="M61" s="30">
+        <v>0</v>
+      </c>
+      <c r="N61" s="31">
+        <v>0</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>0</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0</v>
+      </c>
+      <c r="S61" s="5">
+        <v>0</v>
+      </c>
+      <c r="T61" s="5">
+        <v>0</v>
+      </c>
+      <c r="U61" s="5">
+        <v>0</v>
+      </c>
+      <c r="V61" s="5">
+        <v>0</v>
+      </c>
+      <c r="W61" s="5">
+        <v>0</v>
+      </c>
+      <c r="X61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH61" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI61" s="3"/>
+      <c r="AJ61" s="3"/>
+      <c r="AK61" s="3"/>
+      <c r="AL61" s="3"/>
+      <c r="AM61" s="11"/>
+      <c r="AN61" s="3"/>
+      <c r="AO61" s="3"/>
+      <c r="AP61" s="11"/>
+      <c r="AQ61" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR61" s="3"/>
+      <c r="AS61" s="42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45">
+      <c r="A62" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="38">
+        <v>0</v>
+      </c>
+      <c r="F62" s="38">
+        <v>0</v>
+      </c>
+      <c r="G62" s="38">
+        <v>60</v>
+      </c>
+      <c r="H62" s="38">
+        <v>0</v>
+      </c>
+      <c r="I62" s="38">
+        <v>0</v>
+      </c>
+      <c r="J62" s="38">
+        <v>1</v>
+      </c>
+      <c r="K62" s="38">
+        <v>1</v>
+      </c>
+      <c r="L62" s="38">
+        <v>0</v>
+      </c>
+      <c r="M62" s="31">
+        <v>0</v>
+      </c>
+      <c r="N62" s="31">
+        <v>0</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>0</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0</v>
+      </c>
+      <c r="S62" s="5">
+        <v>0</v>
+      </c>
+      <c r="T62" s="5">
+        <v>0</v>
+      </c>
+      <c r="U62" s="5">
+        <v>0</v>
+      </c>
+      <c r="V62" s="5">
+        <v>0</v>
+      </c>
+      <c r="W62" s="5">
+        <v>0</v>
+      </c>
+      <c r="X62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI62" s="3"/>
+      <c r="AJ62" s="3"/>
+      <c r="AK62" s="3"/>
+      <c r="AL62" s="3"/>
+      <c r="AM62" s="11"/>
+      <c r="AN62" s="3"/>
+      <c r="AO62" s="3"/>
+      <c r="AP62" s="11"/>
+      <c r="AQ62" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR62" s="3"/>
+      <c r="AS62" s="42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45">
+      <c r="A63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="24">
+        <v>1</v>
+      </c>
+      <c r="F63" s="24">
+        <v>2</v>
+      </c>
+      <c r="G63" s="24">
+        <v>0</v>
+      </c>
+      <c r="H63" s="24">
+        <v>12</v>
+      </c>
+      <c r="I63" s="24">
+        <v>0</v>
+      </c>
+      <c r="J63" s="38">
+        <v>1</v>
+      </c>
+      <c r="K63" s="38">
+        <v>1</v>
+      </c>
+      <c r="L63" s="24">
+        <v>400</v>
+      </c>
+      <c r="M63" s="30">
+        <v>48</v>
+      </c>
+      <c r="N63" s="31">
+        <v>20</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>0</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0</v>
+      </c>
+      <c r="S63" s="5">
+        <v>0</v>
+      </c>
+      <c r="T63" s="5">
+        <v>0</v>
+      </c>
+      <c r="U63" s="5">
+        <v>0</v>
+      </c>
+      <c r="V63" s="5">
+        <v>0</v>
+      </c>
+      <c r="W63" s="5">
+        <v>0</v>
+      </c>
+      <c r="X63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI63" s="3"/>
+      <c r="AJ63" s="3"/>
+      <c r="AK63" s="3"/>
+      <c r="AL63" s="3"/>
+      <c r="AM63" s="11"/>
+      <c r="AN63" s="3"/>
+      <c r="AO63" s="3"/>
+      <c r="AP63" s="11"/>
+      <c r="AQ63" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR63" s="3"/>
+      <c r="AS63" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="4" t="s">
+    </row>
+    <row r="64" spans="1:45">
+      <c r="A64" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E59" s="41">
-        <v>1</v>
-      </c>
-      <c r="F59" s="41">
+      <c r="B64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="41">
+        <v>1</v>
+      </c>
+      <c r="F64" s="41">
         <v>2</v>
       </c>
-      <c r="G59" s="41">
-        <v>0</v>
-      </c>
-      <c r="H59" s="41">
+      <c r="G64" s="41">
+        <v>0</v>
+      </c>
+      <c r="H64" s="41">
         <v>12</v>
       </c>
-      <c r="I59" s="41">
-        <v>0</v>
-      </c>
-      <c r="J59" s="41">
-        <v>1</v>
-      </c>
-      <c r="K59" s="41">
-        <v>1</v>
-      </c>
-      <c r="L59" s="41">
+      <c r="I64" s="41">
+        <v>0</v>
+      </c>
+      <c r="J64" s="41">
+        <v>1</v>
+      </c>
+      <c r="K64" s="41">
+        <v>1</v>
+      </c>
+      <c r="L64" s="41">
         <v>400</v>
       </c>
-      <c r="M59" s="32">
+      <c r="M64" s="32">
         <v>48</v>
       </c>
-      <c r="N59" s="32">
+      <c r="N64" s="32">
         <v>40</v>
       </c>
-      <c r="O59" s="5">
-        <v>0</v>
-      </c>
-      <c r="P59" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="5">
-        <v>0</v>
-      </c>
-      <c r="R59" s="5">
-        <v>0</v>
-      </c>
-      <c r="S59" s="5">
-        <v>0</v>
-      </c>
-      <c r="T59" s="5">
-        <v>0</v>
-      </c>
-      <c r="U59" s="5">
-        <v>0</v>
-      </c>
-      <c r="V59" s="5">
-        <v>0</v>
-      </c>
-      <c r="W59" s="5">
-        <v>0</v>
-      </c>
-      <c r="X59" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG59" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH59" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
-      <c r="AK59" s="4"/>
-      <c r="AL59" s="4"/>
-      <c r="AM59" s="12"/>
-      <c r="AN59" s="4"/>
-      <c r="AO59" s="4"/>
-      <c r="AP59" s="12"/>
-      <c r="AQ59" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR59" s="4"/>
-      <c r="AS59" s="26" t="s">
-        <v>42</v>
+      <c r="O64" s="5">
+        <v>0</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>0</v>
+      </c>
+      <c r="R64" s="5">
+        <v>0</v>
+      </c>
+      <c r="S64" s="5">
+        <v>0</v>
+      </c>
+      <c r="T64" s="5">
+        <v>0</v>
+      </c>
+      <c r="U64" s="5">
+        <v>0</v>
+      </c>
+      <c r="V64" s="5">
+        <v>0</v>
+      </c>
+      <c r="W64" s="5">
+        <v>0</v>
+      </c>
+      <c r="X64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR64" s="4"/>
+      <c r="AS64" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45">
+      <c r="A65" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" s="65">
+        <v>0</v>
+      </c>
+      <c r="F65" s="66">
+        <v>0</v>
+      </c>
+      <c r="G65" s="66">
+        <v>0</v>
+      </c>
+      <c r="H65" s="66">
+        <v>0</v>
+      </c>
+      <c r="I65" s="66">
+        <v>0</v>
+      </c>
+      <c r="J65" s="67">
+        <v>1</v>
+      </c>
+      <c r="K65" s="67">
+        <v>1</v>
+      </c>
+      <c r="L65" s="66">
+        <v>0</v>
+      </c>
+      <c r="M65" s="68">
+        <v>0</v>
+      </c>
+      <c r="N65" s="69">
+        <v>0</v>
+      </c>
+      <c r="O65" s="69">
+        <v>0</v>
+      </c>
+      <c r="P65" s="69">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="69">
+        <v>0</v>
+      </c>
+      <c r="R65" s="69">
+        <v>0</v>
+      </c>
+      <c r="S65" s="69">
+        <v>0</v>
+      </c>
+      <c r="T65" s="69">
+        <v>0</v>
+      </c>
+      <c r="U65" s="69">
+        <v>0</v>
+      </c>
+      <c r="V65" s="69">
+        <v>0</v>
+      </c>
+      <c r="W65" s="69">
+        <v>0</v>
+      </c>
+      <c r="X65" s="69">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="69">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="69">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="69">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="69">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="69">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="69">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="69">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="69">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="69">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="70">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="71"/>
+      <c r="AJ65" s="72"/>
+      <c r="AK65" s="72"/>
+      <c r="AL65" s="72"/>
+      <c r="AM65" s="73"/>
+      <c r="AN65" s="72"/>
+      <c r="AO65" s="72"/>
+      <c r="AP65" s="73"/>
+      <c r="AQ65" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR65" s="72"/>
+      <c r="AS65" s="74" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="221">
   <si>
     <t>Name</t>
   </si>
@@ -676,6 +676,9 @@
   </si>
   <si>
     <t>Deals damage and inflicts Stun on the last hit. After rebooting or returning to the inventory, this ability is replaced with 'Enrage.'</t>
+  </si>
+  <si>
+    <t>Correct</t>
   </si>
 </sst>
 </file>
@@ -893,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -957,7 +960,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -971,8 +973,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,12 +1000,60 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1028,16 +1076,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1055,162 +1094,17 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top/>
         <bottom style="thin">
           <color theme="0"/>
@@ -1440,64 +1334,17 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thick">
           <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1545,82 +1392,102 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema2">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AOE" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activation" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Stand" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Exist" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Min" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Max" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Power" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Power2" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Power3" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Correct" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="32" Name="Abilities_Map" RootElement="Abilities" SchemaID="Schema16" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="33" Name="Abilities_Map1" RootElement="Abilities" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:W71" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A2:W71"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:R71" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A2:R71"/>
+  <tableColumns count="18">
     <tableColumn id="1" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="11">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
+    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="8">
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="Availability" name="Availability">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="Spec" name="Spec">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="AOE" name="AOE">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/AOE" xmlDataType="string"/>
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/AOE" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="Uses" name="Uses">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="Activation" name="Activation">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Activation" xmlDataType="integer"/>
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Activation" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="Value" name="Value">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="Stand" name="Stand">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Stand" xmlDataType="integer"/>
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Stand" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="Exist" name="Exist">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Exist" xmlDataType="integer"/>
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Exist" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Min" name="Min" dataDxfId="10">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
+    <tableColumn id="11" uniqueName="Min" name="Min" dataDxfId="7">
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Max" name="Max" dataDxfId="9">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
+    <tableColumn id="12" uniqueName="Max" name="Max" dataDxfId="6">
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="Range" name="Range">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="14" uniqueName="Cooldown" name="Cooldown">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Cooldown" xmlDataType="string"/>
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Cooldown" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="Power" name="Power" dataDxfId="8">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Power" xmlDataType="string"/>
+    <tableColumn id="15" uniqueName="Power" name="Power" dataDxfId="5">
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Power" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="Power2" name="Power2" dataDxfId="7">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Power2" xmlDataType="string"/>
+    <tableColumn id="16" uniqueName="Power2" name="Power2" dataDxfId="4">
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Power2" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="Power3" name="Power3" dataDxfId="6">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/Power3" xmlDataType="string"/>
+    <tableColumn id="17" uniqueName="Power3" name="Power3" dataDxfId="3">
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Power3" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="OnActivation" name="OnActivation" dataDxfId="5">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/OnActivation" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="19" uniqueName="OnCast" name="OnCast" dataDxfId="4">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/OnCast" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="20" uniqueName="OnMove" name="OnMove" dataDxfId="3">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/OnMove" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="21" uniqueName="OnDefend" name="OnDefend" dataDxfId="2">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/OnDefend" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="22" uniqueName="OnHit" name="OnHit" dataDxfId="1">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/OnHit" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="23" uniqueName="OnRemove" name="OnRemove" dataDxfId="0">
-      <xmlColumnPr mapId="32" xpath="/Abilities/Ability/OnRemove" xmlDataType="string"/>
+    <tableColumn id="18" uniqueName="Correct" name="Correct" dataDxfId="2">
+      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Correct" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1912,11 +1779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N3" sqref="N3"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1934,15 +1801,15 @@
     <col min="11" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" customWidth="1"/>
-    <col min="20" max="21" width="15.5703125" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" customWidth="1"/>
+    <col min="15" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="21" max="22" width="15.5703125" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="C1" t="s">
         <v>189</v>
       </c>
@@ -1968,7 +1835,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,26 +1887,29 @@
       <c r="Q2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="S2" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="T2" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="U2" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="V2" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="W2" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="X2" s="34" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickTop="1">
+    <row r="3" spans="1:24" ht="15.75" thickTop="1">
       <c r="A3" s="6" t="s">
         <v>59</v>
       </c>
@@ -2091,14 +1961,17 @@
       <c r="Q3" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="29"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="R3" s="45">
+        <v>1</v>
+      </c>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -2150,14 +2023,17 @@
       <c r="Q4" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="29"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="R4" s="46">
+        <v>1</v>
+      </c>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
@@ -2209,14 +2085,17 @@
       <c r="Q5" s="14">
         <v>0</v>
       </c>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="29"/>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="R5" s="45">
+        <v>0</v>
+      </c>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -2268,14 +2147,17 @@
       <c r="Q6" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="29"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="R6" s="46">
+        <v>0</v>
+      </c>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -2327,14 +2209,17 @@
       <c r="Q7" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="29"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="R7" s="45">
+        <v>1</v>
+      </c>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
@@ -2386,14 +2271,17 @@
       <c r="Q8" s="16">
         <v>0</v>
       </c>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="29"/>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="R8" s="46">
+        <v>1</v>
+      </c>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -2445,14 +2333,17 @@
       <c r="Q9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="29"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="R9" s="47">
+        <v>0</v>
+      </c>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
@@ -2504,18 +2395,21 @@
       <c r="Q10" s="16">
         <v>0</v>
       </c>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="29"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="R10" s="46">
+        <v>0</v>
+      </c>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2563,14 +2457,17 @@
       <c r="Q11" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="29"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="R11" s="47">
+        <v>0</v>
+      </c>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2622,14 +2519,17 @@
       <c r="Q12" s="14">
         <v>5</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="29"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="R12" s="48">
+        <v>0</v>
+      </c>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
@@ -2681,14 +2581,17 @@
       <c r="Q13" s="16">
         <v>3</v>
       </c>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="29"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="R13" s="49">
+        <v>0</v>
+      </c>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -2740,14 +2643,17 @@
       <c r="Q14" s="14">
         <v>5</v>
       </c>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="29"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="R14" s="48">
+        <v>0</v>
+      </c>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
@@ -2799,14 +2705,17 @@
       <c r="Q15" s="16">
         <v>30</v>
       </c>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="29"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="R15" s="49">
+        <v>0</v>
+      </c>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
@@ -2858,14 +2767,17 @@
       <c r="Q16" s="14">
         <v>0</v>
       </c>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="29"/>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="R16" s="48">
+        <v>0</v>
+      </c>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
@@ -2917,14 +2829,17 @@
       <c r="Q17" s="16">
         <v>5</v>
       </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="29"/>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="R17" s="49">
+        <v>0</v>
+      </c>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="10" t="s">
         <v>96</v>
       </c>
@@ -2976,14 +2891,17 @@
       <c r="Q18" s="14">
         <v>2</v>
       </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="29"/>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="R18" s="48">
+        <v>0</v>
+      </c>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="3" t="s">
         <v>97</v>
       </c>
@@ -3035,14 +2953,17 @@
       <c r="Q19" s="16">
         <v>5</v>
       </c>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="29"/>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="R19" s="49">
+        <v>0</v>
+      </c>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="10" t="s">
         <v>95</v>
       </c>
@@ -3094,14 +3015,17 @@
       <c r="Q20" s="14">
         <v>0</v>
       </c>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="29"/>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="R20" s="48">
+        <v>0</v>
+      </c>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="3" t="s">
         <v>91</v>
       </c>
@@ -3153,14 +3077,17 @@
       <c r="Q21" s="16">
         <v>0</v>
       </c>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="29"/>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="R21" s="49">
+        <v>0</v>
+      </c>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
@@ -3212,14 +3139,17 @@
       <c r="Q22" s="14">
         <v>8</v>
       </c>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="29"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="R22" s="48">
+        <v>0</v>
+      </c>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
@@ -3271,14 +3201,17 @@
       <c r="Q23" s="16">
         <v>24</v>
       </c>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="29"/>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="R23" s="49">
+        <v>0</v>
+      </c>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="10" t="s">
         <v>63</v>
       </c>
@@ -3330,14 +3263,17 @@
       <c r="Q24" s="14">
         <v>12</v>
       </c>
-      <c r="R24" s="38"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="38"/>
-      <c r="W24" s="29"/>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="R24" s="48">
+        <v>0</v>
+      </c>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
@@ -3389,14 +3325,17 @@
       <c r="Q25" s="16">
         <v>6</v>
       </c>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="29"/>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="R25" s="49">
+        <v>0</v>
+      </c>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
@@ -3448,14 +3387,17 @@
       <c r="Q26" s="14">
         <v>5</v>
       </c>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="29"/>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="R26" s="48">
+        <v>0</v>
+      </c>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="3" t="s">
         <v>105</v>
       </c>
@@ -3507,14 +3449,17 @@
       <c r="Q27" s="16">
         <v>3</v>
       </c>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="29"/>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="R27" s="49">
+        <v>0</v>
+      </c>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -3566,14 +3511,17 @@
       <c r="Q28" s="14">
         <v>10</v>
       </c>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="29"/>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="R28" s="48">
+        <v>0</v>
+      </c>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -3625,14 +3573,17 @@
       <c r="Q29" s="16">
         <v>0</v>
       </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="29"/>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="R29" s="49">
+        <v>0</v>
+      </c>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="10" t="s">
         <v>16</v>
       </c>
@@ -3684,14 +3635,17 @@
       <c r="Q30" s="14">
         <v>0</v>
       </c>
-      <c r="R30" s="38"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="29"/>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="R30" s="48">
+        <v>0</v>
+      </c>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="3" t="s">
         <v>106</v>
       </c>
@@ -3743,14 +3697,17 @@
       <c r="Q31" s="16">
         <v>5</v>
       </c>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="29"/>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="R31" s="49">
+        <v>0</v>
+      </c>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="10" t="s">
         <v>71</v>
       </c>
@@ -3802,14 +3759,17 @@
       <c r="Q32" s="14">
         <v>10</v>
       </c>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="29"/>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="R32" s="48">
+        <v>0</v>
+      </c>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
@@ -3861,14 +3821,17 @@
       <c r="Q33" s="16">
         <v>10</v>
       </c>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="29"/>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="R33" s="49">
+        <v>0</v>
+      </c>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="10" t="s">
         <v>187</v>
       </c>
@@ -3920,14 +3883,17 @@
       <c r="Q34" s="14">
         <v>0</v>
       </c>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="38"/>
-      <c r="W34" s="29"/>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="R34" s="48">
+        <v>0</v>
+      </c>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="6" t="s">
         <v>196</v>
       </c>
@@ -3979,18 +3945,21 @@
       <c r="Q35" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="29"/>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="R35" s="50">
+        <v>0</v>
+      </c>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="35" t="s">
         <v>203</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -4008,7 +3977,7 @@
       <c r="G36" s="27">
         <v>1</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="36">
         <v>0</v>
       </c>
       <c r="I36" s="24">
@@ -4026,30 +3995,33 @@
       <c r="M36" s="27">
         <v>100</v>
       </c>
-      <c r="N36" s="41">
+      <c r="N36" s="38">
         <v>65</v>
       </c>
-      <c r="O36" s="44">
-        <v>0</v>
-      </c>
-      <c r="P36" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="46">
-        <v>0</v>
-      </c>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="29"/>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="O36" s="41">
+        <v>0</v>
+      </c>
+      <c r="P36" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="43">
+        <v>0</v>
+      </c>
+      <c r="R36" s="51">
+        <v>0</v>
+      </c>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="35" t="s">
         <v>204</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -4067,7 +4039,7 @@
       <c r="G37" s="27">
         <v>1</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="36">
         <v>0</v>
       </c>
       <c r="I37" s="22">
@@ -4085,30 +4057,33 @@
       <c r="M37" s="27">
         <v>0</v>
       </c>
-      <c r="N37" s="41">
+      <c r="N37" s="38">
         <v>120</v>
       </c>
-      <c r="O37" s="44">
-        <v>0</v>
-      </c>
-      <c r="P37" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="46">
-        <v>0</v>
-      </c>
-      <c r="R37" s="38"/>
-      <c r="S37" s="38"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="29"/>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="O37" s="41">
+        <v>0</v>
+      </c>
+      <c r="P37" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="43">
+        <v>0</v>
+      </c>
+      <c r="R37" s="51">
+        <v>0</v>
+      </c>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="35" t="s">
         <v>205</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -4126,7 +4101,7 @@
       <c r="G38" s="27">
         <v>0</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="36">
         <v>0</v>
       </c>
       <c r="I38" s="24">
@@ -4144,26 +4119,29 @@
       <c r="M38" s="27">
         <v>0</v>
       </c>
-      <c r="N38" s="41">
-        <v>0</v>
-      </c>
-      <c r="O38" s="44">
-        <v>0</v>
-      </c>
-      <c r="P38" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="46">
-        <v>0</v>
-      </c>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="29"/>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="N38" s="38">
+        <v>0</v>
+      </c>
+      <c r="O38" s="41">
+        <v>0</v>
+      </c>
+      <c r="P38" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="43">
+        <v>0</v>
+      </c>
+      <c r="R38" s="51">
+        <v>0</v>
+      </c>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="3" t="s">
         <v>90</v>
       </c>
@@ -4215,14 +4193,17 @@
       <c r="Q39" s="16">
         <v>8</v>
       </c>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="29"/>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="R39" s="49">
+        <v>0</v>
+      </c>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -4274,14 +4255,17 @@
       <c r="Q40" s="14">
         <v>30</v>
       </c>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="29"/>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="R40" s="48">
+        <v>0</v>
+      </c>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
@@ -4333,14 +4317,17 @@
       <c r="Q41" s="16">
         <v>0</v>
       </c>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="38"/>
-      <c r="W41" s="29"/>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="R41" s="49">
+        <v>0</v>
+      </c>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -4392,14 +4379,17 @@
       <c r="Q42" s="14">
         <v>12</v>
       </c>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38"/>
-      <c r="V42" s="38"/>
-      <c r="W42" s="29"/>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="R42" s="48">
+        <v>0</v>
+      </c>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="2" t="s">
         <v>174</v>
       </c>
@@ -4451,18 +4441,21 @@
       <c r="Q43" s="14">
         <v>5</v>
       </c>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="29"/>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="R43" s="48">
+        <v>0</v>
+      </c>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="35" t="s">
         <v>177</v>
       </c>
       <c r="C44" s="25" t="s">
@@ -4489,16 +4482,16 @@
       <c r="J44" s="27">
         <v>0</v>
       </c>
-      <c r="K44" s="30">
-        <v>0</v>
-      </c>
-      <c r="L44" s="30">
+      <c r="K44" s="29">
+        <v>0</v>
+      </c>
+      <c r="L44" s="29">
         <v>10</v>
       </c>
       <c r="M44" s="27">
         <v>800</v>
       </c>
-      <c r="N44" s="42">
+      <c r="N44" s="39">
         <v>48</v>
       </c>
       <c r="O44" s="14">
@@ -4510,18 +4503,21 @@
       <c r="Q44" s="14">
         <v>10</v>
       </c>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="29"/>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="R44" s="48">
+        <v>0</v>
+      </c>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="35" t="s">
         <v>179</v>
       </c>
       <c r="C45" s="25" t="s">
@@ -4557,7 +4553,7 @@
       <c r="M45" s="27">
         <v>250</v>
       </c>
-      <c r="N45" s="42">
+      <c r="N45" s="39">
         <v>96</v>
       </c>
       <c r="O45" s="16">
@@ -4569,18 +4565,21 @@
       <c r="Q45" s="16">
         <v>20</v>
       </c>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="38"/>
-      <c r="W45" s="29"/>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="R45" s="49">
+        <v>0</v>
+      </c>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="35" t="s">
         <v>183</v>
       </c>
       <c r="C46" s="25" t="s">
@@ -4616,30 +4615,33 @@
       <c r="M46" s="27">
         <v>0</v>
       </c>
-      <c r="N46" s="41">
+      <c r="N46" s="38">
         <v>360</v>
       </c>
-      <c r="O46" s="44">
-        <v>0</v>
-      </c>
-      <c r="P46" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="46">
-        <v>0</v>
-      </c>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38"/>
-      <c r="V46" s="38"/>
-      <c r="W46" s="29"/>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="O46" s="41">
+        <v>0</v>
+      </c>
+      <c r="P46" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="43">
+        <v>0</v>
+      </c>
+      <c r="R46" s="51">
+        <v>0</v>
+      </c>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="35" t="s">
         <v>178</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -4666,16 +4668,16 @@
       <c r="J47" s="27">
         <v>0</v>
       </c>
-      <c r="K47" s="30">
-        <v>0</v>
-      </c>
-      <c r="L47" s="30">
+      <c r="K47" s="29">
+        <v>0</v>
+      </c>
+      <c r="L47" s="29">
         <v>10</v>
       </c>
       <c r="M47" s="27">
         <v>150</v>
       </c>
-      <c r="N47" s="42">
+      <c r="N47" s="39">
         <v>72</v>
       </c>
       <c r="O47" s="14">
@@ -4687,14 +4689,17 @@
       <c r="Q47" s="14">
         <v>0</v>
       </c>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="29"/>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="R47" s="48">
+        <v>0</v>
+      </c>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
@@ -4746,14 +4751,17 @@
       <c r="Q48" s="16">
         <v>5</v>
       </c>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="29"/>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="R48" s="49">
+        <v>0</v>
+      </c>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="10" t="s">
         <v>28</v>
       </c>
@@ -4805,14 +4813,17 @@
       <c r="Q49" s="14">
         <v>0</v>
       </c>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="29"/>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="R49" s="48">
+        <v>0</v>
+      </c>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="2" t="s">
         <v>26</v>
       </c>
@@ -4864,14 +4875,17 @@
       <c r="Q50" s="16">
         <v>0</v>
       </c>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38"/>
-      <c r="V50" s="38"/>
-      <c r="W50" s="29"/>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="R50" s="49">
+        <v>0</v>
+      </c>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="10" t="s">
         <v>27</v>
       </c>
@@ -4923,14 +4937,17 @@
       <c r="Q51" s="14">
         <v>10</v>
       </c>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38"/>
-      <c r="V51" s="38"/>
-      <c r="W51" s="29"/>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="R51" s="48">
+        <v>0</v>
+      </c>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="2" t="s">
         <v>66</v>
       </c>
@@ -4982,18 +4999,21 @@
       <c r="Q52" s="16">
         <v>5</v>
       </c>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38"/>
-      <c r="V52" s="38"/>
-      <c r="W52" s="29"/>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="R52" s="49">
+        <v>0</v>
+      </c>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="35" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="25" t="s">
@@ -5020,16 +5040,16 @@
       <c r="J53" s="27">
         <v>0</v>
       </c>
-      <c r="K53" s="30">
-        <v>0</v>
-      </c>
-      <c r="L53" s="30">
+      <c r="K53" s="29">
+        <v>0</v>
+      </c>
+      <c r="L53" s="29">
         <v>10</v>
       </c>
       <c r="M53" s="27">
         <v>40</v>
       </c>
-      <c r="N53" s="42">
+      <c r="N53" s="39">
         <v>48</v>
       </c>
       <c r="O53" s="14">
@@ -5041,18 +5061,21 @@
       <c r="Q53" s="14">
         <v>15</v>
       </c>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="38"/>
-      <c r="W53" s="29"/>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="R53" s="48">
+        <v>0</v>
+      </c>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="35" t="s">
         <v>163</v>
       </c>
       <c r="C54" s="25" t="s">
@@ -5088,7 +5111,7 @@
       <c r="M54" s="27">
         <v>80</v>
       </c>
-      <c r="N54" s="42">
+      <c r="N54" s="39">
         <v>120</v>
       </c>
       <c r="O54" s="16">
@@ -5100,18 +5123,21 @@
       <c r="Q54" s="16">
         <v>0</v>
       </c>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38"/>
-      <c r="V54" s="38"/>
-      <c r="W54" s="29"/>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="R54" s="49">
+        <v>0</v>
+      </c>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="35" t="s">
         <v>164</v>
       </c>
       <c r="C55" s="25" t="s">
@@ -5138,16 +5164,16 @@
       <c r="J55" s="27">
         <v>0</v>
       </c>
-      <c r="K55" s="30">
-        <v>0</v>
-      </c>
-      <c r="L55" s="30">
+      <c r="K55" s="29">
+        <v>0</v>
+      </c>
+      <c r="L55" s="29">
         <v>10</v>
       </c>
       <c r="M55" s="27">
         <v>150</v>
       </c>
-      <c r="N55" s="42">
+      <c r="N55" s="39">
         <v>120</v>
       </c>
       <c r="O55" s="14">
@@ -5159,14 +5185,17 @@
       <c r="Q55" s="14">
         <v>0</v>
       </c>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38"/>
-      <c r="V55" s="38"/>
-      <c r="W55" s="29"/>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="R55" s="48">
+        <v>0</v>
+      </c>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="3" t="s">
         <v>102</v>
       </c>
@@ -5218,14 +5247,17 @@
       <c r="Q56" s="16">
         <v>0</v>
       </c>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
-      <c r="T56" s="38"/>
-      <c r="U56" s="38"/>
-      <c r="V56" s="38"/>
-      <c r="W56" s="29"/>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="R56" s="49">
+        <v>0</v>
+      </c>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="3" t="s">
         <v>77</v>
       </c>
@@ -5277,14 +5309,17 @@
       <c r="Q57" s="16">
         <v>10</v>
       </c>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
-      <c r="T57" s="38"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="38"/>
-      <c r="W57" s="29"/>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="R57" s="49">
+        <v>0</v>
+      </c>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="3" t="s">
         <v>76</v>
       </c>
@@ -5336,14 +5371,17 @@
       <c r="Q58" s="16">
         <v>15</v>
       </c>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
-      <c r="T58" s="38"/>
-      <c r="U58" s="38"/>
-      <c r="V58" s="38"/>
-      <c r="W58" s="29"/>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="R58" s="49">
+        <v>0</v>
+      </c>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="3" t="s">
         <v>115</v>
       </c>
@@ -5395,14 +5433,17 @@
       <c r="Q59" s="16">
         <v>2</v>
       </c>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
-      <c r="T59" s="38"/>
-      <c r="U59" s="38"/>
-      <c r="V59" s="38"/>
-      <c r="W59" s="29"/>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="R59" s="49">
+        <v>0</v>
+      </c>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="3" t="s">
         <v>87</v>
       </c>
@@ -5454,14 +5495,17 @@
       <c r="Q60" s="16">
         <v>25</v>
       </c>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="29"/>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="R60" s="49">
+        <v>0</v>
+      </c>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="3" t="s">
         <v>88</v>
       </c>
@@ -5513,14 +5557,17 @@
       <c r="Q61" s="16">
         <v>5</v>
       </c>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="29"/>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="R61" s="49">
+        <v>0</v>
+      </c>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="35"/>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="3" t="s">
         <v>89</v>
       </c>
@@ -5572,14 +5619,17 @@
       <c r="Q62" s="16">
         <v>40</v>
       </c>
-      <c r="R62" s="38"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="29"/>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="R62" s="49">
+        <v>0</v>
+      </c>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="35"/>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="2" t="s">
         <v>40</v>
       </c>
@@ -5631,18 +5681,21 @@
       <c r="Q63" s="16">
         <v>0</v>
       </c>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="29"/>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="R63" s="49">
+        <v>0</v>
+      </c>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="35"/>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="35" t="s">
         <v>186</v>
       </c>
       <c r="C64" s="25" t="s">
@@ -5678,26 +5731,29 @@
       <c r="M64" s="27">
         <v>0</v>
       </c>
-      <c r="N64" s="41">
+      <c r="N64" s="38">
         <v>360</v>
       </c>
-      <c r="O64" s="44">
-        <v>0</v>
-      </c>
-      <c r="P64" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="46">
-        <v>0</v>
-      </c>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="29"/>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="O64" s="41">
+        <v>0</v>
+      </c>
+      <c r="P64" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="43">
+        <v>0</v>
+      </c>
+      <c r="R64" s="51">
+        <v>0</v>
+      </c>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="3" t="s">
         <v>46</v>
       </c>
@@ -5749,14 +5805,17 @@
       <c r="Q65" s="16">
         <v>0</v>
       </c>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="29"/>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="R65" s="49">
+        <v>0</v>
+      </c>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="2" t="s">
         <v>45</v>
       </c>
@@ -5808,14 +5867,17 @@
       <c r="Q66" s="16">
         <v>0</v>
       </c>
-      <c r="R66" s="38"/>
-      <c r="S66" s="38"/>
-      <c r="T66" s="38"/>
-      <c r="U66" s="38"/>
-      <c r="V66" s="38"/>
-      <c r="W66" s="29"/>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="R66" s="49">
+        <v>0</v>
+      </c>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="2" t="s">
         <v>42</v>
       </c>
@@ -5867,14 +5929,17 @@
       <c r="Q67" s="16">
         <v>0</v>
       </c>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
-      <c r="W67" s="29"/>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="R67" s="49">
+        <v>0</v>
+      </c>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="3" t="s">
         <v>43</v>
       </c>
@@ -5926,14 +5991,17 @@
       <c r="Q68" s="16">
         <v>0</v>
       </c>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38"/>
-      <c r="V68" s="38"/>
-      <c r="W68" s="29"/>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="R68" s="49">
+        <v>0</v>
+      </c>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="2" t="s">
         <v>35</v>
       </c>
@@ -5985,14 +6053,17 @@
       <c r="Q69" s="16">
         <v>20</v>
       </c>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="29"/>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="R69" s="49">
+        <v>0</v>
+      </c>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="3" t="s">
         <v>37</v>
       </c>
@@ -6044,71 +6115,77 @@
       <c r="Q70" s="16">
         <v>40</v>
       </c>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="29"/>
-    </row>
-    <row r="71" spans="1:23">
-      <c r="A71" s="31" t="s">
+      <c r="R70" s="49">
+        <v>0</v>
+      </c>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+    </row>
+    <row r="71" spans="1:24">
+      <c r="A71" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D71" s="31" t="s">
+      <c r="D71" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="31" t="s">
+      <c r="E71" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F71" s="32">
-        <v>0</v>
-      </c>
-      <c r="G71" s="33">
-        <v>0</v>
-      </c>
-      <c r="H71" s="33">
-        <v>0</v>
-      </c>
-      <c r="I71" s="33">
-        <v>0</v>
-      </c>
-      <c r="J71" s="33">
-        <v>0</v>
-      </c>
-      <c r="K71" s="34">
-        <v>1</v>
-      </c>
-      <c r="L71" s="34">
-        <v>1</v>
-      </c>
-      <c r="M71" s="33">
-        <v>0</v>
-      </c>
-      <c r="N71" s="43">
-        <v>0</v>
-      </c>
-      <c r="O71" s="45">
-        <v>0</v>
-      </c>
-      <c r="P71" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="47">
-        <v>0</v>
-      </c>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="35"/>
+      <c r="F71" s="31">
+        <v>0</v>
+      </c>
+      <c r="G71" s="32">
+        <v>0</v>
+      </c>
+      <c r="H71" s="32">
+        <v>0</v>
+      </c>
+      <c r="I71" s="32">
+        <v>0</v>
+      </c>
+      <c r="J71" s="32">
+        <v>0</v>
+      </c>
+      <c r="K71" s="33">
+        <v>1</v>
+      </c>
+      <c r="L71" s="33">
+        <v>1</v>
+      </c>
+      <c r="M71" s="32">
+        <v>0</v>
+      </c>
+      <c r="N71" s="40">
+        <v>0</v>
+      </c>
+      <c r="O71" s="42">
+        <v>0</v>
+      </c>
+      <c r="P71" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="44">
+        <v>0</v>
+      </c>
+      <c r="R71" s="52">
+        <v>0</v>
+      </c>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -896,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1025,59 +1025,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1334,17 +1287,65 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thick">
           <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1432,13 +1433,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:R71" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:R71" tableType="xml" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A2:R71"/>
   <tableColumns count="18">
     <tableColumn id="1" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="8">
+    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="6">
       <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="Availability" name="Availability">
@@ -1465,10 +1466,10 @@
     <tableColumn id="10" uniqueName="Exist" name="Exist">
       <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Exist" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Min" name="Min" dataDxfId="7">
+    <tableColumn id="11" uniqueName="Min" name="Min" dataDxfId="5">
       <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Max" name="Max" dataDxfId="6">
+    <tableColumn id="12" uniqueName="Max" name="Max" dataDxfId="4">
       <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="Range" name="Range">
@@ -1477,16 +1478,16 @@
     <tableColumn id="14" uniqueName="Cooldown" name="Cooldown">
       <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Cooldown" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="Power" name="Power" dataDxfId="5">
+    <tableColumn id="15" uniqueName="Power" name="Power" dataDxfId="3">
       <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Power" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="Power2" name="Power2" dataDxfId="4">
+    <tableColumn id="16" uniqueName="Power2" name="Power2" dataDxfId="2">
       <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Power2" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="Power3" name="Power3" dataDxfId="3">
+    <tableColumn id="17" uniqueName="Power3" name="Power3" dataDxfId="1">
       <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Power3" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="Correct" name="Correct" dataDxfId="2">
+    <tableColumn id="18" uniqueName="Correct" name="Correct" dataDxfId="0">
       <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Correct" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1783,7 +1784,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R71" sqref="R71"/>
+      <selection pane="topRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2158,7 +2159,7 @@
       <c r="X6" s="35"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="54" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="3" t="s">

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -66,9 +66,6 @@
     <t>Basic Attack: Shoots two guided lasers toward a target.</t>
   </si>
   <si>
-    <t>Apologizing</t>
-  </si>
-  <si>
     <t>Creates a magic and apologetic wall that lasts for four seconds.</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
     <t>Megaphone Attack</t>
   </si>
   <si>
-    <t xml:space="preserve">Throws a random shoe toward a target out of anger. </t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -679,6 +673,12 @@
   </si>
   <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>Apologetic</t>
+  </si>
+  <si>
+    <t>Throws a magical shoe to a target out of anger. Each time it hits the wall or an enemy attack, it bounces and gains more damage and speed.</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1026,6 +1026,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,7 +1786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B35" sqref="B35"/>
+      <selection pane="topRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1812,28 +1814,28 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
         <v>189</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>190</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
         <v>191</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>192</v>
       </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>193</v>
-      </c>
-      <c r="I1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
@@ -1847,31 +1849,31 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>2</v>
@@ -1880,51 +1882,51 @@
         <v>3</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="R2" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="S2" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="R2" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>218</v>
-      </c>
       <c r="T2" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="W2" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>207</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickTop="1">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F3" s="18">
         <v>1</v>
@@ -1951,16 +1953,16 @@
         <v>80</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R3" s="45">
         <v>1</v>
@@ -1974,19 +1976,19 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F4" s="21">
         <v>1</v>
@@ -2013,16 +2015,16 @@
         <v>80</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R4" s="46">
         <v>1</v>
@@ -2036,19 +2038,19 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F5" s="24">
         <v>1</v>
@@ -2075,7 +2077,7 @@
         <v>140</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O5" s="14">
         <v>0</v>
@@ -2098,19 +2100,19 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F6" s="23">
         <v>1</v>
@@ -2137,16 +2139,16 @@
         <v>30</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R6" s="46">
         <v>0</v>
@@ -2160,19 +2162,19 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F7" s="11">
         <v>1</v>
@@ -2196,19 +2198,19 @@
         <v>10</v>
       </c>
       <c r="M7" s="11">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R7" s="45">
         <v>1</v>
@@ -2222,19 +2224,19 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F8" s="23">
         <v>0</v>
@@ -2284,19 +2286,19 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F9" s="11">
         <v>1</v>
@@ -2323,16 +2325,16 @@
         <v>120</v>
       </c>
       <c r="N9" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O9" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="O9" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="P9" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R9" s="47">
         <v>0</v>
@@ -2346,19 +2348,19 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F10" s="23">
         <v>1</v>
@@ -2385,7 +2387,7 @@
         <v>50</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O10" s="16">
         <v>0</v>
@@ -2408,19 +2410,19 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="11">
         <v>3</v>
@@ -2447,16 +2449,16 @@
         <v>20</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R11" s="47">
         <v>0</v>
@@ -2473,16 +2475,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F12" s="11">
         <v>1</v>
@@ -2521,7 +2523,7 @@
         <v>5</v>
       </c>
       <c r="R12" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
@@ -2535,16 +2537,16 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F13" s="23">
         <v>1</v>
@@ -2596,17 +2598,17 @@
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
+      <c r="B14" s="56" t="s">
+        <v>220</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14" s="11">
         <v>1</v>
@@ -2656,19 +2658,19 @@
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="22">
         <v>1</v>
@@ -2718,19 +2720,19 @@
     </row>
     <row r="16" spans="1:24">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" s="11">
         <v>1</v>
@@ -2780,19 +2782,19 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F17" s="22">
         <v>1</v>
@@ -2842,19 +2844,19 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="24">
         <v>1</v>
@@ -2904,19 +2906,19 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19" s="22">
         <v>1</v>
@@ -2966,19 +2968,19 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="24">
         <v>1</v>
@@ -3028,19 +3030,19 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F21" s="22">
         <v>0</v>
@@ -3090,19 +3092,19 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F22" s="24">
         <v>1</v>
@@ -3152,19 +3154,19 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" s="23">
         <v>1</v>
@@ -3214,19 +3216,19 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F24" s="24">
         <v>3</v>
@@ -3276,19 +3278,19 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F25" s="23">
         <v>1</v>
@@ -3347,10 +3349,10 @@
         <v>10</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F26" s="24">
         <v>1</v>
@@ -3400,19 +3402,19 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F27" s="22">
         <v>8</v>
@@ -3465,16 +3467,16 @@
         <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F28" s="11">
         <v>5</v>
@@ -3527,16 +3529,16 @@
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F29" s="22">
         <v>2</v>
@@ -3585,20 +3587,20 @@
       <c r="X29" s="35"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="10" t="s">
-        <v>16</v>
+      <c r="A30" s="55" t="s">
+        <v>219</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F30" s="24">
         <v>0</v>
@@ -3647,20 +3649,20 @@
       <c r="X30" s="35"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="3" t="s">
-        <v>106</v>
+      <c r="A31" s="56" t="s">
+        <v>105</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F31" s="22">
         <v>1</v>
@@ -3710,19 +3712,19 @@
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32" s="24">
         <v>1</v>
@@ -3772,19 +3774,19 @@
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F33" s="22">
         <v>1</v>
@@ -3834,19 +3836,19 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F34" s="24">
         <v>1</v>
@@ -3896,19 +3898,19 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F35" s="18">
         <v>1</v>
@@ -3935,16 +3937,16 @@
         <v>80</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R35" s="50">
         <v>0</v>
@@ -3958,19 +3960,19 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F36" s="26">
         <v>4</v>
@@ -4020,19 +4022,19 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F37" s="26">
         <v>1</v>
@@ -4082,19 +4084,19 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F38" s="26">
         <v>0</v>
@@ -4144,19 +4146,19 @@
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F39" s="22">
         <v>1</v>
@@ -4206,19 +4208,19 @@
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F40" s="24">
         <v>3</v>
@@ -4268,19 +4270,19 @@
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F41" s="22">
         <v>1</v>
@@ -4330,19 +4332,19 @@
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F42" s="24">
         <v>3</v>
@@ -4392,19 +4394,19 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F43" s="24">
         <v>1</v>
@@ -4454,19 +4456,19 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F44" s="26">
         <v>1</v>
@@ -4516,19 +4518,19 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F45" s="26">
         <v>1</v>
@@ -4578,19 +4580,19 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F46" s="26">
         <v>1</v>
@@ -4640,19 +4642,19 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F47" s="26">
         <v>1</v>
@@ -4702,19 +4704,19 @@
     </row>
     <row r="48" spans="1:24">
       <c r="A48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F48" s="11">
         <v>1</v>
@@ -4764,19 +4766,19 @@
     </row>
     <row r="49" spans="1:24">
       <c r="A49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C49" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F49" s="24">
         <v>3</v>
@@ -4826,19 +4828,19 @@
     </row>
     <row r="50" spans="1:24">
       <c r="A50" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F50" s="11">
         <v>3</v>
@@ -4888,19 +4890,19 @@
     </row>
     <row r="51" spans="1:24">
       <c r="A51" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F51" s="24">
         <v>5</v>
@@ -4950,19 +4952,19 @@
     </row>
     <row r="52" spans="1:24">
       <c r="A52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F52" s="11">
         <v>1</v>
@@ -5012,19 +5014,19 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F53" s="26">
         <v>1</v>
@@ -5074,19 +5076,19 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54" s="26">
         <v>1</v>
@@ -5136,19 +5138,19 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F55" s="26">
         <v>1</v>
@@ -5198,19 +5200,19 @@
     </row>
     <row r="56" spans="1:24">
       <c r="A56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="C56" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" s="22">
         <v>0</v>
@@ -5260,19 +5262,19 @@
     </row>
     <row r="57" spans="1:24">
       <c r="A57" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F57" s="22">
         <v>1</v>
@@ -5322,19 +5324,19 @@
     </row>
     <row r="58" spans="1:24">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" s="22">
         <v>10</v>
@@ -5384,19 +5386,19 @@
     </row>
     <row r="59" spans="1:24">
       <c r="A59" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F59" s="22">
         <v>10</v>
@@ -5446,19 +5448,19 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" s="22">
         <v>3</v>
@@ -5508,19 +5510,19 @@
     </row>
     <row r="61" spans="1:24">
       <c r="A61" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="E61" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F61" s="22">
         <v>1</v>
@@ -5570,19 +5572,19 @@
     </row>
     <row r="62" spans="1:24">
       <c r="A62" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F62" s="22">
         <v>1</v>
@@ -5632,19 +5634,19 @@
     </row>
     <row r="63" spans="1:24">
       <c r="A63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F63" s="11">
         <v>1</v>
@@ -5694,19 +5696,19 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B64" s="35" t="s">
-        <v>186</v>
-      </c>
       <c r="C64" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F64" s="26">
         <v>1</v>
@@ -5756,19 +5758,19 @@
     </row>
     <row r="65" spans="1:24">
       <c r="A65" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F65" s="22">
         <v>0</v>
@@ -5818,19 +5820,19 @@
     </row>
     <row r="66" spans="1:24">
       <c r="A66" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F66" s="11">
         <v>0</v>
@@ -5880,19 +5882,19 @@
     </row>
     <row r="67" spans="1:24">
       <c r="A67" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F67" s="11">
         <v>0</v>
@@ -5942,19 +5944,19 @@
     </row>
     <row r="68" spans="1:24">
       <c r="A68" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F68" s="22">
         <v>0</v>
@@ -6004,19 +6006,19 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F69" s="11">
         <v>1</v>
@@ -6066,19 +6068,19 @@
     </row>
     <row r="70" spans="1:24">
       <c r="A70" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F70" s="22">
         <v>1</v>
@@ -6128,19 +6130,19 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F71" s="31">
         <v>0</v>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="223">
   <si>
     <t>Name</t>
   </si>
@@ -435,9 +435,6 @@
     <t>Shoots arrows in a direction. Hold down to shoot more arrows.</t>
   </si>
   <si>
-    <t>Dashes in a straight line, stunning any enemies in the way.</t>
-  </si>
-  <si>
     <t>Deals damage to surrounding enemies. Enemies give up extra friendship points.</t>
   </si>
   <si>
@@ -558,9 +555,6 @@
     <t>Creates a happy shield inside a target and makes it expand.</t>
   </si>
   <si>
-    <t>Restores a small amount of Health per second. But really, he stopped doing this a few months ago. NO REALLY. OMG SHUT UP, YOU HATER.</t>
-  </si>
-  <si>
     <t>Take possession of an enemy's mother and make passionate love to her. Also stuns that enemy, probably.</t>
   </si>
   <si>
@@ -679,6 +673,18 @@
   </si>
   <si>
     <t>Throws a magical shoe to a target out of anger. Each time it hits the wall or an enemy attack, it bounces and gains more damage and speed.</t>
+  </si>
+  <si>
+    <t>Dashes in a straight line, stunning any enemies in the way. Pick up special gems for extra bonuses!</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>5-0.2</t>
+  </si>
+  <si>
+    <t>Restores POWER Health per POWER2 seconds. But really, he stopped doing this a few months ago. NO REALLY. OH SCREW YOU MAN.</t>
   </si>
 </sst>
 </file>
@@ -896,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1028,6 +1034,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,9 +1793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1814,28 +1823,28 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="C1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
         <v>187</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>188</v>
-      </c>
-      <c r="E1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" t="s">
-        <v>190</v>
       </c>
       <c r="G1" t="s">
         <v>43</v>
       </c>
       <c r="H1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" t="s">
         <v>191</v>
-      </c>
-      <c r="I1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
@@ -1852,13 +1861,13 @@
         <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>6</v>
@@ -1867,7 +1876,7 @@
         <v>115</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>63</v>
@@ -1882,34 +1891,34 @@
         <v>3</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R2" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="S2" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="R2" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>216</v>
-      </c>
       <c r="T2" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="W2" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>205</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickTop="1">
@@ -1917,7 +1926,7 @@
         <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>33</v>
@@ -2027,7 +2036,7 @@
         <v>127</v>
       </c>
       <c r="R4" s="46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S4" s="35"/>
       <c r="T4" s="35"/>
@@ -2041,7 +2050,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>33</v>
@@ -2227,7 +2236,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>56</v>
@@ -2351,7 +2360,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>56</v>
@@ -2410,10 +2419,10 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -2475,7 +2484,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -2599,7 +2608,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -2847,7 +2856,7 @@
         <v>95</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>60</v>
@@ -2909,7 +2918,7 @@
         <v>96</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>60</v>
@@ -3033,7 +3042,7 @@
         <v>90</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>60</v>
@@ -3391,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="R26" s="48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
@@ -3411,7 +3420,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>106</v>
@@ -3466,8 +3475,8 @@
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>139</v>
+      <c r="B28" s="56" t="s">
+        <v>219</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -3479,7 +3488,7 @@
         <v>106</v>
       </c>
       <c r="F28" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="11">
         <v>2</v>
@@ -3500,7 +3509,7 @@
         <v>10</v>
       </c>
       <c r="M28" s="11">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N28" s="15">
         <v>120</v>
@@ -3515,7 +3524,7 @@
         <v>10</v>
       </c>
       <c r="R28" s="48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
@@ -3588,10 +3597,10 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>180</v>
+        <v>217</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>222</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>10</v>
@@ -3629,11 +3638,11 @@
       <c r="N30" s="14">
         <v>0</v>
       </c>
-      <c r="O30" s="14">
-        <v>0</v>
-      </c>
-      <c r="P30" s="14">
-        <v>0</v>
+      <c r="O30" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="P30" s="57" t="s">
+        <v>221</v>
       </c>
       <c r="Q30" s="14">
         <v>0</v>
@@ -3715,7 +3724,7 @@
         <v>70</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>68</v>
@@ -3777,7 +3786,7 @@
         <v>71</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>68</v>
@@ -3836,10 +3845,10 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>68</v>
@@ -3898,13 +3907,13 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>47</v>
@@ -3960,13 +3969,13 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>47</v>
@@ -4022,13 +4031,13 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>91</v>
@@ -4084,16 +4093,16 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>107</v>
@@ -4273,7 +4282,7 @@
         <v>79</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>77</v>
@@ -4394,13 +4403,13 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
@@ -4456,13 +4465,13 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>47</v>
@@ -4518,13 +4527,13 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>47</v>
@@ -4580,13 +4589,13 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>114</v>
@@ -4642,13 +4651,13 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>114</v>
@@ -4893,7 +4902,7 @@
         <v>26</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>22</v>
@@ -5014,10 +5023,10 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>66</v>
@@ -5076,10 +5085,10 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>66</v>
@@ -5138,10 +5147,10 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>66</v>
@@ -5389,13 +5398,13 @@
         <v>113</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>106</v>
@@ -5451,7 +5460,7 @@
         <v>86</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>84</v>
@@ -5513,7 +5522,7 @@
         <v>87</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>84</v>
@@ -5575,7 +5584,7 @@
         <v>88</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>84</v>
@@ -5637,7 +5646,7 @@
         <v>39</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>40</v>
@@ -5696,16 +5705,16 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="35" t="s">
         <v>182</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>184</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>110</v>
@@ -5761,7 +5770,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>40</v>
@@ -5823,7 +5832,7 @@
         <v>44</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>40</v>
@@ -5885,7 +5894,7 @@
         <v>41</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>40</v>
@@ -5947,7 +5956,7 @@
         <v>42</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>40</v>
@@ -6130,10 +6139,10 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="37" t="s">
         <v>166</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>167</v>
       </c>
       <c r="C71" s="30" t="s">
         <v>35</v>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -678,13 +678,13 @@
     <t>Dashes in a straight line, stunning any enemies in the way. Pick up special gems for extra bonuses!</t>
   </si>
   <si>
-    <t>1+1</t>
-  </si>
-  <si>
-    <t>5-0.2</t>
-  </si>
-  <si>
-    <t>Restores POWER Health per POWER2 seconds. But really, he stopped doing this a few months ago. NO REALLY. OH SCREW YOU MAN.</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Restores POWER Health per 5 seconds. But really, he stopped doing this a few months ago. NO REALLY. OH SCREW YOU MAN.</t>
+  </si>
+  <si>
+    <t>1+4</t>
   </si>
 </sst>
 </file>
@@ -1793,9 +1793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3600,7 +3600,7 @@
         <v>217</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>10</v>
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="P30" s="57" t="s">
         <v>220</v>
-      </c>
-      <c r="P30" s="57" t="s">
-        <v>221</v>
       </c>
       <c r="Q30" s="14">
         <v>0</v>
@@ -6202,6 +6202,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="P30" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="227">
   <si>
     <t>Name</t>
   </si>
@@ -471,9 +471,6 @@
     <t xml:space="preserve">Restores Health to any Unit. </t>
   </si>
   <si>
-    <t>Strengthens Nate with extra Attack and Health restoration over time.</t>
-  </si>
-  <si>
     <t>Reduces Charles' and Nate's Reload Times.</t>
   </si>
   <si>
@@ -549,9 +546,6 @@
     <t>Unleashes a magical elongated surprise from a magical box. ;D</t>
   </si>
   <si>
-    <t>Restores some of Kata's Health every few seconds.</t>
-  </si>
-  <si>
     <t>Creates a happy shield inside a target and makes it expand.</t>
   </si>
   <si>
@@ -684,7 +678,25 @@
     <t>Restores POWER Health per 5 seconds. But really, he stopped doing this a few months ago. NO REALLY. OH SCREW YOU MAN.</t>
   </si>
   <si>
-    <t>1+4</t>
+    <t>2+4</t>
+  </si>
+  <si>
+    <t>Motivates Kata to restore POWER Health and Cia to restore POWER2 Health every 4 seconds.</t>
+  </si>
+  <si>
+    <t>1+3</t>
+  </si>
+  <si>
+    <t>2+3.5</t>
+  </si>
+  <si>
+    <t>Strengthens Nate with POWER extra Attack and restores POWER2 Health every 5 seconds.</t>
+  </si>
+  <si>
+    <t>2+1</t>
+  </si>
+  <si>
+    <t>4+1</t>
   </si>
 </sst>
 </file>
@@ -902,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1035,6 +1047,9 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1793,9 +1808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1823,28 +1838,28 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" t="s">
         <v>185</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>186</v>
-      </c>
-      <c r="E1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" t="s">
-        <v>188</v>
       </c>
       <c r="G1" t="s">
         <v>43</v>
       </c>
       <c r="H1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" t="s">
         <v>189</v>
-      </c>
-      <c r="I1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1">
@@ -1861,13 +1876,13 @@
         <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>6</v>
@@ -1876,7 +1891,7 @@
         <v>115</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>63</v>
@@ -1891,34 +1906,34 @@
         <v>3</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="R2" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="S2" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="R2" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>214</v>
-      </c>
       <c r="T2" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="W2" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>203</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickTop="1">
@@ -2050,7 +2065,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>33</v>
@@ -2235,8 +2250,8 @@
       <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>151</v>
+      <c r="B8" s="56" t="s">
+        <v>224</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>56</v>
@@ -2274,17 +2289,17 @@
       <c r="N8" s="13">
         <v>0</v>
       </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
+      <c r="O8" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="P8" s="58" t="s">
+        <v>225</v>
       </c>
       <c r="Q8" s="16">
         <v>0</v>
       </c>
       <c r="R8" s="46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
@@ -2360,7 +2375,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>56</v>
@@ -2419,10 +2434,10 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -2484,7 +2499,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -2608,7 +2623,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -2856,7 +2871,7 @@
         <v>95</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>60</v>
@@ -3041,8 +3056,8 @@
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>177</v>
+      <c r="B21" s="56" t="s">
+        <v>221</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>60</v>
@@ -3080,11 +3095,11 @@
       <c r="N21" s="16">
         <v>0</v>
       </c>
-      <c r="O21" s="16">
-        <v>0</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0</v>
+      <c r="O21" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="P21" s="58" t="s">
+        <v>223</v>
       </c>
       <c r="Q21" s="16">
         <v>0</v>
@@ -3420,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>106</v>
@@ -3435,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="22">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J27" s="22">
         <v>0</v>
@@ -3462,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="R27" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
@@ -3476,7 +3491,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -3597,10 +3612,10 @@
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>10</v>
@@ -3639,10 +3654,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="57" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P30" s="57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="14">
         <v>0</v>
@@ -3845,7 +3860,7 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>150</v>
@@ -3907,13 +3922,13 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>47</v>
@@ -3969,13 +3984,13 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>47</v>
@@ -4031,13 +4046,13 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>91</v>
@@ -4093,16 +4108,16 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>107</v>
@@ -4403,13 +4418,13 @@
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
@@ -4465,13 +4480,13 @@
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>47</v>
@@ -4527,13 +4542,13 @@
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>47</v>
@@ -4589,13 +4604,13 @@
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>114</v>
@@ -4651,13 +4666,13 @@
     </row>
     <row r="47" spans="1:24">
       <c r="A47" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>114</v>
@@ -4902,7 +4917,7 @@
         <v>26</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>22</v>
@@ -5023,10 +5038,10 @@
     </row>
     <row r="53" spans="1:24">
       <c r="A53" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="25" t="s">
         <v>66</v>
@@ -5085,10 +5100,10 @@
     </row>
     <row r="54" spans="1:24">
       <c r="A54" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" s="25" t="s">
         <v>66</v>
@@ -5147,10 +5162,10 @@
     </row>
     <row r="55" spans="1:24">
       <c r="A55" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C55" s="25" t="s">
         <v>66</v>
@@ -5398,13 +5413,13 @@
         <v>113</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>106</v>
@@ -5705,16 +5720,16 @@
     </row>
     <row r="64" spans="1:24">
       <c r="A64" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="35" t="s">
         <v>180</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>182</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E64" s="25" t="s">
         <v>110</v>
@@ -5894,7 +5909,7 @@
         <v>41</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>40</v>
@@ -5956,7 +5971,7 @@
         <v>42</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>40</v>
@@ -6139,10 +6154,10 @@
     </row>
     <row r="71" spans="1:24">
       <c r="A71" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="37" t="s">
         <v>165</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>166</v>
       </c>
       <c r="C71" s="30" t="s">
         <v>35</v>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="245">
   <si>
     <t>Name</t>
   </si>
@@ -618,18 +618,6 @@
     <t>Increases the Friendship Value of Friendship Orbs collected.</t>
   </si>
   <si>
-    <t>OnCast</t>
-  </si>
-  <si>
-    <t>OnMove</t>
-  </si>
-  <si>
-    <t>OnHit</t>
-  </si>
-  <si>
-    <t>OnRemove</t>
-  </si>
-  <si>
     <t>Pressure Point</t>
   </si>
   <si>
@@ -639,24 +627,9 @@
     <t>AOE</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>OnDefend</t>
-  </si>
-  <si>
-    <t>Power2</t>
-  </si>
-  <si>
-    <t>Power3</t>
-  </si>
-  <si>
     <t>Activation</t>
   </si>
   <si>
-    <t>OnActivation</t>
-  </si>
-  <si>
     <t>Deals damage and inflicts Stun on the last hit. After rebooting or returning to the inventory, this ability is replaced with 'Enrage.'</t>
   </si>
   <si>
@@ -672,31 +645,112 @@
     <t>Dashes in a straight line, stunning any enemies in the way. Pick up special gems for extra bonuses!</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Restores POWER Health per 5 seconds. But really, he stopped doing this a few months ago. NO REALLY. OH SCREW YOU MAN.</t>
-  </si>
-  <si>
     <t>2+4</t>
   </si>
   <si>
-    <t>Motivates Kata to restore POWER Health and Cia to restore POWER2 Health every 4 seconds.</t>
-  </si>
-  <si>
     <t>1+3</t>
   </si>
   <si>
-    <t>2+3.5</t>
-  </si>
-  <si>
-    <t>Strengthens Nate with POWER extra Attack and restores POWER2 Health every 5 seconds.</t>
-  </si>
-  <si>
     <t>2+1</t>
   </si>
   <si>
     <t>4+1</t>
+  </si>
+  <si>
+    <t>RangeLump</t>
+  </si>
+  <si>
+    <t>RangePerc</t>
+  </si>
+  <si>
+    <t>StunDuration</t>
+  </si>
+  <si>
+    <t>SlowDuration</t>
+  </si>
+  <si>
+    <t>ExhaustDuration</t>
+  </si>
+  <si>
+    <t>SickDuration</t>
+  </si>
+  <si>
+    <t>RegenDuration</t>
+  </si>
+  <si>
+    <t>SlowPerc</t>
+  </si>
+  <si>
+    <t>SickPerc</t>
+  </si>
+  <si>
+    <t>RegenLump</t>
+  </si>
+  <si>
+    <t>RegenPerc</t>
+  </si>
+  <si>
+    <t>HPLump</t>
+  </si>
+  <si>
+    <t>HPPerc</t>
+  </si>
+  <si>
+    <t>APLump</t>
+  </si>
+  <si>
+    <t>APPerc</t>
+  </si>
+  <si>
+    <t>DPLump</t>
+  </si>
+  <si>
+    <t>DPPerc</t>
+  </si>
+  <si>
+    <t>CDLump</t>
+  </si>
+  <si>
+    <t>CDPerc</t>
+  </si>
+  <si>
+    <t>SickTime</t>
+  </si>
+  <si>
+    <t>RegenTime</t>
+  </si>
+  <si>
+    <t>SPLump</t>
+  </si>
+  <si>
+    <t>SPPerc</t>
+  </si>
+  <si>
+    <t>Motivates Kata and Cia to restore REGENLUMP Health every REGENTIME seconds.</t>
+  </si>
+  <si>
+    <t>Strengthens Nate with APLUMP extra Attack and restores REGENPERC % Health every REGENTIME seconds.</t>
+  </si>
+  <si>
+    <t>Restores REGENLUMP Health every REGENTIME seconds. But really, he stopped doing this a few months ago. NO REALLY. OH SCREW YOU MAN.</t>
+  </si>
+  <si>
+    <t>BonusDuration</t>
+  </si>
+  <si>
+    <t>EquipStatBuff</t>
+  </si>
+  <si>
+    <t>EquipDebuff</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>120-1</t>
   </si>
 </sst>
 </file>
@@ -997,19 +1051,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,45 +1060,83 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1073,7 +1153,31 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1219,6 +1323,894 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1313,65 +2305,17 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thick">
           <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1453,68 +2397,487 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema3">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickTime" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ExhaustDuration" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema4">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AOE" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activation" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Stand" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Exist" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Min" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Max" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Power" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Power2" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Power3" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Correct" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="APLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="APPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RangeLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RangePerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CDLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CDPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="StunDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SlowDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SlowPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickTime" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ExhaustDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenTime" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema5">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema6">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AOE" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activation" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Stand" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Exist" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Min" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Max" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Power" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Power2" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Power3" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Correct" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="APLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="APPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RangeLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RangePerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CDLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CDPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="StunDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SlowDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SlowPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickTime" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ExhaustDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenTime" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema7">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenTime" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema8">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AOE" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activation" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Stand" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Exist" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Min" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Max" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Correct" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="APLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="APPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RangeLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RangePerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CDLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CDPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="StunDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SlowDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SlowPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickTime" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ExhaustDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenTime" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema9">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AOE" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activation" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Stand" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Exist" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Min" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Max" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Correct" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="EquipStatBuff" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="BonusDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="APLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="APPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RangeLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RangePerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CDLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CDPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="EquipDebuff" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="StunDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SlowDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SlowPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickTime" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ExhaustDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenDuration" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema10">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Abilities">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Ability" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Availability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Spec" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AOE" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Uses" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Activation" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Value" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Stand" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Exist" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Min" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Max" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Cooldown" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Correct" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="EquipStatBuff" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="BonusDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="HPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="APLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="APPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="DPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SPLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SPPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RangeLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RangePerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CDLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="CDPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="EquipDebuff" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="StunDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SlowDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SlowPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="SickTime" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ExhaustDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenDuration" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenLump" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenPerc" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="RegenTime" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="32" Name="Abilities_Map" RootElement="Abilities" SchemaID="Schema16" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
   <Map ID="33" Name="Abilities_Map1" RootElement="Abilities" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="34" Name="Abilities_Map2" RootElement="Abilities" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="35" Name="Abilities_Map3" RootElement="Abilities" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="36" Name="Abilities_Map4" RootElement="Abilities" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="37" Name="Abilities_Map5" RootElement="Abilities" SchemaID="Schema6" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="38" Name="Abilities_Map6" RootElement="Abilities" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="39" Name="Abilities_Map7" RootElement="Abilities" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="40" Name="Abilities_Map8" RootElement="Abilities" SchemaID="Schema9" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="41" Name="Abilities_Map9" RootElement="Abilities" SchemaID="Schema10" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:R71" tableType="xml" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
-  <autoFilter ref="A2:R71"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:AP71" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="33" tableBorderDxfId="34">
+  <autoFilter ref="A2:AP71"/>
+  <tableColumns count="42">
     <tableColumn id="1" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="6">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
+    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="32">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="Availability" name="Availability">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Availability" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="Spec" name="Spec">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Spec" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="AOE" name="AOE">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/AOE" xmlDataType="string"/>
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/AOE" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="Uses" name="Uses">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Uses" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="Activation" name="Activation">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Activation" xmlDataType="integer"/>
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Activation" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="Value" name="Value">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Value" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="Stand" name="Stand">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Stand" xmlDataType="integer"/>
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Stand" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="Exist" name="Exist">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Exist" xmlDataType="integer"/>
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Exist" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Min" name="Min" dataDxfId="5">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
+    <tableColumn id="11" uniqueName="Min" name="Min" dataDxfId="31">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Max" name="Max" dataDxfId="4">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
+    <tableColumn id="12" uniqueName="Max" name="Max" dataDxfId="30">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="Range" name="Range">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Range" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="14" uniqueName="Cooldown" name="Cooldown">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Cooldown" xmlDataType="string"/>
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Cooldown" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="Power" name="Power" dataDxfId="3">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Power" xmlDataType="string"/>
+    <tableColumn id="15" uniqueName="Correct" name="Correct" dataDxfId="29">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Correct" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="Power2" name="Power2" dataDxfId="2">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Power2" xmlDataType="string"/>
+    <tableColumn id="16" uniqueName="Damage" name="Damage" dataDxfId="28">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Damage" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="Power3" name="Power3" dataDxfId="1">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Power3" xmlDataType="string"/>
+    <tableColumn id="17" uniqueName="EquipStatBuff" name="EquipStatBuff" dataDxfId="27">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/EquipStatBuff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="Correct" name="Correct" dataDxfId="0">
-      <xmlColumnPr mapId="33" xpath="/Abilities/Ability/Correct" xmlDataType="integer"/>
+    <tableColumn id="18" uniqueName="BonusDuration" name="BonusDuration" dataDxfId="26">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/BonusDuration" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="19" uniqueName="HPLump" name="HPLump" dataDxfId="25">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/HPLump" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="20" uniqueName="HPPerc" name="HPPerc" dataDxfId="24">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/HPPerc" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="21" uniqueName="APLump" name="APLump" dataDxfId="23">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/APLump" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="22" uniqueName="APPerc" name="APPerc" dataDxfId="22">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/APPerc" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="23" uniqueName="DPLump" name="DPLump" dataDxfId="21">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/DPLump" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="24" uniqueName="DPPerc" name="DPPerc" dataDxfId="20">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/DPPerc" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="25" uniqueName="SPLump" name="SPLump" dataDxfId="19">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SPLump" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="26" uniqueName="SPPerc" name="SPPerc" dataDxfId="18">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SPPerc" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="27" uniqueName="RangeLump" name="RangeLump" dataDxfId="17">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RangeLump" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="28" uniqueName="RangePerc" name="RangePerc" dataDxfId="16">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RangePerc" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="29" uniqueName="CDLump" name="CDLump" dataDxfId="15">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/CDLump" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="30" uniqueName="CDPerc" name="CDPerc" dataDxfId="14">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/CDPerc" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="31" uniqueName="EquipDebuff" name="EquipDebuff" dataDxfId="13">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/EquipDebuff" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="32" uniqueName="StunDuration" name="StunDuration" dataDxfId="12">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/StunDuration" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="33" uniqueName="SlowDuration" name="SlowDuration" dataDxfId="11">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SlowDuration" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="34" uniqueName="SlowPerc" name="SlowPerc" dataDxfId="10">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SlowPerc" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="35" uniqueName="SickDuration" name="SickDuration" dataDxfId="9">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SickDuration" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="36" uniqueName="SickPerc" name="SickPerc" dataDxfId="8">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SickPerc" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="37" uniqueName="SickTime" name="SickTime" dataDxfId="7">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SickTime" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="38" uniqueName="ExhaustDuration" name="ExhaustDuration" dataDxfId="6">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/ExhaustDuration" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="39" uniqueName="RegenDuration" name="RegenDuration" dataDxfId="5">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RegenDuration" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="40" uniqueName="RegenLump" name="RegenLump" dataDxfId="4">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RegenLump" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="41" uniqueName="RegenPerc" name="RegenPerc" dataDxfId="3">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RegenPerc" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="42" uniqueName="RegenTime" name="RegenTime" dataDxfId="2">
+      <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RegenTime" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1806,11 +3169,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:AP71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1828,15 +3191,29 @@
     <col min="11" max="12" width="8" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="18" width="12.28515625" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="22" width="15.5703125" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="21" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" customWidth="1"/>
+    <col min="23" max="26" width="17.5703125" customWidth="1"/>
+    <col min="27" max="27" width="19.42578125" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" customWidth="1"/>
+    <col min="29" max="29" width="21.7109375" customWidth="1"/>
+    <col min="30" max="31" width="16.5703125" customWidth="1"/>
+    <col min="32" max="32" width="15.85546875" customWidth="1"/>
+    <col min="33" max="33" width="17.28515625" customWidth="1"/>
+    <col min="34" max="34" width="13.7109375" customWidth="1"/>
+    <col min="35" max="35" width="17.85546875" customWidth="1"/>
+    <col min="36" max="37" width="13.28515625" customWidth="1"/>
+    <col min="38" max="38" width="21.140625" customWidth="1"/>
+    <col min="39" max="39" width="17.5703125" customWidth="1"/>
+    <col min="40" max="40" width="16.5703125" customWidth="1"/>
+    <col min="41" max="41" width="14.7109375" customWidth="1"/>
+    <col min="42" max="42" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:42">
       <c r="C1" t="s">
         <v>183</v>
       </c>
@@ -1862,7 +3239,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1">
+    <row r="2" spans="1:42" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1876,13 +3253,13 @@
         <v>46</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>6</v>
@@ -1905,38 +3282,92 @@
       <c r="N2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="R2" s="53" t="s">
+      <c r="O2" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z2" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB2" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="S2" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>203</v>
+      <c r="AC2" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD2" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE2" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF2" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG2" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH2" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI2" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ2" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK2" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL2" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM2" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN2" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP2" s="48" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickTop="1">
+    <row r="3" spans="1:42" ht="15.75" thickTop="1">
       <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
@@ -1979,26 +3410,40 @@
       <c r="N3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="17" t="s">
-        <v>128</v>
+      <c r="O3" s="50">
+        <v>1</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="R3" s="45">
-        <v>1</v>
-      </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="47"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:42">
       <c r="A4" s="8" t="s">
         <v>30</v>
       </c>
@@ -2041,26 +3486,40 @@
       <c r="N4" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>127</v>
+      <c r="O4" s="51">
+        <v>5</v>
       </c>
       <c r="P4" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="R4" s="46">
-        <v>5</v>
-      </c>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="47"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:42">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -2103,26 +3562,42 @@
       <c r="N5" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="50">
         <v>0</v>
       </c>
       <c r="P5" s="14">
         <v>0</v>
       </c>
-      <c r="Q5" s="14">
-        <v>0</v>
-      </c>
-      <c r="R5" s="45">
-        <v>0</v>
-      </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44"/>
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44"/>
+      <c r="AP5" s="47"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:42">
       <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
@@ -2165,27 +3640,41 @@
       <c r="N6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="16" t="s">
-        <v>129</v>
+      <c r="O6" s="51">
+        <v>0</v>
       </c>
       <c r="P6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="Q6" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="R6" s="46">
-        <v>0</v>
-      </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="47"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
+      <c r="AO6" s="44"/>
+      <c r="AP6" s="47"/>
     </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="54" t="s">
+    <row r="7" spans="1:42">
+      <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2227,31 +3716,45 @@
       <c r="N7" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="O7" s="14" t="s">
-        <v>131</v>
+      <c r="O7" s="50">
+        <v>1</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="Q7" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="R7" s="45">
-        <v>1</v>
-      </c>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="47"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="47"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:42">
       <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>224</v>
+      <c r="B8" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>56</v>
@@ -2289,26 +3792,50 @@
       <c r="N8" s="13">
         <v>0</v>
       </c>
-      <c r="O8" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="P8" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0</v>
-      </c>
-      <c r="R8" s="46">
-        <v>0</v>
-      </c>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
+      <c r="O8" s="51">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="R8" s="16"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP8" s="47" t="s">
+        <v>244</v>
+      </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:42">
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
@@ -2351,31 +3878,45 @@
       <c r="N9" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="O9" s="14" t="s">
-        <v>126</v>
+      <c r="O9" s="52">
+        <v>0</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="Q9" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="R9" s="47">
-        <v>0</v>
-      </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="44"/>
+      <c r="AH9" s="47"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="44"/>
+      <c r="AK9" s="44"/>
+      <c r="AL9" s="44"/>
+      <c r="AM9" s="44"/>
+      <c r="AN9" s="44"/>
+      <c r="AO9" s="44"/>
+      <c r="AP9" s="47"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:42">
       <c r="A10" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>56</v>
@@ -2413,31 +3954,45 @@
       <c r="N10" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="51">
         <v>0</v>
       </c>
       <c r="P10" s="16">
         <v>0</v>
       </c>
-      <c r="Q10" s="16">
-        <v>0</v>
-      </c>
-      <c r="R10" s="46">
-        <v>0</v>
-      </c>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+      <c r="AL10" s="44"/>
+      <c r="AM10" s="44"/>
+      <c r="AN10" s="44"/>
+      <c r="AO10" s="44"/>
+      <c r="AP10" s="47"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:42">
       <c r="A11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -2475,26 +4030,40 @@
       <c r="N11" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="O11" s="14" t="s">
-        <v>131</v>
+      <c r="O11" s="52">
+        <v>0</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="Q11" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="R11" s="47">
-        <v>0</v>
-      </c>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="44"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="44"/>
+      <c r="AK11" s="44"/>
+      <c r="AL11" s="44"/>
+      <c r="AM11" s="44"/>
+      <c r="AN11" s="44"/>
+      <c r="AO11" s="44"/>
+      <c r="AP11" s="47"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:42">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -2537,26 +4106,40 @@
       <c r="N12" s="15">
         <v>16</v>
       </c>
-      <c r="O12" s="14">
-        <v>5</v>
+      <c r="O12" s="53">
+        <v>4</v>
       </c>
       <c r="P12" s="14">
         <v>5</v>
       </c>
-      <c r="Q12" s="14">
-        <v>5</v>
-      </c>
-      <c r="R12" s="48">
-        <v>4</v>
-      </c>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
+      <c r="AP12" s="47"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:42">
       <c r="A13" s="9" t="s">
         <v>7</v>
       </c>
@@ -2599,31 +4182,45 @@
       <c r="N13" s="13">
         <v>150</v>
       </c>
-      <c r="O13" s="16">
-        <v>3</v>
+      <c r="O13" s="54">
+        <v>0</v>
       </c>
       <c r="P13" s="16">
         <v>3</v>
       </c>
-      <c r="Q13" s="16">
-        <v>3</v>
-      </c>
-      <c r="R13" s="49">
-        <v>0</v>
-      </c>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="47"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:42">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>216</v>
+      <c r="B14" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -2661,26 +4258,40 @@
       <c r="N14" s="15">
         <v>72</v>
       </c>
-      <c r="O14" s="14">
-        <v>5</v>
+      <c r="O14" s="53">
+        <v>0</v>
       </c>
       <c r="P14" s="14">
         <v>5</v>
       </c>
-      <c r="Q14" s="14">
-        <v>5</v>
-      </c>
-      <c r="R14" s="48">
-        <v>0</v>
-      </c>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="47"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:42">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -2723,26 +4334,40 @@
       <c r="N15" s="16">
         <v>120</v>
       </c>
-      <c r="O15" s="16">
-        <v>30</v>
+      <c r="O15" s="54">
+        <v>0</v>
       </c>
       <c r="P15" s="16">
         <v>30</v>
       </c>
-      <c r="Q15" s="16">
-        <v>30</v>
-      </c>
-      <c r="R15" s="49">
-        <v>0</v>
-      </c>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="47"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:42">
       <c r="A16" s="2" t="s">
         <v>72</v>
       </c>
@@ -2785,26 +4410,40 @@
       <c r="N16" s="15">
         <v>240</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="53">
         <v>0</v>
       </c>
       <c r="P16" s="14">
         <v>0</v>
       </c>
-      <c r="Q16" s="14">
-        <v>0</v>
-      </c>
-      <c r="R16" s="48">
-        <v>0</v>
-      </c>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="47"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:42">
       <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
@@ -2847,26 +4486,40 @@
       <c r="N17" s="16">
         <v>12</v>
       </c>
-      <c r="O17" s="16">
-        <v>5</v>
+      <c r="O17" s="54">
+        <v>0</v>
       </c>
       <c r="P17" s="16">
         <v>5</v>
       </c>
-      <c r="Q17" s="16">
-        <v>5</v>
-      </c>
-      <c r="R17" s="49">
-        <v>0</v>
-      </c>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="44"/>
+      <c r="AJ17" s="44"/>
+      <c r="AK17" s="44"/>
+      <c r="AL17" s="44"/>
+      <c r="AM17" s="44"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="47"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:42">
       <c r="A18" s="10" t="s">
         <v>95</v>
       </c>
@@ -2909,26 +4562,40 @@
       <c r="N18" s="14">
         <v>120</v>
       </c>
-      <c r="O18" s="14">
-        <v>2</v>
+      <c r="O18" s="53">
+        <v>0</v>
       </c>
       <c r="P18" s="14">
         <v>2</v>
       </c>
-      <c r="Q18" s="14">
-        <v>2</v>
-      </c>
-      <c r="R18" s="48">
-        <v>0</v>
-      </c>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="44"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="44"/>
+      <c r="AJ18" s="44"/>
+      <c r="AK18" s="44"/>
+      <c r="AL18" s="44"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="44"/>
+      <c r="AO18" s="44"/>
+      <c r="AP18" s="47"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:42">
       <c r="A19" s="3" t="s">
         <v>96</v>
       </c>
@@ -2971,26 +4638,40 @@
       <c r="N19" s="16">
         <v>120</v>
       </c>
-      <c r="O19" s="16">
-        <v>5</v>
+      <c r="O19" s="54">
+        <v>0</v>
       </c>
       <c r="P19" s="16">
         <v>5</v>
       </c>
-      <c r="Q19" s="16">
-        <v>5</v>
-      </c>
-      <c r="R19" s="49">
-        <v>0</v>
-      </c>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="47"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:42">
       <c r="A20" s="10" t="s">
         <v>94</v>
       </c>
@@ -3033,31 +4714,45 @@
       <c r="N20" s="14">
         <v>120</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="53">
         <v>0</v>
       </c>
       <c r="P20" s="14">
         <v>0</v>
       </c>
-      <c r="Q20" s="14">
-        <v>0</v>
-      </c>
-      <c r="R20" s="48">
-        <v>0</v>
-      </c>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+      <c r="AL20" s="44"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="47"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:42">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>221</v>
+      <c r="B21" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>60</v>
@@ -3095,26 +4790,40 @@
       <c r="N21" s="16">
         <v>0</v>
       </c>
-      <c r="O21" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="P21" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q21" s="16">
-        <v>0</v>
-      </c>
-      <c r="R21" s="49">
-        <v>0</v>
-      </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
+      <c r="O21" s="54">
+        <v>0</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="44"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="47"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:42">
       <c r="A22" s="10" t="s">
         <v>20</v>
       </c>
@@ -3157,26 +4866,40 @@
       <c r="N22" s="14">
         <v>12</v>
       </c>
-      <c r="O22" s="14">
-        <v>8</v>
+      <c r="O22" s="53">
+        <v>0</v>
       </c>
       <c r="P22" s="14">
         <v>8</v>
       </c>
-      <c r="Q22" s="14">
-        <v>8</v>
-      </c>
-      <c r="R22" s="48">
-        <v>0</v>
-      </c>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="47"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:42">
       <c r="A23" s="9" t="s">
         <v>17</v>
       </c>
@@ -3219,26 +4942,40 @@
       <c r="N23" s="13">
         <v>60</v>
       </c>
-      <c r="O23" s="16">
-        <v>24</v>
+      <c r="O23" s="54">
+        <v>0</v>
       </c>
       <c r="P23" s="16">
         <v>24</v>
       </c>
-      <c r="Q23" s="16">
-        <v>24</v>
-      </c>
-      <c r="R23" s="49">
-        <v>0</v>
-      </c>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="44"/>
+      <c r="AJ23" s="44"/>
+      <c r="AK23" s="44"/>
+      <c r="AL23" s="44"/>
+      <c r="AM23" s="44"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="47"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:42">
       <c r="A24" s="10" t="s">
         <v>62</v>
       </c>
@@ -3281,26 +5018,40 @@
       <c r="N24" s="14">
         <v>70</v>
       </c>
-      <c r="O24" s="14">
-        <v>12</v>
+      <c r="O24" s="53">
+        <v>0</v>
       </c>
       <c r="P24" s="14">
         <v>12</v>
       </c>
-      <c r="Q24" s="14">
-        <v>12</v>
-      </c>
-      <c r="R24" s="48">
-        <v>0</v>
-      </c>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+      <c r="AL24" s="44"/>
+      <c r="AM24" s="44"/>
+      <c r="AN24" s="44"/>
+      <c r="AO24" s="44"/>
+      <c r="AP24" s="47"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:42">
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
@@ -3343,26 +5094,40 @@
       <c r="N25" s="13">
         <v>80</v>
       </c>
-      <c r="O25" s="16">
-        <v>6</v>
+      <c r="O25" s="54">
+        <v>0</v>
       </c>
       <c r="P25" s="16">
         <v>6</v>
       </c>
-      <c r="Q25" s="16">
-        <v>6</v>
-      </c>
-      <c r="R25" s="49">
-        <v>0</v>
-      </c>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="44"/>
+      <c r="AJ25" s="44"/>
+      <c r="AK25" s="44"/>
+      <c r="AL25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="47"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:42">
       <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
@@ -3405,26 +5170,40 @@
       <c r="N26" s="14">
         <v>12</v>
       </c>
-      <c r="O26" s="14">
-        <v>5</v>
+      <c r="O26" s="53">
+        <v>4</v>
       </c>
       <c r="P26" s="14">
         <v>5</v>
       </c>
-      <c r="Q26" s="14">
-        <v>5</v>
-      </c>
-      <c r="R26" s="48">
-        <v>4</v>
-      </c>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="44"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="44"/>
+      <c r="AM26" s="44"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="47"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:42">
       <c r="A27" s="3" t="s">
         <v>104</v>
       </c>
@@ -3467,31 +5246,45 @@
       <c r="N27" s="16">
         <v>80</v>
       </c>
-      <c r="O27" s="16">
-        <v>3</v>
+      <c r="O27" s="54">
+        <v>4</v>
       </c>
       <c r="P27" s="16">
         <v>3</v>
       </c>
-      <c r="Q27" s="16">
-        <v>3</v>
-      </c>
-      <c r="R27" s="49">
-        <v>4</v>
-      </c>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="44"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="44"/>
+      <c r="AJ27" s="44"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="44"/>
+      <c r="AM27" s="44"/>
+      <c r="AN27" s="44"/>
+      <c r="AO27" s="44"/>
+      <c r="AP27" s="47"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:42">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>217</v>
+      <c r="B28" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
@@ -3529,26 +5322,40 @@
       <c r="N28" s="15">
         <v>120</v>
       </c>
-      <c r="O28" s="14">
-        <v>10</v>
+      <c r="O28" s="53">
+        <v>5</v>
       </c>
       <c r="P28" s="14">
         <v>10</v>
       </c>
-      <c r="Q28" s="14">
-        <v>10</v>
-      </c>
-      <c r="R28" s="48">
-        <v>5</v>
-      </c>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="44"/>
+      <c r="AC28" s="44"/>
+      <c r="AD28" s="44"/>
+      <c r="AE28" s="44"/>
+      <c r="AF28" s="44"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="47"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:42">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -3591,31 +5398,45 @@
       <c r="N29" s="16">
         <v>90</v>
       </c>
-      <c r="O29" s="16">
+      <c r="O29" s="54">
         <v>0</v>
       </c>
       <c r="P29" s="16">
         <v>0</v>
       </c>
-      <c r="Q29" s="16">
-        <v>0</v>
-      </c>
-      <c r="R29" s="49">
-        <v>0</v>
-      </c>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="44"/>
+      <c r="AB29" s="44"/>
+      <c r="AC29" s="44"/>
+      <c r="AD29" s="44"/>
+      <c r="AE29" s="44"/>
+      <c r="AF29" s="44"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="44"/>
+      <c r="AJ29" s="44"/>
+      <c r="AK29" s="44"/>
+      <c r="AL29" s="44"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="47"/>
     </row>
-    <row r="30" spans="1:24">
-      <c r="A30" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>219</v>
+    <row r="30" spans="1:42">
+      <c r="A30" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>10</v>
@@ -3653,27 +5474,41 @@
       <c r="N30" s="14">
         <v>0</v>
       </c>
-      <c r="O30" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="P30" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>0</v>
-      </c>
-      <c r="R30" s="48">
-        <v>0</v>
-      </c>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
+      <c r="O30" s="53">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="44"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="44"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="44"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="44"/>
+      <c r="AJ30" s="44"/>
+      <c r="AK30" s="44"/>
+      <c r="AL30" s="44"/>
+      <c r="AM30" s="44"/>
+      <c r="AN30" s="44"/>
+      <c r="AO30" s="44"/>
+      <c r="AP30" s="47"/>
     </row>
-    <row r="31" spans="1:24">
-      <c r="A31" s="56" t="s">
+    <row r="31" spans="1:42">
+      <c r="A31" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -3715,26 +5550,40 @@
       <c r="N31" s="16">
         <v>16</v>
       </c>
-      <c r="O31" s="16">
-        <v>5</v>
+      <c r="O31" s="54">
+        <v>0</v>
       </c>
       <c r="P31" s="16">
         <v>5</v>
       </c>
-      <c r="Q31" s="16">
-        <v>5</v>
-      </c>
-      <c r="R31" s="49">
-        <v>0</v>
-      </c>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+      <c r="AB31" s="44"/>
+      <c r="AC31" s="44"/>
+      <c r="AD31" s="44"/>
+      <c r="AE31" s="44"/>
+      <c r="AF31" s="44"/>
+      <c r="AG31" s="44"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="44"/>
+      <c r="AJ31" s="44"/>
+      <c r="AK31" s="44"/>
+      <c r="AL31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="47"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:42">
       <c r="A32" s="10" t="s">
         <v>70</v>
       </c>
@@ -3777,26 +5626,40 @@
       <c r="N32" s="14">
         <v>55</v>
       </c>
-      <c r="O32" s="14">
-        <v>10</v>
+      <c r="O32" s="53">
+        <v>0</v>
       </c>
       <c r="P32" s="14">
         <v>10</v>
       </c>
-      <c r="Q32" s="14">
-        <v>10</v>
-      </c>
-      <c r="R32" s="48">
-        <v>0</v>
-      </c>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+      <c r="AD32" s="44"/>
+      <c r="AE32" s="44"/>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="44"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="44"/>
+      <c r="AJ32" s="44"/>
+      <c r="AK32" s="44"/>
+      <c r="AL32" s="44"/>
+      <c r="AM32" s="44"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="47"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:42">
       <c r="A33" s="3" t="s">
         <v>71</v>
       </c>
@@ -3839,26 +5702,40 @@
       <c r="N33" s="13">
         <v>24</v>
       </c>
-      <c r="O33" s="16">
-        <v>10</v>
+      <c r="O33" s="54">
+        <v>0</v>
       </c>
       <c r="P33" s="16">
         <v>10</v>
       </c>
-      <c r="Q33" s="16">
-        <v>10</v>
-      </c>
-      <c r="R33" s="49">
-        <v>0</v>
-      </c>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="44"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="44"/>
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44"/>
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44"/>
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44"/>
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="44"/>
+      <c r="AP33" s="47"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:42">
       <c r="A34" s="10" t="s">
         <v>181</v>
       </c>
@@ -3901,26 +5778,40 @@
       <c r="N34" s="14">
         <v>110</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="53">
         <v>0</v>
       </c>
       <c r="P34" s="14">
         <v>0</v>
       </c>
-      <c r="Q34" s="14">
-        <v>0</v>
-      </c>
-      <c r="R34" s="48">
-        <v>0</v>
-      </c>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="44"/>
+      <c r="AD34" s="44"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="44"/>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44"/>
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="44"/>
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="47"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:42">
       <c r="A35" s="6" t="s">
         <v>190</v>
       </c>
@@ -3963,26 +5854,40 @@
       <c r="N35" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="O35" s="17" t="s">
-        <v>128</v>
+      <c r="O35" s="55">
+        <v>0</v>
       </c>
       <c r="P35" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="Q35" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="R35" s="50">
-        <v>0</v>
-      </c>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="44"/>
+      <c r="AB35" s="44"/>
+      <c r="AC35" s="44"/>
+      <c r="AD35" s="44"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44"/>
+      <c r="AG35" s="44"/>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44"/>
+      <c r="AJ35" s="44"/>
+      <c r="AK35" s="44"/>
+      <c r="AL35" s="44"/>
+      <c r="AM35" s="44"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="47"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:42">
       <c r="A36" s="25" t="s">
         <v>193</v>
       </c>
@@ -4028,23 +5933,37 @@
       <c r="O36" s="41">
         <v>0</v>
       </c>
-      <c r="P36" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="43">
-        <v>0</v>
-      </c>
-      <c r="R36" s="51">
-        <v>0</v>
-      </c>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
+      <c r="P36" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="44"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="44"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="44"/>
+      <c r="AM36" s="44"/>
+      <c r="AN36" s="44"/>
+      <c r="AO36" s="44"/>
+      <c r="AP36" s="47"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:42">
       <c r="A37" s="25" t="s">
         <v>194</v>
       </c>
@@ -4090,23 +6009,37 @@
       <c r="O37" s="41">
         <v>0</v>
       </c>
-      <c r="P37" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="43">
-        <v>0</v>
-      </c>
-      <c r="R37" s="51">
-        <v>0</v>
-      </c>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
+      <c r="P37" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
+      <c r="AB37" s="44"/>
+      <c r="AC37" s="44"/>
+      <c r="AD37" s="44"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
+      <c r="AM37" s="44"/>
+      <c r="AN37" s="44"/>
+      <c r="AO37" s="44"/>
+      <c r="AP37" s="47"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:42">
       <c r="A38" s="25" t="s">
         <v>195</v>
       </c>
@@ -4152,23 +6085,37 @@
       <c r="O38" s="41">
         <v>0</v>
       </c>
-      <c r="P38" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="43">
-        <v>0</v>
-      </c>
-      <c r="R38" s="51">
-        <v>0</v>
-      </c>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
+      <c r="P38" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="44"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="44"/>
+      <c r="AL38" s="44"/>
+      <c r="AM38" s="44"/>
+      <c r="AN38" s="44"/>
+      <c r="AO38" s="44"/>
+      <c r="AP38" s="47"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:42">
       <c r="A39" s="3" t="s">
         <v>89</v>
       </c>
@@ -4211,26 +6158,40 @@
       <c r="N39" s="16">
         <v>24</v>
       </c>
-      <c r="O39" s="16">
-        <v>8</v>
+      <c r="O39" s="54">
+        <v>0</v>
       </c>
       <c r="P39" s="16">
         <v>8</v>
       </c>
-      <c r="Q39" s="16">
-        <v>8</v>
-      </c>
-      <c r="R39" s="49">
-        <v>0</v>
-      </c>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
+      <c r="AP39" s="47"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:42">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -4273,26 +6234,40 @@
       <c r="N40" s="14">
         <v>50</v>
       </c>
-      <c r="O40" s="14">
-        <v>30</v>
+      <c r="O40" s="53">
+        <v>0</v>
       </c>
       <c r="P40" s="14">
         <v>30</v>
       </c>
-      <c r="Q40" s="14">
-        <v>30</v>
-      </c>
-      <c r="R40" s="48">
-        <v>0</v>
-      </c>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="44"/>
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="44"/>
+      <c r="AM40" s="44"/>
+      <c r="AN40" s="44"/>
+      <c r="AO40" s="44"/>
+      <c r="AP40" s="47"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:42">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -4335,26 +6310,40 @@
       <c r="N41" s="16">
         <v>230</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O41" s="54">
         <v>0</v>
       </c>
       <c r="P41" s="16">
         <v>0</v>
       </c>
-      <c r="Q41" s="16">
-        <v>0</v>
-      </c>
-      <c r="R41" s="49">
-        <v>0</v>
-      </c>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
+      <c r="AB41" s="44"/>
+      <c r="AC41" s="44"/>
+      <c r="AD41" s="44"/>
+      <c r="AE41" s="44"/>
+      <c r="AF41" s="44"/>
+      <c r="AG41" s="44"/>
+      <c r="AH41" s="44"/>
+      <c r="AI41" s="44"/>
+      <c r="AJ41" s="44"/>
+      <c r="AK41" s="44"/>
+      <c r="AL41" s="44"/>
+      <c r="AM41" s="44"/>
+      <c r="AN41" s="44"/>
+      <c r="AO41" s="44"/>
+      <c r="AP41" s="47"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:42">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
@@ -4397,26 +6386,40 @@
       <c r="N42" s="14">
         <v>48</v>
       </c>
-      <c r="O42" s="14">
-        <v>12</v>
+      <c r="O42" s="53">
+        <v>0</v>
       </c>
       <c r="P42" s="14">
         <v>12</v>
       </c>
-      <c r="Q42" s="14">
-        <v>12</v>
-      </c>
-      <c r="R42" s="48">
-        <v>0</v>
-      </c>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44"/>
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="44"/>
+      <c r="AP42" s="47"/>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:42">
       <c r="A43" s="2" t="s">
         <v>170</v>
       </c>
@@ -4459,26 +6462,40 @@
       <c r="N43" s="14">
         <v>12</v>
       </c>
-      <c r="O43" s="14">
-        <v>5</v>
+      <c r="O43" s="53">
+        <v>0</v>
       </c>
       <c r="P43" s="14">
         <v>5</v>
       </c>
-      <c r="Q43" s="14">
-        <v>5</v>
-      </c>
-      <c r="R43" s="48">
-        <v>0</v>
-      </c>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="44"/>
+      <c r="AC43" s="44"/>
+      <c r="AD43" s="44"/>
+      <c r="AE43" s="44"/>
+      <c r="AF43" s="44"/>
+      <c r="AG43" s="44"/>
+      <c r="AH43" s="44"/>
+      <c r="AI43" s="44"/>
+      <c r="AJ43" s="44"/>
+      <c r="AK43" s="44"/>
+      <c r="AL43" s="44"/>
+      <c r="AM43" s="44"/>
+      <c r="AN43" s="44"/>
+      <c r="AO43" s="44"/>
+      <c r="AP43" s="47"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:42">
       <c r="A44" s="25" t="s">
         <v>169</v>
       </c>
@@ -4518,29 +6535,43 @@
       <c r="M44" s="27">
         <v>800</v>
       </c>
-      <c r="N44" s="39">
+      <c r="N44" s="38">
         <v>48</v>
       </c>
-      <c r="O44" s="14">
-        <v>10</v>
+      <c r="O44" s="53">
+        <v>0</v>
       </c>
       <c r="P44" s="14">
         <v>10</v>
       </c>
-      <c r="Q44" s="14">
-        <v>10</v>
-      </c>
-      <c r="R44" s="48">
-        <v>0</v>
-      </c>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="44"/>
+      <c r="AF44" s="44"/>
+      <c r="AG44" s="44"/>
+      <c r="AH44" s="44"/>
+      <c r="AI44" s="44"/>
+      <c r="AJ44" s="44"/>
+      <c r="AK44" s="44"/>
+      <c r="AL44" s="44"/>
+      <c r="AM44" s="44"/>
+      <c r="AN44" s="44"/>
+      <c r="AO44" s="44"/>
+      <c r="AP44" s="47"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:42">
       <c r="A45" s="25" t="s">
         <v>167</v>
       </c>
@@ -4580,29 +6611,43 @@
       <c r="M45" s="27">
         <v>250</v>
       </c>
-      <c r="N45" s="39">
+      <c r="N45" s="38">
         <v>96</v>
       </c>
-      <c r="O45" s="16">
-        <v>20</v>
+      <c r="O45" s="54">
+        <v>0</v>
       </c>
       <c r="P45" s="16">
         <v>20</v>
       </c>
-      <c r="Q45" s="16">
-        <v>20</v>
-      </c>
-      <c r="R45" s="49">
-        <v>0</v>
-      </c>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="44"/>
+      <c r="AF45" s="44"/>
+      <c r="AG45" s="44"/>
+      <c r="AH45" s="44"/>
+      <c r="AI45" s="44"/>
+      <c r="AJ45" s="44"/>
+      <c r="AK45" s="44"/>
+      <c r="AL45" s="44"/>
+      <c r="AM45" s="44"/>
+      <c r="AN45" s="44"/>
+      <c r="AO45" s="44"/>
+      <c r="AP45" s="47"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:42">
       <c r="A46" s="25" t="s">
         <v>171</v>
       </c>
@@ -4648,23 +6693,37 @@
       <c r="O46" s="41">
         <v>0</v>
       </c>
-      <c r="P46" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="43">
-        <v>0</v>
-      </c>
-      <c r="R46" s="51">
-        <v>0</v>
-      </c>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="35"/>
+      <c r="P46" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="44"/>
+      <c r="AP46" s="47"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:42">
       <c r="A47" s="25" t="s">
         <v>168</v>
       </c>
@@ -4704,29 +6763,43 @@
       <c r="M47" s="27">
         <v>150</v>
       </c>
-      <c r="N47" s="39">
+      <c r="N47" s="38">
         <v>72</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="53">
         <v>0</v>
       </c>
       <c r="P47" s="14">
         <v>0</v>
       </c>
-      <c r="Q47" s="14">
-        <v>0</v>
-      </c>
-      <c r="R47" s="48">
-        <v>0</v>
-      </c>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="44"/>
+      <c r="AK47" s="44"/>
+      <c r="AL47" s="44"/>
+      <c r="AM47" s="44"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="44"/>
+      <c r="AP47" s="47"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:42">
       <c r="A48" s="2" t="s">
         <v>23</v>
       </c>
@@ -4769,26 +6842,40 @@
       <c r="N48" s="15">
         <v>8</v>
       </c>
-      <c r="O48" s="16">
-        <v>5</v>
+      <c r="O48" s="54">
+        <v>0</v>
       </c>
       <c r="P48" s="16">
         <v>5</v>
       </c>
-      <c r="Q48" s="16">
-        <v>5</v>
-      </c>
-      <c r="R48" s="49">
-        <v>0</v>
-      </c>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="44"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
+      <c r="AP48" s="47"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:42">
       <c r="A49" s="10" t="s">
         <v>27</v>
       </c>
@@ -4831,26 +6918,40 @@
       <c r="N49" s="14">
         <v>720</v>
       </c>
-      <c r="O49" s="14">
+      <c r="O49" s="53">
         <v>0</v>
       </c>
       <c r="P49" s="14">
         <v>0</v>
       </c>
-      <c r="Q49" s="14">
-        <v>0</v>
-      </c>
-      <c r="R49" s="48">
-        <v>0</v>
-      </c>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="44"/>
+      <c r="AB49" s="44"/>
+      <c r="AC49" s="44"/>
+      <c r="AD49" s="44"/>
+      <c r="AE49" s="44"/>
+      <c r="AF49" s="44"/>
+      <c r="AG49" s="44"/>
+      <c r="AH49" s="44"/>
+      <c r="AI49" s="44"/>
+      <c r="AJ49" s="44"/>
+      <c r="AK49" s="44"/>
+      <c r="AL49" s="44"/>
+      <c r="AM49" s="44"/>
+      <c r="AN49" s="44"/>
+      <c r="AO49" s="44"/>
+      <c r="AP49" s="47"/>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:42">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -4893,26 +6994,40 @@
       <c r="N50" s="15">
         <v>720</v>
       </c>
-      <c r="O50" s="16">
+      <c r="O50" s="54">
         <v>0</v>
       </c>
       <c r="P50" s="16">
         <v>0</v>
       </c>
-      <c r="Q50" s="16">
-        <v>0</v>
-      </c>
-      <c r="R50" s="49">
-        <v>0</v>
-      </c>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="44"/>
+      <c r="AD50" s="44"/>
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44"/>
+      <c r="AJ50" s="44"/>
+      <c r="AK50" s="44"/>
+      <c r="AL50" s="44"/>
+      <c r="AM50" s="44"/>
+      <c r="AN50" s="44"/>
+      <c r="AO50" s="44"/>
+      <c r="AP50" s="47"/>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:42">
       <c r="A51" s="10" t="s">
         <v>26</v>
       </c>
@@ -4955,26 +7070,40 @@
       <c r="N51" s="14">
         <v>100</v>
       </c>
-      <c r="O51" s="14">
-        <v>10</v>
+      <c r="O51" s="53">
+        <v>0</v>
       </c>
       <c r="P51" s="14">
         <v>10</v>
       </c>
-      <c r="Q51" s="14">
-        <v>10</v>
-      </c>
-      <c r="R51" s="48">
-        <v>0</v>
-      </c>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="44"/>
+      <c r="AC51" s="44"/>
+      <c r="AD51" s="44"/>
+      <c r="AE51" s="44"/>
+      <c r="AF51" s="44"/>
+      <c r="AG51" s="44"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="44"/>
+      <c r="AJ51" s="44"/>
+      <c r="AK51" s="44"/>
+      <c r="AL51" s="44"/>
+      <c r="AM51" s="44"/>
+      <c r="AN51" s="44"/>
+      <c r="AO51" s="44"/>
+      <c r="AP51" s="47"/>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:42">
       <c r="A52" s="2" t="s">
         <v>65</v>
       </c>
@@ -5017,26 +7146,40 @@
       <c r="N52" s="15">
         <v>16</v>
       </c>
-      <c r="O52" s="16">
-        <v>5</v>
+      <c r="O52" s="54">
+        <v>0</v>
       </c>
       <c r="P52" s="16">
         <v>5</v>
       </c>
-      <c r="Q52" s="16">
-        <v>5</v>
-      </c>
-      <c r="R52" s="49">
-        <v>0</v>
-      </c>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="44"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44"/>
+      <c r="AA52" s="44"/>
+      <c r="AB52" s="44"/>
+      <c r="AC52" s="44"/>
+      <c r="AD52" s="44"/>
+      <c r="AE52" s="44"/>
+      <c r="AF52" s="44"/>
+      <c r="AG52" s="44"/>
+      <c r="AH52" s="44"/>
+      <c r="AI52" s="44"/>
+      <c r="AJ52" s="44"/>
+      <c r="AK52" s="44"/>
+      <c r="AL52" s="44"/>
+      <c r="AM52" s="44"/>
+      <c r="AN52" s="44"/>
+      <c r="AO52" s="44"/>
+      <c r="AP52" s="47"/>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:42">
       <c r="A53" s="25" t="s">
         <v>155</v>
       </c>
@@ -5076,29 +7219,43 @@
       <c r="M53" s="27">
         <v>40</v>
       </c>
-      <c r="N53" s="39">
+      <c r="N53" s="38">
         <v>48</v>
       </c>
-      <c r="O53" s="14">
-        <v>15</v>
+      <c r="O53" s="53">
+        <v>0</v>
       </c>
       <c r="P53" s="14">
         <v>15</v>
       </c>
-      <c r="Q53" s="14">
-        <v>15</v>
-      </c>
-      <c r="R53" s="48">
-        <v>0</v>
-      </c>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="44"/>
+      <c r="Y53" s="44"/>
+      <c r="Z53" s="44"/>
+      <c r="AA53" s="44"/>
+      <c r="AB53" s="44"/>
+      <c r="AC53" s="44"/>
+      <c r="AD53" s="44"/>
+      <c r="AE53" s="44"/>
+      <c r="AF53" s="44"/>
+      <c r="AG53" s="44"/>
+      <c r="AH53" s="44"/>
+      <c r="AI53" s="44"/>
+      <c r="AJ53" s="44"/>
+      <c r="AK53" s="44"/>
+      <c r="AL53" s="44"/>
+      <c r="AM53" s="44"/>
+      <c r="AN53" s="44"/>
+      <c r="AO53" s="44"/>
+      <c r="AP53" s="47"/>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:42">
       <c r="A54" s="25" t="s">
         <v>156</v>
       </c>
@@ -5138,29 +7295,43 @@
       <c r="M54" s="27">
         <v>80</v>
       </c>
-      <c r="N54" s="39">
+      <c r="N54" s="38">
         <v>120</v>
       </c>
-      <c r="O54" s="16">
+      <c r="O54" s="54">
         <v>0</v>
       </c>
       <c r="P54" s="16">
         <v>0</v>
       </c>
-      <c r="Q54" s="16">
-        <v>0</v>
-      </c>
-      <c r="R54" s="49">
-        <v>0</v>
-      </c>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="Z54" s="44"/>
+      <c r="AA54" s="44"/>
+      <c r="AB54" s="44"/>
+      <c r="AC54" s="44"/>
+      <c r="AD54" s="44"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="44"/>
+      <c r="AG54" s="44"/>
+      <c r="AH54" s="44"/>
+      <c r="AI54" s="44"/>
+      <c r="AJ54" s="44"/>
+      <c r="AK54" s="44"/>
+      <c r="AL54" s="44"/>
+      <c r="AM54" s="44"/>
+      <c r="AN54" s="44"/>
+      <c r="AO54" s="44"/>
+      <c r="AP54" s="47"/>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:42">
       <c r="A55" s="25" t="s">
         <v>157</v>
       </c>
@@ -5200,29 +7371,43 @@
       <c r="M55" s="27">
         <v>150</v>
       </c>
-      <c r="N55" s="39">
+      <c r="N55" s="38">
         <v>120</v>
       </c>
-      <c r="O55" s="14">
+      <c r="O55" s="53">
         <v>0</v>
       </c>
       <c r="P55" s="14">
         <v>0</v>
       </c>
-      <c r="Q55" s="14">
-        <v>0</v>
-      </c>
-      <c r="R55" s="48">
-        <v>0</v>
-      </c>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="44"/>
+      <c r="Z55" s="44"/>
+      <c r="AA55" s="44"/>
+      <c r="AB55" s="44"/>
+      <c r="AC55" s="44"/>
+      <c r="AD55" s="44"/>
+      <c r="AE55" s="44"/>
+      <c r="AF55" s="44"/>
+      <c r="AG55" s="44"/>
+      <c r="AH55" s="44"/>
+      <c r="AI55" s="44"/>
+      <c r="AJ55" s="44"/>
+      <c r="AK55" s="44"/>
+      <c r="AL55" s="44"/>
+      <c r="AM55" s="44"/>
+      <c r="AN55" s="44"/>
+      <c r="AO55" s="44"/>
+      <c r="AP55" s="47"/>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:42">
       <c r="A56" s="3" t="s">
         <v>101</v>
       </c>
@@ -5265,26 +7450,40 @@
       <c r="N56" s="16">
         <v>0</v>
       </c>
-      <c r="O56" s="16">
+      <c r="O56" s="54">
         <v>0</v>
       </c>
       <c r="P56" s="16">
         <v>0</v>
       </c>
-      <c r="Q56" s="16">
-        <v>0</v>
-      </c>
-      <c r="R56" s="49">
-        <v>0</v>
-      </c>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="44"/>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="44"/>
+      <c r="AB56" s="44"/>
+      <c r="AC56" s="44"/>
+      <c r="AD56" s="44"/>
+      <c r="AE56" s="44"/>
+      <c r="AF56" s="44"/>
+      <c r="AG56" s="44"/>
+      <c r="AH56" s="44"/>
+      <c r="AI56" s="44"/>
+      <c r="AJ56" s="44"/>
+      <c r="AK56" s="44"/>
+      <c r="AL56" s="44"/>
+      <c r="AM56" s="44"/>
+      <c r="AN56" s="44"/>
+      <c r="AO56" s="44"/>
+      <c r="AP56" s="47"/>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:42">
       <c r="A57" s="3" t="s">
         <v>76</v>
       </c>
@@ -5327,26 +7526,40 @@
       <c r="N57" s="16">
         <v>12</v>
       </c>
-      <c r="O57" s="16">
-        <v>10</v>
+      <c r="O57" s="54">
+        <v>0</v>
       </c>
       <c r="P57" s="16">
         <v>10</v>
       </c>
-      <c r="Q57" s="16">
-        <v>10</v>
-      </c>
-      <c r="R57" s="49">
-        <v>0</v>
-      </c>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44"/>
+      <c r="AA57" s="44"/>
+      <c r="AB57" s="44"/>
+      <c r="AC57" s="44"/>
+      <c r="AD57" s="44"/>
+      <c r="AE57" s="44"/>
+      <c r="AF57" s="44"/>
+      <c r="AG57" s="44"/>
+      <c r="AH57" s="44"/>
+      <c r="AI57" s="44"/>
+      <c r="AJ57" s="44"/>
+      <c r="AK57" s="44"/>
+      <c r="AL57" s="44"/>
+      <c r="AM57" s="44"/>
+      <c r="AN57" s="44"/>
+      <c r="AO57" s="44"/>
+      <c r="AP57" s="47"/>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:42">
       <c r="A58" s="3" t="s">
         <v>75</v>
       </c>
@@ -5389,26 +7602,40 @@
       <c r="N58" s="16">
         <v>64</v>
       </c>
-      <c r="O58" s="16">
-        <v>15</v>
+      <c r="O58" s="54">
+        <v>0</v>
       </c>
       <c r="P58" s="16">
         <v>15</v>
       </c>
-      <c r="Q58" s="16">
-        <v>15</v>
-      </c>
-      <c r="R58" s="49">
-        <v>0</v>
-      </c>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="44"/>
+      <c r="AA58" s="44"/>
+      <c r="AB58" s="44"/>
+      <c r="AC58" s="44"/>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
+      <c r="AG58" s="44"/>
+      <c r="AH58" s="44"/>
+      <c r="AI58" s="44"/>
+      <c r="AJ58" s="44"/>
+      <c r="AK58" s="44"/>
+      <c r="AL58" s="44"/>
+      <c r="AM58" s="44"/>
+      <c r="AN58" s="44"/>
+      <c r="AO58" s="44"/>
+      <c r="AP58" s="47"/>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:42">
       <c r="A59" s="3" t="s">
         <v>113</v>
       </c>
@@ -5451,26 +7678,40 @@
       <c r="N59" s="16">
         <v>16</v>
       </c>
-      <c r="O59" s="16">
-        <v>2</v>
+      <c r="O59" s="54">
+        <v>0</v>
       </c>
       <c r="P59" s="16">
         <v>2</v>
       </c>
-      <c r="Q59" s="16">
-        <v>2</v>
-      </c>
-      <c r="R59" s="49">
-        <v>0</v>
-      </c>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="44"/>
+      <c r="AA59" s="44"/>
+      <c r="AB59" s="44"/>
+      <c r="AC59" s="44"/>
+      <c r="AD59" s="44"/>
+      <c r="AE59" s="44"/>
+      <c r="AF59" s="44"/>
+      <c r="AG59" s="44"/>
+      <c r="AH59" s="44"/>
+      <c r="AI59" s="44"/>
+      <c r="AJ59" s="44"/>
+      <c r="AK59" s="44"/>
+      <c r="AL59" s="44"/>
+      <c r="AM59" s="44"/>
+      <c r="AN59" s="44"/>
+      <c r="AO59" s="44"/>
+      <c r="AP59" s="47"/>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:42">
       <c r="A60" s="3" t="s">
         <v>86</v>
       </c>
@@ -5513,26 +7754,40 @@
       <c r="N60" s="16">
         <v>72</v>
       </c>
-      <c r="O60" s="16">
-        <v>25</v>
+      <c r="O60" s="54">
+        <v>0</v>
       </c>
       <c r="P60" s="16">
         <v>25</v>
       </c>
-      <c r="Q60" s="16">
-        <v>25</v>
-      </c>
-      <c r="R60" s="49">
-        <v>0</v>
-      </c>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="44"/>
+      <c r="AA60" s="44"/>
+      <c r="AB60" s="44"/>
+      <c r="AC60" s="44"/>
+      <c r="AD60" s="44"/>
+      <c r="AE60" s="44"/>
+      <c r="AF60" s="44"/>
+      <c r="AG60" s="44"/>
+      <c r="AH60" s="44"/>
+      <c r="AI60" s="44"/>
+      <c r="AJ60" s="44"/>
+      <c r="AK60" s="44"/>
+      <c r="AL60" s="44"/>
+      <c r="AM60" s="44"/>
+      <c r="AN60" s="44"/>
+      <c r="AO60" s="44"/>
+      <c r="AP60" s="47"/>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:42">
       <c r="A61" s="3" t="s">
         <v>87</v>
       </c>
@@ -5575,26 +7830,40 @@
       <c r="N61" s="16">
         <v>48</v>
       </c>
-      <c r="O61" s="16">
-        <v>5</v>
+      <c r="O61" s="54">
+        <v>0</v>
       </c>
       <c r="P61" s="16">
         <v>5</v>
       </c>
-      <c r="Q61" s="16">
-        <v>5</v>
-      </c>
-      <c r="R61" s="49">
-        <v>0</v>
-      </c>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="44"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="44"/>
+      <c r="Z61" s="44"/>
+      <c r="AA61" s="44"/>
+      <c r="AB61" s="44"/>
+      <c r="AC61" s="44"/>
+      <c r="AD61" s="44"/>
+      <c r="AE61" s="44"/>
+      <c r="AF61" s="44"/>
+      <c r="AG61" s="44"/>
+      <c r="AH61" s="44"/>
+      <c r="AI61" s="44"/>
+      <c r="AJ61" s="44"/>
+      <c r="AK61" s="44"/>
+      <c r="AL61" s="44"/>
+      <c r="AM61" s="44"/>
+      <c r="AN61" s="44"/>
+      <c r="AO61" s="44"/>
+      <c r="AP61" s="47"/>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:42">
       <c r="A62" s="3" t="s">
         <v>88</v>
       </c>
@@ -5637,26 +7906,40 @@
       <c r="N62" s="16">
         <v>120</v>
       </c>
-      <c r="O62" s="16">
-        <v>40</v>
+      <c r="O62" s="54">
+        <v>0</v>
       </c>
       <c r="P62" s="16">
         <v>40</v>
       </c>
-      <c r="Q62" s="16">
-        <v>40</v>
-      </c>
-      <c r="R62" s="49">
-        <v>0</v>
-      </c>
-      <c r="S62" s="35"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="35"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="44"/>
+      <c r="X62" s="44"/>
+      <c r="Y62" s="44"/>
+      <c r="Z62" s="44"/>
+      <c r="AA62" s="44"/>
+      <c r="AB62" s="44"/>
+      <c r="AC62" s="44"/>
+      <c r="AD62" s="44"/>
+      <c r="AE62" s="44"/>
+      <c r="AF62" s="44"/>
+      <c r="AG62" s="44"/>
+      <c r="AH62" s="44"/>
+      <c r="AI62" s="44"/>
+      <c r="AJ62" s="44"/>
+      <c r="AK62" s="44"/>
+      <c r="AL62" s="44"/>
+      <c r="AM62" s="44"/>
+      <c r="AN62" s="44"/>
+      <c r="AO62" s="44"/>
+      <c r="AP62" s="47"/>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:42">
       <c r="A63" s="2" t="s">
         <v>39</v>
       </c>
@@ -5699,26 +7982,40 @@
       <c r="N63" s="15">
         <v>720</v>
       </c>
-      <c r="O63" s="16">
+      <c r="O63" s="54">
         <v>0</v>
       </c>
       <c r="P63" s="16">
         <v>0</v>
       </c>
-      <c r="Q63" s="16">
-        <v>0</v>
-      </c>
-      <c r="R63" s="49">
-        <v>0</v>
-      </c>
-      <c r="S63" s="35"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="35"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="44"/>
+      <c r="AD63" s="44"/>
+      <c r="AE63" s="44"/>
+      <c r="AF63" s="44"/>
+      <c r="AG63" s="44"/>
+      <c r="AH63" s="44"/>
+      <c r="AI63" s="44"/>
+      <c r="AJ63" s="44"/>
+      <c r="AK63" s="44"/>
+      <c r="AL63" s="44"/>
+      <c r="AM63" s="44"/>
+      <c r="AN63" s="44"/>
+      <c r="AO63" s="44"/>
+      <c r="AP63" s="47"/>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:42">
       <c r="A64" s="25" t="s">
         <v>178</v>
       </c>
@@ -5764,23 +8061,37 @@
       <c r="O64" s="41">
         <v>0</v>
       </c>
-      <c r="P64" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="43">
-        <v>0</v>
-      </c>
-      <c r="R64" s="51">
-        <v>0</v>
-      </c>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
+      <c r="P64" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="44"/>
+      <c r="AD64" s="44"/>
+      <c r="AE64" s="44"/>
+      <c r="AF64" s="44"/>
+      <c r="AG64" s="44"/>
+      <c r="AH64" s="44"/>
+      <c r="AI64" s="44"/>
+      <c r="AJ64" s="44"/>
+      <c r="AK64" s="44"/>
+      <c r="AL64" s="44"/>
+      <c r="AM64" s="44"/>
+      <c r="AN64" s="44"/>
+      <c r="AO64" s="44"/>
+      <c r="AP64" s="47"/>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:42">
       <c r="A65" s="3" t="s">
         <v>45</v>
       </c>
@@ -5823,26 +8134,40 @@
       <c r="N65" s="16">
         <v>0</v>
       </c>
-      <c r="O65" s="16">
+      <c r="O65" s="54">
         <v>0</v>
       </c>
       <c r="P65" s="16">
         <v>0</v>
       </c>
-      <c r="Q65" s="16">
-        <v>0</v>
-      </c>
-      <c r="R65" s="49">
-        <v>0</v>
-      </c>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
+      <c r="Y65" s="44"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="44"/>
+      <c r="AD65" s="44"/>
+      <c r="AE65" s="44"/>
+      <c r="AF65" s="44"/>
+      <c r="AG65" s="44"/>
+      <c r="AH65" s="44"/>
+      <c r="AI65" s="44"/>
+      <c r="AJ65" s="44"/>
+      <c r="AK65" s="44"/>
+      <c r="AL65" s="44"/>
+      <c r="AM65" s="44"/>
+      <c r="AN65" s="44"/>
+      <c r="AO65" s="44"/>
+      <c r="AP65" s="47"/>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:42">
       <c r="A66" s="2" t="s">
         <v>44</v>
       </c>
@@ -5885,26 +8210,40 @@
       <c r="N66" s="15">
         <v>0</v>
       </c>
-      <c r="O66" s="16">
+      <c r="O66" s="54">
         <v>0</v>
       </c>
       <c r="P66" s="16">
         <v>0</v>
       </c>
-      <c r="Q66" s="16">
-        <v>0</v>
-      </c>
-      <c r="R66" s="49">
-        <v>0</v>
-      </c>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="44"/>
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="44"/>
+      <c r="Z66" s="44"/>
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="44"/>
+      <c r="AC66" s="44"/>
+      <c r="AD66" s="44"/>
+      <c r="AE66" s="44"/>
+      <c r="AF66" s="44"/>
+      <c r="AG66" s="44"/>
+      <c r="AH66" s="44"/>
+      <c r="AI66" s="44"/>
+      <c r="AJ66" s="44"/>
+      <c r="AK66" s="44"/>
+      <c r="AL66" s="44"/>
+      <c r="AM66" s="44"/>
+      <c r="AN66" s="44"/>
+      <c r="AO66" s="44"/>
+      <c r="AP66" s="47"/>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:42">
       <c r="A67" s="2" t="s">
         <v>41</v>
       </c>
@@ -5947,26 +8286,40 @@
       <c r="N67" s="15">
         <v>0</v>
       </c>
-      <c r="O67" s="16">
+      <c r="O67" s="54">
         <v>0</v>
       </c>
       <c r="P67" s="16">
         <v>0</v>
       </c>
-      <c r="Q67" s="16">
-        <v>0</v>
-      </c>
-      <c r="R67" s="49">
-        <v>0</v>
-      </c>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
+      <c r="AB67" s="44"/>
+      <c r="AC67" s="44"/>
+      <c r="AD67" s="44"/>
+      <c r="AE67" s="44"/>
+      <c r="AF67" s="44"/>
+      <c r="AG67" s="44"/>
+      <c r="AH67" s="44"/>
+      <c r="AI67" s="44"/>
+      <c r="AJ67" s="44"/>
+      <c r="AK67" s="44"/>
+      <c r="AL67" s="44"/>
+      <c r="AM67" s="44"/>
+      <c r="AN67" s="44"/>
+      <c r="AO67" s="44"/>
+      <c r="AP67" s="47"/>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:42">
       <c r="A68" s="3" t="s">
         <v>42</v>
       </c>
@@ -6009,26 +8362,40 @@
       <c r="N68" s="16">
         <v>0</v>
       </c>
-      <c r="O68" s="16">
+      <c r="O68" s="54">
         <v>0</v>
       </c>
       <c r="P68" s="16">
         <v>0</v>
       </c>
-      <c r="Q68" s="16">
-        <v>0</v>
-      </c>
-      <c r="R68" s="49">
-        <v>0</v>
-      </c>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="44"/>
+      <c r="X68" s="44"/>
+      <c r="Y68" s="44"/>
+      <c r="Z68" s="44"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="44"/>
+      <c r="AD68" s="44"/>
+      <c r="AE68" s="44"/>
+      <c r="AF68" s="44"/>
+      <c r="AG68" s="44"/>
+      <c r="AH68" s="44"/>
+      <c r="AI68" s="44"/>
+      <c r="AJ68" s="44"/>
+      <c r="AK68" s="44"/>
+      <c r="AL68" s="44"/>
+      <c r="AM68" s="44"/>
+      <c r="AN68" s="44"/>
+      <c r="AO68" s="44"/>
+      <c r="AP68" s="47"/>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:42">
       <c r="A69" s="2" t="s">
         <v>34</v>
       </c>
@@ -6071,26 +8438,40 @@
       <c r="N69" s="15">
         <v>48</v>
       </c>
-      <c r="O69" s="16">
-        <v>20</v>
+      <c r="O69" s="54">
+        <v>0</v>
       </c>
       <c r="P69" s="16">
         <v>20</v>
       </c>
-      <c r="Q69" s="16">
-        <v>20</v>
-      </c>
-      <c r="R69" s="49">
-        <v>0</v>
-      </c>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="44"/>
+      <c r="V69" s="44"/>
+      <c r="W69" s="44"/>
+      <c r="X69" s="44"/>
+      <c r="Y69" s="44"/>
+      <c r="Z69" s="44"/>
+      <c r="AA69" s="44"/>
+      <c r="AB69" s="44"/>
+      <c r="AC69" s="44"/>
+      <c r="AD69" s="44"/>
+      <c r="AE69" s="44"/>
+      <c r="AF69" s="44"/>
+      <c r="AG69" s="44"/>
+      <c r="AH69" s="44"/>
+      <c r="AI69" s="44"/>
+      <c r="AJ69" s="44"/>
+      <c r="AK69" s="44"/>
+      <c r="AL69" s="44"/>
+      <c r="AM69" s="44"/>
+      <c r="AN69" s="44"/>
+      <c r="AO69" s="44"/>
+      <c r="AP69" s="47"/>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:42">
       <c r="A70" s="3" t="s">
         <v>36</v>
       </c>
@@ -6133,26 +8514,40 @@
       <c r="N70" s="16">
         <v>48</v>
       </c>
-      <c r="O70" s="16">
-        <v>40</v>
+      <c r="O70" s="54">
+        <v>0</v>
       </c>
       <c r="P70" s="16">
         <v>40</v>
       </c>
-      <c r="Q70" s="16">
-        <v>40</v>
-      </c>
-      <c r="R70" s="49">
-        <v>0</v>
-      </c>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="44"/>
+      <c r="X70" s="44"/>
+      <c r="Y70" s="44"/>
+      <c r="Z70" s="44"/>
+      <c r="AA70" s="44"/>
+      <c r="AB70" s="44"/>
+      <c r="AC70" s="44"/>
+      <c r="AD70" s="44"/>
+      <c r="AE70" s="44"/>
+      <c r="AF70" s="44"/>
+      <c r="AG70" s="44"/>
+      <c r="AH70" s="44"/>
+      <c r="AI70" s="44"/>
+      <c r="AJ70" s="44"/>
+      <c r="AK70" s="44"/>
+      <c r="AL70" s="44"/>
+      <c r="AM70" s="44"/>
+      <c r="AN70" s="44"/>
+      <c r="AO70" s="44"/>
+      <c r="AP70" s="47"/>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:42">
       <c r="A71" s="30" t="s">
         <v>164</v>
       </c>
@@ -6192,33 +8587,47 @@
       <c r="M71" s="32">
         <v>0</v>
       </c>
-      <c r="N71" s="40">
+      <c r="N71" s="56">
         <v>0</v>
       </c>
       <c r="O71" s="42">
         <v>0</v>
       </c>
-      <c r="P71" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="44">
-        <v>0</v>
-      </c>
-      <c r="R71" s="52">
-        <v>0</v>
-      </c>
-      <c r="S71" s="37"/>
-      <c r="T71" s="37"/>
-      <c r="U71" s="37"/>
-      <c r="V71" s="37"/>
-      <c r="W71" s="37"/>
-      <c r="X71" s="37"/>
+      <c r="P71" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="46"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="46"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="46"/>
+      <c r="X71" s="46"/>
+      <c r="Y71" s="46"/>
+      <c r="Z71" s="46"/>
+      <c r="AA71" s="46"/>
+      <c r="AB71" s="46"/>
+      <c r="AC71" s="46"/>
+      <c r="AD71" s="46"/>
+      <c r="AE71" s="46"/>
+      <c r="AF71" s="46"/>
+      <c r="AG71" s="46"/>
+      <c r="AH71" s="46"/>
+      <c r="AI71" s="46"/>
+      <c r="AJ71" s="46"/>
+      <c r="AK71" s="46"/>
+      <c r="AL71" s="46"/>
+      <c r="AM71" s="46"/>
+      <c r="AN71" s="46"/>
+      <c r="AO71" s="46"/>
+      <c r="AP71" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="P30" numberStoredAsText="1"/>
+    <ignoredError sqref="AM8" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="246">
   <si>
     <t>Name</t>
   </si>
@@ -645,9 +645,6 @@
     <t>Dashes in a straight line, stunning any enemies in the way. Pick up special gems for extra bonuses!</t>
   </si>
   <si>
-    <t>2+4</t>
-  </si>
-  <si>
     <t>1+3</t>
   </si>
   <si>
@@ -750,7 +747,13 @@
     <t>-1</t>
   </si>
   <si>
-    <t>120-1</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>1+4</t>
+  </si>
+  <si>
+    <t>4+4</t>
   </si>
 </sst>
 </file>
@@ -1113,54 +1116,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2305,17 +2260,65 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thick">
           <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2750,13 +2753,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:AP71" tableType="xml" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="33" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A2:AP71" tableType="xml" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31">
   <autoFilter ref="A2:AP71"/>
   <tableColumns count="42">
     <tableColumn id="1" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="32">
+    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="30">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Description" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="Availability" name="Availability">
@@ -2783,10 +2786,10 @@
     <tableColumn id="10" uniqueName="Exist" name="Exist">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Exist" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Min" name="Min" dataDxfId="31">
+    <tableColumn id="11" uniqueName="Min" name="Min" dataDxfId="29">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Min" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Max" name="Max" dataDxfId="30">
+    <tableColumn id="12" uniqueName="Max" name="Max" dataDxfId="28">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Max" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="Range" name="Range">
@@ -2795,88 +2798,88 @@
     <tableColumn id="14" uniqueName="Cooldown" name="Cooldown">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Cooldown" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="Correct" name="Correct" dataDxfId="29">
+    <tableColumn id="15" uniqueName="Correct" name="Correct" dataDxfId="27">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Correct" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="Damage" name="Damage" dataDxfId="28">
+    <tableColumn id="16" uniqueName="Damage" name="Damage" dataDxfId="26">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/Damage" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="EquipStatBuff" name="EquipStatBuff" dataDxfId="27">
+    <tableColumn id="17" uniqueName="EquipStatBuff" name="EquipStatBuff" dataDxfId="25">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/EquipStatBuff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="BonusDuration" name="BonusDuration" dataDxfId="26">
+    <tableColumn id="18" uniqueName="BonusDuration" name="BonusDuration" dataDxfId="24">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/BonusDuration" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="19" uniqueName="HPLump" name="HPLump" dataDxfId="25">
+    <tableColumn id="19" uniqueName="HPLump" name="HPLump" dataDxfId="23">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/HPLump" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="20" uniqueName="HPPerc" name="HPPerc" dataDxfId="24">
+    <tableColumn id="20" uniqueName="HPPerc" name="HPPerc" dataDxfId="22">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/HPPerc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="21" uniqueName="APLump" name="APLump" dataDxfId="23">
+    <tableColumn id="21" uniqueName="APLump" name="APLump" dataDxfId="21">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/APLump" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="22" uniqueName="APPerc" name="APPerc" dataDxfId="22">
+    <tableColumn id="22" uniqueName="APPerc" name="APPerc" dataDxfId="20">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/APPerc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="23" uniqueName="DPLump" name="DPLump" dataDxfId="21">
+    <tableColumn id="23" uniqueName="DPLump" name="DPLump" dataDxfId="19">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/DPLump" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="24" uniqueName="DPPerc" name="DPPerc" dataDxfId="20">
+    <tableColumn id="24" uniqueName="DPPerc" name="DPPerc" dataDxfId="18">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/DPPerc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="25" uniqueName="SPLump" name="SPLump" dataDxfId="19">
+    <tableColumn id="25" uniqueName="SPLump" name="SPLump" dataDxfId="17">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SPLump" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="26" uniqueName="SPPerc" name="SPPerc" dataDxfId="18">
+    <tableColumn id="26" uniqueName="SPPerc" name="SPPerc" dataDxfId="16">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SPPerc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="27" uniqueName="RangeLump" name="RangeLump" dataDxfId="17">
+    <tableColumn id="27" uniqueName="RangeLump" name="RangeLump" dataDxfId="15">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RangeLump" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="28" uniqueName="RangePerc" name="RangePerc" dataDxfId="16">
+    <tableColumn id="28" uniqueName="RangePerc" name="RangePerc" dataDxfId="14">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RangePerc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="29" uniqueName="CDLump" name="CDLump" dataDxfId="15">
+    <tableColumn id="29" uniqueName="CDLump" name="CDLump" dataDxfId="13">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/CDLump" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="30" uniqueName="CDPerc" name="CDPerc" dataDxfId="14">
+    <tableColumn id="30" uniqueName="CDPerc" name="CDPerc" dataDxfId="12">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/CDPerc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="31" uniqueName="EquipDebuff" name="EquipDebuff" dataDxfId="13">
+    <tableColumn id="31" uniqueName="EquipDebuff" name="EquipDebuff" dataDxfId="11">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/EquipDebuff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="32" uniqueName="StunDuration" name="StunDuration" dataDxfId="12">
+    <tableColumn id="32" uniqueName="StunDuration" name="StunDuration" dataDxfId="10">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/StunDuration" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="33" uniqueName="SlowDuration" name="SlowDuration" dataDxfId="11">
+    <tableColumn id="33" uniqueName="SlowDuration" name="SlowDuration" dataDxfId="9">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SlowDuration" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="34" uniqueName="SlowPerc" name="SlowPerc" dataDxfId="10">
+    <tableColumn id="34" uniqueName="SlowPerc" name="SlowPerc" dataDxfId="8">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SlowPerc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="35" uniqueName="SickDuration" name="SickDuration" dataDxfId="9">
+    <tableColumn id="35" uniqueName="SickDuration" name="SickDuration" dataDxfId="7">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SickDuration" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="36" uniqueName="SickPerc" name="SickPerc" dataDxfId="8">
+    <tableColumn id="36" uniqueName="SickPerc" name="SickPerc" dataDxfId="6">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SickPerc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="37" uniqueName="SickTime" name="SickTime" dataDxfId="7">
+    <tableColumn id="37" uniqueName="SickTime" name="SickTime" dataDxfId="5">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/SickTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="38" uniqueName="ExhaustDuration" name="ExhaustDuration" dataDxfId="6">
+    <tableColumn id="38" uniqueName="ExhaustDuration" name="ExhaustDuration" dataDxfId="4">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/ExhaustDuration" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="39" uniqueName="RegenDuration" name="RegenDuration" dataDxfId="5">
+    <tableColumn id="39" uniqueName="RegenDuration" name="RegenDuration" dataDxfId="3">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RegenDuration" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="40" uniqueName="RegenLump" name="RegenLump" dataDxfId="4">
+    <tableColumn id="40" uniqueName="RegenLump" name="RegenLump" dataDxfId="2">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RegenLump" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="41" uniqueName="RegenPerc" name="RegenPerc" dataDxfId="3">
+    <tableColumn id="41" uniqueName="RegenPerc" name="RegenPerc" dataDxfId="1">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RegenPerc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="42" uniqueName="RegenTime" name="RegenTime" dataDxfId="2">
+    <tableColumn id="42" uniqueName="RegenTime" name="RegenTime" dataDxfId="0">
       <xmlColumnPr mapId="41" xpath="/Abilities/Ability/RegenTime" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3172,8 +3175,8 @@
   <dimension ref="A1:AP71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AH1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AO9" sqref="AO9"/>
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3289,82 +3292,82 @@
         <v>47</v>
       </c>
       <c r="Q2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z2" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD2" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE2" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="S2" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="U2" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y2" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z2" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA2" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB2" s="34" t="s">
+      <c r="AF2" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="AC2" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD2" s="34" t="s">
+      <c r="AG2" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH2" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI2" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ2" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK2" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="AE2" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF2" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AL2" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="AH2" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI2" s="57" t="s">
+      <c r="AM2" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="AJ2" s="34" t="s">
+      <c r="AN2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="AK2" s="34" t="s">
+      <c r="AO2" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP2" s="48" t="s">
         <v>232</v>
-      </c>
-      <c r="AL2" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM2" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN2" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="AO2" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="AP2" s="48" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="15.75" thickTop="1">
@@ -3754,7 +3757,7 @@
         <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>56</v>
@@ -3796,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R8" s="16"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
       <c r="U8" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V8" s="44"/>
       <c r="W8" s="44"/>
@@ -3816,7 +3819,9 @@
       <c r="AB8" s="44"/>
       <c r="AC8" s="44"/>
       <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
+      <c r="AE8" s="44" t="s">
+        <v>241</v>
+      </c>
       <c r="AF8" s="44"/>
       <c r="AG8" s="44"/>
       <c r="AH8" s="47"/>
@@ -3824,15 +3829,15 @@
       <c r="AJ8" s="44"/>
       <c r="AK8" s="44"/>
       <c r="AL8" s="44"/>
-      <c r="AM8" s="58" t="s">
-        <v>243</v>
+      <c r="AM8" s="58">
+        <v>-1</v>
       </c>
       <c r="AN8" s="44"/>
       <c r="AO8" s="44" t="s">
         <v>126</v>
       </c>
       <c r="AP8" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -4752,7 +4757,7 @@
         <v>90</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>60</v>
@@ -4794,11 +4799,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
-      <c r="S21" s="44"/>
+      <c r="S21" s="44" t="s">
+        <v>245</v>
+      </c>
       <c r="T21" s="44"/>
       <c r="U21" s="44"/>
       <c r="V21" s="44"/>
@@ -4810,7 +4817,9 @@
       <c r="AB21" s="44"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
+      <c r="AE21" s="44" t="s">
+        <v>241</v>
+      </c>
       <c r="AF21" s="44"/>
       <c r="AG21" s="44"/>
       <c r="AH21" s="44"/>
@@ -4819,9 +4828,13 @@
       <c r="AK21" s="44"/>
       <c r="AL21" s="44"/>
       <c r="AM21" s="44"/>
-      <c r="AN21" s="44"/>
+      <c r="AN21" s="44" t="s">
+        <v>245</v>
+      </c>
       <c r="AO21" s="44"/>
-      <c r="AP21" s="47"/>
+      <c r="AP21" s="47" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="22" spans="1:42">
       <c r="A22" s="10" t="s">
@@ -5436,7 +5449,7 @@
         <v>206</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>10</v>
@@ -5477,9 +5490,7 @@
       <c r="O30" s="53">
         <v>0</v>
       </c>
-      <c r="P30" s="14" t="s">
-        <v>209</v>
-      </c>
+      <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="44"/>
@@ -5494,7 +5505,9 @@
       <c r="AB30" s="44"/>
       <c r="AC30" s="44"/>
       <c r="AD30" s="44"/>
-      <c r="AE30" s="44"/>
+      <c r="AE30" s="44" t="s">
+        <v>241</v>
+      </c>
       <c r="AF30" s="44"/>
       <c r="AG30" s="44"/>
       <c r="AH30" s="44"/>
@@ -5502,10 +5515,16 @@
       <c r="AJ30" s="44"/>
       <c r="AK30" s="44"/>
       <c r="AL30" s="44"/>
-      <c r="AM30" s="44"/>
-      <c r="AN30" s="44"/>
+      <c r="AM30" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="AN30" s="44" t="s">
+        <v>244</v>
+      </c>
       <c r="AO30" s="44"/>
-      <c r="AP30" s="47"/>
+      <c r="AP30" s="47" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="31" spans="1:42">
       <c r="A31" s="3" t="s">
@@ -8626,9 +8645,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="AM8" numberStoredAsText="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/xml/Abilities.xlsx
+++ b/xml/Abilities.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="247">
   <si>
     <t>Name</t>
   </si>
@@ -754,6 +754,9 @@
   </si>
   <si>
     <t>4+4</t>
+  </si>
+  <si>
+    <t>48+1</t>
   </si>
 </sst>
 </file>
@@ -3175,8 +3178,8 @@
   <dimension ref="A1:AP71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S22" sqref="S22"/>
+      <pane xSplit="1" topLeftCell="AF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3904,7 +3907,9 @@
       <c r="AC9" s="44"/>
       <c r="AD9" s="44"/>
       <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
+      <c r="AF9" s="44" t="s">
+        <v>246</v>
+      </c>
       <c r="AG9" s="44"/>
       <c r="AH9" s="47"/>
       <c r="AI9" s="39"/>
@@ -5493,7 +5498,9 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
-      <c r="S30" s="44"/>
+      <c r="S30" s="44" t="s">
+        <v>244</v>
+      </c>
       <c r="T30" s="44"/>
       <c r="U30" s="44"/>
       <c r="V30" s="44"/>
